--- a/test.xlsx
+++ b/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,69 +488,7775 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., 40 лет Победы ул.1; Нижний Новгород г., 30 лет Октября ул.2; Нижний Новгород г., 40 лет Октября ул.1А; Нижний Новгород г., 40 лет Октября ул.15 к2; Нижний Новгород г., 40 лет Октября ул.7Б; Нижний Новгород г., 40 лет Октября ул.15к1; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., 5а; </t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>37.27961162403488</v>
+        <v>0.1945603420592875</v>
       </c>
       <c r="E2" t="n">
-        <v>44.73553394884186</v>
+        <v>0.233472410471145</v>
       </c>
       <c r="F2" t="n">
-        <v>38.96490868134973</v>
+        <v>7.203878434943561</v>
       </c>
       <c r="G2" t="n">
-        <v>46.75789041761967</v>
-      </c>
-      <c r="H2" t="n">
-        <v>135.6065596430815</v>
-      </c>
+        <v>8.644654121932273</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>88.20152887013116</v>
+        <v>7.398438777002848</v>
       </c>
       <c r="J2" t="n">
-        <v>31.9</v>
+        <v>0.01915068493150685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., 2-й Осташковский пер.1; Нижний Новгород г., 40 лет Октября ул.26/1; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пыра п., Лесной Кардон, д.7; </t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1945603420592875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.233472410471145</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.967332080430375</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.560798496516451</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>27.26581397803934</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01276712328767123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.9; Дзержинск г., , д.; Дзержинск г., Игумновское ш.11Д; Дзержинск г., Игумновское ш.15; Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.32а; Дзержинск г., Новомосковская ул.14А; Дзержинск г., Советская ул.7; Дзержинск г., Новомосковская ул.10; Дзержинск г., Советская ул.5; Дзержинск г., Чкалова пр-т51А; Дзержинск г., Чкалова пр-т53; Дзержинск г., Чкалова пр-т55; Дзержинск г., Чкалова пр-т56; Дзержинск г., Чкалова пр-т52; Дзержинск г., Новомосковская ул.8; Дзержинск г., Чкалова пр-т54; Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.10; Городской округ Дзержинск р-н, Гнилицкие дворики п., 19Г; Городской округ Дзержинск р-н, Гнилицкие дворики п., 19б; Городской округ Дзержинск р-н, Гнилицкие дворики п., 19а; </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.203878434943561</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.644654121932273</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.46307455739642</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.7556894688757</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>87.34559479690486</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37.96638356164384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Пирогова ул.34; </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.06165933873866</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.27399120648639</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.46307455739642</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.7556894688757</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>36.17113570009139</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.03191780821917808</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Пирогова ул.35А; Дзержинск г., Пирогова ул.35В; Дзержинск г., Пирогова ул.36А; Дзержинск г., Чкалова пр-т48Б; Дзержинск г., Чкалова пр-т48А; Дзержинск г., Чкалова пр-т49; Дзержинск г., Чкалова пр-т47; Дзержинск г., Чкалова пр-т29; Дзержинск г., Чкалова пр-т49; Дзержинск г., Чапаева ул.22А; Дзержинск г., Чкалова пр-т, д.50а; Дзержинск г., Николая Гастелло ул.13; Дзержинск г., Панфиловцев ул.9; Дзержинск г., Александра Матросова ул.25; Дзержинск г., Молодежная ул.15А; Дзержинск г., Молодежная ул.12; Дзержинск г., Советская ул.11А; Дзержинск г., Советская ул.11; Дзержинск г., Советская ул.10Л; Дзержинск г., Советская ул.11В; Дзержинск г., Чкалова пр-т27; Дзержинск г., Чкалова пр-т, д.26; Дзержинск г., Чкалова пр-т, д.26; Дзержинск г., Чкалова пр-т28; Дзержинск г., Чапаева ул.26; Дзержинск г., Александра Матросова ул.7А; Дзержинск г., Александра Матросова ул.6Е; Дзержинск г., Пирогова ул.30; Дзержинск г., Пирогова ул.31А; Дзержинск г., Пирогова ул.14; </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.46307455739642</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.7556894688757</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.97344203478716</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.36813044174459</v>
+      </c>
+      <c r="H6" t="n">
+        <v>119.2940278566691</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.89374049922582</v>
+      </c>
+      <c r="J6" t="n">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Пирогова ул.32А, 34А; Дзержинск г., Ватутина ул.25А; Дзержинск г., Ватутина ул.36А; Дзержинск г., Чкалова пр-т, д.6; Дзержинск г., Чапаева ул.22; Дзержинск г., Чапаева ул.10; Дзержинск г., Чапаева ул.33; Дзержинск г., Чапаева ул.37; Дзержинск г., Александра Матросова ул.32; Дзержинск г., Александра Матросова ул.34; Дзержинск г., Николая Гастелло ул.14; Дзержинск г., Николая Гастелло ул.8; Дзержинск г., Ватутина ул.38; Дзержинск г., Николая Гастелло ул.9; Дзержинск г., Николая Гастелло ул.5; Дзержинск г., Ватутина ул.29; Дзержинск г., Ватутина ул.46; Дзержинск г., Маяковского ул.20Г; Дзержинск г., Пирогова ул.11; Дзержинск г., Чапаева ул.6; Дзержинск г., Пирогова ул.21А; Дзержинск г., Александра Матросова ул.55; Дзержинск г., Маяковского ул.15; Дзержинск г., Чапаева ул.47А; Дзержинск г., Ватутина ул.66А; Дзержинск г., Молодежная ул.7; Дзержинск г., Александра Матросова ул.57; Дзержинск г., Молодежная ул.6/38; Дзержинск г., Чапаева ул.66; </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.97344203478716</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.36813044174459</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.309184778295</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.771021733954</v>
+      </c>
+      <c r="H7" t="n">
+        <v>139.5643774423924</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34.79248692440922</v>
+      </c>
+      <c r="J7" t="n">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Молодежная ул.3; Дзержинск г., Александра Матросова ул.1А; Дзержинск г., Александра Матросова ул.1А; Дзержинск г., Водозаборная ул.1; Дзержинск г., Молодежная ул., д.8; Дзержинск г., Молодежная ул.12А; Дзержинск г., Молодежная ул.10А; Дзержинск г., Народная ул.40; Дзержинск г., Чапаева ул.56; Дзержинск г., Пирогова ул.3; Дзержинск г., Пирогова ул.5; Дзержинск г., Ватутина ул.13; Дзержинск г., Молодежная ул.1А; Дзержинск г., Черняховского ул.52; Дзержинск г., Маяковского ул.5; Дзержинск г., Николая Гастелло ул.3; Дзержинск г., Маяковского ул.10; Дзержинск г., Водозаборная ул.7; Дзержинск г., Гагарина ул.21; Дзержинск г., Маяковского ул.2; Дзержинск г., Ватутина ул.76А; Дзержинск г., Дзержинского пр-т36; Дзержинск г., Чапаева ул.73; Дзержинск г., Чапаева ул.70; Дзержинск г., Чапаева ул.76; Дзержинск г., Ватутина ул.78; Дзержинск г., Маяковского ул.17; Дзержинск г., Революции ул.2; Дзержинск г., Маяковского ул.19; </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.309184778295</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.771021733954</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.74866267034248</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.29839520441098</v>
+      </c>
+      <c r="H8" t="n">
+        <v>181.3847170178777</v>
+      </c>
+      <c r="I8" t="n">
+        <v>49.5401903210565</v>
+      </c>
+      <c r="J8" t="n">
+        <v>74.42000000000002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Чапаева ул.71; Дзержинск г., Чапаева ул.71; Дзержинск г., Пирогова ул.1/2; Дзержинск г., Дзержинского пл.1; Дзержинск г., Черняховского ул.48; Дзержинск г., Гагарина ул.9; Дзержинск г., Дзержинского пр-т24; Дзержинск г., Чапаева ул.69/2; Дзержинск г., Дзержинского пр-т10; Дзержинск г., Маяковского ул.23Б; Дзержинск г., Маяковского ул.23; Дзержинск г., Грибоедова ул.2; Дзержинск г., Ленина пр-т71; Дзержинск г., Ленина пр-т67; Дзержинск г., Дзержинского пр-т5; Дзержинск г., Маяковского пл.1; Дзержинск г., Ленина пр-т65; Дзержинск г., Клюквина ул.11; Дзержинск г., Дзержинского пр-т14; Дзержинск г., Кирова пр-т11; Дзержинск г., Кирова пр-т16; Дзержинск г., Дзержинского пр-т18; Дзержинск г., Дзержинского пр-т21; Дзержинск г., Маяковского ул.27; Дзержинск г., Мира б-р.6; Дзержинск г., Островского ул.14; Дзержинск г., Грибоедова ул.7; Дзержинск г., Бутлерова ул.10; Дзержинск г., Комбрига Патоличева ул.34; Дзержинск г., Грибоедова ул.3Б; </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.73371544129176</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.28045852955011</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.13507467691401</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15.76208961229682</v>
+      </c>
+      <c r="H9" t="n">
+        <v>184.9346621273895</v>
+      </c>
+      <c r="I9" t="n">
+        <v>51.69796909526337</v>
+      </c>
+      <c r="J9" t="n">
+        <v>72.15999999999998</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Ленина пр-т61; Дзержинск г., Победы б-р.2А; Дзержинск г., Ленина пр-т57; Дзержинск г., Учебный пер.5А; Дзержинск г., Черняховского ул.25; Дзержинск г., Ленина пр-т77А; Дзержинск г., Мира б-р.8; Дзержинск г., Мира б-р.14; Дзержинск г., Гайдара ул.12/21; Дзержинск г., Аркадия Гайдара ул., д.11/23; Дзержинск г., Бутлерова ул.12; Дзержинск г., Ленина пр-т.81/5; Дзержинск г., Ленина пр-т83; Дзержинск г., Победы б-р.16А; Дзержинск г., Островского ул.1; Дзержинск г., Островского ул.4А; Дзержинск г., Ленина пр-т.66; Дзержинск г., Ленина пр-т64; Дзержинск г., Ленина пр-т.85; Дзержинск г., Ленина пр-т.85; Дзержинск г., Ленина пр-т95А; Дзержинск г., Ленина пр-т95; Дзержинск г., Черняховского ул.23; Дзержинск г., Ленина пр-т84; Дзержинск г., Урицкого ул.4А; Дзержинск г., Циолковского пр-т.1; Дзержинск г., Урицкого ул.4; Дзержинск г., Ленина пр-т38; Дзержинск г., Гайдара ул.16; Дзержинск г., Ленина пр-т37; Дзержинск г., Студенческая ул.34А; Дзержинск г., Студенческая ул.32б; Дзержинск г., Ленина пр-т36А; Дзержинск г., Ленина пр-т., д.34; Дзержинск г., Ленина пр-т30А; Дзержинск г., Гайдара ул.26А; Дзержинск г., Ленина пр-т.30; </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.06199923749111</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.67439908498933</v>
+      </c>
+      <c r="F10" t="n">
+        <v>13.52320119582862</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.22784143499435</v>
+      </c>
+      <c r="H10" t="n">
+        <v>194.7322774738081</v>
+      </c>
+      <c r="I10" t="n">
+        <v>55.43782656292601</v>
+      </c>
+      <c r="J10" t="n">
+        <v>72.77999999999997</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Ленина пр-т38А; Дзержинск г., Мира б-р.20; Дзержинск г., Ленина пр-т.49/кп1; Дзержинск г., Ленина пр-т., д.49; Дзержинск г., Победы б-р.18; Дзержинск г., Ленина пр-т56А; Дзержинск г., Победы б-р.18А; Дзержинск г., Победы б-р.16; Дзержинск г., Победы б-р.6; Дзержинск г., Бутлерова ул.27Б; Дзержинск г., Пожарского ул.9; Дзержинск г., Пожарского ул.5; Дзержинск г., Ленина пр-т13Б; Дзержинск г., Пожарского ул.4; Дзержинск г., Пожарского ул.6; Дзержинск г., Победы б-р.17А; Дзержинск г., Победы б-р.7А; Дзержинск г., Победы б-р.17; Дзержинск г., Бутлерова ул.40Б; Дзержинск г., Маяковского ул.45; Дзержинск г., Бутлерова ул.38; Дзержинск г., Лермонтова ул.20 корпус 121а; Дзержинск г., Лермонтова ул.20 к.209; Дзержинск г., Свердлова пр-т.14Б; Городской округ Дзержинск р-н, Лесная поляна п., 1,6км юго-западнее п.Лесная поляна; Городской округ Дзержинск р-н, Пыра п., Пырская ул.9; Дзержинск г., Ленина пр-т92; Дзержинск г., Ленина пр-т96; Дзержинск г., Ленина пр-т103; Дзержинск г., Ленина пр-т107Б; Дзержинск г., Окская наб.13/1; Дзержинск г., Попова ул.30; Дзержинск г., Окская наб.13; Дзержинск г., Попова ул.28; </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.52320119582862</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16.22784143499435</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.78253570627305</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16.53904284752766</v>
+      </c>
+      <c r="H11" t="n">
+        <v>310.0589609352515</v>
+      </c>
+      <c r="I11" t="n">
+        <v>94.41611006885408</v>
+      </c>
+      <c r="J11" t="n">
+        <v>73.15999999999998</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Окская наб.13/1; Дзержинск г., Октябрьская ул.31; Дзержинск г., Октябрьская ул.48; Дзержинск г., Октябрьская ул.56; Дзержинск г., Октябрьская ул.33; Дзержинск г., Клюквина ул.1; Дзержинск г., Попова ул.28Б; Дзержинск г., Попова ул.30; Дзержинск г., Попова ул.34В; Дзержинск г., Попова ул.32А; Дзержинск г., Октябрьская ул.60; Дзержинск г., Попова ул.34; Дзержинск г., Циолковского пр-т.18А; Дзержинск г., Циолковского пр-т.13А; Дзержинск г., Циолковского пр-т.7; Дзержинск г., Циолковского пр-т.11/28; Дзержинск г., Циолковского пр-т.7; Дзержинск г., Урицкого ул.5А; Дзержинск г., Урицкого ул.8А; Дзержинск г., Октябрьская ул.5/7; Дзержинск г., Урицкого ул.5; Дзержинск г., Гайдара ул.25Б; Дзержинск г., Марковникова ул.20; Дзержинск г., Марковникова ул.10А; Дзержинск г., Марковникова ул.10; Дзержинск г., Гайдара ул.24; Дзержинск г., Мира б-р.22; Дзержинск г., Мира б-р.22А; Дзержинск г., Черняховского ул.9; Городской округ Дзержинск р-н, Пыра п., Полевая ул.9; Дзержинск г., Пожарского ул.15; Дзержинск г., Победы б-р.22А; </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.78253570627305</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.53904284752766</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.84595618371655</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.61514742045986</v>
+      </c>
+      <c r="H12" t="n">
+        <v>240.8237214826843</v>
+      </c>
+      <c r="I12" t="n">
+        <v>71.89005143504184</v>
+      </c>
+      <c r="J12" t="n">
+        <v>74.92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Пожарского ул.21; Дзержинск г., Пожарского ул.26; Городской округ Дзержинск р-н, Пыра п., Озерная ул.12; Дзержинск г., Урицкого ул.12; Дзержинск г., Ленина пр-т.9; Дзержинск г., Пожарского ул.26В; Дзержинск г., Ленина пр-т10А; Дзержинск г., Бутлерова ул.45Б; Дзержинск г., Октябрьская ул.68А; Дзержинск г., Суворова ул.3; Дзержинск г., Суворова ул.6Б; Дзержинск г., Суворова ул.5А; Дзержинск г., Мира б-р.26; Дзержинск г., Автомобильная ул.157; Дзержинск г., Октябрьская ул.63; Дзержинск г., Студенческая ул.19; Дзержинск г., Октябрьская ул.82; Дзержинск г., Октябрьская ул.80; Дзержинск г., Октябрьская ул.82Д; Дзержинск г., Ленина пр-т6А; Дзержинск г., Ленина пр-т6Б; Дзержинск г., Западный пер.6; Дзержинск г., Гайдара ул.34Б; Дзержинск г., Гайдара ул.30; Дзержинск г., Гайдара ул.45; Дзержинск г., Мира б-р.28А; Дзержинск г., Гайдара ул.43; Дзержинск г., Марковникова ул.18; Дзержинск г., Октябрьская ул.5/7; Дзержинск г., Ленина пр-т.8; Дзержинск г., Ситнова ул.8В; </t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.84197590509092</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16.6103710861091</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.11790468338165</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16.94148562005799</v>
+      </c>
+      <c r="H13" t="n">
+        <v>293.1567638248202</v>
+      </c>
+      <c r="I13" t="n">
+        <v>90.64201150137626</v>
+      </c>
+      <c r="J13" t="n">
+        <v>72.19999999999997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Ленина пр-т4; Дзержинск г., Ситнова ул.8; Дзержинск г., Ленина пр-т8А; Дзержинск г., Ленина пр-т.8; Дзержинск г., Грибоедова ул.38Б; Дзержинск г., Грибоедова ул.36Б; Дзержинск г., Грибоедова ул.46Б; Дзержинск г., Грибоедова ул.44А; Дзержинск г., Пришоссейный пер.4а; Дзержинск г., Пожарского ул.28; Дзержинск г., Пожарского ул.33Б; Дзержинск г., Ситнова ул.8Б; Дзержинск г., Ситнова ул.8Б; Дзержинск г., Марковникова ул.3; Дзержинск г., Правды б-р.5А; Дзержинск г., Циолковского пр-т.19Б; Дзержинск г., Циолковского пр-т.20А; Дзержинск г., Мира б-р.29А; Дзержинск г., Ленина пр-т.123; Городской округ Дзержинск р-н, Пыра п., Декабристов ул.33; Дзержинск г., Циолковского пр-т.25А; Дзержинск г., Циолковского пр-т.26А; Дзержинск г., Циолковского пр-т.24; Дзержинск г., Циолковского пр-т.23А; Дзержинск г., Циолковского пр-т.23; Дзержинск г., Заревская объездная дор.9В; Дзержинск г., Суворова ул.17; Дзержинск г., Клюквина ул.8А; Дзержинск г., Петрищева ул.4А; </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.11790468338165</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16.94148562005799</v>
+      </c>
+      <c r="F14" t="n">
+        <v>14.25024678017936</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17.10029613621523</v>
+      </c>
+      <c r="H14" t="n">
+        <v>288.4280988122848</v>
+      </c>
+      <c r="I14" t="n">
+        <v>88.3636891943033</v>
+      </c>
+      <c r="J14" t="n">
+        <v>73.32000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Буденного ул.1А; Дзержинск г., Гайдара ул.40; Дзержинск г., Гайдара ул.36А; Дзержинск г., Буденного ул.1Б; Дзержинск г., Гайдара ул.47; Дзержинск г., Буденного ул.1В; Дзержинск г., Буденного ул.1Д; Дзержинск г., Буденного ул.3; Дзержинск г., Октябрьская ул.5Б; Дзержинск г., Парковая аллея6; Дзержинск г., Октябрьская ул.7; Дзержинск г., Октябрьская ул.6; Дзержинск г., Октябрьская ул.5Б; Дзержинск г., Октябрьская ул.5А; Дзержинск г., Парковая аллея6А; Дзержинск г., Грибоедова ул.41; Дзержинск г., Привокзальная пл.5к2; Дзержинск г., Терешковой ул.6; Городской округ Дзержинск р-н, Пыра п., Болотная ул.12; Городской округ Дзержинск р-н, Пыра п., Короткий пер.5; Дзержинск г., Самохвалова ул.4А; Дзержинск г., Красноармейская  ул.21 Г; Дзержинск г., Красноармейская  ул.21; Дзержинск г., Мира б-р.30А; Дзержинск г., Попова ул.36; Дзержинск г., Попова ул.36А; Дзержинск г., Окская наб.17; Дзержинск г., Окская наб.19А; Городской округ Дзержинск р-н, Лесная поляна п., 4; Городской округ Дзержинск р-н, Лесная поляна п., 17; Городской округ Дзержинск р-н, Лесная поляна п., 9А; </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.25024678017936</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17.10029613621523</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.31086055092428</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17.17303266110913</v>
+      </c>
+      <c r="H15" t="n">
+        <v>306.6470825143892</v>
+      </c>
+      <c r="I15" t="n">
+        <v>94.85448056827273</v>
+      </c>
+      <c r="J15" t="n">
+        <v>76.38000000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, 2,3 км юго-западнее п.Лесная поляна; Городской округ Дзержинск р-н, Лесная поляна п., 12а; Дзержинск г., Буденного ул.2; Дзержинск г., Западный пер.6А; Дзержинск г., Пожарского ул.36; Дзержинск г., Буденного ул.2; Дзержинск г., Октябрьская ул.36; Дзержинск г., Октябрьская ул.30А; Дзержинск г., Октябрьская ул.34; Дзержинск г., Октябрьская ул.29; Дзержинск г., Октябрьская ул.25; Дзержинск г., Попова ул.22; Дзержинск г., Попова ул.18; Дзержинск г., Октябрьская ул.40; Дзержинск г., Октябрьская ул.44А; Городской округ Дзержинск р-н, Пыра п., Пырская ул.39; Дзержинск г., Ленина пр-т.2; Дзержинск г., Самохвалова ул.5; Дзержинск г., Ленина пр-т2А; Дзержинск г., Самохвалова ул.3; Дзержинск г., Ленина пр-т.1 А; Дзержинск г., Ленина пр-т.1Ак3; Дзержинск г., Ленина пр-т.1Б; Дзержинск г., Ленина пр-т.1К; Городской округ Дзержинск р-н, Пыра п., Огородная  ул.1; Дзержинск г., Октябрьская ул.86; Дзержинск г., Октябрьская ул.26; Дзержинск г., Октябрьская ул.15; Дзержинск г., Петрищева ул.3А; Дзержинск г., Петрищева ул.6; Дзержинск г., Гайдара ул.51; Дзержинск г., Петрищева ул.3; Дзержинск г., Гайдара ул.51Б; Дзержинск г., Петрищева ул.9А; Дзержинск г., Петрищева ул.5Б; Дзержинск г., Петрищева ул.5А; Дзержинск г., Гайдара ул.60; Дзержинск г., Гайдара ул.60; Дзержинск г., Гайдара ул.53; Дзержинск г., Гайдара ул.53А; Дзержинск г., Окская наб.15; </t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>41</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.31086055092428</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17.17303266110913</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14.54810396206301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.45772475447561</v>
+      </c>
+      <c r="H16" t="n">
+        <v>430.7190090418121</v>
+      </c>
+      <c r="I16" t="n">
+        <v>135.318734417666</v>
+      </c>
+      <c r="J16" t="n">
+        <v>76.12000000000002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Западный пер.30А; Дзержинск г., Ситнова ул.8А; Дзержинск г., Ситнова ул.12; Дзержинск г., Ситнова ул.10Б; Дзержинск г., Буденного ул.6В; Дзержинск г., Западный пер.9А; Дзержинск г., Восточный Промрайон Капролактам 3км+200 М Автозаводского Шоссе тер.зд.7; Дзержинск г., Восточный Промрайон Капролактам, ш 5 км. Автозаводского тер.1; Дзержинск г., Гайдара ул.69Б; Дзержинск г., Гайдара ул.68; Дзержинск г., Циолковского пр-т.38; Дзержинск г., Циолковского пр-т.39; Дзержинск г., Циолковского пр-т.31; Дзержинск г., Циолковского пр-т.41А; Дзержинск г., Циолковского пр-т.33; Дзержинск г., Циолковского пр-т.34; Дзержинск г., Циолковского пр-т.35; Дзержинск г., Циолковского пр-т.37Б; Дзержинск г., Циолковского пр-т.39; Городской округ Дзержинск р-н, Пыра п., Пырский пер.11; Дзержинск г., Восточный промрайон тер., д.; Дзержинск г., Красноармейская  ул.32; Дзержинск г., Красноармейская  ул.30; Городской округ Дзержинск р-н, Пыра п., Болотная ул.21; Дзержинск г., Октябрьская ГСП тер., д.; Дзержинск г., Октябрьская ул.102В; Дзержинск г., Ленина пр-т.117 ж; Дзержинск г., Октябрьская ул.88; Городской округ Дзержинск р-н, Пыра п., Огородная  ул.26; Дзержинск г., Самохвалова ул.4; Дзержинск г., Самохвалова ул.13; Дзержинск г., Ленина пр-т1В; Дзержинск г., Ленина пр-т44А; Дзержинск г., Красноармейская  ул.28А; </t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.52567238564261</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17.43080686277114</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14.94613072732801</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17.93535687279362</v>
+      </c>
+      <c r="H17" t="n">
+        <v>613.3474555279641</v>
+      </c>
+      <c r="I17" t="n">
+        <v>198.3329082235905</v>
+      </c>
+      <c r="J17" t="n">
+        <v>73.78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Красноармейская  ул.26; Дзержинск г., Красноармейская  ул.26; Дзержинск г., Терешковой ул.36; Дзержинск г., Терешковой ул.28А; Дзержинск г., Терешковой ул.26Б; Дзержинск г., Терешковой ул.26А; Дзержинск г., Терешковой ул.22; Дзержинск г., Терешковой ул.14; Дзержинск г., Гайдара ул.72; Дзержинск г., Гайдара ул.73; Дзержинск г., Терешковой ул.12А; Городской округ Дзержинск р-н, Пыра п., Московская ул.84Б; Дзержинск г., Буденного ул.9; Дзержинск г., Буденного ул.11б; Дзержинск г., Буденного ул.7А; Дзержинск г., Индустриальная ул.3; Дзержинск г., Западный пер.11А; Дзержинск г., Самохвалова ул.6В; Дзержинск г., Буденного ул.10; Дзержинск г., Самохвалова ул.15; Городской округ Дзержинск р-н, Строителей п., 12; Дзержинск г., Речное ш.3А; Дзержинск г., Горьковская ул.6А; Дзержинск г., Красноармейская  ул.15/5; Дзержинск г., Горьковская ул., д.1,3; Дзержинск г., Ленинского Комсомола пр-т26А; Дзержинск г., Автозаводское ш.1к1; Дзержинск г., Восточный Промрайон ОАО "Оргстекло" тер.бетонное отд.32; Дзержинск г., Красноармейская  ул.17А; Дзержинск г., Щорса ул.38; Дзержинск г., Петрищева ул.9; Дзержинск г., Петрищева ул.15; Дзержинск г., Петрищева ул.10А; Дзержинск г., Петрищева ул.25; Дзержинск г., Самохвалова ул.12; Дзержинск г., Циолковского пр-т.46; Дзержинск г., Петрищева ул.21А; Дзержинск г., Петрищева ул.19А; </t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.94613072732801</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17.93535687279362</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.46187871938372</v>
+      </c>
+      <c r="G18" t="n">
+        <v>18.55425446326046</v>
+      </c>
+      <c r="H18" t="n">
+        <v>505.6899895760841</v>
+      </c>
+      <c r="I18" t="n">
+        <v>161.9928870144752</v>
+      </c>
+      <c r="J18" t="n">
+        <v>74.17999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Петрищева ул.11; Дзержинск г., Петрищева ул.17; Дзержинск г., Циолковского пр-т.38А; Дзержинск г., Циолковского пр-т.42; Дзержинск г., Петрищева ул.12А; Дзержинск г., Циолковского пр-т.48А; Дзержинск г., Индустриальная ул.6А; Дзержинск г., Индустриальная ул.2А; Дзержинск г., Индустриальная ул.4А; Дзержинск г., Индустриальная ул.8А; Городской округ Дзержинск р-н, Северный п., Северный п82; Дзержинск г., Северный п103; Дзержинск г., Строителей п31; Дзержинск г., Сухаренко ул.14А; Дзержинск г., Гаражный пер.9Д; Дзержинск г., Сухаренко ул.7; Дзержинск г., Сухаренко ул.20А; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.4а; Дзержинск г., Ленинского Комсомола пр-т18; Городской округ Дзержинск р-н, Дзержинск г., Ленинского Комсомола пр-т12; Дзержинск г., Ленинского Комсомола пр-т, д.16 (14); Дзержинск г., Индустриальная ул.7А; Дзержинск г., Циолковского пр-т.48; Дзержинск г., Терешковой ул.56А; Дзержинск г., Циолковского пр-т.47; Дзержинск г., Циолковского пр-т.52; Дзержинск г., Циолковского пр-т.49А; Дзержинск г., Петрищева ул.25А; Дзержинск г., Циолковского пр-т.48; Дзержинск г., Циолковского пр-т.50; </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15.46187871938372</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18.55425446326046</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.76259028844826</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18.91510834613791</v>
+      </c>
+      <c r="H19" t="n">
+        <v>401.7293425631255</v>
+      </c>
+      <c r="I19" t="n">
+        <v>128.7272761522314</v>
+      </c>
+      <c r="J19" t="n">
+        <v>73.16000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Щорса ул.4А; Дзержинск г., Щорса ул.2; Дзержинск г., Ульянова ул.13; Дзержинск г., Ульянова ул.6Б; Дзержинск г., Сухаренко ул.11А; Дзержинск г., Ульянова ул.6А; Городской округ Дзержинск р-н, Северный п., 95/1; Дзержинск г., Петрищева ул.16А; Дзержинск г., Петрищева ул.12; Дзержинск г., Циолковского пр-т.54А; Дзержинск г., Петрищева ул.31А; Дзержинск г., Петрищева ул.29; Дзержинск г., Петрищева ул.29; Дзержинск г., Петрищева ул.31Б; Дзержинск г., Петрищева ул.16; Дзержинск г., Петрищева ул.14; Дзержинск г., Петрищева ул.27В; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.7; Дзержинск г., Ульянова ул.9А; Дзержинск г., Сухаренко ул.5; Городской округ Дзержинск р-н, Пыра п., Железнодорожная ул.19; Дзержинск г., Щорса ул.21; Дзержинск г., Сухаренко ул.16; Дзержинск г., Терешковой ул.64А; Дзержинск г., Циолковского пр-т, д.61г корп. 1; Дзержинск г., Циолковского пр-т.54; Дзержинск г., Циолковского пр-т.57; </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>27</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15.71541767790641</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18.85850121348769</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.92959754231361</v>
+      </c>
+      <c r="G20" t="n">
+        <v>19.11551705077633</v>
+      </c>
+      <c r="H20" t="n">
+        <v>511.9165514589006</v>
+      </c>
+      <c r="I20" t="n">
+        <v>166.1088097464688</v>
+      </c>
+      <c r="J20" t="n">
+        <v>74.02000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Циолковского пр-т.57А; Дзержинск г., Циолковского пр-т.61г; Городской округ Дзержинск р-н, Пыра п., Спортивный пер.6; Дзержинск г., Ульянова ул.5а; Дзержинск г., Гаражный пр.4; Дзержинск г., Циолковского пр-т.49В; Дзержинск г., Циолковского пр-т.43А; Дзержинск г., Терешковой ул.44А; Дзержинск г., Циолковского пр-т.39Б; Дзержинск г., Циолковского пр-т.39В; Дзержинск г., Терешковой ул.46; Дзержинск г., Терешковой ул.50; Дзержинск г., Циолковского пр-т.43; Дзержинск г., Терешковой ул.42; Дзержинск г., Строителей п23а; Городской округ Дзержинск р-н, Пыра п., Полевая ул.46; Дзержинск г., Терешковой ул.62; Дзержинск г., Терешковой ул.52Б; Дзержинск г., Ульянова ул.19; Дзержинск г., Свердлова пр-т.22А; Дзержинск г., Свердлова пр-т.22В; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.14; Дзержинск г., Речное ш.3; Дзержинск г., Речное ш.11а; Городской округ Дзержинск р-н, Северный п.,; Дзержинск г., Свердлова пр-т.31; </t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15.92959754231361</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19.11551705077633</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16.19138212495188</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19.42965854994225</v>
+      </c>
+      <c r="H21" t="n">
+        <v>721.2094234306746</v>
+      </c>
+      <c r="I21" t="n">
+        <v>242.5411706827872</v>
+      </c>
+      <c r="J21" t="n">
+        <v>49.88</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Галкина ул.1а; Дзержинск г., Галкина ул.1а; Дзержинск г., Галкина ул.4; Дзержинск г., Петрищева ул.18; Дзержинск г., Галкина ул.1; Дзержинск г., Петрищева ул.31; Дзержинск г., Петрищева ул.31; Дзержинск г., Петрищева ул.35; Городской округ Дзержинск р-н, Пыра п., Свердлова ул.8; Дзержинск г., Буденного ул.23А; Дзержинск г., Строителей ул.2А; Дзержинск г., Комбрига Патоличева ул.3А; Дзержинск г., Буденного ул.23; Дзержинск г., Ленинского Комсомола пр-т32; Дзержинск г., Ленинского Комсомола пр-т30; Дзержинск г., Комбрига Патоличева ул.1; Дзержинск г., Строителей ул.2к34; Дзержинск г., Ленинского Комсомола пр-т, д.37/23; Дзержинск г., Строителей ул.3; Дзержинск г., Строителей ул.3г; Дзержинск г., Буденного ул.21А; Дзержинск г., Ленинского Комсомола пр-т36; Городской округ Дзержинск р-н, Пыра п., Чапаева ул.1; Дзержинск г., Ленинского Комсомола пр-т42; Дзержинск г., Циолковского пр-т.65; Дзержинск г., Свердлова пр-т.31В; Дзержинск г., Свердлова пр-т.31Б; Городской округ Дзержинск р-н, Пыра п., Полевая ул.30; Дзержинск г., Циолковского пр-т.62; Дзержинск г., Ленинского Комсомола пр-т44; Дзержинск г., Свердлова пр-т.20А; Дзержинск г., Окская наб.3; Дзержинск г., Попова ул.6; Дзержинск г., Окская наб.1; </t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D22" t="n">
+        <v>16.17034994756358</v>
+      </c>
+      <c r="E22" t="n">
+        <v>19.40441993707629</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16.45716617184001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>19.74859940620802</v>
+      </c>
+      <c r="H22" t="n">
+        <v>557.4622654299382</v>
+      </c>
+      <c r="I22" t="n">
+        <v>183.7579090614686</v>
+      </c>
+      <c r="J22" t="n">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Попова ул.8А; Дзержинск г., Попова ул.2; Дзержинск г., Циолковского пр-т.67; Дзержинск г., Циолковского пр-т.69; Дзержинск г., Циолковского пр-т.67; Дзержинск г., Циолковского пр-т.69; Городской округ Дзержинск р-н, Пыра п., Максима Горького ул.8; Городской округ Дзержинск р-н, Дзержинск г., Свердлова ул.16; Дзержинск г., Циолковского пр-т.64; Дзержинск г., Циолковского пр-т.66; Дзержинск г., 9 Января ул.10а; Дзержинск г., Лермонтова ул.1; Дзержинск г., Лермонтова ул.7; Дзержинск г., Лермонтова ул.5; Дзержинск г., Рудольфа Удриса ул.11Б; Дзержинск г., Ленинского Комсомола пр-т48; Дзержинск г., Ленинского Комсомола пр-т52; Дзержинск г., Ленинского Комсомола пр-т54; Дзержинск г., Ленинского Комсомола пр-т50; Городской округ Дзержинск р-н, Пыра п., Лесная  ул.30; Дзержинск г., Галкина ул.8; Дзержинск г., Галкина ул.8А; Дзержинск г., Галкина ул.6; Дзержинск г., Галкина ул.7А; Дзержинск г., Галкина ул.11; Дзержинск г., Галкина ул.3; Дзержинск г., Галкина ул.11; Дзержинск г., Строителей ул.7; Дзержинск г., Строителей ул.9Б; Дзержинск г., Строителей п14а; Дзержинск г., Строителей ул.14; Дзержинск г., Строителей ул.9; Дзержинск г., Строителей ул.9А; Дзержинск г., Строителей ул.9Вк1; Дзержинск г., Строителей ул.9Вк2; Дзержинск г., Комбрига Патоличева ул.11; Дзержинск г., Комбрига Патоличева ул.13; Дзержинск г., Комбрига Патоличева ул.15; Дзержинск г., Строителей ул.9Вк2; Дзержинск г., Комбрига Патоличева ул.17А; Дзержинск г., Комбрига Патоличева ул.3; Дзержинск г., Строителей ул.9Вк1; </t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16.45716617184001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19.74859940620802</v>
+      </c>
+      <c r="F23" t="n">
+        <v>16.59093120074796</v>
+      </c>
+      <c r="G23" t="n">
+        <v>19.90911744089756</v>
+      </c>
+      <c r="H23" t="n">
+        <v>442.4820404910664</v>
+      </c>
+      <c r="I23" t="n">
+        <v>144.6814666230963</v>
+      </c>
+      <c r="J23" t="n">
+        <v>72.54000000000002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Комбрига Патоличева ул.7; Дзержинск г., Строителей ул.4Б; Дзержинск г., Строителей ул.6А; Дзержинск г., Комбрига Патоличева ул.5; Дзержинск г., Строителей ул.6; Дзержинск г., Строителей ул.4; Дзержинск г., Строителей ул.4А; Дзержинск г., Комбрига Патоличева ул.13; Дзержинск г., Свердлова пр-т.33В; Дзержинск г., Свердлова пр-т.14А; Дзержинск г., Свердлова пр-т.14А; Дзержинск г., Циолковского пр-т.70; Дзержинск г., Циолковского пр-т.68; Дзержинск г., Рудольфа Удриса ул.7Б; Дзержинск г., Рудольфа Удриса ул.7Б; Дзержинск г., Рудольфа Удриса ул.3; Дзержинск г., Циолковского пр-т.71/2; Дзержинск г., Рудольфа Удриса ул.3; Дзержинск г., Рудольфа Удриса ул.3А; Дзержинск г., Рудольфа Удриса ул.5; Дзержинск г., Рудольфа Удриса ул.4; Дзержинск г., Тупиковый пер.7; Дзержинск г., Садовый пер.4; Дзержинск г., Свердлова пр-т.17; Дзержинск г., Галкина ул.10; Дзержинск г., Галкина ул.13; Дзержинск г., Галкина ул.13А; Володарский р-н, Фролищи пгт., Заводская ул.19; Дзержинск г., Самохвалова ул.10; Дзержинск г., Буденного ул.11А; Дзержинск г., Буденного ул.15; Дзержинск г., Буденного ул.13; Дзержинск г., Петрищева ул.12В; Дзержинск г., Петрищева ул.14А; Дзержинск г., Буденного ул.15А; Дзержинск г., Окская наб.5; Дзержинск г., Попова ул.10Б; Дзержинск г., Попова ул.10; Дзержинск г., Окская наб.3А; Дзержинск г., Попова ул.12; Дзержинск г., Попова ул.18А; Дзержинск г., Попова ул.18А; </t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.59093120074796</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19.90911744089756</v>
+      </c>
+      <c r="F24" t="n">
+        <v>16.83763449577974</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20.20516139493569</v>
+      </c>
+      <c r="H24" t="n">
+        <v>384.1763595253427</v>
+      </c>
+      <c r="I24" t="n">
+        <v>124.9620908357872</v>
+      </c>
+      <c r="J24" t="n">
+        <v>75.19000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., окская набережная, д.7; Дзержинск г., Попова ул.14; Дзержинск г., Учительский пер.7; Дзержинск г., Учительский пер.5; Дзержинск г., Циолковского пр-т.73А; Дзержинск г., Галкина ул.11А; Дзержинск г., Циолковского пр-т.74; Дзержинск г., Циолковского пр-т.73; Дзержинск г., Циолковского пр-т.72; Дзержинск г., Циолковского пр-т.72; Дзержинск г., Циолковского пр-т.71А; Дзержинск г., Свердлова пр-т.46; Дзержинск г., Поселковая ул.22-23; Дзержинск г., Восточное ш.7/1032; Дзержинск г., Восточ.пром,Оргстекло 6км+150,автозавод.ш,3(ДзержинскВторМет); Дзержинск г., Восточное ш.26; Дзержинск г., Ленинградская ул.10; Дзержинск г., Циолковского пр-т.76; Дзержинск г., Циолковского пр-т.75; Дзержинск г., Химиков б-р.3; Дзержинск г., Циолковского пр-т.75Б; Дзержинск г., Восточный промрайон ОАО ДОС корп.66 ООО Химпласт; Дзержинск г., Циолковского пр-т.77Б; Дзержинск г., Циолковского пр-т.77; Дзержинск г., Химиков б-р.4; Дзержинск г., 1 Мая ул.1; Дзержинск г., Карла либкнехта ул.10Б; Дзержинск г., 1 Мая ул.1/8; Дзержинск г., Циолковского пр-т.79; Дзержинск г., Циолковского пр-т.81А; Дзержинск г., Циолковского пр-т.83; Дзержинск г., Циолковского пр-т.81; Дзержинск г., Рудольфа Удриса ул.11; Дзержинск г., Рудольфа Удриса ул.9Д; </t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34</v>
+      </c>
+      <c r="D25" t="n">
+        <v>16.83763449577974</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20.20516139493569</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17.20129599577492</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20.6415551949299</v>
+      </c>
+      <c r="H25" t="n">
+        <v>395.6013885805519</v>
+      </c>
+      <c r="I25" t="n">
+        <v>130.1154506645379</v>
+      </c>
+      <c r="J25" t="n">
+        <v>73.44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Пушкинская ул.10; Дзержинск г., Рудольфа Удриса ул.9; Дзержинск г., Рудольфа Удриса ул.7; Дзержинск г., Рудольфа Удриса ул.12; Дзержинск г., Пушкинская ул.4; Дзержинск г., Рудольфа Удриса ул.11; Дзержинск г., Рудольфа Удриса ул.11А; Дзержинск г., Рудольфа Удриса ул.11В; Дзержинск г., Овощная ул.6; Дзержинск г., Циолковского пр-т.82; Дзержинск г., Ленинградская ул.22; Дзержинск г., Свердлова пр-т.47; Дзержинск г., Свердлова пр-т.13; Дзержинск г., ул.Сосновая(напротив ул.1 линия по пр.Свердлова, д.; Дзержинск г., 1-линия ул.8; Дзержинск г., Либкнехта ул.19а; Дзержинск г., Строителей ул.17к70; Дзержинск г., Свердлова пр-т.68/22; Дзержинск г., Свердлова пр-т.66/27; Дзержинск г., Свердлова пр-т.68/22; Дзержинск г., Комбрига Патоличева ул.21; Дзержинск г., Строителей ул.20; Дзержинск г., Строителей ул.16А; Дзержинск г., Строителей ул.10; Дзержинск г., Строителей ул.12; Дзержинск г., Строителей ул.12А; Дзержинск г., Строителей ул.15А; Дзержинск г., Строителей ул.13А; Дзержинск г., Строителей ул.11А; Дзержинск г., Циолковского пр-т.82А; Дзержинск г., Циолковского пр-т.80; Дзержинск г., Циолковского пр-т.80А; Дзержинск г., Свердлова пр-т.57а; </t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33</v>
+      </c>
+      <c r="D26" t="n">
+        <v>17.20129599577492</v>
+      </c>
+      <c r="E26" t="n">
+        <v>20.6415551949299</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17.45025811120003</v>
+      </c>
+      <c r="G26" t="n">
+        <v>20.94030973344004</v>
+      </c>
+      <c r="H26" t="n">
+        <v>260.9643794837776</v>
+      </c>
+      <c r="I26" t="n">
+        <v>84.59249553659086</v>
+      </c>
+      <c r="J26" t="n">
+        <v>74.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Свердлова пр-т.75; Дзержинск г., Свердлова пр-т.77А; Дзержинск г., Свердлова пр-т.73А; Дзержинск г., Свердлова пр-т.73А; Дзержинск г., Восточная Промзона ОАО "Оргстекло" тер.корпус 27; Дзержинск г., Свердлова пр-т.74; Дзержинск г., Свердлова пр-т.72; Дзержинск г., Космонавтов б-р1/77; Дзержинск г., Космонавтов б-р1А; Дзержинск г., ул.Сосновая (напротив ул.4 линия по пр.Свердлова), д.; Дзержинск г., пос.Свердлова 4 линия; Городской округ Дзержинск р-н, Пушкино п., Энергетическая ул.д.1-82; Дзержинск г., Рудольфа Удриса ул.10; </t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" t="n">
+        <v>17.44213182641774</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20.93055819170128</v>
+      </c>
+      <c r="F27" t="n">
+        <v>17.60995446620073</v>
+      </c>
+      <c r="G27" t="n">
+        <v>21.13194535944088</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>73.91725409098876</v>
+      </c>
+      <c r="J27" t="n">
+        <v>22.2248493150685</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Химиков б-р.5Б; Дзержинск г., Химиков б-р.7; Дзержинск г., Свердлова пр-т.64/в; Дзержинск г., Комбрига Патоличева ул.19; Дзержинск г., Циолковского пр-т.84А; Дзержинск г., Пушкинская ул.16; Дзержинск г., Пушкинская ул.20; Дзержинск г., Пушкинская ул.16А; Дзержинск г., Пушкинская ул.18; Дзержинск г., Химиков б-р., д.8; Дзержинск г., Химиков б-р., д.8; Дзержинск г., Сухаренко ул.1б; Дзержинск г., Комбрига Патоличева ул.25; Дзержинск г., Свердлова пр-т.78; Дзержинск г., Циолковского ул.86; Дзержинск г., Циолковского пр-т.84; Дзержинск г., Свердлова пр-т.84; Дзержинск г., Циолковского пр-т.83А; Дзержинск г., Свердлова пр-т.82/85; Дзержинск г., Свердлова пр-т.84; Дзержинск г., Лермонтова ул., д.17е; Дзержинск г., Лермонтова ул.23; Дзержинск г., Лермонтова ул.20; Дзержинск г., Лермонтова ул.2; Дзержинск г., Лермонтова ул.13Д; Дзержинск г., Свердлова пр-т.78А; Дзержинск г., Космонавтов б-р2; Дзержинск г., Свердлова пр-т.76; Дзержинск г., Свердлова пр-т.71; Дзержинск г., Комбрига Патоличева ул.29; Дзержинск г., Терешковой ул.12; Дзержинск г., Циолковского пр-т.88А; Дзержинск г., Сухаренко ул.6; Дзержинск г., Свердлова пр-т.81; Городской округ Дзержинск р-н, Бабушкино п., Фрунзе ул.д.1-76; Дзержинск г .п. Бабушкино , Усадебный пер., д.1-16; </t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.60995446620073</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21.13194535944088</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18.06808187682748</v>
+      </c>
+      <c r="G28" t="n">
+        <v>21.68169825219297</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>73.78902232523984</v>
+      </c>
+      <c r="J28" t="n">
+        <v>54.87076712328767</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Старое кладбищекп45; </t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17.98900728505174</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.58680874206209</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18.0767823425963</v>
+      </c>
+      <c r="G29" t="n">
+        <v>21.69213881111556</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>43.59140309741013</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01915068493150685</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Чайковского улд.1-27; Дзержинск г., Свердлова пр-т.86А; </t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D30" t="n">
+        <v>18.06808187682748</v>
+      </c>
+      <c r="E30" t="n">
+        <v>21.68169825219297</v>
+      </c>
+      <c r="F30" t="n">
+        <v>18.07801124702906</v>
+      </c>
+      <c r="G30" t="n">
+        <v>21.69361349643487</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>48.51226364334939</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5285479452054795</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Свердлова пр-т.85; Дзержинск г., Свердлова пр-т.88; Дзержинск г., Циолковского пр-т.92А; Дзержинск г., Циолковского пр-т.90; Дзержинск г., Циолковского пр-т.92А; Дзержинск г., Циолковского пр-т.94; Дзержинск г., Циолковского пр-т.92; Дзержинск г., Циолковского пр-т.94А; Дзержинск г., Ульянова ул.2; Дзержинск г., Свердлова пр-т.33; Дзержинск г., Свердлова пр-т.28; Дзержинск г., Свердлова пр-т., д.32; Дзержинск г., Космонавтов б-р3; Дзержинск г., Комбрига Патоличева ул.29А; Дзержинск г., Космонавтов б-р9А; Дзержинск г., Космонавтов б-р7А; Дзержинск г., Космонавтов б-р7; Дзержинск г., Космонавтов б-р12А; Дзержинск г., Космонавтов б-р12; Дзержинск г., Комбрига Патоличева ул.39; Дзержинск г., Космонавтов б-р14; Дзержинск г., Космонавтов б-р11А; Дзержинск г., Комбрига Патоличева ул.35; Дзержинск г., Комбрига Патоличева ул.37; Дзержинск г., Комбрига Патоличева ул.37А; Дзержинск г., Свердлова пр-т.90; Дзержинск г., Пушкинская ул.22; Дзержинск г., Пушкинская ул.24; Дзержинск г., Свердлова пр-т.75А; Городской округ Дзержинск р-н, Бабушкино п., Железнодорожная д.1-92; </t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>18.07801124702906</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.69361349643487</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18.41534861096281</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22.09841833315537</v>
+      </c>
+      <c r="H31" t="n">
+        <v>142.3604382479242</v>
+      </c>
+      <c r="I31" t="n">
+        <v>48.10452366404385</v>
+      </c>
+      <c r="J31" t="n">
+        <v>73.06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Космонавтов б-р24; </t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>18.3123652573828</v>
+      </c>
+      <c r="E32" t="n">
+        <v>21.97483830885936</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18.41534861096281</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22.09841833315537</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>41.85555639538667</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9703013698630137</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Космонавтов б-р9; Дзержинск г., Космонавтов б-р16; Дзержинск г., Космонавтов б-р22; Дзержинск г., Космонавтов б-р20; Дзержинск г., Космонавтов б-р18; Дзержинск г., Циолковского пр-т.98Б; Дзержинск г., Циолковского пр-т.102А; Дзержинск г., Циолковского пр-т.98А; Дзержинск г., Циолковского пр-т.100; Дзержинск г., Терешковой ул.77; Городской округ Дзержинск р-н, Орловские дворики, 373; Городской округ Дзержинск р-н, Бабино п., Новосельская ул., д.1-35; Городской округ Дзержинск р-н, Бабушкино п., Бабушкина ул.д. 1-96а; </t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+      <c r="D33" t="n">
+        <v>18.41534861096281</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22.09841833315537</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19.13407818155258</v>
+      </c>
+      <c r="G33" t="n">
+        <v>22.9608938178631</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>101.0691572479145</v>
+      </c>
+      <c r="J33" t="n">
+        <v>38.08471232876713</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Тургенева ул.д.1-118; </t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>19.02010347200852</v>
+      </c>
+      <c r="E34" t="n">
+        <v>22.82412416641023</v>
+      </c>
+      <c r="F34" t="n">
+        <v>19.17061612503542</v>
+      </c>
+      <c r="G34" t="n">
+        <v>23.0047393500425</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>47.32411023144846</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.551205479452055</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Оранжерея, д.; </t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19.13407818155258</v>
+      </c>
+      <c r="E35" t="n">
+        <v>22.9608938178631</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19.20509760504559</v>
+      </c>
+      <c r="G35" t="n">
+        <v>23.0461171260547</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>47.62307907402959</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9575342465753426</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Дачная ул.д.1-114; Дзержинск г., Космонавтов б-р26А; </t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>19.17061612503542</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23.0047393500425</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19.23952702705665</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23.08743243246798</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>61.16831233508661</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.077534246575343</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Космонавтов б-р17Б; Дзержинск г., Космонавтов б-р17А; Дзержинск г., Космонавтов б-р15; Дзержинск г., Космонавтов б-р15А; Дзержинск г., Комбрига Патоличева ул.43; Дзержинск г., Космонавтов б-р17; Дзержинск г., Космонавтов б-р26; Городской округ Дзержинск р-н, Дачный п., Свободы ул., д.2а; Городской округ Дзержинск р-н, Дачный п., Герцена ул.1-96; Городской округ Дзержинск р-н, Дачный п., Горького ул, д 1-130; </t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>19.23952702705665</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23.08743243246798</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19.49975536221249</v>
+      </c>
+      <c r="G37" t="n">
+        <v>23.39970643465499</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>54.813911129349</v>
+      </c>
+      <c r="J37" t="n">
+        <v>33.45369863013699</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Пушкина пл., д.1-31; </t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>19.41739068789802</v>
+      </c>
+      <c r="E38" t="n">
+        <v>23.30086882547762</v>
+      </c>
+      <c r="F38" t="n">
+        <v>19.67351520485878</v>
+      </c>
+      <c r="G38" t="n">
+        <v>23.60821824583054</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>50.2947104393782</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.532054794520548</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Ушакова ул.д. 1-71; </t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>19.49975536221249</v>
+      </c>
+      <c r="E39" t="n">
+        <v>23.39970643465499</v>
+      </c>
+      <c r="F39" t="n">
+        <v>19.70537166163238</v>
+      </c>
+      <c r="G39" t="n">
+        <v>23.64644599395886</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>50.65503864703474</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4915342465753425</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Лесная  ул., д.1-20; </t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>19.67351520485878</v>
+      </c>
+      <c r="E40" t="n">
+        <v>23.60821824583054</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19.7612400971958</v>
+      </c>
+      <c r="G40" t="n">
+        <v>23.71348811663496</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>49.79285114938915</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6958082191780822</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Желнинское ш.1; </t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>19.70537166163238</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23.64644599395886</v>
+      </c>
+      <c r="F41" t="n">
+        <v>19.77005545787955</v>
+      </c>
+      <c r="G41" t="n">
+        <v>23.72406654945546</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>41.75171893664621</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1404383561643836</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Максима Горького ул., д.103; Городской округ Дзержинск р-н, Дачный п., Свободы ул.д.1-71; Городской округ Дзержинск р-н, Пушкино п., Короленко ул.д.1-23; </t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19.7612400971958</v>
+      </c>
+      <c r="E42" t="n">
+        <v>23.71348811663496</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20.00461476754752</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24.00553772105702</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>63.72607877494207</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.500493150684932</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Садовая ул.1-37; </t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19.98689808039876</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23.98427769647851</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20.11002884808697</v>
+      </c>
+      <c r="G43" t="n">
+        <v>24.13203461770436</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>40.15035380421979</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2936438356164384</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Железнодорожная ул.д.1-92; </t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20.00461476754752</v>
+      </c>
+      <c r="E44" t="n">
+        <v>24.00553772105702</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20.11546208875583</v>
+      </c>
+      <c r="G44" t="n">
+        <v>24.138554506507</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>40.82048986389033</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8043287671232877</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Гоголя ул.д.1-75; </t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.11002884808697</v>
+      </c>
+      <c r="E45" t="n">
+        <v>24.13203461770436</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20.13145589034954</v>
+      </c>
+      <c r="G45" t="n">
+        <v>24.15774706841945</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>40.40797787569376</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.059671232876712</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Новая ул.д.1-56; </t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20.11546208875583</v>
+      </c>
+      <c r="E46" t="n">
+        <v>24.138554506507</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20.13774851922665</v>
+      </c>
+      <c r="G46" t="n">
+        <v>24.16529822307198</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>40.46425445958998</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.263945205479452</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Белинского ул.д 1-77; </t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20.13145589034954</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24.15774706841945</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20.56676336174842</v>
+      </c>
+      <c r="G47" t="n">
+        <v>24.68011603409811</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>40.81290950771057</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8873150684931508</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Портовое ш.10; </t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20.13774851922665</v>
+      </c>
+      <c r="E48" t="n">
+        <v>24.16529822307198</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20.56676336174842</v>
+      </c>
+      <c r="G48" t="n">
+        <v>24.68011603409811</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>54.29138866437512</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9703013698630137</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Восточный Промрайон ОАО "Оргстекло" тер.11 км 7; Городской округ Дзержинск р-н, Строителей п., 2; Дзержинск г., Строителей п2; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.78; Городской округ Дзержинск р-н, Пушкино п., Новозапрудная ул.1-33; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.87; </t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.56676336174842</v>
+      </c>
+      <c r="E49" t="n">
+        <v>24.68011603409811</v>
+      </c>
+      <c r="F49" t="n">
+        <v>21.25019428884688</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25.50023314661626</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>98.52344618522307</v>
+      </c>
+      <c r="J49" t="n">
+        <v>10.54854794520548</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Кооперативная ул.40; Городской округ Дзержинск р-н, Желнино п., Кооперативная ул.40; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.35; Городской округ Дзержинск р-н, Горбатовка пгт., Пушкина ул., д. 1-47; Колодкино п., Осипенко ул.д.1-17; </t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20.85557691007286</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25.02669229208743</v>
+      </c>
+      <c r="F50" t="n">
+        <v>21.54993184047915</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25.85991820857498</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>89.98228119447199</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.551561643835616</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Молодежная ул.29; </t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>21.47755263931678</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25.77306316718013</v>
+      </c>
+      <c r="F51" t="n">
+        <v>21.60145109603395</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25.92174131524074</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>59.30612057756095</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.07660273972602741</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Советская ул.11; Городской округ Дзержинск р-н, Горбатовка пгт., д.М.Расковой д.1-25; Городской округ Дзержинск р-н, Горбатовка пгт., Осипенко ул., д.1-25; </t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>21.54993184047915</v>
+      </c>
+      <c r="E52" t="n">
+        <v>25.85991820857498</v>
+      </c>
+      <c r="F52" t="n">
+        <v>21.84586061568167</v>
+      </c>
+      <c r="G52" t="n">
+        <v>26.21503273881801</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>71.26775753345095</v>
+      </c>
+      <c r="J52" t="n">
+        <v>6.740438356164384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Короленко ул., д. 1-40; </t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>21.82278325954416</v>
+      </c>
+      <c r="E53" t="n">
+        <v>26.18733991145299</v>
+      </c>
+      <c r="F53" t="n">
+        <v>21.98629820992834</v>
+      </c>
+      <c r="G53" t="n">
+        <v>26.38355785191401</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>45.06368625586772</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Серова ул., д. 1-17; </t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>21.84586061568167</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26.21503273881801</v>
+      </c>
+      <c r="F54" t="n">
+        <v>22.01173405500015</v>
+      </c>
+      <c r="G54" t="n">
+        <v>26.41408086600018</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>45.27571440746123</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7341095890410959</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Чапаева ул.1-15; </t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>21.98629820992834</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26.38355785191401</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22.02025379185175</v>
+      </c>
+      <c r="G55" t="n">
+        <v>26.4243045502221</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>45.59054517787798</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.4787671232876713</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Советская ул.42А; </t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>22.01173405500015</v>
+      </c>
+      <c r="E56" t="n">
+        <v>26.41408086600018</v>
+      </c>
+      <c r="F56" t="n">
+        <v>22.02814560671727</v>
+      </c>
+      <c r="G56" t="n">
+        <v>26.43377472806072</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>70.27125912175663</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.1978904109589041</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Колодкино п., Зеленый ров ул.д.1-19; Городской округ Дзержинск р-н, Горбатовка пгт., Коммунистическая ул., д.1-36; </t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22.02025379185175</v>
+      </c>
+      <c r="E57" t="n">
+        <v>26.4243045502221</v>
+      </c>
+      <c r="F57" t="n">
+        <v>22.15862193324013</v>
+      </c>
+      <c r="G57" t="n">
+        <v>26.59034631988815</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>84.39340201147138</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.574493150684932</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Колодкино п., Революции ул.1-69; </t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>22.09202738531427</v>
+      </c>
+      <c r="E58" t="n">
+        <v>26.51043286237712</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22.21030389326384</v>
+      </c>
+      <c r="G58" t="n">
+        <v>26.65236467191661</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>67.19486444720405</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.7915616438356166</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Прибрежная ул.9/3970; </t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>22.15862193324013</v>
+      </c>
+      <c r="E59" t="n">
+        <v>26.59034631988815</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22.25146212561121</v>
+      </c>
+      <c r="G59" t="n">
+        <v>26.70175455073345</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>61.9786422477696</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4596164383561644</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Островского ул., д.1-92; Городской округ Дзержинск р-н, Горбатовка пгт., Весенняя 58; </t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>22.21030389326384</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26.65236467191661</v>
+      </c>
+      <c r="F60" t="n">
+        <v>22.30296837363487</v>
+      </c>
+      <c r="G60" t="n">
+        <v>26.76356204836184</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>71.96672192146046</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.741424657534247</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Колодкино п., Новая ул.д.1-23; Колодкино п., Юбилейная ул.1-69; </t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>22.25146212561121</v>
+      </c>
+      <c r="E61" t="n">
+        <v>26.70175455073345</v>
+      </c>
+      <c r="F61" t="n">
+        <v>22.9134269844453</v>
+      </c>
+      <c r="G61" t="n">
+        <v>27.49611238133436</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>68.82752766433597</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6.874493150684932</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Октябрьская ул.1-18; </t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>22.48673579494483</v>
+      </c>
+      <c r="E62" t="n">
+        <v>26.98408295393379</v>
+      </c>
+      <c r="F62" t="n">
+        <v>22.9134269844453</v>
+      </c>
+      <c r="G62" t="n">
+        <v>27.49611238133436</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>69.68083579856744</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.7596438356164384</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.3; </t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>22.9134269844453</v>
+      </c>
+      <c r="E63" t="n">
+        <v>27.49611238133436</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22.9134269844453</v>
+      </c>
+      <c r="G63" t="n">
+        <v>27.49611238133436</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>45.8268539688906</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2234246575342466</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.1; Дзержинск г., Восточный промрайон п, д.; Дзержинск г., Восточное ш.148а; Городской округ Дзержинск р-н, Горбатовка пгт., Советская ул., д.1-130; Городской округ Дзержинск р-н, Колодкино п., Огородная ул.д.1-69; </t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>22.9134269844453</v>
+      </c>
+      <c r="E64" t="n">
+        <v>27.49611238133436</v>
+      </c>
+      <c r="F64" t="n">
+        <v>23.05996109307073</v>
+      </c>
+      <c r="G64" t="n">
+        <v>27.67195331168488</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>98.99793706671133</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.691260273972603</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Весенняя ул.84; </t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>22.97765642866107</v>
+      </c>
+      <c r="E65" t="n">
+        <v>27.57318771439328</v>
+      </c>
+      <c r="F65" t="n">
+        <v>23.0963322721872</v>
+      </c>
+      <c r="G65" t="n">
+        <v>27.71559872662464</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>70.01027519493478</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.6447397260273974</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Пролетарская ул. Д. 1-112; Городской округ Дзержинск р-н, Горбатовка пгт., Кооперативная ул., д. 1-33; </t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>23.05996109307073</v>
+      </c>
+      <c r="E66" t="n">
+        <v>27.67195331168488</v>
+      </c>
+      <c r="F66" t="n">
+        <v>23.19299775294736</v>
+      </c>
+      <c r="G66" t="n">
+        <v>27.83159730353684</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>48.38339410109041</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.549534246575343</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабино п., 8 Марта ул.д.1-84; </t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>23.14764063395125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>27.7771687607415</v>
+      </c>
+      <c r="F67" t="n">
+        <v>23.24330529777012</v>
+      </c>
+      <c r="G67" t="n">
+        <v>27.89196635732414</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>70.23184662032335</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5936712328767124</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Железнодорожная ул д.1-34; </t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>23.19299775294736</v>
+      </c>
+      <c r="E68" t="n">
+        <v>27.83159730353684</v>
+      </c>
+      <c r="F68" t="n">
+        <v>23.24411349808949</v>
+      </c>
+      <c r="G68" t="n">
+        <v>27.89293619770738</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>70.03311968408646</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.8426301369863014</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Старое Ипяково ул., д.1-56; </t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>23.24330529777012</v>
+      </c>
+      <c r="E69" t="n">
+        <v>27.89196635732414</v>
+      </c>
+      <c r="F69" t="n">
+        <v>23.30655484488864</v>
+      </c>
+      <c r="G69" t="n">
+        <v>27.96786581386637</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>55.48740343443491</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.6447397260273974</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Островского ул.75А; </t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>23.24411349808949</v>
+      </c>
+      <c r="E70" t="n">
+        <v>27.89293619770738</v>
+      </c>
+      <c r="F70" t="n">
+        <v>23.34883814166696</v>
+      </c>
+      <c r="G70" t="n">
+        <v>28.01860577000035</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>53.09239753868349</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.053287671232877</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Пролетарская ул.47А; Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.13; Городской округ Дзержинск р-н, Горбатовка пгт., Школьная ул., д.1-57; Городской округ Дзержинск р-н, Горбатовка пгт., Новый пер., д.1-13; </t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>23.30655484488864</v>
+      </c>
+      <c r="E71" t="n">
+        <v>27.96786581386637</v>
+      </c>
+      <c r="F71" t="n">
+        <v>23.52846793376787</v>
+      </c>
+      <c r="G71" t="n">
+        <v>28.23416152052145</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>50.46160566679696</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.140493150684932</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Подсобное хозяйство ул., д.1-4; </t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>23.48200497903117</v>
+      </c>
+      <c r="E72" t="n">
+        <v>28.17840597483741</v>
+      </c>
+      <c r="F72" t="n">
+        <v>23.56869515297554</v>
+      </c>
+      <c r="G72" t="n">
+        <v>28.28243418357065</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>67.03231072733175</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1021369863013699</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Cтанционная ул.15; </t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>23.52846793376787</v>
+      </c>
+      <c r="E73" t="n">
+        <v>28.23416152052145</v>
+      </c>
+      <c r="F73" t="n">
+        <v>23.56869515297554</v>
+      </c>
+      <c r="G73" t="n">
+        <v>28.28243418357065</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>69.69115944979396</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0383013698630137</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, ул.Станционная д.8; Городской округ Дзержинск р-н, Горбатовка пгт., Полевая ул., д.1-48а; Городской округ Дзержинск р-н, Горбатовка пгт., Первомайская ул.  д.1-69; </t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>23.56869515297554</v>
+      </c>
+      <c r="E74" t="n">
+        <v>28.28243418357065</v>
+      </c>
+      <c r="F74" t="n">
+        <v>23.65633189129518</v>
+      </c>
+      <c r="G74" t="n">
+        <v>28.38759826955422</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>77.9955237985332</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.640465753424658</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Луговая ул., д.1-64; </t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>23.62579669693173</v>
+      </c>
+      <c r="E75" t="n">
+        <v>28.35095603631807</v>
+      </c>
+      <c r="F75" t="n">
+        <v>23.66036506753471</v>
+      </c>
+      <c r="G75" t="n">
+        <v>28.39243808104165</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>47.99108709371342</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.8553972602739727</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Восточный Промрайон ОАО"Синтез" тер., д.; </t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>23.65633189129518</v>
+      </c>
+      <c r="E76" t="n">
+        <v>28.38759826955422</v>
+      </c>
+      <c r="F76" t="n">
+        <v>23.74742676589533</v>
+      </c>
+      <c r="G76" t="n">
+        <v>28.49691211907439</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>62.37345384863157</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.6128219178082193</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Дачный пер.д.1-14; Городской округ Дзержинск р-н, Горбатовка пгт., Школьный пер., д. 1-25; </t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>23.66036506753471</v>
+      </c>
+      <c r="E77" t="n">
+        <v>28.39243808104165</v>
+      </c>
+      <c r="F77" t="n">
+        <v>23.81461167263796</v>
+      </c>
+      <c r="G77" t="n">
+        <v>28.57753400716555</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>82.42987427919351</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2668219178082192</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Достоевского  д. 1-122; </t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>23.78747424175611</v>
+      </c>
+      <c r="E78" t="n">
+        <v>28.54496909010733</v>
+      </c>
+      <c r="F78" t="n">
+        <v>23.84318944750622</v>
+      </c>
+      <c r="G78" t="n">
+        <v>28.61182733700746</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>48.43919491657903</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4149315068493151</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, ул.Вокзальная д.1; </t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>23.81461167263796</v>
+      </c>
+      <c r="E79" t="n">
+        <v>28.57753400716555</v>
+      </c>
+      <c r="F79" t="n">
+        <v>23.84318944750622</v>
+      </c>
+      <c r="G79" t="n">
+        <v>28.61182733700746</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>78.28008309079313</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.889534246575343</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Железнодорожная ул.10; г.Дзержинск(п.Игумново), 4 ЛИНИЯ д.1-5; г.Дзержинск(п.Игумново), 2 линияд.  1-6; </t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>23.84318944750622</v>
+      </c>
+      <c r="E80" t="n">
+        <v>28.61182733700746</v>
+      </c>
+      <c r="F80" t="n">
+        <v>23.87499049853973</v>
+      </c>
+      <c r="G80" t="n">
+        <v>28.64998859824767</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>71.0610426642472</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.470219178082192</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Новая Стройка д. 1-36; </t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>23.86665009077923</v>
+      </c>
+      <c r="E81" t="n">
+        <v>28.63998010893508</v>
+      </c>
+      <c r="F81" t="n">
+        <v>23.89534102415402</v>
+      </c>
+      <c r="G81" t="n">
+        <v>28.67440922898482</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>60.57113113600222</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.05745205479452056</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Толстого ул.д.1-55; </t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23.87499049853973</v>
+      </c>
+      <c r="E82" t="n">
+        <v>28.64998859824767</v>
+      </c>
+      <c r="F82" t="n">
+        <v>23.94982313531264</v>
+      </c>
+      <c r="G82" t="n">
+        <v>28.73978776237517</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>60.66264458829613</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.6064383561643836</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Александра Матросова ул.1/а; </t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>23.89534102415402</v>
+      </c>
+      <c r="E83" t="n">
+        <v>28.67440922898482</v>
+      </c>
+      <c r="F83" t="n">
+        <v>23.94982313531264</v>
+      </c>
+      <c r="G83" t="n">
+        <v>28.73978776237517</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>48.69104232068838</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.110739726027397</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., ул. Чехова 1-47; г.Дзержинск(п.Игумново), 1 Линия д.1-4; </t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>23.94982313531264</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28.73978776237517</v>
+      </c>
+      <c r="F84" t="n">
+        <v>24.01056179711742</v>
+      </c>
+      <c r="G84" t="n">
+        <v>28.8126741565409</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>48.8720986568935</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.6243013698630138</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Луговая ул., д.1-46; </t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>23.96117658739574</v>
+      </c>
+      <c r="E85" t="n">
+        <v>28.75341190487489</v>
+      </c>
+      <c r="F85" t="n">
+        <v>24.10406735416904</v>
+      </c>
+      <c r="G85" t="n">
+        <v>28.92488082500285</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>60.74331847201958</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0383013698630137</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Ляхановка ул.д.1-55; </t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>24.01056179711742</v>
+      </c>
+      <c r="E86" t="n">
+        <v>28.8126741565409</v>
+      </c>
+      <c r="F86" t="n">
+        <v>24.12607651689736</v>
+      </c>
+      <c r="G86" t="n">
+        <v>28.95129182027684</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>60.9576036112429</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.6255890410958904</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Городская ул.д.1-43; </t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24.10406735416904</v>
+      </c>
+      <c r="E87" t="n">
+        <v>28.92488082500285</v>
+      </c>
+      <c r="F87" t="n">
+        <v>24.1819309717247</v>
+      </c>
+      <c r="G87" t="n">
+        <v>29.01831716606964</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>49.57629857543114</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.766027397260274</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., 13 линия ул. (Новое Доскино п)13; </t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>24.12607651689736</v>
+      </c>
+      <c r="E88" t="n">
+        <v>28.95129182027684</v>
+      </c>
+      <c r="F88" t="n">
+        <v>24.21863682596459</v>
+      </c>
+      <c r="G88" t="n">
+        <v>29.06236419115751</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>69.28330159463876</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.059671232876712</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Матросова, д.1-45; Заслонова ул.16; </t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>24.1819309717247</v>
+      </c>
+      <c r="E89" t="n">
+        <v>29.01831716606964</v>
+      </c>
+      <c r="F89" t="n">
+        <v>24.28495831356305</v>
+      </c>
+      <c r="G89" t="n">
+        <v>29.14194997627566</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>90.96372651854394</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.6306849315068493</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Заслонова ул.4; Городской округ Дзержинск р-н, Петряевка п., Квартальная ул.д.1-26; Заслонова ул.8; </t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>24.27591416392157</v>
+      </c>
+      <c r="E90" t="n">
+        <v>29.13109699670588</v>
+      </c>
+      <c r="F90" t="n">
+        <v>24.45724047767734</v>
+      </c>
+      <c r="G90" t="n">
+        <v>29.34868857321281</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>90.1337449097515</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8.038328767123287</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 линия ул. (Новое Доскино п)2-54; 15 линия ул. (Новое Доскино п)1-54; </t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>24.39024136539053</v>
+      </c>
+      <c r="E91" t="n">
+        <v>29.26828963846864</v>
+      </c>
+      <c r="F91" t="n">
+        <v>24.45724047767734</v>
+      </c>
+      <c r="G91" t="n">
+        <v>29.34868857321281</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>51.9164018890218</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.713315068493151</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">14 линия ул. (Новое Доскино п)1-56; </t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>24.45724047767734</v>
+      </c>
+      <c r="E92" t="n">
+        <v>29.34868857321281</v>
+      </c>
+      <c r="F92" t="n">
+        <v>24.45737539466604</v>
+      </c>
+      <c r="G92" t="n">
+        <v>29.34885047359924</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>48.91461587234338</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.383890410958904</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Героя Советского Союза Бахтина ул.2; </t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>24.45724047767734</v>
+      </c>
+      <c r="E93" t="n">
+        <v>29.34868857321281</v>
+      </c>
+      <c r="F93" t="n">
+        <v>24.45819881444747</v>
+      </c>
+      <c r="G93" t="n">
+        <v>29.34983857733696</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>52.05149336735424</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.423205479452055</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Встречная ул.д.1-39; Городской округ Дзержинск р-н, Петряевка п., Встречная ул.38А; </t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>24.45737539466604</v>
+      </c>
+      <c r="E94" t="n">
+        <v>29.34885047359924</v>
+      </c>
+      <c r="F94" t="n">
+        <v>24.48278572468231</v>
+      </c>
+      <c r="G94" t="n">
+        <v>29.37934286961877</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>68.53000619526956</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.444712328767123</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 линия ул. (Новое Доскино п)1-53; 11 линия ул. (Новое Доскино п)1-59; </t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>24.45819881444747</v>
+      </c>
+      <c r="E95" t="n">
+        <v>29.34983857733696</v>
+      </c>
+      <c r="F95" t="n">
+        <v>24.48844238077036</v>
+      </c>
+      <c r="G95" t="n">
+        <v>29.38613085692443</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>70.51820649750235</v>
+      </c>
+      <c r="J95" t="n">
+        <v>9.399123287671234</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Учительский пер д.1-4; </t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>24.48278572468231</v>
+      </c>
+      <c r="E96" t="n">
+        <v>29.37934286961877</v>
+      </c>
+      <c r="F96" t="n">
+        <v>24.5007622619585</v>
+      </c>
+      <c r="G96" t="n">
+        <v>29.40091471435019</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>70.92591377461946</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.187315068493151</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Заслонова ул.1; </t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>24.48844238077036</v>
+      </c>
+      <c r="E97" t="n">
+        <v>29.38613085692443</v>
+      </c>
+      <c r="F97" t="n">
+        <v>24.5007622619585</v>
+      </c>
+      <c r="G97" t="n">
+        <v>29.40091471435019</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>70.60899004861245</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.01915068493150685</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Заслонова ул.2; Городской округ Дзержинск р-н, Петряевка п., ул.Южный массив 1-61; Городской округ Дзержинск р-н, Петряевка п., Восточная ул.24; </t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>24.5007622619585</v>
+      </c>
+      <c r="E98" t="n">
+        <v>29.40091471435019</v>
+      </c>
+      <c r="F98" t="n">
+        <v>24.59637507472211</v>
+      </c>
+      <c r="G98" t="n">
+        <v>29.51565008966654</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>69.43562104386507</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.434054794520548</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., 19 линия ул. (Новое Доскино п), д.14 А; Нижний Новгород г., Береговая ул.15; 9 линия ул. (Новое Доскино п)1-30; Городской округ Дзержинск р-н, Гавриловка п., Кооперативная ул., д.1-102; </t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>24.58172477055132</v>
+      </c>
+      <c r="E99" t="n">
+        <v>29.49806972466158</v>
+      </c>
+      <c r="F99" t="n">
+        <v>24.66006637991444</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29.59207965589732</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>89.00377370806979</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.137753424657534</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Старый рабочий поселок ул 73; </t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>24.65601975224103</v>
+      </c>
+      <c r="E100" t="n">
+        <v>29.58722370268923</v>
+      </c>
+      <c r="F100" t="n">
+        <v>24.66497778062386</v>
+      </c>
+      <c r="G100" t="n">
+        <v>29.59797333674864</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>78.66980739784485</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.6958082191780822</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), П.Морозова д.1-28; 17 линия ул. (Новое Доскино п)1-55; </t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>24.66006637991444</v>
+      </c>
+      <c r="E101" t="n">
+        <v>29.59207965589732</v>
+      </c>
+      <c r="F101" t="n">
+        <v>24.69957787402955</v>
+      </c>
+      <c r="G101" t="n">
+        <v>29.63949344883547</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>96.28276770181699</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.431945205479452</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 линия ул. (Новое Доскино п)1-30; </t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>24.6694975636403</v>
+      </c>
+      <c r="E102" t="n">
+        <v>29.60339707636835</v>
+      </c>
+      <c r="F102" t="n">
+        <v>24.72162986313124</v>
+      </c>
+      <c r="G102" t="n">
+        <v>29.66595583575749</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>50.48605091275685</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.446794520547945</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Героя Советского Союза Бахтина ул.5; </t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>24.69957787402955</v>
+      </c>
+      <c r="E103" t="n">
+        <v>29.63949344883547</v>
+      </c>
+      <c r="F103" t="n">
+        <v>24.72162986313124</v>
+      </c>
+      <c r="G103" t="n">
+        <v>29.66595583575749</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>53.06385367720765</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.7076712328767123</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Героя Советского Союза Бахтина ул.10; г.Дзержинск(п.Игумново), Чапаева ул.д.1-6; 19 линия ул. (Новое Доскино п)1-24; </t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>24.72162986313124</v>
+      </c>
+      <c r="E104" t="n">
+        <v>29.66595583575749</v>
+      </c>
+      <c r="F104" t="n">
+        <v>24.7485408439475</v>
+      </c>
+      <c r="G104" t="n">
+        <v>29.698249012737</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>91.17667797537432</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4.476602739726028</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Гризодубовой ул., д.1-121; </t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>24.74043171565186</v>
+      </c>
+      <c r="E105" t="n">
+        <v>29.68851805878223</v>
+      </c>
+      <c r="F105" t="n">
+        <v>24.75135610076619</v>
+      </c>
+      <c r="G105" t="n">
+        <v>29.70162732091943</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>71.95189805854339</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.6683561643835616</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., Садовая (п.Игумново) ул.1; </t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>24.7485408439475</v>
+      </c>
+      <c r="E106" t="n">
+        <v>29.698249012737</v>
+      </c>
+      <c r="F106" t="n">
+        <v>24.75135610076619</v>
+      </c>
+      <c r="G106" t="n">
+        <v>29.70162732091943</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>52.05995026789837</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.487369863013699</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), С.Лазо д.1-26; Городской округ Дзержинск р-н, Гавриловка п., Набережная д.1-17; </t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>24.75135610076619</v>
+      </c>
+      <c r="E107" t="n">
+        <v>29.70162732091943</v>
+      </c>
+      <c r="F107" t="n">
+        <v>24.81876813162061</v>
+      </c>
+      <c r="G107" t="n">
+        <v>29.78252175794473</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>62.298846041372</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.3817260273972603</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Широкий пер.д.1-5; </t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>24.80206111449804</v>
+      </c>
+      <c r="E108" t="n">
+        <v>29.76247333739765</v>
+      </c>
+      <c r="F108" t="n">
+        <v>24.84543292333094</v>
+      </c>
+      <c r="G108" t="n">
+        <v>29.81451950799713</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>62.44362787766859</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.3064109589041096</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 линия ул. (Новое Доскино п)1-32; </t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>24.81876813162061</v>
+      </c>
+      <c r="E109" t="n">
+        <v>29.78252175794473</v>
+      </c>
+      <c r="F109" t="n">
+        <v>24.85017986237108</v>
+      </c>
+      <c r="G109" t="n">
+        <v>29.82021583484529</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>71.96372981209798</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.08936986301369863</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Суворова ул.д.1-19; </t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24.84543292333094</v>
+      </c>
+      <c r="E110" t="n">
+        <v>29.81451950799713</v>
+      </c>
+      <c r="F110" t="n">
+        <v>24.85752042519564</v>
+      </c>
+      <c r="G110" t="n">
+        <v>29.82902451023476</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>72.36970381675459</v>
+      </c>
+      <c r="J110" t="n">
+        <v>9.006465753424658</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Федеративная ул. Д 1-27; </t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>24.85017986237108</v>
+      </c>
+      <c r="E111" t="n">
+        <v>29.82021583484529</v>
+      </c>
+      <c r="F111" t="n">
+        <v>24.8635790318148</v>
+      </c>
+      <c r="G111" t="n">
+        <v>29.83629483817776</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>50.32122528271525</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.3638630136986302</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 линия ул. (Новое Доскино п)1-29; </t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>24.85752042519564</v>
+      </c>
+      <c r="E112" t="n">
+        <v>29.82902451023476</v>
+      </c>
+      <c r="F112" t="n">
+        <v>24.86748166997431</v>
+      </c>
+      <c r="G112" t="n">
+        <v>29.84097800396918</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>72.07668231533513</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.2808767123287672</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Кольцова ул.1-29; </t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>24.8635790318148</v>
+      </c>
+      <c r="E113" t="n">
+        <v>29.83629483817776</v>
+      </c>
+      <c r="F113" t="n">
+        <v>24.87735226525428</v>
+      </c>
+      <c r="G113" t="n">
+        <v>29.85282271830514</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>72.44312968138416</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.6211780821917808</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Городская ул.д.1-31; </t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>24.86748166997431</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29.84097800396918</v>
+      </c>
+      <c r="F114" t="n">
+        <v>24.89477724757377</v>
+      </c>
+      <c r="G114" t="n">
+        <v>29.87373269708852</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>51.78243141225467</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2106575342465754</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., 19 линия ул. (Новое Доскино п)25; </t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>24.87735226525428</v>
+      </c>
+      <c r="E115" t="n">
+        <v>29.85282271830514</v>
+      </c>
+      <c r="F115" t="n">
+        <v>24.90222357653588</v>
+      </c>
+      <c r="G115" t="n">
+        <v>29.88266829184305</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>72.18228611777295</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.059671232876712</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Володарский р-н, Решетиха пгт., Затылкова ул.2 А; р.п. Решетиха, ул.Затылкова д.2; Володарский р-н, Решетиха пгт., Кирова ул.1б; Володарский р-н, Решетиха пгт., Затылкова ул.2 А; р.п. Решетиха, ул.Кирова д.1В; 20 линия ул. (Новое Доскино п)1--36; Нижний Новгород г., Заслонова ул.20; </t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>24.89477724757377</v>
+      </c>
+      <c r="E116" t="n">
+        <v>29.87373269708852</v>
+      </c>
+      <c r="F116" t="n">
+        <v>24.91484467716249</v>
+      </c>
+      <c r="G116" t="n">
+        <v>29.89781361259498</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>119.2828962852903</v>
+      </c>
+      <c r="J116" t="n">
+        <v>8.814849315068493</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Дубинина ул.1-15; 5 линия ул. (Новое Доскино п)1-28; </t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>24.91297052630476</v>
+      </c>
+      <c r="E117" t="n">
+        <v>29.89556463156572</v>
+      </c>
+      <c r="F117" t="n">
+        <v>24.95813703543805</v>
+      </c>
+      <c r="G117" t="n">
+        <v>29.94976444252566</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>67.64508602591883</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2668219178082192</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юрьевец п., Краснофлотская ул., д.1-54; </t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>24.95580530944444</v>
+      </c>
+      <c r="E118" t="n">
+        <v>29.94696637133333</v>
+      </c>
+      <c r="F118" t="n">
+        <v>24.96347015663651</v>
+      </c>
+      <c r="G118" t="n">
+        <v>29.95616418796381</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>72.80435549348944</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5110958904109589</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Садовая ул. д. 1-22; </t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>24.95813703543805</v>
+      </c>
+      <c r="E119" t="n">
+        <v>29.94976444252566</v>
+      </c>
+      <c r="F119" t="n">
+        <v>24.9900162027195</v>
+      </c>
+      <c r="G119" t="n">
+        <v>29.9880194432634</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>52.77549918687474</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7532602739726028</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 линия ул. (Новое Доскино п)1-22; </t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>24.96347015663651</v>
+      </c>
+      <c r="E120" t="n">
+        <v>29.95616418796381</v>
+      </c>
+      <c r="F120" t="n">
+        <v>25.00039029289685</v>
+      </c>
+      <c r="G120" t="n">
+        <v>30.00046835147622</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>72.54792757204412</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.2489589041095891</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Дербасовой ул., д. 1-65; </t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>24.9900162027195</v>
+      </c>
+      <c r="E121" t="n">
+        <v>29.9880194432634</v>
+      </c>
+      <c r="F121" t="n">
+        <v>25.03269542519428</v>
+      </c>
+      <c r="G121" t="n">
+        <v>30.03923451023314</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>61.14177477535016</v>
+      </c>
+      <c r="J121" t="n">
+        <v>8.503232876712328</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">31 линия ул. (Новое Доскино п)1-26; </t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>25.00039029289685</v>
+      </c>
+      <c r="E122" t="n">
+        <v>30.00046835147622</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25.03284394695116</v>
+      </c>
+      <c r="G122" t="n">
+        <v>30.0394127363414</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>60.01509751388807</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.4596164383561644</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16 линия ул. (Новое Доскино п)1-56; </t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>25.03269542519428</v>
+      </c>
+      <c r="E123" t="n">
+        <v>30.03923451023314</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25.03649420138005</v>
+      </c>
+      <c r="G123" t="n">
+        <v>30.04379304165606</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>50.36284754567363</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.6526301369863013</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">29 линия ул. (Новое Доскино п)1-7; </t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>25.03284394695116</v>
+      </c>
+      <c r="E124" t="n">
+        <v>30.0394127363414</v>
+      </c>
+      <c r="F124" t="n">
+        <v>25.05078979236582</v>
+      </c>
+      <c r="G124" t="n">
+        <v>30.06094775083898</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>50.69567630424233</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.572602739726027</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 линия ул. (Новое Доскино п)1-36; </t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>25.03649420138005</v>
+      </c>
+      <c r="E125" t="n">
+        <v>30.04379304165606</v>
+      </c>
+      <c r="F125" t="n">
+        <v>25.06044468795574</v>
+      </c>
+      <c r="G125" t="n">
+        <v>30.0725336255469</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>50.84837596993988</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04717808219178082</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 линия ул. (Новое Доскино п)1-22; </t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>25.05078979236582</v>
+      </c>
+      <c r="E126" t="n">
+        <v>30.06094775083898</v>
+      </c>
+      <c r="F126" t="n">
+        <v>25.08666710147659</v>
+      </c>
+      <c r="G126" t="n">
+        <v>30.10400052177192</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>51.97453942247945</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.9278356164383561</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Новая ул.д1-8; </t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>25.06044468795574</v>
+      </c>
+      <c r="E127" t="n">
+        <v>30.0725336255469</v>
+      </c>
+      <c r="F127" t="n">
+        <v>25.09608227309099</v>
+      </c>
+      <c r="G127" t="n">
+        <v>30.11529872770919</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>61.4322954022991</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.5110958904109589</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 линия ул. (Новое Доскино п)1-22; </t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25.08666710147659</v>
+      </c>
+      <c r="E128" t="n">
+        <v>30.10400052177192</v>
+      </c>
+      <c r="F128" t="n">
+        <v>25.10305088851248</v>
+      </c>
+      <c r="G128" t="n">
+        <v>30.12366106621498</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>60.32124492050558</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.1149041095890411</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 линия ул. (Новое Доскино п)1-50; </t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>25.09608227309099</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.11529872770919</v>
+      </c>
+      <c r="F129" t="n">
+        <v>25.12054636431641</v>
+      </c>
+      <c r="G129" t="n">
+        <v>30.1446556371797</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>51.75834467576374</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4796438356164384</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Квартал 1 ул. (Новое Доскино п)1-11А; </t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>25.10305088851248</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30.12366106621498</v>
+      </c>
+      <c r="F130" t="n">
+        <v>25.121140569556</v>
+      </c>
+      <c r="G130" t="n">
+        <v>30.1453686834672</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>51.79037158765024</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.15586301369863</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Дружбы ул. д.1-18 ; </t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>25.12054636431641</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30.1446556371797</v>
+      </c>
+      <c r="F131" t="n">
+        <v>25.13469645156685</v>
+      </c>
+      <c r="G131" t="n">
+        <v>30.16163574188022</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>73.46806743228167</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1965753424657534</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Советская ул., д. 1-51а; </t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>25.121140569556</v>
+      </c>
+      <c r="E132" t="n">
+        <v>30.1453686834672</v>
+      </c>
+      <c r="F132" t="n">
+        <v>25.1371607627609</v>
+      </c>
+      <c r="G132" t="n">
+        <v>30.16459291531308</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>63.91650208646026</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.6255890410958904</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, ул.Затылкова д.3; </t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>25.13469645156685</v>
+      </c>
+      <c r="E133" t="n">
+        <v>30.16163574188022</v>
+      </c>
+      <c r="F133" t="n">
+        <v>25.15820743245421</v>
+      </c>
+      <c r="G133" t="n">
+        <v>30.18984891894505</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>80.5974848311733</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.5745205479452056</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 линия ул. (Новое Доскино п)1-22; г.Дзержинск(п.Игумново), 40 лет Октября ул. д 1-21; </t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>25.1371607627609</v>
+      </c>
+      <c r="E134" t="n">
+        <v>30.16459291531308</v>
+      </c>
+      <c r="F134" t="n">
+        <v>25.172076922656</v>
+      </c>
+      <c r="G134" t="n">
+        <v>30.2064923071872</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>107.0483786210698</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3.787506849315069</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18 линия ул. (Новое Доскино п)1-55; </t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>25.16133138223941</v>
+      </c>
+      <c r="E135" t="n">
+        <v>30.19359765868729</v>
+      </c>
+      <c r="F135" t="n">
+        <v>25.1772848885685</v>
+      </c>
+      <c r="G135" t="n">
+        <v>30.21274186628219</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>73.30260533885806</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.817095890410959</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Школьная ул.д.1-37; </t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>25.172076922656</v>
+      </c>
+      <c r="E136" t="n">
+        <v>30.2064923071872</v>
+      </c>
+      <c r="F136" t="n">
+        <v>25.18850088596115</v>
+      </c>
+      <c r="G136" t="n">
+        <v>30.22620106315338</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>73.68107730236764</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.9907397260273972</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">27 линия ул. (Новое Доскино п)1-13; </t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>25.1772848885685</v>
+      </c>
+      <c r="E137" t="n">
+        <v>30.21274186628219</v>
+      </c>
+      <c r="F137" t="n">
+        <v>25.18952024479192</v>
+      </c>
+      <c r="G137" t="n">
+        <v>30.2274242937503</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>73.36317167104481</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.4787671232876713</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21 линия ул. (Новое Доскино п)1-36; </t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>25.18850088596115</v>
+      </c>
+      <c r="E138" t="n">
+        <v>30.22620106315338</v>
+      </c>
+      <c r="F138" t="n">
+        <v>25.19736068800224</v>
+      </c>
+      <c r="G138" t="n">
+        <v>30.23683282560269</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>51.21888402000379</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.3066575342465753</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">24 линия ул. (Новое Доскино п)1-34; </t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25.18952024479192</v>
+      </c>
+      <c r="E139" t="n">
+        <v>30.2274242937503</v>
+      </c>
+      <c r="F139" t="n">
+        <v>25.20195776032777</v>
+      </c>
+      <c r="G139" t="n">
+        <v>30.24234931239332</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>51.2676960378201</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.037917808219178</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юрьевец п., Песчанный пер.1-22; </t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25.19736068800224</v>
+      </c>
+      <c r="E140" t="n">
+        <v>30.23683282560269</v>
+      </c>
+      <c r="F140" t="n">
+        <v>25.20420508469307</v>
+      </c>
+      <c r="G140" t="n">
+        <v>30.24504610163169</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>73.77202190355132</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.8492054794520547</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 линия ул. (Новое Доскино п)2-19; </t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25.20195776032777</v>
+      </c>
+      <c r="E141" t="n">
+        <v>30.24234931239332</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25.22796638241707</v>
+      </c>
+      <c r="G141" t="n">
+        <v>30.27355965890048</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>73.46666775092042</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.134054794520548</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Озерная ул.д.1-43; </t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>25.20420508469307</v>
+      </c>
+      <c r="E142" t="n">
+        <v>30.24504610163169</v>
+      </c>
+      <c r="F142" t="n">
+        <v>25.22796638241707</v>
+      </c>
+      <c r="G142" t="n">
+        <v>30.27355965890048</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>73.83548061674627</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.2909315068493151</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Октябрьская ул.д. 1-22; </t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>25.22796638241707</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.27355965890048</v>
+      </c>
+      <c r="F143" t="n">
+        <v>25.26493003340866</v>
+      </c>
+      <c r="G143" t="n">
+        <v>30.31791604009039</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>50.49289641582573</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.5234520547945206</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">32 линия ул. (Новое Доскино п)1-16; </t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>25.22796638241707</v>
+      </c>
+      <c r="E144" t="n">
+        <v>30.27355965890048</v>
+      </c>
+      <c r="F144" t="n">
+        <v>25.27235877634435</v>
+      </c>
+      <c r="G144" t="n">
+        <v>30.32683053161322</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>73.62380233774189</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.3447123287671233</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юрьевец п., Западная ул.д.1-42; </t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>25.26493003340866</v>
+      </c>
+      <c r="E145" t="n">
+        <v>30.31791604009039</v>
+      </c>
+      <c r="F145" t="n">
+        <v>25.27675657628171</v>
+      </c>
+      <c r="G145" t="n">
+        <v>30.33210789153805</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>74.05011310196937</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.3852876712328767</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">33 линия ул. (Новое Доскино п)1-20; </t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>25.27235877634435</v>
+      </c>
+      <c r="E146" t="n">
+        <v>30.32683053161322</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25.30966392791901</v>
+      </c>
+      <c r="G146" t="n">
+        <v>30.37159671350281</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>73.76171882004417</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.3766301369863014</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юрьевец п., Мирный пер.1-13; </t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>25.27675657628171</v>
+      </c>
+      <c r="E147" t="n">
+        <v>30.33210789153805</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25.32339551093949</v>
+      </c>
+      <c r="G147" t="n">
+        <v>30.38807461312739</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>74.15771027394791</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.1493972602739726</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 линия ул. (Новое Доскино п)1-24; </t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25.30966392791901</v>
+      </c>
+      <c r="E148" t="n">
+        <v>30.37159671350281</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25.32798335464561</v>
+      </c>
+      <c r="G148" t="n">
+        <v>30.39358002557473</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>73.90128748457788</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.08936986301369863</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 линия ул. (Новое Доскино п)1-29; </t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>25.32339551093949</v>
+      </c>
+      <c r="E149" t="n">
+        <v>30.38807461312739</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25.32798335464561</v>
+      </c>
+      <c r="G149" t="n">
+        <v>30.39358002557473</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>51.48083282675017</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.401013698630137</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23 линия ул. (Новое Доскино п)1-38; </t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>25.32798335464561</v>
+      </c>
+      <c r="E150" t="n">
+        <v>30.39358002557473</v>
+      </c>
+      <c r="F150" t="n">
+        <v>25.34370520434583</v>
+      </c>
+      <c r="G150" t="n">
+        <v>30.41244624521499</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>50.67168855899143</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.4953698630136986</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Квартал 4 ул. (Новое Доскино п)1-10; </t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>25.32798335464561</v>
+      </c>
+      <c r="E151" t="n">
+        <v>30.39358002557473</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25.36489919213103</v>
+      </c>
+      <c r="G151" t="n">
+        <v>30.43787903055724</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>53.09041915408353</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.8570684931506849</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Квартал 2 ул. (Новое Доскино п)1-12; </t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>25.34370520434583</v>
+      </c>
+      <c r="E152" t="n">
+        <v>30.41244624521499</v>
+      </c>
+      <c r="F152" t="n">
+        <v>25.36760903147796</v>
+      </c>
+      <c r="G152" t="n">
+        <v>30.44113083777356</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>51.02207452964619</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.1887123287671233</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Кутузова ул.д.1-65; </t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>25.36489919213103</v>
+      </c>
+      <c r="E153" t="n">
+        <v>30.43787903055724</v>
+      </c>
+      <c r="F153" t="n">
+        <v>25.38078718697733</v>
+      </c>
+      <c r="G153" t="n">
+        <v>30.4569446243728</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>74.44933228524336</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.2516164383561644</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 линия ул. (Новое Доскино п)1-33; </t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>25.36760903147796</v>
+      </c>
+      <c r="E154" t="n">
+        <v>30.44113083777356</v>
+      </c>
+      <c r="F154" t="n">
+        <v>25.41526795356671</v>
+      </c>
+      <c r="G154" t="n">
+        <v>30.49832154428005</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>74.16185396665472</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.6958082191780822</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">28 линия ул. (Новое Доскино п)1-12; </t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>25.38078718697733</v>
+      </c>
+      <c r="E155" t="n">
+        <v>30.4569446243728</v>
+      </c>
+      <c r="F155" t="n">
+        <v>25.41731585145761</v>
+      </c>
+      <c r="G155" t="n">
+        <v>30.50077902174913</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>51.63450532508168</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.7233972602739726</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Квартал 5 ул. (Новое Доскино п)2-8; </t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>25.41526795356671</v>
+      </c>
+      <c r="E156" t="n">
+        <v>30.49832154428005</v>
+      </c>
+      <c r="F156" t="n">
+        <v>25.42447138154336</v>
+      </c>
+      <c r="G156" t="n">
+        <v>30.50936565785203</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>53.39817118844986</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.3223835616438356</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Квартал 3 ул. (Новое Доскино п)1-12; </t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>25.41731585145761</v>
+      </c>
+      <c r="E157" t="n">
+        <v>30.50077902174913</v>
+      </c>
+      <c r="F157" t="n">
+        <v>25.43112465501433</v>
+      </c>
+      <c r="G157" t="n">
+        <v>30.51734958601719</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>51.14866081877375</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.09435616438356163</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Песочная ул.4; </t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>25.42447138154336</v>
+      </c>
+      <c r="E158" t="n">
+        <v>30.50936565785203</v>
+      </c>
+      <c r="F158" t="n">
+        <v>25.48595989491349</v>
+      </c>
+      <c r="G158" t="n">
+        <v>30.58315187389619</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>84.7305081635193</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.228027397260274</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дзержинск г., , д.; р.п. Решетиха, ул.Пролетарская д.5; Городской округ Дзержинск р-н, Гавриловка п., Чапаева ул., д.1-54; Городской округ Дзержинск р-н, Гавриловка п., Полевая ул.д. 1-40; </t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>25.43112465501433</v>
+      </c>
+      <c r="E159" t="n">
+        <v>30.51734958601719</v>
+      </c>
+      <c r="F159" t="n">
+        <v>25.55062206693561</v>
+      </c>
+      <c r="G159" t="n">
+        <v>30.66074648032273</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>132.1540126341627</v>
+      </c>
+      <c r="J159" t="n">
+        <v>6.194520547945206</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Юрьевец п., Полевая ул.д.1-56; </t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>25.53559201174459</v>
+      </c>
+      <c r="E160" t="n">
+        <v>30.64271041409351</v>
+      </c>
+      <c r="F160" t="n">
+        <v>25.56593955757096</v>
+      </c>
+      <c r="G160" t="n">
+        <v>30.67912746908515</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>64.98491138779055</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.2234246575342466</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Кирова пр-т.2; </t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>25.55062206693561</v>
+      </c>
+      <c r="E161" t="n">
+        <v>30.66074648032273</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25.60202030297203</v>
+      </c>
+      <c r="G161" t="n">
+        <v>30.72242436356643</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>76.30393056129405</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.5426027397260275</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Советская ул.76; Володарский р-н, Решетиха пгт., Комсомольская ул.91А; р.п. Решетиха, Комсомольская ул.88; р.п. Решетиха, ул.Кирова д.10; р.п. Решетиха, Комсомольская ул.102; р.п. Решетиха, Комсомольская ул.101; р.п. Решетиха, ул.Комсомольская д.95; Городской округ Дзержинск р-н, Гавриловка п., Лесной пер., д.1-28; Юрьевец п., Волжская ул.д.1-67; </t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>25.56593955757096</v>
+      </c>
+      <c r="E162" t="n">
+        <v>30.67912746908515</v>
+      </c>
+      <c r="F162" t="n">
+        <v>25.79899458162309</v>
+      </c>
+      <c r="G162" t="n">
+        <v>30.9587934979477</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>99.5143659152487</v>
+      </c>
+      <c r="J162" t="n">
+        <v>23.32213698630137</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Пролетарская ул.33; </t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>25.69377420119442</v>
+      </c>
+      <c r="E163" t="n">
+        <v>30.8325290414333</v>
+      </c>
+      <c r="F163" t="n">
+        <v>25.83362833609755</v>
+      </c>
+      <c r="G163" t="n">
+        <v>31.00035400331706</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>76.82856183193044</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.7341095890410959</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, ул.Кирова д.19; р.п. Решетиха, Чкалова ул.1; р.п. Решетиха, Кирова пр-т.16; р.п. Решетиха, ул.Чкалова д.2А; р.п. Решетиха, Комсомольская ул.13; р.п. Решетиха, Кирова пр-т.11; Городской округ Дзержинск р-н, Гавриловка п., 1 Мая ул., д. 1-74; р.п. Решетиха, Пионерская ул.20; </t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>25.79899458162309</v>
+      </c>
+      <c r="E164" t="n">
+        <v>30.9587934979477</v>
+      </c>
+      <c r="F164" t="n">
+        <v>26.12157858215956</v>
+      </c>
+      <c r="G164" t="n">
+        <v>31.34589429859147</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>121.3895533988152</v>
+      </c>
+      <c r="J164" t="n">
+        <v>23.78942465753425</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Решетиха, Кирова пр-т.5а; р.п. Решетиха, Индивидуальная ул.26; р.п. Решетиха, Красная ул.43А; р.п. Решетиха, ул.Савельева д.33; р.п. Решетиха, Санаторная ул.16; р.п. Решетиха, Савельева ул.12; р.п. Решетиха, Сосновый бор ул.18; Володарский р-н, Решетиха пгт., Парковая  ул.7; Нижний Новгород г., Молодежный пр-т.88; Нижний Новгород г., Молодежный пр-т.84; Петряевская ул.3; Отечественная ул. (Гнилицы п)1; Нижний Новгород г., Петряевка ст.; Молодежный пр-т., д.74а; Молодежный пр-т.25; г. Володарск, Центральная ул.13; Молодежный пр-т.62; Ильича пр-т.56А; Ильича пр-т.56к1; Толбухина ул.20; Толбухина ул.17; Молодежный пр-т.72; Ильича пр-т.59; Обнорского ул.33; Ильича пр-т.65; Нижний Новгород г., Толбухина ул.5Б; Ильича пр-т.51; Молодежный пр-т.7; Красных Партизан ул.6; Молодежный пр-т.54; Молодежный пр-т.1Б; Карьерная ул.1А; Толбухина ул.20 А; Молодежный пр-т.78А; Красноуральская ул.13к2; Молодежный пр-т.76; Красных Партизан ул.4/4; </t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>37</v>
+      </c>
+      <c r="D165" t="n">
+        <v>26.12157858215956</v>
+      </c>
+      <c r="E165" t="n">
+        <v>31.34589429859147</v>
+      </c>
+      <c r="F165" t="n">
+        <v>29.61564140554395</v>
+      </c>
+      <c r="G165" t="n">
+        <v>35.53876968665274</v>
+      </c>
+      <c r="H165" t="n">
+        <v>652.6732071304253</v>
+      </c>
+      <c r="I165" t="n">
+        <v>231.2352131538703</v>
+      </c>
+      <c r="J165" t="n">
+        <v>75.40000000000002</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Спутника ул.7А; Нижний Новгород г., Спутника ул.7Б; Ильича пр-т.56/2; Нижний Новгород г., Ильича пр-т.50к3; Красных Партизан ул.8; Нижний Новгород г., Красных Партизан ул.8А; Нижний Новгород г., Державина ул. (Стригино п)80; Рулевой пер.15; Ильича пр-т.42; Красных Партизан ул.12; г. Володарск, Островского ул.29А; Нижний Новгород г., Сазанова ул.10А; Молодежный пр-т.38к2; Молодежный пр-т.38; Молодежный пр-т.33; Молодежный пр-т.31к2; Молодежный пр-т.33; Рулевой пер.7; Ильича пр-т.39к2; Ильича пр-т.39; Молодежный пр-т.38к1; Рулевой пер.11; Ильича пр-т.43; Ильича пр-т.43к1; Ильича пр-т.43к2; Молодежный пр-т.38к1; Ильича пр-т.39к1; Молодежный пр-т.42; Ильича пр-т.38; Ильича пр-т.40; Нижний Новгород г., Молодежный пр-т.30А; Молодежный пр-т.32; Краснодонцев ул.1; Чусовая ул. (Парижской коммуны п)8; Шанхайская ул. (Парижской коммуны п)17; Володарск г., Мичурина ул.6В; Ватутина ул.1А; </t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>37</v>
+      </c>
+      <c r="D166" t="n">
+        <v>29.6067883389569</v>
+      </c>
+      <c r="E166" t="n">
+        <v>35.52814600674827</v>
+      </c>
+      <c r="F166" t="n">
+        <v>30.2483247507096</v>
+      </c>
+      <c r="G166" t="n">
+        <v>36.29798970085152</v>
+      </c>
+      <c r="H166" t="n">
+        <v>796.2191278415955</v>
+      </c>
+      <c r="I166" t="n">
+        <v>284.4743292568378</v>
+      </c>
+      <c r="J166" t="n">
+        <v>68.09000000000002</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ватутина ул.2; Ватутина ул.3; Ватутина ул.4; г. Володарск, Островского ул.1А; Чусовая ул. (Парижской коммуны п)4; Шанхайская ул. (Парижской коммуны п)Чусовая; Ремонтная ул. (Парижской коммуны п)16; г.Володарск,ул.Мичурина д.4; Кирова пр-т43А; </t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>30.2483247507096</v>
+      </c>
+      <c r="E167" t="n">
+        <v>36.29798970085152</v>
+      </c>
+      <c r="F167" t="n">
+        <v>30.35094283945877</v>
+      </c>
+      <c r="G167" t="n">
+        <v>36.42113140735053</v>
+      </c>
+      <c r="H167" t="n">
+        <v>687.4363243994703</v>
+      </c>
+      <c r="I167" t="n">
+        <v>262.978712489708</v>
+      </c>
+      <c r="J167" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Красных Партизан ул.16; Красных Партизан ул.14; Ильича пр-т.42А; Кирова пр-т35; Нижний Новгород г., Кирова пр-т24А; Кирова пр-т24; Красных Партизан ул.18; Кирова пр-т20/2; Молодежный пр-т.30; Молодежный пр-т.28А; Нижний Новгород г., Школьная ул.4; Ильича пр-т.37; Виктора Коноваленко б-р.4; Ильича пр-т.36; г. Володарск, Мичурина ул.9; Молодежный пр-т.31к3; Молодежный пр-т.31к3; Краснодонцев ул.3; Ильича пр-т.33; Нижний Новгород г., Краснодонцев ул.1А; Любы Шевцовой ул.1А; Нижний Новгород г., Мончегорская ул.33А; Нижний Новгород г., Мончегорская ул.13Д; Нижний Новгород г., Мончегорская ул.17Ак5; </t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>24</v>
+      </c>
+      <c r="D168" t="n">
+        <v>30.35094283945877</v>
+      </c>
+      <c r="E168" t="n">
+        <v>36.42113140735053</v>
+      </c>
+      <c r="F168" t="n">
+        <v>30.50876780104155</v>
+      </c>
+      <c r="G168" t="n">
+        <v>36.61052136124987</v>
+      </c>
+      <c r="H168" t="n">
+        <v>458.5541045595241</v>
+      </c>
+      <c r="I168" t="n">
+        <v>171.2373683578915</v>
+      </c>
+      <c r="J168" t="n">
+        <v>72.06</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Краснодонцев ул.4; Ильича пр-т.34; Краснодонцев ул.5; Ильича пр-т.38А; Кирова пр-т33А; Ватутина ул.16А; Нижний Новгород г., Кирова пр-т20/1; Кирова пр-т20/1; Кирова пр-т20; Нижний Новгород г., Ореховская ул.80; Молодежный пр-т.24А; Молодежный пр-т.18; Молодежный пр-т.18А; Молодежный пр-т.26; р.п.Смолино,Детский переулок д.2; Краснодонцев ул.11А; Ватутина ул.13; Ватутина ул.14; Кирова пр-т16; Керженская ул.5; Нижний Новгород г., Школьная ул.5; Школьная ул.5А; Ильича пр-т.29; Нижний Новгород г., Школьная ул.2; г. Володарск, Мичурина ул.10; Володарск г., Больничная ул..15; Володарск г., Больничная ул..13А; Володарск г., Мичурина ул.19Б; г.Володарск, Мичурина ул.1; г. Володарск, Мичурина ул.14; г. Володарск, Больничная ул.5; </t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>31</v>
+      </c>
+      <c r="D169" t="n">
+        <v>30.48821421037459</v>
+      </c>
+      <c r="E169" t="n">
+        <v>36.58585705244951</v>
+      </c>
+      <c r="F169" t="n">
+        <v>30.79015768424301</v>
+      </c>
+      <c r="G169" t="n">
+        <v>36.94818922109161</v>
+      </c>
+      <c r="H169" t="n">
+        <v>692.3461589765959</v>
+      </c>
+      <c r="I169" t="n">
+        <v>249.6984725359997</v>
+      </c>
+      <c r="J169" t="n">
+        <v>71.26000000000002</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Молодежный пр-т.14; Молодежный пр-т.12А; Молодежный пр-т.12Б; Молодежный пр-т.4А; р.п. Смолино, 1 мая ул.17; р.п. Смолино,ул.Ленина д.4; Володарский р-н, Смолино пгт., Детский пер.1; р.п. Смолино, Энтузиастов ул.13; г.Володарск, Заречная , напротив д.17 (около остановочного павильона); Володарск г., Мичурина ул.5; г. Володарск, Мичурина ул.15; Бусыгина пр-т.56; Кирова пр-т31А; Краснодонцев ул.7А; Бусыгина пр-т.58; Бусыгина пр-т.60; Ильича пр-т.23А; Ильича пр-т.20; Ильича пр-т.25; Ильича пр-т.17; Ильича пр-т.21; Ильича пр-т.26; Комсомольская ул.37; Комсомольская ул.39; Строкина ул.19; Комсомольская ул.52; Красных Партизан ул.18А; Строкина ул.18А; </t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>28</v>
+      </c>
+      <c r="D170" t="n">
+        <v>30.76463169976197</v>
+      </c>
+      <c r="E170" t="n">
+        <v>36.91755803971436</v>
+      </c>
+      <c r="F170" t="n">
+        <v>30.86934335817645</v>
+      </c>
+      <c r="G170" t="n">
+        <v>37.04321202981174</v>
+      </c>
+      <c r="H170" t="n">
+        <v>676.0687686022015</v>
+      </c>
+      <c r="I170" t="n">
+        <v>243.9066008009897</v>
+      </c>
+      <c r="J170" t="n">
+        <v>72.84</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Строкина ул.18; Комсомольская ул.50; Комсомольская ул.48; Кирова пр-т20/3; Краснодонцев ул.11; Краснодонцев ул.13; Краснодонцев ул.9; Кирова пр-т31; Янтарный пер. (Парижской коммуны п)2; Ермоловой ул.25; Нижний Новгород г., Молодежный пр-т.4Б; р.п. Смолино, Ленина ул.12; г. Володарск, Суворова ул.7; Володарск г., Суворова ул.7А; р.п. Смолино, Ленина ул.9 (11); Братская ул. (Парижской коммуны п)28; г. Володарск, Юганецкая ул.26; г. Володарск, Колхозная ул.1; Стрелочная ул. (Парижской коммуны п)4; </t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>19</v>
+      </c>
+      <c r="D171" t="n">
+        <v>30.86934335817645</v>
+      </c>
+      <c r="E171" t="n">
+        <v>37.04321202981174</v>
+      </c>
+      <c r="F171" t="n">
+        <v>31.00704022217074</v>
+      </c>
+      <c r="G171" t="n">
+        <v>37.2084482666049</v>
+      </c>
+      <c r="H171" t="n">
+        <v>836.0201648333364</v>
+      </c>
+      <c r="I171" t="n">
+        <v>303.0353678481887</v>
+      </c>
+      <c r="J171" t="n">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Володарск, Куйбышева ул.40; г. Володарск, Лермонтова ул.21; Красноармейская ул. (Парижской коммуны п)3; Кирова пр-т25; Нижний Новгород г., Кирова пр-т29А; Школьная ул.6; Челюскинцев ул.11; Кирова пр-т10; г. Володарск, Мичурина ул.20; г. Володарск, Лядова ул.46; г. Володарск, Лермонтова ул.1; Ильича пр-т.8; </t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12</v>
+      </c>
+      <c r="D172" t="n">
+        <v>30.97950489695704</v>
+      </c>
+      <c r="E172" t="n">
+        <v>37.17540587634844</v>
+      </c>
+      <c r="F172" t="n">
+        <v>31.0873145563037</v>
+      </c>
+      <c r="G172" t="n">
+        <v>37.30477746756443</v>
+      </c>
+      <c r="H172" t="n">
+        <v>688.9135938806908</v>
+      </c>
+      <c r="I172" t="n">
+        <v>261.6462154547082</v>
+      </c>
+      <c r="J172" t="n">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ильича пр-т.7; Ильича пр-т.9; Ильича пр-т.13; Литке ул. (Парижской коммуны п)4; г. Володарск, Заречная ул.4; Янки Купалы ул.46; Янки Купалы ул.44; Янки Купалы ул.40; Янки Купалы ул.29А; Янки Купалы ул.38; Янки Купалы ул.36; Янки Купалы ул.34; Коломенская ул.12; Янки Купалы ул.31; Янки Купалы ул.46к2; Янки Купалы ул.29; Янки Купалы ул.27А; р.п. Смолино, Бубнова ул.3; Некрасова ул. (Парижской коммуны п)д. 13 к1; </t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>19</v>
+      </c>
+      <c r="D173" t="n">
+        <v>31.0873145563037</v>
+      </c>
+      <c r="E173" t="n">
+        <v>37.30477746756443</v>
+      </c>
+      <c r="F173" t="n">
+        <v>31.14796173734034</v>
+      </c>
+      <c r="G173" t="n">
+        <v>37.37755408480841</v>
+      </c>
+      <c r="H173" t="n">
+        <v>750.312125965968</v>
+      </c>
+      <c r="I173" t="n">
+        <v>271.5710591264452</v>
+      </c>
+      <c r="J173" t="n">
+        <v>64.90000000000001</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Пермякова ул.36; Пермякова ул.34; Карская ул. (Парижской коммуны п), д.1; Каменогорская ул. (Парижской коммуны п)2; Пермякова ул.46; Пермякова ул.40; Молодежный пр-т.4; Молодежный пр-т.2; Блюхера ул., д.9; Бусыгина пр-т.52; Нижний Новгород г., Львовская ул.35; Кирова пр-т17; Нижний Новгород г., Ватутина ул.18А; Комсомольская ул.33; Краснодонцев ул.19; Комсомольская ул.35А; Ватутина ул.18; Краснодонцев ул.19к1; Комсомольская ул.35; Комсомольская ул.40; Комсомольская ул.35; Краснодонцев ул.19А; Комсомольская ул.42; Краснодонцев ул.15; Ленина пр-т., д.125; </t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>25</v>
+      </c>
+      <c r="D174" t="n">
+        <v>31.13271658198232</v>
+      </c>
+      <c r="E174" t="n">
+        <v>37.35925989837878</v>
+      </c>
+      <c r="F174" t="n">
+        <v>31.26350545479781</v>
+      </c>
+      <c r="G174" t="n">
+        <v>37.51620654575737</v>
+      </c>
+      <c r="H174" t="n">
+        <v>215.4292632571247</v>
+      </c>
+      <c r="I174" t="n">
+        <v>91.08622315636208</v>
+      </c>
+      <c r="J174" t="n">
+        <v>73.26000000000002</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ленина пр-т98А; Челюскинцев ул.16; Челюскинцев ул.16А; Кирова пр-т8; Челюскинцев ул.13; Львовская ул.12; Ильича пр-т.2А; Ильича пр-т.4; Октября пр-т.3; Ильича пр-т.6; Героя Юрия Смирнова ул.53; Лескова ул.42; Нижний Новгород г., Героя Юрия Смирнова ул.51; Лескова ул.50; Калининградская ул. (Парижской коммуны п)7; Володарск г., Лядова ул.81; г. Володарск, Мичурина ул.21; г. Володарск, Мичурина ул.22; г. Володарск, Солнечная ул.3; Нижний Новгород г., Мончегорская ул.19А; Нижний Новгород г., Комсомольская ул.10А; Школьная ул.24; Комсомольская ул.10; Нижний Новгород г., Ковпака ул.1А; Нижний Новгород г., Академика Павлова ул.14А; Строкина ул.17Б; Строкина ул.17А; Строкина ул.16Б; Советской Армии ул.15А; Строкина ул.17; </t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>30</v>
+      </c>
+      <c r="D175" t="n">
+        <v>31.26350545479781</v>
+      </c>
+      <c r="E175" t="n">
+        <v>37.51620654575737</v>
+      </c>
+      <c r="F175" t="n">
+        <v>31.4611233532851</v>
+      </c>
+      <c r="G175" t="n">
+        <v>37.75334802394212</v>
+      </c>
+      <c r="H175" t="n">
+        <v>538.4941483039305</v>
+      </c>
+      <c r="I175" t="n">
+        <v>197.2172760608073</v>
+      </c>
+      <c r="J175" t="n">
+        <v>78.46000000000001</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Строкина ул.16; Строкина ул.16А; Строкина ул.15; Строкина ул.14; Детская ул.48; Героя Васильева ул.56; Абразивная ул.23; Кирова пр-т11; г. Володарск, Лядова ул.70; Лескова ул.4; Кирова пр-т6; Лоскутова ул.14; Кирова пр-т4; Веденяпина ул.1Б; Веденяпина ул.1В; Лескова ул.21А; Лескова ул.27А; Веденяпина ул.2; Бусыгина пр-т.46; Бусыгина пр-т.45А; Львовская ул.8; </t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>21</v>
+      </c>
+      <c r="D176" t="n">
+        <v>31.4611233532851</v>
+      </c>
+      <c r="E176" t="n">
+        <v>37.75334802394212</v>
+      </c>
+      <c r="F176" t="n">
+        <v>31.51491726478173</v>
+      </c>
+      <c r="G176" t="n">
+        <v>37.81790071773808</v>
+      </c>
+      <c r="H176" t="n">
+        <v>502.9469578461824</v>
+      </c>
+      <c r="I176" t="n">
+        <v>187.0405772254802</v>
+      </c>
+      <c r="J176" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Львовская ул.10; Львовская ул.29; Львовская ул.25; Нижний Новгород г., Героя Советского Союза Поющева ул.1; Юлиуса Фучика ул.3; Юлиуса Фучика ул.4; Нижний Новгород г., Юлиуса Фучика ул.1; г.Володарск,ул.Минина д.16; Нижний Новгород г., Янки Купалы ул.30; Янки Купалы ул.28к1; Янки Купалы ул.28; Янки Купалы ул.24; Янки Купалы ул.32; Коломенская ул.8к1; Коломенская ул.8к3; Челюскинцев ул.19; Челюскинцев ул.15; Комсомольская ул.17; Нижний Новгород г., Майкопская  ул.2А; Коломенская ул.10; Нижний Новгород г., Мончегорская ул.7Б; </t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>21</v>
+      </c>
+      <c r="D177" t="n">
+        <v>31.51491726478173</v>
+      </c>
+      <c r="E177" t="n">
+        <v>37.81790071773808</v>
+      </c>
+      <c r="F177" t="n">
+        <v>31.61039069047933</v>
+      </c>
+      <c r="G177" t="n">
+        <v>37.9324688285752</v>
+      </c>
+      <c r="H177" t="n">
+        <v>446.1902850804339</v>
+      </c>
+      <c r="I177" t="n">
+        <v>168.2494360761597</v>
+      </c>
+      <c r="J177" t="n">
+        <v>73.31999999999999</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Володарск, Нагорная ул.5; г.Володарск, пер.Северный д.2; Героя Васильева ул.15; Бусыгина пр-т.40; Бурденко ул.35; Бурденко ул.33к1; Бурденко ул.33; Бурденко ул.42; Героя Советского Союза Прыгунова ул.12; Лескова ул.21; Комсомольская ул.8; Комсомольская ул.6; Челюскинцев ул.22; Челюскинцев ул.18А; Челюскинцев ул.18; Комсомольская ул.13; Челюскинцев ул.20; Героя Советского Союза Прыгунова ул.2; Лескова ул.40; г. Володарск, Полевая ул.72; Лескова ул.29А; </t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>21</v>
+      </c>
+      <c r="D178" t="n">
+        <v>31.60509392642644</v>
+      </c>
+      <c r="E178" t="n">
+        <v>37.92611271171172</v>
+      </c>
+      <c r="F178" t="n">
+        <v>31.6863268176792</v>
+      </c>
+      <c r="G178" t="n">
+        <v>38.02359218121504</v>
+      </c>
+      <c r="H178" t="n">
+        <v>730.5668379383635</v>
+      </c>
+      <c r="I178" t="n">
+        <v>269.5049958196562</v>
+      </c>
+      <c r="J178" t="n">
+        <v>52.80000000000001</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Героя Советского Союза Прыгунова ул.31; Веденяпина ул.10; Автомеханическая ул.2; Веденяпина ул.6; Веденяпина ул.6А; Веденяпина ул.3; Нижний Новгород г., Автомеханическая ул.13А; Лескова ул.15А; Лескова ул.17; Автомеханическая ул.14; Лескова ул.12; Лескова ул.18; Нижний Новгород г., Героя Юрия Смирнова ул.29; Лескова ул.8; Героя Васильева ул.36; Героя Васильева ул.44; Героя Юрия Смирнова ул.13; Героя Юрия Смирнова ул.23; Героя Юрия Смирнова ул.25; Нижний Новгород г., Веденяпина ул.2А; </t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>20</v>
+      </c>
+      <c r="D179" t="n">
+        <v>31.67870631793696</v>
+      </c>
+      <c r="E179" t="n">
+        <v>38.01444758152435</v>
+      </c>
+      <c r="F179" t="n">
+        <v>31.69717310026967</v>
+      </c>
+      <c r="G179" t="n">
+        <v>38.0366077203236</v>
+      </c>
+      <c r="H179" t="n">
+        <v>166.2771098830767</v>
+      </c>
+      <c r="I179" t="n">
+        <v>75.13010018539075</v>
+      </c>
+      <c r="J179" t="n">
+        <v>73.70000000000002</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юлиуса Фучика ул.5; Веденяпина ул.1А; Героя Юрия Смирнова ул.17; г. Володарск, Луначарского ул.24; Нижний Новгород г., Советской Армии ул.15; Советской Армии ул.18; Комсомольская ул.44; Советской Армии ул.22; Краснодонцев ул.21к2; Краснодонцев ул.21к3; Комсомольская ул.44Б; г. Володарск, Лядова ул.86; Героя Советского Союза Прыгунова ул.3; Героя Юрия Смирнова ул.35; Героя Советского Союза Прыгунова ул.8; Лескова ул.22; Героя Советского Союза Прыгунова ул.10; Героя Советского Союза Прыгунова ул.1; Лескова ул.24; Нижний Новгород г., Лескова ул.9; Нижний Новгород г., Лескова ул.9; Лескова ул.11; Лескова ул.7; </t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>23</v>
+      </c>
+      <c r="D180" t="n">
+        <v>31.69717310026967</v>
+      </c>
+      <c r="E180" t="n">
+        <v>38.0366077203236</v>
+      </c>
+      <c r="F180" t="n">
+        <v>31.70701879757269</v>
+      </c>
+      <c r="G180" t="n">
+        <v>38.04842255708723</v>
+      </c>
+      <c r="H180" t="n">
+        <v>683.4045603639935</v>
+      </c>
+      <c r="I180" t="n">
+        <v>251.9712872235101</v>
+      </c>
+      <c r="J180" t="n">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Лескова ул.9Б; Кирова пр-т3; Октября пр-т.8; Октября пр-т.13; Октября пр-т.12; Нижний Новгород г., Юлиуса Фучика ул.8; Нижний Новгород г., Юлиуса Фучика ул.13; Юлиуса Фучика ул.7; Нижний Новгород г., Львовская ул.27; Пермякова ул.44; Львовская ул.31; Львовская ул.21; Бусыгина пр-т.50; Бусыгина пр-т.49; Львовская ул.33; Бусыгина пр-т.47А; Бусыгина пр-т.47; Бусыгина пр-т.48; Пермякова ул.48; Коломенская ул.8; Нижний Новгород г., Коломенская ул.6; Плотникова ул.5; Краснодонцев ул.23; Краснодонцев ул.21к1; Советской Армии ул.16; Краснодонцев ул.21; Плотникова ул.5; Советской Армии ул.13А; </t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>28</v>
+      </c>
+      <c r="D181" t="n">
+        <v>31.70701879757269</v>
+      </c>
+      <c r="E181" t="n">
+        <v>38.04842255708723</v>
+      </c>
+      <c r="F181" t="n">
+        <v>31.80034125649833</v>
+      </c>
+      <c r="G181" t="n">
+        <v>38.160409507798</v>
+      </c>
+      <c r="H181" t="n">
+        <v>183.3173415246748</v>
+      </c>
+      <c r="I181" t="n">
+        <v>81.04144415437798</v>
+      </c>
+      <c r="J181" t="n">
+        <v>73.44</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Лескова ул.35к1; Нижний Новгород г., Героя Юрия Смирнова ул.61Б; Нижний Новгород г., Героя Юрия Смирнова ул.61А; Героя Юрия Смирнова ул.61; Героя Юрия Смирнова ул.65; Героя Юрия Смирнова ул.67; Лескова ул.60; Лескова ул.54; Лескова ул.35; Лескова ул.58; Нижний Новгород г., Героя Юрия Смирнова ул.52А; г. Володарск, Западная ул.12; Сергея Тюленина ул.19А; Старых Производственников ул.10; Старых Производственников ул.11; Бусыгина пр-т.36; Бусыгина пр-т.34; Дьяконова ул.40; Бусыгина пр-т.30; г. Володарск, Воробьева ул.5; Нижний Новгород г., Октября пр-т.19А; </t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>21</v>
+      </c>
+      <c r="D182" t="n">
+        <v>31.77397020156847</v>
+      </c>
+      <c r="E182" t="n">
+        <v>38.12876424188217</v>
+      </c>
+      <c r="F182" t="n">
+        <v>31.86957466810016</v>
+      </c>
+      <c r="G182" t="n">
+        <v>38.2434896017202</v>
+      </c>
+      <c r="H182" t="n">
+        <v>704.855830571271</v>
+      </c>
+      <c r="I182" t="n">
+        <v>262.8859003127982</v>
+      </c>
+      <c r="J182" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Октября пр-т.19А; Комсомольская ул.7; Комсомольская ул.11; Лоскутова ул.20; Комсомольская ул.4; Нижний Новгород г., Комсомольская ул.7; Лоскутова ул.23; Янки Купалы ул.18; г. Володарск, Нагорный переулок.10; г. Володарск, Северная ул.47; г. Володарск, Зелёная ул.13; Нарвская ул.5; Янки Купалы ул.16А; Старых Производственников ул.17; Старых Производственников ул.13; Старых Производственников ул.19; Героя Советского Союза Поющева ул.11; Плотникова ул.4; Политбойцов ул.4; Нижний Новгород г., Плотникова ул.3А; г. Володарск, Заводская ул.47; Володарск г., Северная  ул.50Б; г. Володарск, Стадионная ул.32; Сергея Тюленина ул.20; </t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>24</v>
+      </c>
+      <c r="D183" t="n">
+        <v>31.86957466810016</v>
+      </c>
+      <c r="E183" t="n">
+        <v>38.2434896017202</v>
+      </c>
+      <c r="F183" t="n">
+        <v>31.97517272671056</v>
+      </c>
+      <c r="G183" t="n">
+        <v>38.37020727205268</v>
+      </c>
+      <c r="H183" t="n">
+        <v>740.0951513139089</v>
+      </c>
+      <c r="I183" t="n">
+        <v>271.5175235210958</v>
+      </c>
+      <c r="J183" t="n">
+        <v>57.42</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергея Тюленина ул.16; Школьная ул.32; Школьная ул.30; Школьная ул.26; Моторный пер.4к2; Школьная ул.36; Челюскинцев ул.23; Челюскинцев ул.27; Челюскинцев ул.26; Советской Армии ул.13; Челюскинцев ул.27; Челюскинцев ул.25; Старых Производственников ул.18; г. Володарск, Стадионная ул.4; г. Володарск, Колхозная ул.18; г. Володарск, Затонная д.9; г. Володарск, Молодёжная ул.9; Строкина ул.11; Строкина ул.12; Политбойцов ул.10; Политбойцов ул.7; </t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>21</v>
+      </c>
+      <c r="D184" t="n">
+        <v>31.97517272671056</v>
+      </c>
+      <c r="E184" t="n">
+        <v>38.37020727205268</v>
+      </c>
+      <c r="F184" t="n">
+        <v>32.04011292156354</v>
+      </c>
+      <c r="G184" t="n">
+        <v>38.44813550587625</v>
+      </c>
+      <c r="H184" t="n">
+        <v>464.0092939997227</v>
+      </c>
+      <c r="I184" t="n">
+        <v>174.7283145574974</v>
+      </c>
+      <c r="J184" t="n">
+        <v>74.36000000000001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Строкина ул.12А; Строкина ул.10; Политбойцов ул.8; Нижний Новгород г., Политбойцов ул.5; Политбойцов ул.13; Политбойцов ул.7; Политбойцов ул.6; Политбойцов ул.2А; г. Володарск, Лядова ул.98; Дьяконова ул.41; Дьяконова ул.43А; Дьяконова ул.30; Бусыгина пр-т.19; Бусыгина пр-т.22; Янки Купалы ул.12А; Володарский р-н, Володарск г., Полевая ул.18; г. Володарск, Полевая ул.41; г. Володарск, Нагорная ул.44; Политбойцов ул.14; </t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>19</v>
+      </c>
+      <c r="D185" t="n">
+        <v>32.04011292156354</v>
+      </c>
+      <c r="E185" t="n">
+        <v>38.44813550587625</v>
+      </c>
+      <c r="F185" t="n">
+        <v>32.0943880309302</v>
+      </c>
+      <c r="G185" t="n">
+        <v>38.51326563711625</v>
+      </c>
+      <c r="H185" t="n">
+        <v>711.2278112475838</v>
+      </c>
+      <c r="I185" t="n">
+        <v>266.672170644174</v>
+      </c>
+      <c r="J185" t="n">
+        <v>43.90000000000001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Плотникова ул.3; Политбойцов ул.12; Комсомольская ул.2В; Октября пр-т.18; Октября пр-т.17; Октября пр-т.16; Октября пр-т.20; Комсомольская ул.2; Нижний Новгород г., Октября пр-т.14; Старых Производственников ул.20; Южное ш.17; Южное ш.21А; Южное ш.21; Героя Васильева ул.9; Нижний Новгород г., Львовская ул.4А; Львовская ул.13; Львовская ул.17; Героя Васильева ул.5; Львовская ул.23; </t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>19</v>
+      </c>
+      <c r="D186" t="n">
+        <v>32.0943880309302</v>
+      </c>
+      <c r="E186" t="n">
+        <v>38.51326563711625</v>
+      </c>
+      <c r="F186" t="n">
+        <v>32.12289970157809</v>
+      </c>
+      <c r="G186" t="n">
+        <v>38.54747964189371</v>
+      </c>
+      <c r="H186" t="n">
+        <v>162.7712819816353</v>
+      </c>
+      <c r="I186" t="n">
+        <v>74.85884873623685</v>
+      </c>
+      <c r="J186" t="n">
+        <v>72.46000000000001</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Героя Васильева ул.30; Львовская ул.4; Львовская ул.6; Нижний Новгород г., Героя Васильева ул.18А; Старых Производственников ул.9; Старых Производственников ул.4; Старых Производственников ул.15; г. Володарск, Заводская ул.1; Веденяпина ул.13; Нижний Новгород г., Монастырка ул.20Ж; Юлиуса Фучика ул.10; Веденяпина ул.11; Юлиуса Фучика ул.12; Нижний Новгород г., Юлиуса Фучика ул., д. 8к2; Юлиуса Фучика ул.17; Юлиуса Фучика ул.21; Юлиуса Фучика ул.23; Юлиуса Фучика ул.19; Нижний Новгород г., Лескова ул.66А; Нижний Новгород г., Патриотов ул.49; Нижний Новгород г., Южное ш.30к1; Нижний Новгород г., Ленина пр-т113; Сергея Тюленина ул.7; Сергея Тюленина ул.8; Сергея Тюленина ул.6; Советской Армии ул.12А; Политбойцов ул.20; Советской Армии ул.12Б; Политбойцов ул.22; Раевского ул.19; Школьная ул.34; Советской Армии ул.10А; Советской Армии ул.10; Советской Армии ул.5; </t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>34</v>
+      </c>
+      <c r="D187" t="n">
+        <v>32.12289970157809</v>
+      </c>
+      <c r="E187" t="n">
+        <v>38.54747964189371</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32.25561517798304</v>
+      </c>
+      <c r="G187" t="n">
+        <v>38.70673821357965</v>
+      </c>
+      <c r="H187" t="n">
+        <v>501.0767246785516</v>
+      </c>
+      <c r="I187" t="n">
+        <v>187.5549298917804</v>
+      </c>
+      <c r="J187" t="n">
+        <v>72.18000000000002</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Советской Армии ул.8; Моторный пер.2к1; Нижний Новгород г., Челюскинцев ул.24; Моторный пер.1; Львовская ул.2; Героя Васильева ул.7; Героя Васильева ул.1; Бурденко ул.25; Бурденко ул.18; Борская ул.15; Дьяконова ул.44; Нижний Новгород г., Веденяпина ул.14А; Веденяпина ул.21; Веденяпина ул.18; Веденяпина ул.16А; Нижний Новгород г., Героя Советского Союза Поющева ул.20; Героя Советского Союза Поющева ул.25; Героя Советского Союза Поющева ул.20; Героя Советского Союза Поющева ул.19; Героя Советского Союза Поющева ул.17; Нижний Новгород г., Лекальная ул.8; </t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>21</v>
+      </c>
+      <c r="D188" t="n">
+        <v>32.25561517798304</v>
+      </c>
+      <c r="E188" t="n">
+        <v>38.70673821357965</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32.33006190146669</v>
+      </c>
+      <c r="G188" t="n">
+        <v>38.79607428176002</v>
+      </c>
+      <c r="H188" t="n">
+        <v>187.2582565298755</v>
+      </c>
+      <c r="I188" t="n">
+        <v>83.04729429599277</v>
+      </c>
+      <c r="J188" t="n">
+        <v>73.44000000000001</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Газовская ул.25; Политбойцов ул.19к1; Политбойцов ул.16; Нижний Новгород г., Политбойцов ул.27; Политбойцов ул.18; Политбойцов ул.18А; Политбойцов ул.18Б; Нижний Новгород г., Лесная  ул., ГСК 15; Мельникова ул.30; Нижний Новгород г., Мельникова ул.31; Борская ул.15А; Борская ул.28А; Бурденко ул.14; Нижний Новгород г., Южное ш.50Б; Нижний Новгород г., Веденяпина ул.25А; Веденяпина ул.23; Веденяпина ул.24; Юлиуса Фучика ул.31; Веденяпина ул.25; Веденяпина ул.22; Львовская ул., д.7а; Дружаева ул.17А; Политбойцов ул.19; Нижний Новгород г., Строкина ул.7; Политбойцов ул.21А; Политбойцов ул.21; Строкина ул.9А; </t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>27</v>
+      </c>
+      <c r="D189" t="n">
+        <v>32.32572392269477</v>
+      </c>
+      <c r="E189" t="n">
+        <v>38.79086870723373</v>
+      </c>
+      <c r="F189" t="n">
+        <v>32.3723687996063</v>
+      </c>
+      <c r="G189" t="n">
+        <v>38.84684255952756</v>
+      </c>
+      <c r="H189" t="n">
+        <v>213.9129658597588</v>
+      </c>
+      <c r="I189" t="n">
+        <v>92.34990288425385</v>
+      </c>
+      <c r="J189" t="n">
+        <v>72.34000000000002</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Политбойцов ул.23А; Строкина ул.9; Бусыгина пр-т.17; Янки Купалы ул.10А; Раевского ул.17; Плотникова ул.2 (Наш дом); Плотникова ул.2 (ТСЖ 369); Раевского ул.5; Нижний Новгород г., Строкина ул.2; Советской Армии ул.10Б; Дьяконова ул.40к1; Бусыгина пр-т.20А; Мельникова ул.11; Бусыгина пр-т.9; Нижний Новгород г., Южное ш.30Ак1; Нижний Новгород г., Гайдара ул.20А; Нижний Новгород г., Космическая ул.58а; Нижний Новгород г., Львовская ул.38А; Пермякова ул.22; Львовская ул.3; Пермякова ул.30; Пермякова ул.24; Львовская ул.3А; Львовская ул.1а; Пермякова ул.32; Львовская ул.5А; Львовская ул.5; Львовская ул.19; Львовская ул.3Б; </t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>29</v>
+      </c>
+      <c r="D190" t="n">
+        <v>32.3723687996063</v>
+      </c>
+      <c r="E190" t="n">
+        <v>38.84684255952756</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32.47993550785262</v>
+      </c>
+      <c r="G190" t="n">
+        <v>38.97592260942314</v>
+      </c>
+      <c r="H190" t="n">
+        <v>230.7411992641868</v>
+      </c>
+      <c r="I190" t="n">
+        <v>97.76153432012313</v>
+      </c>
+      <c r="J190" t="n">
+        <v>73.82000000000002</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Пермякова ул.26; Южное ш.41; Героя Советского Союза Прыгунова ул.21; Героя Советского Союза Прыгунова ул.22; Старых Производственников ул.21; Нижний Новгород г., Южное ш.49А; Героя Советского Союза Прыгунова ул.27; Бусыгина пр-т.14; Бусыгина пр-т.16; Октября пр-т.25; Октября пр-т.21; Нижний Новгород г., Октября пр-т.22А; Октября пр-т.22; Героя Советского Союза Поющева ул.31; Советской Армии ул.1; Октября пр-т.24; Строкина ул.8; Строкина ул.6; Строкина ул.3; Строкина ул.5; Строкина ул.4; </t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>21</v>
+      </c>
+      <c r="D191" t="n">
+        <v>32.47993550785262</v>
+      </c>
+      <c r="E191" t="n">
+        <v>38.97592260942314</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32.50281180626808</v>
+      </c>
+      <c r="G191" t="n">
+        <v>39.00337416752169</v>
+      </c>
+      <c r="H191" t="n">
+        <v>186.0055728968895</v>
+      </c>
+      <c r="I191" t="n">
+        <v>80.65929740994281</v>
+      </c>
+      <c r="J191" t="n">
+        <v>79.65000000000002</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Володарск г., Набережная ул.1; г.Володарск,ул.Набережная д.3 (у дома 1а); Васнецова ул.19; Нижний Новгород г., Газовская ул.18Ак1; Нижний Новгород г., Дьяконова ул.23; Васнецова ул.25; Дьяконова ул.26А; Дьяконова ул.28; Дьяконова ул.30А; Азовская ул.17; Дьяконова ул.26; г. Володарск, Вокзальная ул.9; г.Володарск,ул.Калининская 1; Юлиуса Фучика ул.10к2; Юлиуса Фучика ул.10к1; Юлиуса Фучика ул.130Б; Юлиуса Фучика ул.10к1; </t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>17</v>
+      </c>
+      <c r="D192" t="n">
+        <v>32.49833040102111</v>
+      </c>
+      <c r="E192" t="n">
+        <v>38.99799648122533</v>
+      </c>
+      <c r="F192" t="n">
+        <v>32.53726217393189</v>
+      </c>
+      <c r="G192" t="n">
+        <v>39.04471460871827</v>
+      </c>
+      <c r="H192" t="n">
+        <v>682.6023628162254</v>
+      </c>
+      <c r="I192" t="n">
+        <v>262.6814924643975</v>
+      </c>
+      <c r="J192" t="n">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Юлиуса Фучика ул.23А; Героя Васильева ул.12; Дворовая ул.30; Дружаева ул.11; Дружаева ул.13; Дружаева ул.13А; Дружаева ул.17; Дружаева ул.15А; Героя Васильева ул.10А; Дружаева ул.26; Дружаева ул.15; Мельникова ул.27; Мельникова ул.28; Мельникова ул.29; Нижний Новгород г., Мельникова ул.28А; Бусыгина пр-т.18; Юлиуса Фучика ул.10к3; Юлиуса Фучика ул.10к4; Юлиуса Фучика ул.33; Юлиуса Фучика ул.29; Городской округ Нижний Новгород р-н, Юлиуса Фучика ул.50Бк1; Раевского ул.7; Строкина ул.3А; Раевского ул.15; Политбойцов ул.2; Янки Купалы ул.2; </t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>26</v>
+      </c>
+      <c r="D193" t="n">
+        <v>32.53726217393189</v>
+      </c>
+      <c r="E193" t="n">
+        <v>39.04471460871827</v>
+      </c>
+      <c r="F193" t="n">
+        <v>32.59497853924093</v>
+      </c>
+      <c r="G193" t="n">
+        <v>39.11397424708911</v>
+      </c>
+      <c r="H193" t="n">
+        <v>196.8487463598659</v>
+      </c>
+      <c r="I193" t="n">
+        <v>86.34469574133314</v>
+      </c>
+      <c r="J193" t="n">
+        <v>74.92000000000002</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6-й микрорайон17; 6-й микрорайон15Б; 6-й микрорайон13; Нижний Новгород г., Южное ш.24Г; 6-й микрорайон11; Переходникова ул.31; Львовская ул.11; Дворовая ул.34; Дворовая ул.29; г. Володарск, Военный городок ул.63; Переходникова ул.27; Переходникова ул.29; Пермякова ул.20; Дворовая ул.38; Пермякова ул.16; Пермякова ул.18; Пермякова ул.28; Советской Армии ул.4; Раевского ул.3; Нижний Новгород г., Автомеханическая ул.12; Героя Советского Союза Прыгунова ул.17Б; Героя Советского Союза Прыгунова ул.20; </t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>22</v>
+      </c>
+      <c r="D194" t="n">
+        <v>32.59192241030519</v>
+      </c>
+      <c r="E194" t="n">
+        <v>39.11030689236622</v>
+      </c>
+      <c r="F194" t="n">
+        <v>32.76843407429218</v>
+      </c>
+      <c r="G194" t="n">
+        <v>39.32212088915062</v>
+      </c>
+      <c r="H194" t="n">
+        <v>496.1190104222092</v>
+      </c>
+      <c r="I194" t="n">
+        <v>186.3632576612117</v>
+      </c>
+      <c r="J194" t="n">
+        <v>74.80000000000001</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Автомеханическая ул.25; Автомеханическая ул.15А; Героя Советского Союза Прыгунова ул.15; Героя Советского Союза Прыгунова ул.16; Автомеханическая ул.15; Героя Советского Союза Прыгунова ул.17; Героя Советского Союза Прыгунова ул.16А; Дьяконова ул.13; Дьяконова ул.13А; Дьяконова ул.15; Рабочая ул.28; Героя Советского Союза Поющева ул.22А; Нижний Новгород г., Южное ш.33; Нижний Новгород г., 6-й микрорайон39Б; 6-й микрорайон17А; Нижний Новгород г., 6-й микрорайон39А; 6-й микрорайон39; 6-й микрорайон37; 6-й микрорайон33; 6-й микрорайон29; 6-й микрорайон25; 6-й микрорайон27; 6-й микрорайон19; 6-й микрорайон17Б; г. Володарск, Первомайская ул.5; Нижний Новгород г., Дьяконова ул.1Б; Дьяконова ул.1А; Нижний Новгород г., Южное ш.2Г; Нижний Новгород г., Южное ш.2Г; Переходникова ул.25; </t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>30</v>
+      </c>
+      <c r="D195" t="n">
+        <v>32.76843407429218</v>
+      </c>
+      <c r="E195" t="n">
+        <v>39.32212088915062</v>
+      </c>
+      <c r="F195" t="n">
+        <v>32.90093925795412</v>
+      </c>
+      <c r="G195" t="n">
+        <v>39.48112710954494</v>
+      </c>
+      <c r="H195" t="n">
+        <v>499.9648703371558</v>
+      </c>
+      <c r="I195" t="n">
+        <v>188.4947342593591</v>
+      </c>
+      <c r="J195" t="n">
+        <v>74.04000000000002</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мельникова ул.14; Мельникова ул.16; Мельникова ул.8; Газовская ул.19; Мельникова ул.10; Нижний Новгород г., Юлиуса Фучика ул.39А; Нижний Новгород г., Веденяпина ул.30А; 6-й микрорайон41; 6-й микрорайон43; 6-й микрорайон45; Веденяпина ул.26; Веденяпина ул.27; Веденяпина ул.28; Веденяпина ул.29; Веденяпина ул.30; Веденяпина ул.32; Нижний Новгород г., Южное ш.6А; Дьяконова ул.19; Дьяконова ул.24А; Дьяконова ул.24; Нижний Новгород г., Монастырка ул.13; </t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>21</v>
+      </c>
+      <c r="D196" t="n">
+        <v>32.90093925795412</v>
+      </c>
+      <c r="E196" t="n">
+        <v>39.48112710954494</v>
+      </c>
+      <c r="F196" t="n">
+        <v>32.93589091562992</v>
+      </c>
+      <c r="G196" t="n">
+        <v>39.5230690987559</v>
+      </c>
+      <c r="H196" t="n">
+        <v>191.4159616263055</v>
+      </c>
+      <c r="I196" t="n">
+        <v>85.48177501250423</v>
+      </c>
+      <c r="J196" t="n">
+        <v>73.70000000000002</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Гайдара ул.20; Нижний Новгород г., Гайдара ул.24; Володарск г., Калининская ул.10; Нижний Новгород г., Южное ш.4Б; 6-й микрорайон7А; 6-й микрорайон7; 6-й микрорайон9; 6-й микрорайон3; 6-й микрорайон1А; г. Володарск, Базарная ул.8; Дьяконова ул.11; </t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11</v>
+      </c>
+      <c r="D197" t="n">
+        <v>32.92926667748372</v>
+      </c>
+      <c r="E197" t="n">
+        <v>39.51512001298047</v>
+      </c>
+      <c r="F197" t="n">
+        <v>32.97959241654802</v>
+      </c>
+      <c r="G197" t="n">
+        <v>39.57551089985763</v>
+      </c>
+      <c r="H197" t="n">
+        <v>685.0807259216572</v>
+      </c>
+      <c r="I197" t="n">
+        <v>264.8196166191462</v>
+      </c>
+      <c r="J197" t="n">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дьяконова ул.5А; Дьяконова ул.7к3; Дьяконова ул.9к1; г. Володарск, Набережная ул.21; Пермякова ул.4А; Дворовая ул.33/2; Пермякова ул.6; Пермякова ул.4; г. Володарск, Базарная ул.22; Пермякова ул.14; </t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>10</v>
+      </c>
+      <c r="D198" t="n">
+        <v>32.97959241654802</v>
+      </c>
+      <c r="E198" t="n">
+        <v>39.57551089985763</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33.05838786073348</v>
+      </c>
+      <c r="G198" t="n">
+        <v>39.67006543288016</v>
+      </c>
+      <c r="H198" t="n">
+        <v>686.1202878539772</v>
+      </c>
+      <c r="I198" t="n">
+        <v>265.2195725953214</v>
+      </c>
+      <c r="J198" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Пермякова ул.12; Пермякова ул.10; Пермякова ул.8; Нижний Новгород г., Пермякова ул.10А; Дворовая ул.36; Юлиуса Фучика ул.37; Юлиуса Фучика ул.39; Юлиуса Фучика ул.41; Юлиуса Фучика ул.43; Юлиуса Фучика ул.35; Нижний Новгород г., Бусыгина пр-т.2А; Дьяконова ул.16; Дьяконова ул.14; Дьяконова ул.12; Дьяконова ул.8; Дружаева ул.7; Дружаева ул.9; Дьяконова ул.20; Газовская ул.11; Дьяконова ул.22; п. Новосмолинский, Новая ул.12; Дьяконова ул.2к2; Дьяконова ул.2к3; г. Володарск, Первомайская ул.27Б; </t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>24</v>
+      </c>
+      <c r="D199" t="n">
+        <v>33.05838786073348</v>
+      </c>
+      <c r="E199" t="n">
+        <v>39.67006543288016</v>
+      </c>
+      <c r="F199" t="n">
+        <v>33.27025983444273</v>
+      </c>
+      <c r="G199" t="n">
+        <v>39.92431180133128</v>
+      </c>
+      <c r="H199" t="n">
+        <v>687.8664009930623</v>
+      </c>
+      <c r="I199" t="n">
+        <v>253.0052039930147</v>
+      </c>
+      <c r="J199" t="n">
+        <v>67.27</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Володарск г., Базарная  ул.18; Переходникова ул.3А; Дьяконова ул.10А; Дьяконова ул.6А; Дьяконова ул.10; Дьяконова ул.7к2; Дьяконова ул.9; Дьяконова ул.5Б; Дьяконова ул.9к2; Переходникова ул.5А; Дьяконова ул.2к1; Дружаева ул.8; Дьяконова ул.6; Переходникова ул.15; Нижний Новгород г., Дружаева ул.7А; Дружаева ул.5; Дружаева ул.3; Нижний Новгород г., Дружаева ул.5Б; Дружаева ул.5А; Дружаева ул.6; Переходникова ул.9; г. Володарск, Первомайская ул.27; г. Володарск, Комсомольская ул.30; г. Володарск, Володарского ул.15; Нижний Новгород г., Южный б-р.22в; Переходникова ул.13; г. Володарск, Аминева ул.5; </t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>27</v>
+      </c>
+      <c r="D200" t="n">
+        <v>33.26393110892487</v>
+      </c>
+      <c r="E200" t="n">
+        <v>39.91671733070984</v>
+      </c>
+      <c r="F200" t="n">
+        <v>33.66335553933557</v>
+      </c>
+      <c r="G200" t="n">
+        <v>40.39602664720269</v>
+      </c>
+      <c r="H200" t="n">
+        <v>750.5142192123672</v>
+      </c>
+      <c r="I200" t="n">
+        <v>277.9597872754796</v>
+      </c>
+      <c r="J200" t="n">
+        <v>56.46</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п. Ильино, Чкалова ул.30; г. Володарск, Комсомольский переулок. 13; г. Володарск, Володарского ул.21; Володарский р-н, Сейма п., , д.; г. Володарск, Военный городок ул.44; Переходникова ул.3; Нижний Новгород г., Переходникова ул.1Б; Переходникова ул.1; Переходникова ул.5; Володарский р-н, Юганец пгт., Центральная ул. (Новопокровское д)18; р.п. Юганец, Восточная ул.3; г. Володарск, Южная ул.18; г. Володарск, Аминева ул.41; г. Володарск, Октябрьская ул.7; г. Володарск, Дзержинского ул.25; г. Володарск, Максима горького ул.12; г. Володарск, Октябрьская ул.41; г. Володарск, Максима горького ул.50; г. Володарск, Максима горького ул.35; р.п. Юганец, Маяковского ул.36; р.п. Юганец, Маяковского ул.10; р.п. Юганец, Новая ул.6; р.п. Юганец, Новая ул.1; п. Новосмолинский, ул.Шоссейная 9; п. Новосмолинский, Шоссейная ул.3; п. Новосмолинский, Шоссейная ул.2А; п. Новосмолинский, Шоссейная ул.4; Володарск г., 388км, севернее ГЖД; п. Новосмолинский, Шоссейная ул.15; г. Володарск, Луговая ул.3; </t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>30</v>
+      </c>
+      <c r="D201" t="n">
+        <v>33.66335553933557</v>
+      </c>
+      <c r="E201" t="n">
+        <v>40.39602664720269</v>
+      </c>
+      <c r="F201" t="n">
+        <v>34.91975173588563</v>
+      </c>
+      <c r="G201" t="n">
+        <v>41.90370208306275</v>
+      </c>
+      <c r="H201" t="n">
+        <v>733.7422689921401</v>
+      </c>
+      <c r="I201" t="n">
+        <v>270.6985213902003</v>
+      </c>
+      <c r="J201" t="n">
+        <v>61.47</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Володарск, Чапаева ул., проулок между 10 и 12 домом; п. Новосмолинский, Песчаная ул.6; п. Новосмолинский, Шоссейная ул.6; п. Новосмолинский, Песчаная ул.12; р.п. Юганец, Северная ул.3; р.п. Юганец, Парковая ул.14; п. Новосмолинский, ул.Широкая 2; р.п. Юганец, Фабричная ул.16; р.п. Юганец, Центральная ул.6; г. Володарск, Вторая чапаева ул.6; п. Новосмолинский, Танковая ул.1; Володарск г., Чапаева 2-я ул.1А; г. Володарск, Луговая ул.57; п. Новосмолинский, Танковая ул.14; п. Новосмолинский, ул.Танковая 15; п. Новосмолинский, ул.Танковая 16; г. Володарск, Луговая ул.35; г. Володарск, Вторая чапаева ул.21; Нижний Новгород г., Студгородок НСХИ12; </t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>19</v>
+      </c>
+      <c r="D202" t="n">
+        <v>34.9024866898806</v>
+      </c>
+      <c r="E202" t="n">
+        <v>41.88298402785671</v>
+      </c>
+      <c r="F202" t="n">
+        <v>35.75139988678711</v>
+      </c>
+      <c r="G202" t="n">
+        <v>42.90167986414453</v>
+      </c>
+      <c r="H202" t="n">
+        <v>847.2368166546846</v>
+      </c>
+      <c r="I202" t="n">
+        <v>314.7162752300549</v>
+      </c>
+      <c r="J202" t="n">
+        <v>42.02</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Володарск, Вторая чапаева ул.29; г. Володарск, Луговая ул.80; п. Новосмолинский, Танковая ул.5; п. Новосмолинский, Танковая ул.4; п. Новосмолинский, Танковая ул.19; г. Володарск, Луговая ул.90; г.Володарск,ул.Луговая д.113; п. Новосмолинский, Танковая ул.20; п. Новосмолинский, Танковая ул.21; п. Новосмолинский, Танковая ул.9; Володарский р-н, Золино с., Озерная ул.3/1; Нижний Новгород г., ст. Кустовая0; </t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>12</v>
+      </c>
+      <c r="D203" t="n">
+        <v>35.69107280381521</v>
+      </c>
+      <c r="E203" t="n">
+        <v>42.82928736457825</v>
+      </c>
+      <c r="F203" t="n">
+        <v>36.34927807127992</v>
+      </c>
+      <c r="G203" t="n">
+        <v>43.6191336855359</v>
+      </c>
+      <c r="H203" t="n">
+        <v>732.3071579837037</v>
+      </c>
+      <c r="I203" t="n">
+        <v>283.8107521925814</v>
+      </c>
+      <c r="J203" t="n">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">п.Золино, Школьная д.2; Нижний Новгород г., Гагарина пр-т99к2; Нижний Новгород г., Гагарина пр-т99к1; п.Золино,ул.Кооперативная 49; </t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4</v>
+      </c>
+      <c r="D204" t="n">
+        <v>36.26273592647088</v>
+      </c>
+      <c r="E204" t="n">
+        <v>43.51528311176506</v>
+      </c>
+      <c r="F204" t="n">
+        <v>36.51625595519356</v>
+      </c>
+      <c r="G204" t="n">
+        <v>43.81950714623227</v>
+      </c>
+      <c r="H204" t="n">
+        <v>739.1393859059434</v>
+      </c>
+      <c r="I204" t="n">
+        <v>292.5981372575017</v>
+      </c>
+      <c r="J204" t="n">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">п. Золино, Школьная ул.11; Нижний Новгород г., Гагарина пр-т101к5; Нижний Новгород г., Гагарина пр-т103; Нижний Новгород г., Гагарина пр-т103А; Нижний Новгород г., Гагарина пр-т101к3; Нижний Новгород г., Гагарина пр-т200; Нижний Новгород г., Гагарина пр-т198; Нижний Новгород г., Кащенко ул.17; Нижний Новгород г., Кащенко ул.19А; Нижний Новгород г., Ларина ул.9; Нижний Новгород г., Кемеровская ул.16; Нижний Новгород г., Кемеровская ул.16/1; Нижний Новгород г., Кемеровская ул.18; Нижний Новгород г., Гагарина пр-т208; Нижний Новгород г., Гагарина пр-т103Б; Нижний Новгород г., Тропинина ул.4; Нижний Новгород г., Тропинина ул.6; Нижний Новгород г., Тропинина ул.1; Нижний Новгород г., Тропинина ул.2А; Нижний Новгород г., Тропинина ул.2; п. Золино, Школьная ул.14; п. Золино, Школьная ул.17; п. Золино, Школьная ул.19; п.Золино, Комсомольская д.51; </t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>24</v>
+      </c>
+      <c r="D205" t="n">
+        <v>36.51625595519356</v>
+      </c>
+      <c r="E205" t="n">
+        <v>43.81950714623227</v>
+      </c>
+      <c r="F205" t="n">
+        <v>37.14091991948511</v>
+      </c>
+      <c r="G205" t="n">
+        <v>44.56910390338213</v>
+      </c>
+      <c r="H205" t="n">
+        <v>590.5023351588361</v>
+      </c>
+      <c r="I205" t="n">
+        <v>223.4958963233244</v>
+      </c>
+      <c r="J205" t="n">
+        <v>73.32000000000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">п.Золино, Комсомольская д.101; п.Золино, Комсомольская д.81; п.Золино, Комсомольская д.123; Володарский р-н, Золино с., , д.; Нижний Новгород г., Гагарина пр-т168; Нижний Новгород г., Гагарина пр-т39; Нижний Новгород г., Гагарина пр-т218; Нижний Новгород г., Гагарина пр-т210; Нижний Новгород г., Маршала Жукова ул.15; Нижний Новгород г., Гагарина пр-т214; Нижний Новгород г., Гагарина пр-т212А; Нижний Новгород г., Маршала Жукова ул.21; Нижний Новгород г., Тропинина ул.12; Нижний Новгород г., Тропинина ул.16; Нижний Новгород г., Тропинина ул.5А; Нижний Новгород г., Тропинина ул.3; Нижний Новгород г., Тропинина ул.14; Нижний Новгород г., Тропинина ул.3А; Нижний Новгород г., Тропинина ул.7А; Нижний Новгород г., Гагарина пр-т109; Нижний Новгород г., Тропинина ул.8; Нижний Новгород г., Гагарина пр-т107; Нижний Новгород г., Тропинина ул.5; Нижний Новгород г., Тропинина ул.10; Нижний Новгород г., Петровского ул.23; Нижний Новгород г., Петровского ул.21А; Нижний Новгород г., 1-й Кемеровский пер.2; Нижний Новгород г., Гагарина пр-т101к4; Нижний Новгород г., Гагарина пр-т101к2; Нижний Новгород г., Гагарина пр-т101к1; </t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>30</v>
+      </c>
+      <c r="D206" t="n">
+        <v>37.14091991948511</v>
+      </c>
+      <c r="E206" t="n">
+        <v>44.56910390338213</v>
+      </c>
+      <c r="F206" t="n">
+        <v>37.3283055965123</v>
+      </c>
+      <c r="G206" t="n">
+        <v>44.79396671581476</v>
+      </c>
+      <c r="H206" t="n">
+        <v>361.4270359943139</v>
+      </c>
+      <c r="I206" t="n">
+        <v>148.6440917685302</v>
+      </c>
+      <c r="J206" t="n">
+        <v>72.59</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т101; Нижний Новгород г., Кащенко ул.25; Нижний Новгород г., Маршала Жукова ул.19; Нижний Новгород г., Маршала Жукова ул.17; Нижний Новгород г., Маршала Жукова ул.18; Нижний Новгород г., Военных Комиссаров ул.1; Нижний Новгород г., Маршала Жукова ул.20; Нижний Новгород г., Гагарина пр-т196; Нижний Новгород г., Маршала Жукова ул.1А; Нижний Новгород г., Маршала Жукова ул.1; Нижний Новгород г., Гагарина пр-т194; Нижний Новгород г., Гагарина пр-т194; Нижний Новгород г., Петровского ул.11; Нижний Новгород г., Кащенко ул.23; Нижний Новгород г., Кащенко ул.27; Нижний Новгород г., Кемеровская ул., д.12; Нижний Новгород г., Гагарина пр-т105; Нижний Новгород г., Маршала Жукова ул.13; Нижний Новгород г., Гагарина пр-т204; Нижний Новгород г., Гагарина пр-т206; Нижний Новгород г., Центральная ул.125а; Нижний Новгород г., Маршала Жукова ул.3; Нижний Новгород г., Маршала Жукова ул.8; Нижний Новгород г., Маршала Жукова ул.2; Нижний Новгород г., Кащенко ул.9; Нижний Новгород г., Кащенко ул.9; Нижний Новгород г., Геологов ул.10; Нижний Новгород г., Геологов ул.4; Нижний Новгород г., Тропинина ул.18; Нижний Новгород г., Гагарина пр-т117; Нижний Новгород г., Гагарина пр-т115; Нижний Новгород г., Маршала Жукова ул.23; Нижний Новгород г., Гагарина пр-т119; Нижний Новгород г., Гагарина пр-т111; Нижний Новгород г., Гагарина пр-т220; </t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>35</v>
+      </c>
+      <c r="D207" t="n">
+        <v>37.3283055965123</v>
+      </c>
+      <c r="E207" t="n">
+        <v>44.79396671581476</v>
+      </c>
+      <c r="F207" t="n">
+        <v>37.64074660945698</v>
+      </c>
+      <c r="G207" t="n">
+        <v>45.16889593134837</v>
+      </c>
+      <c r="H207" t="n">
+        <v>287.644384992748</v>
+      </c>
+      <c r="I207" t="n">
+        <v>124.1969694093914</v>
+      </c>
+      <c r="J207" t="n">
+        <v>76.24000000000001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т222; Нижний Новгород г., Гагарина пр-т113; Нижний Новгород г., Маршала Голованова ул.59; Нижний Новгород г., Маршала Голованова ул.63; Нижний Новгород г., Маршала Голованова ул.65; Нижний Новгород г., Маршала Голованова ул.69; Нижний Новгород г., Академика Лебедева ул.12; Нижний Новгород г., Маршала Голованова ул.67; Нижний Новгород г., Маршала Голованова ул.61; Нижний Новгород г., Военных Комиссаров ул.9; Нижний Новгород г., Военных Комиссаров ул.4; Нижний Новгород г., Военных Комиссаров ул.7; Нижний Новгород г., Щербинки 1 мкр.20; Нижний Новгород г., Горная ул.2А; Нижний Новгород г., Мызинская ул.2; Нижний Новгород г., Героя Шапошникова ул.12; Нижний Новгород г., Петровского ул.3; Нижний Новгород г., Маршала Голованова ул.43; Нижний Новгород г., Маршала Жукова ул.10; Нижний Новгород г., Академика Лебедева ул.1; Нижний Новгород г., Маршала Жукова ул.16; Нижний Новгород г., Военных Комиссаров ул.3; Нижний Новгород г., Маршала Жукова ул.11; Нижний Новгород г., Академика Лебедева ул.8А; Нижний Новгород г., Военных Комиссаров ул.5; Нижний Новгород г., Маршала Жукова ул.14; Нижний Новгород г., Академика Лебедева ул.3; Нижний Новгород г., Академика Лебедева ул.4; Нижний Новгород г., Академика Лебедева ул.8; Нижний Новгород г., Маршала Жукова ул.9; </t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>30</v>
+      </c>
+      <c r="D208" t="n">
+        <v>37.64074660945698</v>
+      </c>
+      <c r="E208" t="n">
+        <v>45.16889593134837</v>
+      </c>
+      <c r="F208" t="n">
+        <v>37.80485193344213</v>
+      </c>
+      <c r="G208" t="n">
+        <v>45.36582232013055</v>
+      </c>
+      <c r="H208" t="n">
+        <v>166.0215649234476</v>
+      </c>
+      <c r="I208" t="n">
+        <v>85.06315487359885</v>
+      </c>
+      <c r="J208" t="n">
+        <v>72.59999999999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Горная ул.6; Нижний Новгород г., Горная ул.4; Нижний Новгород г., Гагарина пр-т162; Нижний Новгород г., Горная ул.6А; Нижний Новгород г., Маршала Голованова ул.57; Нижний Новгород г., Военных Комиссаров ул.6; Нижний Новгород г., Маршала Голованова ул.27; Нижний Новгород г., Маршала Жукова ул.4; Нижний Новгород г., Маршала Жукова ул.6; Нижний Новгород г., Большая ул.2А; Нижний Новгород г., Кащенко ул.14; п.Золино, Комсомольская д.155; п.Золино, Комсомольская д.140; Нижний Новгород г., Маршала Голованова ул.51; Нижний Новгород г., Маршала Голованова ул.49; Нижний Новгород г., Маршала Голованова ул.55; Нижний Новгород г., Маршала Голованова ул.47; Нижний Новгород г., Маршала Голованова ул.45; Нижний Новгород г., Кащенко ул.12; Нижний Новгород г., Гагарина пр-т91/1; Нижний Новгород г., Ларина ул.13; Нижний Новгород г., Щербинки 1 мкр.13к2; Нижний Новгород г., Щербинки 1 мкр.26; Нижний Новгород г., Щербинки 1 мкр.31; Нижний Новгород г., Щербинки 1 мкр.13к1; Нижний Новгород г., Щербинки 1 мкр.14к2; Нижний Новгород г., Маршала Голованова ул.17; Нижний Новгород г., Маршала Голованова ул.15А; Нижний Новгород г., Щербинки 1 мкр.18; Нижний Новгород г., Маршала Голованова ул.19к3; Нижний Новгород г., Маршала Голованова ул.19к2; Нижний Новгород г., 40 лет Победы ул.1; </t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>32</v>
+      </c>
+      <c r="D209" t="n">
+        <v>37.79042813840835</v>
+      </c>
+      <c r="E209" t="n">
+        <v>45.34851376609002</v>
+      </c>
+      <c r="F209" t="n">
+        <v>37.97973340285079</v>
+      </c>
+      <c r="G209" t="n">
+        <v>45.57568008342095</v>
+      </c>
+      <c r="H209" t="n">
+        <v>660.1478421288277</v>
+      </c>
+      <c r="I209" t="n">
+        <v>249.3143821066162</v>
+      </c>
+      <c r="J209" t="n">
+        <v>73.87</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т224; Нижний Новгород г., Вятская ул.3; Нижний Новгород г., Вятская ул.2; Нижний Новгород г., Вятская ул.1; Нижний Новгород г., Маршала Голованова ул.41А; Нижний Новгород г., Маршала Голованова ул.41; Нижний Новгород г., Маршала Голованова ул.37А; Нижний Новгород г., Маршала Голованова ул.31; Нижний Новгород г., Маршала Голованова ул.33; Нижний Новгород г., Маршала Голованова ул.35; Нижний Новгород г., Маршала Голованова ул.37; Нижний Новгород г., Маршала Голованова ул.39; Нижний Новгород г., Маршала Голованова ул.29; Нижний Новгород г., Геологов ул.1; Нижний Новгород г., Маршала Жукова ул.27; Нижний Новгород г., Гагарина пр-т226; Нижний Новгород г., 40 лет Победы ул.4; Нижний Новгород г., Маршала Жукова ул.25; Нижний Новгород г., 40 лет Победы ул.6; Нижний Новгород г., 40 лет Победы ул.5; Нижний Новгород г., Маршала Голованова ул.71; Нижний Новгород г., Маршала Голованова ул.73; Нижний Новгород г., 40 лет Победы ул.3; Нижний Новгород г., 40 лет Победы ул.2; Нижний Новгород г., 40 лет Победы ул.7; Нижний Новгород г., Маршала Жукова ул.22; Нижний Новгород г., Медицинская ул.5; </t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>27</v>
+      </c>
+      <c r="D210" t="n">
+        <v>37.97973340285079</v>
+      </c>
+      <c r="E210" t="n">
+        <v>45.57568008342095</v>
+      </c>
+      <c r="F210" t="n">
+        <v>38.05668929301913</v>
+      </c>
+      <c r="G210" t="n">
+        <v>45.66802715162296</v>
+      </c>
+      <c r="H210" t="n">
+        <v>187.1784768641621</v>
+      </c>
+      <c r="I210" t="n">
+        <v>92.84846606722809</v>
+      </c>
+      <c r="J210" t="n">
+        <v>73.82000000000002</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Медицинская ул.1А; Нижний Новгород г., Маршала Голованова ул.11; Нижний Новгород г., Горная ул.12; Нижний Новгород г., Горная ул.20; Нижний Новгород г., Горная ул.10А; Нижний Новгород г., Щербинки 1 мкр.27; Нижний Новгород г., Щербинки 1 мкр.29; Нижний Новгород г., Гагарина пр-т182; Нижний Новгород г., Ларина ул.1; Нижний Новгород г., Ларина ул.3; п.Золино, Комсомольская д.11; п.Золино, Комсомольская д.35; Нижний Новгород г., Невская ул.25; Нижний Новгород г., Гагарина пр-т158; Нижний Новгород г., Невская ул.27; Нижний Новгород г., Гагарина пр-т160; Нижний Новгород г., Гагарина пр-т156; Нижний Новгород г., Невская ул.21; Нижний Новгород г., 30 лет Октября ул.2; Нижний Новгород г., Осенняя ул., д.1-133; Нижний Новгород г., Щербинки 1 мкр.14; </t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>21</v>
+      </c>
+      <c r="D211" t="n">
+        <v>38.05668929301913</v>
+      </c>
+      <c r="E211" t="n">
+        <v>45.66802715162296</v>
+      </c>
+      <c r="F211" t="n">
+        <v>38.17278052253284</v>
+      </c>
+      <c r="G211" t="n">
+        <v>45.8073366270394</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>244.7236310908005</v>
+      </c>
+      <c r="J211" t="n">
+        <v>52.07860273972603</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Щербинки 1 мкр.13; Нижний Новгород г., Щербинки 1 мкр.12; Нижний Новгород г., Крылова ул.1; Нижний Новгород г., Медицинская ул.9; Нижний Новгород г., Маршала Голованова ул.1А; Нижний Новгород г., Гагарина пр-т84; Нижний Новгород г., Гагарина пр-т82; Нижний Новгород г., Гагарина пр-т86; Нижний Новгород г., Гагарина пр-т72; Нижний Новгород г., Гагарина пр-т74; Нижний Новгород г., Сурикова ул.2; Нижний Новгород г., Горная ул.11; Нижний Новгород г., Щербинки 1 мкр.30; Нижний Новгород г., Щербинки 1 мкр.4; Нижний Новгород г., Ларина ул.5А; Нижний Новгород г., Щербинки 1 мкр.7; Нижний Новгород г., Ларина ул.5; Нижний Новгород г., Щербинки 1 мкр.2А; Нижний Новгород г., Ближнее Константиново, Полевая ул.3; Нижний Новгород г., Ларина ул.15И; Нижний Новгород г., Горная ул.11к3; Нижний Новгород г., Вятская ул.5; Нижний Новгород г., Вятская ул.8; Нижний Новгород г., Вятская ул.7; Нижний Новгород г., Вятская ул.6; Нижний Новгород г., Вятская ул.9; </t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>26</v>
+      </c>
+      <c r="D212" t="n">
+        <v>38.17278052253284</v>
+      </c>
+      <c r="E212" t="n">
+        <v>45.8073366270394</v>
+      </c>
+      <c r="F212" t="n">
+        <v>38.38330137911306</v>
+      </c>
+      <c r="G212" t="n">
+        <v>46.05996165493568</v>
+      </c>
+      <c r="H212" t="n">
+        <v>260.9704117703448</v>
+      </c>
+      <c r="I212" t="n">
+        <v>117.6659958383033</v>
+      </c>
+      <c r="J212" t="n">
+        <v>72.39999999999999</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Вятская ул.4; Нижний Новгород г., Крутояровская ул.22; Нижний Новгород г., 40 лет Октября ул.1А; Нижний Новгород г., Пятигорская ул.1; Нижний Новгород г., Гагарина пр-т150; Нижний Новгород г., Гагарина пр-т146; Нижний Новгород г., Пятигорская ул.12; Нижний Новгород г., Пятигорская ул.2; Нижний Новгород г., Пятигорская ул.8; Нижний Новгород г., Пятигорская ул.2А; Нижний Новгород г., Пятигорская ул.10; Нижний Новгород г., Пятигорская ул.6; Нижний Новгород г., Гагарина пр-т121Д; Нижний Новгород г., Малиновая Гряда п., 2; Нижний Новгород г., Тропинина ул.57; Нижний Новгород г., Тропинина ул.61; Нижний Новгород г., 40 лет Октября ул.7Б; Нижний Новгород г., 40 лет Октября ул.15 к2; Нижний Новгород г., Горная ул.11к5; Нижний Новгород г., Мызинская ул.9А; Нижний Новгород г., ст. Мыза4; Нижний Новгород г., 40 лет Победы ул.12; Нижний Новгород г., 40 лет Победы ул.8; Нижний Новгород г., 40 лет Победы ул.9; Нижний Новгород г., 40 лет Победы ул.13; Нижний Новгород г., 40 лет Победы ул.16; Нижний Новгород г., Медицинская ул.13; </t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>27</v>
+      </c>
+      <c r="D213" t="n">
+        <v>38.38330137911306</v>
+      </c>
+      <c r="E213" t="n">
+        <v>46.05996165493568</v>
+      </c>
+      <c r="F213" t="n">
+        <v>38.60334225869152</v>
+      </c>
+      <c r="G213" t="n">
+        <v>46.32401071042982</v>
+      </c>
+      <c r="H213" t="n">
+        <v>239.013124404834</v>
+      </c>
+      <c r="I213" t="n">
+        <v>110.5821423322151</v>
+      </c>
+      <c r="J213" t="n">
+        <v>73.38</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., ст. Мыза2; Нижний Новгород г., Азовская ул.16; Нижний Новгород г., Гагарина пр-т178; Нижний Новгород г., Полярная ул.2; Нижний Новгород г., Сурикова ул.8А; Нижний Новгород г., Крылова ул.5Б; Нижний Новгород г., Сурикова ул.12А; Нижний Новгород г., Сурикова ул.12; Нижний Новгород г., Горная ул.32; Нижний Новгород г., Горная ул.19; Нижний Новгород г., 40 лет Октября ул.2; Нижний Новгород г., 40 лет Победы ул.10; Нижний Новгород г., 40 лет Победы ул.14; Нижний Новгород г., 40 лет Победы ул.11; Нижний Новгород г., 40 лет Победы ул.18; Нижний Новгород г., 40 лет Победы ул.20; Нижний Новгород г., 40 лет Победы ул.21; Нижний Новгород г., Крылова ул.4А; </t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>18</v>
+      </c>
+      <c r="D214" t="n">
+        <v>38.54337679751382</v>
+      </c>
+      <c r="E214" t="n">
+        <v>46.25205215701659</v>
+      </c>
+      <c r="F214" t="n">
+        <v>38.82933628171099</v>
+      </c>
+      <c r="G214" t="n">
+        <v>46.59520353805318</v>
+      </c>
+      <c r="H214" t="n">
+        <v>244.7253968172313</v>
+      </c>
+      <c r="I214" t="n">
+        <v>112.9749390770741</v>
+      </c>
+      <c r="J214" t="n">
+        <v>72.28</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Корейский пер.8; Нижний Новгород г.,Большая Окружная ул., д.1-943; Нижний Новгород г., Эпроновская ул.4; </t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>38.82933628171099</v>
+      </c>
+      <c r="E215" t="n">
+        <v>46.59520353805318</v>
+      </c>
+      <c r="F215" t="n">
         <v>38.86019514675775</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G215" t="n">
         <v>46.6322341761093</v>
       </c>
-      <c r="F3" t="n">
-        <v>39.10899901216343</v>
-      </c>
-      <c r="G3" t="n">
-        <v>46.93079881459612</v>
-      </c>
-      <c r="H3" t="n">
-        <v>133.8000631966866</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80.38153756091489</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.700000000000001</v>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>91.25325549203933</v>
+      </c>
+      <c r="J215" t="n">
+        <v>3.190739726027398</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Энергетиков ул.1; Нижний Новгород г., 40 лет Октября ул.15к1; Нижний Новгород г., Сурикова ул.16; Нижний Новгород г., Героя Борисова ул.19; Нижний Новгород г., Корейский пер.5; Нижний Новгород г., Крылова ул.5; Нижний Новгород г., Нижне-Валдайская ул.32; Нижний Новгород г., Осенний пр.2; Нижний Новгород г., Чистопольская ул., д.6-38; Нижний Новгород г., Березопольская ул., д.1-129; </t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>10</v>
+      </c>
+      <c r="D216" t="n">
+        <v>38.85906721997841</v>
+      </c>
+      <c r="E216" t="n">
+        <v>46.63088066397408</v>
+      </c>
+      <c r="F216" t="n">
+        <v>38.9436078456696</v>
+      </c>
+      <c r="G216" t="n">
+        <v>46.73232941480352</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>110.1974817980819</v>
+      </c>
+      <c r="J216" t="n">
+        <v>31.19315068493151</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">п. Новосмолинский, д.Талашманово,  Шоссейная ул.49; </t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>38.94298439796513</v>
+      </c>
+      <c r="E217" t="n">
+        <v>46.73158127755815</v>
+      </c>
+      <c r="F217" t="n">
+        <v>38.96490868134973</v>
+      </c>
+      <c r="G217" t="n">
+        <v>46.75789041761967</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>154.5066954040118</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.7233972602739726</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., 2-й Осташковский пер.1; Нижний Новгород г., Лбищенская ул.1; Нижний Новгород г., Покровского ул.45; Нижний Новгород г., Горная ул.45; Нижний Новгород г., Пятигорская ул.18; Нижний Новгород г., Пятигорская ул.9; Нижний Новгород г., Пятигорская ул.16; Нижний Новгород г., Батумская ул.1Б; Нижний Новгород г., Пятигорская ул.18В; Нижний Новгород г., Углова ул.2А; Нижний Новгород г., Пятигорская ул.18А; Нижний Новгород г., Пятигорская ул.14; Нижний Новгород г., Пятигорская ул.18Б; Нижний Новгород г., Пятигорская ул.11; Нижний Новгород г., Пятигорская ул.19; Нижний Новгород г., Ветлужская ул.2; Нижний Новгород г., 40 лет Октября ул.18А; Нижний Новгород г., Терешковой ул.6; Нижний Новгород г., Крылова ул.14А; Нижний Новгород г., Терешковой ул.8; Нижний Новгород г., Терешковой ул.3; Нижний Новгород г., Черепичный п.14А; Нижний Новгород г., Гагарина пр-т122; Нижний Новгород г., Батумская ул.6А; Нижний Новгород г., Батумская ул.1; Нижний Новгород г., Пятигорская ул.23; Нижний Новгород г., Пятигорская ул.21; Нижний Новгород г., Корейская ул.19; Нижний Новгород г., Малая Окружная ул., д.2-209; Нижний Новгород г., Эпроновская ул.10; </t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>30</v>
+      </c>
+      <c r="D218" t="n">
+        <v>38.9436078456696</v>
+      </c>
+      <c r="E218" t="n">
+        <v>46.73232941480352</v>
+      </c>
+      <c r="F218" t="n">
+        <v>39.07806990289539</v>
+      </c>
+      <c r="G218" t="n">
+        <v>46.89368388347447</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>186.1234415322231</v>
+      </c>
+      <c r="J218" t="n">
+        <v>72.40578082191782</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Корейская ул.18; Нижний Новгород г., 40 лет Октября ул.26/1; Нижний Новгород г., Пантелеймоновская ул., д.4-23; Нижний Новгород г., Гжатская ул.4; </t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>39.07764363088521</v>
+      </c>
+      <c r="E219" t="n">
+        <v>46.89317235706226</v>
+      </c>
+      <c r="F219" t="n">
+        <v>39.15990210690605</v>
+      </c>
+      <c r="G219" t="n">
+        <v>46.99188252828726</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>100.0106835191935</v>
+      </c>
+      <c r="J219" t="n">
+        <v>8.894356164383563</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Корейская ул.20; Нижний Новгород г., Корейская ул.22; Нижний Новгород г., Полевая ул.10; Нижний Новгород г., Полевая ул.10А; Нижний Новгород г., Героя Борисова ул.68; Нижний Новгород г., Нарофоминская ул.18; Нижний Новгород г., Гагарина пр-т118; Нижний Новгород г., Верховая ул., д.3-39; Нижний Новгород г., 40 лет Октября ул.21А; </t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9</v>
+      </c>
+      <c r="D220" t="n">
+        <v>39.15990210690605</v>
+      </c>
+      <c r="E220" t="n">
+        <v>46.99188252828726</v>
+      </c>
+      <c r="F220" t="n">
+        <v>39.23640695043042</v>
+      </c>
+      <c r="G220" t="n">
+        <v>47.0836883405165</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>105.0830286847867</v>
+      </c>
+      <c r="J220" t="n">
+        <v>14.40221917808219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Соловьиная ул., д.1-25; Нижний Новгород г., Бонч-Бруевича ул.13; </t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>39.21572693972179</v>
+      </c>
+      <c r="E221" t="n">
+        <v>47.05887232766615</v>
+      </c>
+      <c r="F221" t="n">
+        <v>39.27967688766453</v>
+      </c>
+      <c r="G221" t="n">
+        <v>47.13561226519743</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>91.36783784465024</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2.459479452054794</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Бонч-Бруевича ул.12; Нижний Новгород г., Углова ул.6; Нижний Новгород г., Надеждинская ул., д.1-35; Нижний Новгород г., Шатковская ул., д.3/Б; </t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>4</v>
+      </c>
+      <c r="D222" t="n">
+        <v>39.27967688766453</v>
+      </c>
+      <c r="E222" t="n">
+        <v>47.13561226519743</v>
+      </c>
+      <c r="F222" t="n">
+        <v>39.33498860473535</v>
+      </c>
+      <c r="G222" t="n">
+        <v>47.20198632568242</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>92.29995160506934</v>
+      </c>
+      <c r="J222" t="n">
+        <v>8.925808219178084</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Ленская ул.20; Нижний Новгород г., Батумская ул.5Б; Нижний Новгород г., Батумская ул.3; Нижний Новгород г., Ополченцев ул., д.1-65; Нижний Новгород г., Гжатская ул.6; </t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>39.32055691914756</v>
+      </c>
+      <c r="E223" t="n">
+        <v>47.18466830297708</v>
+      </c>
+      <c r="F223" t="n">
+        <v>39.38977281025323</v>
+      </c>
+      <c r="G223" t="n">
+        <v>47.26772737230387</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>98.09284394371193</v>
+      </c>
+      <c r="J223" t="n">
+        <v>15.92682191780822</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Гжатская ул.2; Нижний Новгород г., Бонч-Бруевича ул.1; Нижний Новгород г., Батумская ул.25; Нижний Новгород г., Героя Елисеева ул.8; Нижний Новгород г., Героя Елисеева ул.7А; Нижний Новгород г., Героя Елисеева ул.7; Нижний Новгород г., Бонч-Бруевича ул.4; Нижний Новгород г., Бонч-Бруевича ул.11А; Нижний Новгород г., Бонч-Бруевича ул.5; Нижний Новгород г., Бонч-Бруевича ул.8А; Нижний Новгород г., Героя Елисеева ул.1; Нижний Новгород г., Батумская ул.24; Нижний Новгород г., Батумская ул.21; Нижний Новгород г., Батумская ул.19; Нижний Новгород г., Батумская ул.9В; Нижний Новгород г., Терешковой ул.4А; Нижний Новгород г., Терешковой ул.2; Нижний Новгород г., Бонч-Бруевича ул.3; Нижний Новгород г., Арсеньева ул.4; Нижний Новгород г., Арсеньева ул.5; Нижний Новгород г., Арсеньева ул.3; Нижний Новгород г., Вологдина ул.8; Нижний Новгород г., Вологдина ул.4; Нижний Новгород г., Арсеньева ул.2; Нижний Новгород г., Гагарина пр-т110; Нижний Новгород г., Гагарина пр-т106; </t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>26</v>
+      </c>
+      <c r="D224" t="n">
+        <v>39.38977281025323</v>
+      </c>
+      <c r="E224" t="n">
+        <v>47.26772737230387</v>
+      </c>
+      <c r="F224" t="n">
+        <v>39.66631143092122</v>
+      </c>
+      <c r="G224" t="n">
+        <v>47.59957371710546</v>
+      </c>
+      <c r="H224" t="n">
+        <v>159.8886048977287</v>
+      </c>
+      <c r="I224" t="n">
+        <v>85.26304341631605</v>
+      </c>
+      <c r="J224" t="n">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Карбышева ул.7; Нижний Новгород г., Анкудиновское ш.6; Нижний Новгород г., Страховая ул.20; Нижний Новгород г., Карбышева ул.5; с.п. Красная Горка, Ленина ул.30; с.п. Красная Горка, Колхозная ул.27; Нижний Новгород г., Анкудиновское ш.11А; Нижний Новгород г., Первая Камышовая ул.1-10; Нижний Новгород г., Полярная ул.26; </t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9</v>
+      </c>
+      <c r="D225" t="n">
+        <v>39.56727847811131</v>
+      </c>
+      <c r="E225" t="n">
+        <v>47.48073417373357</v>
+      </c>
+      <c r="F225" t="n">
+        <v>39.84565762210202</v>
+      </c>
+      <c r="G225" t="n">
+        <v>47.81478914652243</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>237.5257893311096</v>
+      </c>
+      <c r="J225" t="n">
+        <v>19.81572602739726</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Полярная ул.22; Нижний Новгород г., Черепичный п.16; Нижний Новгород г., Черепичный п.19; Нижний Новгород г., Анкудиновское ш.13; Нижний Новгород г., Анкудиновское ш.9А; Нижний Новгород г., Карбышева ул.1; Нижний Новгород г., Сергачская ул.20; Нижний Новгород г., Вологдина ул.1Б; Нижний Новгород г., Вологдина ул.3; Нижний Новгород г., Луганская ул.2А; Нижний Новгород г., Луганская ул.5; Нижний Новгород г., Гагарина пр-т102; Нижний Новгород г., Вологдина ул.3А; Нижний Новгород г., Мордвинцево д.52; Нижний Новгород г., Вторая Камышовая ул., д.2-12; п. Новосмолинский, д.Гладково, ул.Новоселов; </t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16</v>
+      </c>
+      <c r="D226" t="n">
+        <v>39.84565762210202</v>
+      </c>
+      <c r="E226" t="n">
+        <v>47.81478914652243</v>
+      </c>
+      <c r="F226" t="n">
+        <v>39.96209874111705</v>
+      </c>
+      <c r="G226" t="n">
+        <v>47.95451848934047</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>184.6859153908426</v>
+      </c>
+      <c r="J226" t="n">
+        <v>45.22580821917808</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Болдинская ул.19; Нижний Новгород г., Анкудиновское ш.32; Нижний Новгород г., Анкудиновское ш.16; Нижний Новгород г., Анкудиновское ш.11Б; Нижний Новгород г., Цветочная ул.13/2; Нижний Новгород г., Цветочная ул.13/1; Нижний Новгород г., Анкудиновское ш.31; Нижний Новгород г., Цветочная ул.13; Нижний Новгород г., Ольгино д.40; Нижний Новгород г., Цветочная ул.10; Нижний Новгород г., Цветочная ул.9; Нижний Новгород г., Тополиная ул., д.4-16; Нижний Новгород г., Летний пер., д.2-29; </t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>13</v>
+      </c>
+      <c r="D227" t="n">
+        <v>39.9448370138183</v>
+      </c>
+      <c r="E227" t="n">
+        <v>47.93380441658196</v>
+      </c>
+      <c r="F227" t="n">
+        <v>40.07206424584005</v>
+      </c>
+      <c r="G227" t="n">
+        <v>48.08647709500805</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>176.6631062719472</v>
+      </c>
+      <c r="J227" t="n">
+        <v>30.18649315068493</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">с.п. Красная Горка, Горького ул.13А; </t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>40.05954592548313</v>
+      </c>
+      <c r="E228" t="n">
+        <v>48.07145511057976</v>
+      </c>
+      <c r="F228" t="n">
+        <v>40.07206424584005</v>
+      </c>
+      <c r="G228" t="n">
+        <v>48.08647709500805</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>146.536543344481</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.1493972602739726</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">с.п.Красная Горка, ул.Песочная, на развилке дорог (в районе магазина); Нижний Новгород г., Луч п.50; Нижний Новгород г., Цветочная ул.12; Нижний Новгород г., Ольгино д.84Б; Нижний Новгород г., Ольгино д.84; Нижний Новгород г., Академика Сахарова ул., д.119; Нижний Новгород г., Академика Сахарова ул.113; Нижний Новгород г., Академика Сахарова ул.119к2; Нижний Новгород г., Академика Сахарова ул.117/2; Нижний Новгород г., Академика Сахарова ул.117; Нижний Новгород г., Академика Сахарова ул.115к2; Нижний Новгород г., Академика Сахарова ул.115к1; Нижний Новгород г., Ольгино д.56А; Нижний Новгород г., Калиновый пр., д.1-23; Нижний Новгород г., Васильковая ул., д.1-167; </t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>15</v>
+      </c>
+      <c r="D229" t="n">
+        <v>40.07206424584005</v>
+      </c>
+      <c r="E229" t="n">
+        <v>48.08647709500805</v>
+      </c>
+      <c r="F229" t="n">
+        <v>40.57787339206468</v>
+      </c>
+      <c r="G229" t="n">
+        <v>48.69344807047762</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>194.2453363971113</v>
+      </c>
+      <c r="J229" t="n">
+        <v>38.9386301369863</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Любимая ул., д.1-35; </t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>40.57787339206468</v>
+      </c>
+      <c r="E230" t="n">
+        <v>48.69344807047762</v>
+      </c>
+      <c r="F230" t="n">
+        <v>40.6398945847135</v>
+      </c>
+      <c r="G230" t="n">
+        <v>48.7678735016562</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>81.21776797677819</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.4953698630136986</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">с.п. Красная Горка, Новосёлов ул.35; </t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>40.57787339206468</v>
+      </c>
+      <c r="E231" t="n">
+        <v>48.69344807047762</v>
+      </c>
+      <c r="F231" t="n">
+        <v>40.66143542682472</v>
+      </c>
+      <c r="G231" t="n">
+        <v>48.79372251218967</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>148.7303997975022</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.2201643835616438</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Бешенцево д.30; с.п. Красная Горка, Ленина ул.42; Нижний Новгород г., Героя Чванова ул. (Бешенцево д)3А; </t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>40.6398945847135</v>
+      </c>
+      <c r="E232" t="n">
+        <v>48.7678735016562</v>
+      </c>
+      <c r="F232" t="n">
+        <v>40.91685759529863</v>
+      </c>
+      <c r="G232" t="n">
+        <v>49.10022911435836</v>
+      </c>
+      <c r="H232" t="n">
+        <v>695.0493517328077</v>
+      </c>
+      <c r="I232" t="n">
+        <v>286.6505782570626</v>
+      </c>
+      <c r="J232" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Загородная ул., д.1-64; Нижний Новгород г., Ольгино д.12А; </t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>40.89127239229555</v>
+      </c>
+      <c r="E233" t="n">
+        <v>49.06952687075466</v>
+      </c>
+      <c r="F233" t="n">
+        <v>41.0001752671135</v>
+      </c>
+      <c r="G233" t="n">
+        <v>49.2002103205362</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>87.22272568234007</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2.624602739726027</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Центральная ул.131; Нижний Новгород г., Центральная ул.3А; с.п. Красная Горка, Вокзальная 35; Нижний Новгород г., Луч п.16; Нижний Новгород г., Академика Сахарова ул.109к1; Нижний Новгород г., Академика Сахарова ул.109; Нижний Новгород г., Академика Сахарова ул.109А; Нижний Новгород г., Академика Сахарова ул.111к1; Нижний Новгород г., Академика Сахарова ул.111к2; Нижний Новгород г., Академика Сахарова ул.113к1; Нижний Новгород г., Академика Сахарова ул.113к2; Нижний Новгород г., Академика Сахарова ул.111; Нижний Новгород г., Академика Сахарова ул.105; Нижний Новгород г., Академика Сахарова ул.103; Нижний Новгород г., Академика Сахарова ул.101; Нижний Новгород г., Академика Сахарова ул.107; Нижний Новгород г., Академика Сахарова ул.115; Нижний Новгород г., Центральная ул.158; Нижний Новгород г., Академика Сахарова ул.105к1; Нижний Новгород г., Академика Сахарова ул.105к2; с.п. Красная Горка, Кооперативная ул.13А; </t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>21</v>
+      </c>
+      <c r="D234" t="n">
+        <v>40.92189721207083</v>
+      </c>
+      <c r="E234" t="n">
+        <v>49.10627665448499</v>
+      </c>
+      <c r="F234" t="n">
+        <v>41.76190361366418</v>
+      </c>
+      <c r="G234" t="n">
+        <v>50.11428433639702</v>
+      </c>
+      <c r="H234" t="n">
+        <v>871.3561628980865</v>
+      </c>
+      <c r="I234" t="n">
+        <v>328.1004295736022</v>
+      </c>
+      <c r="J234" t="n">
+        <v>66.00000000000001</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нижний Новгород г., Первоцветная ул.8к2; Нижний Новгород г., Первоцветная ул.8; Нижний Новгород г., Первоцветная ул.6к2; Нижний Новгород г., Первоцветная ул.6к1; Нижний Новгород г., Цветочная ул.1; Нижний Новгород г., Первоцветная ул.4к1; Нижний Новгород г., Первоцветная ул.4к2; Нижний Новгород г., Цветочная ул.5; Нижний Новгород г., Цветочная ул.7; Нижний Новгород г., Цветочная ул.7к1; Нижний Новгород г., Цветочная ул.7к2; Нижний Новгород г., Цветочная ул.4; Нижний Новгород г., Первоцветная ул.6; Нижний Новгород г., Первоцветная ул.4; Нижний Новгород г., Академика Сахарова ул.109к2; с.п.Красная Горка, п.Голышево,Чапаева, напротив д.10; п. Мулино, Лесная ул.4; п. Мулино, Гвардейская ул.9; п. Мулино, Гвардейская ул.20; с.п.Красная Горка, п.Голышево,  ул.Чапаева д.37; </t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>20</v>
+      </c>
+      <c r="D235" t="n">
+        <v>41.66156219394337</v>
+      </c>
+      <c r="E235" t="n">
+        <v>49.99387463273204</v>
+      </c>
+      <c r="F235" t="n">
+        <v>42.78564771192968</v>
+      </c>
+      <c r="G235" t="n">
+        <v>51.34277725431561</v>
+      </c>
+      <c r="H235" t="n">
+        <v>678.6477928395451</v>
+      </c>
+      <c r="I235" t="n">
+        <v>265.331849308144</v>
+      </c>
+      <c r="J235" t="n">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">с.п.Красная Горка, п.Голышево, напротив д.28 по ул.Совхозная ; п. Мулино, Гвардейская ул.11; п. Мулино, Гвардейская ул.12; п. Мулино, Гвардейская ул.19; р.п. Ильиногорск, Угарова ул.16; Володарский р-н, Ильиногорск пгт., Угарова ул.1; Володарский р-н, Ильиногорск пгт., Угарова ул.1; Дзержинск г., Мушково  ул.1а; р.п.Ильиногорск,Угарова ул.10; с.п.Красная Горка, п.Голышево,  Школьная 11; с.п.Красная Горка, п.Голышево, напротив д.25 по ул. Школьная; с.п.Красная Горка, п.Голышево, "Жаворонки", ул.70 лет победы; Володарский р-н, Мулино п., Гвардейская ул.62А; п. Мулино, Гвардейская ул.62в; п. Мулино, Гвардейская ул.1; п. Мулино, Гвардейская ул.17; п. Мулино, Гвардейская ул.10; п. Мулино, Гвардейская ул.8; п. Мулино, Гвардейская ул.3; п. Мулино, Гвардейская ул.5; р.п.Ильиногорск,Спортивная ул.9; р.п. Ильиногорск, Угарова ул.20; р.п. Ильиногорск, Угарова ул.17; Володарский р-н, Ильиногорск пгт., Угарова ул.15; п. Мулино, Гвардейская ул.15 ; р.п.Ильиногорск,Больничная ул.15; п. Мулино, 1-я Зелёная ул.25; р.п. Ильиногорск, Угарова ул.23; р.п. Ильиногорск, Угарова ул.26; Володарский р-н, Ильиногорск пгт., Угарова ул.24; р.п.Ильиногорск,Угарова ул.25; р.п.Ильиногорск,Центральная ул.5; п.Мулино, д.Старково, ул.Нагорная, в районе д.13; Володарский р-н, Ильиногорск пгт., Центральная ул.2а; р.п.Ильиногорск,Центральная ул.7; р.п.Ильиногорск,Мира ул.3; </t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>36</v>
+      </c>
+      <c r="D236" t="n">
+        <v>42.68193200301801</v>
+      </c>
+      <c r="E236" t="n">
+        <v>51.2183184036216</v>
+      </c>
+      <c r="F236" t="n">
+        <v>43.93964854332089</v>
+      </c>
+      <c r="G236" t="n">
+        <v>52.72757825198507</v>
+      </c>
+      <c r="H236" t="n">
+        <v>593.1323896670044</v>
+      </c>
+      <c r="I236" t="n">
+        <v>231.5373820785777</v>
+      </c>
+      <c r="J236" t="n">
+        <v>74.11000000000001</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">п.Мулино,Новая ул,11; п. Мулино, Новая ул.16; р.п.Ильино, д.Ильина Гора  в районе д.1; р.п. Ильиногорск, Мира ул.13; п.Мулино, д.Старково, ул.Овражная, в районе д.1; р.п.Ильиногорск,Лесная ул.3; р.п. Ильиногорск, Спортивная ул.3; р.п. Ильиногорск, Сиреневая ул.1; Володарский р-н, Ильиногорск пгт., Спортивная ул.1к1(магнит); п. Мулино, Новая ул.14; п. Мулино, Новая ул.10; р.п. Ильино, Совхозная ул.29; п. Мулино, Новая ул.19; р.п.Ильиногорск,Лесная ул.7; п. Мулино, Новая ул.3; п. Мулино, Новая ул.7; Володарский р-н, Мулино п., Полигонная ул.1; р.п. Ильино, Совхозная ул.16; р.п.Ильино, д.Ильина Гора, ул. Совхозная д.3,4; р.п. Ильино, Совхозная ул.30; р.п. Ильино, Совхозная ул.37; р.п. Ильино, Почтовая ул.28; р.п. Ильино, Комсомольская ул.2; р.п. Ильино, Советский переулок.8; с.п.Красная Горка, д. Чернуха, д.8; Володарский р-н, Ильино п., Ильино ст., д.; р.п. Ильино, Советская ул.3; р.п. Ильино, Почтовая ул.8; р.п. Ильино, Маяковского ул.3; р.п. Ильино, Ленина ул.3; п. Новосмолинский, д.Талашманово, Шоссейная ул.17; п. Новосмолинский, д.Талашманово, Шоссейная ул.42; р.п. Ильино, Маяковского ул.8; п.Мулино, д. Красные Ударники,напротив дома 22; </t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>34</v>
+      </c>
+      <c r="D237" t="n">
+        <v>43.74983369409143</v>
+      </c>
+      <c r="E237" t="n">
+        <v>52.49980043290972</v>
+      </c>
+      <c r="F237" t="n">
+        <v>45.81618442910068</v>
+      </c>
+      <c r="G237" t="n">
+        <v>54.97942131492082</v>
+      </c>
+      <c r="H237" t="n">
+        <v>672.1725489481209</v>
+      </c>
+      <c r="I237" t="n">
+        <v>262.234712072707</v>
+      </c>
+      <c r="J237" t="n">
+        <v>70.35000000000001</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">р.п.Ильино, д.Объезд, ул. Школьная д.5; р.п. Ильино, Гоголя ул.2; с.п.Красная Горка, п. Охлопково, Южная ул.2а; р.п. Ильино, Чкалова ул.41; Володарский р-н, Ильино п., Гоголя ул.4а; р.п.Ильино, ул.Школьная 8,напротив дома; р.п.Ильино, ул.Полевая д.40; р.п. Ильино, Гоголя ул.29; р.п. Ильино, Чкалова ул.18; р.п.Ильино, д.Чичерево, ул.Шоссейная 15а,напротив дома; с.п.Красная Горка, д.Дубки,на въезде в деревню; р.п. Ильино, Чкалова ул.8; р.п.Ильино, д.Объезд, ул.Школьная 31; п.Мулино, д.Дева; р.п.Ильино, д.Объезд, ул.Полевая 65,напротив дома; р.п. Ильино, Буденого ул.26; с.п.Красная Горка, д.Дубки,на развилке ул.Мопра и ул.Мира; </t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>17</v>
+      </c>
+      <c r="D238" t="n">
+        <v>45.79252233416647</v>
+      </c>
+      <c r="E238" t="n">
+        <v>54.95102680099976</v>
+      </c>
+      <c r="F238" t="n">
+        <v>47.52179363131691</v>
+      </c>
+      <c r="G238" t="n">
+        <v>57.02615235758029</v>
+      </c>
+      <c r="H238" t="n">
+        <v>685.8344545806474</v>
+      </c>
+      <c r="I238" t="n">
+        <v>283.8865696698105</v>
+      </c>
+      <c r="J238" t="n">
+        <v>36.41999999999999</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г.Володарск,ул.Луговая между домами №45 и 47; р.п. Ильино, Луговая ул.1; р.п.Ильино, д.Чичерево, ул.Колхозная 53,напротив дома; р.п.Ильино, д.Чичерево, ул.Колхозная 51а (ранее была Колхозная 71 напротив дома); р.п. Ильино, Луговая ул.3А; п.Золино, Кооперативная д.17; р.п.Ильино, с.Мячково, ул.Советская д.1; р.п.Центральный, п. Инженерный, Новая ул.3; р.п.Ильино, с.Мячково, ул.Нагорная 71,в 20мот пожарного гидранта; р.п.Ильино, с.Мячково, ул.Песочная 107; р.п.Центральный, п. Инженерный, Новая ул.2; р.п.Центральный, п. Инженерный, Новая ул.1; р.п.Ильино, д.Щелапино, ул.Речная 22,напротив дома; р.п. Центральный, Заречная ул.10; р.п. Центральный, 60 лет Октября ул.6; р.п. Центральный, Зелёная ул.5 (между домами 1-3); р.п. Центральный, Железнодорожная ул.7; р.п. Центральный, Комсомольская ул.4; р.п. Центральный, Комсомольская ул.5; р.п. Центральный, Советская ул.4; р.п. Центральный, Комсомольская ул.12; р.п. Центральный, Комсомольская ул.11; р.п. Центральный, Мирошниченко ул.14; р.п. Центральный, Мирошниченко ул.10; р.п. Центральный, Мирошниченко ул.1; р.п. Фролищи, Новая ул.1; р.п. Фролищи, Советская ул.27; р.п. Фролищи, Октябрьская ул.2; р.п. Фролищи, переулок Почтовый.2; р.п. Фролищи, Южная ул.14; р.п. Фролищи, Заводская ул.12; р.п. Фролищи, Школьная ул.29; р.п. Фролищи, Нагорная ул.8А; р.п. Фролищи, Северная ул.2; р.п. Фролищи, Советская ул.17; с.п. Красная Горка, Горького ул.13А; </t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>36</v>
+      </c>
+      <c r="D239" t="n">
+        <v>47.45824678570137</v>
+      </c>
+      <c r="E239" t="n">
+        <v>56.94989614284165</v>
+      </c>
+      <c r="F239" t="n">
+        <v>96.64293444969604</v>
+      </c>
+      <c r="G239" t="n">
+        <v>115.9715213396352</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1162.545996357652</v>
+      </c>
+      <c r="I239" t="n">
+        <v>438.3093741937892</v>
+      </c>
+      <c r="J239" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,1683 +488,1703 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., 5а; </t>
+          <t xml:space="preserve">Нижний Новгород г., 2-й Осташковский пер.1; Нижний Новгород г., 30 лет Октября ул.2; Нижний Новгород г., 40 лет Октября ул.15 к2; Нижний Новгород г., 40 лет Октября ул.15к1; Нижний Новгород г., 40 лет Октября ул.1А; Нижний Новгород г., 40 лет Октября ул.26/1; Нижний Новгород г., 40 лет Октября ул.7Б; Нижний Новгород г., 40 лет Победы ул.1; Нижний Новгород г., 40 лет Победы ул.10; Нижний Новгород г., 40 лет Победы ул.11; Нижний Новгород г., 40 лет Победы ул.12; Нижний Новгород г., 40 лет Победы ул.13; Нижний Новгород г., 40 лет Победы ул.14; Нижний Новгород г., 40 лет Победы ул.18; Нижний Новгород г., 40 лет Победы ул.2; Нижний Новгород г., 40 лет Победы ул.20; Нижний Новгород г., 40 лет Победы ул.21; </t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1945603420592875</v>
+        <v>37.27961162403488</v>
       </c>
       <c r="E2" t="n">
-        <v>0.233472410471145</v>
+        <v>44.73553394884186</v>
       </c>
       <c r="F2" t="n">
-        <v>7.203878434943561</v>
+        <v>38.05668254512528</v>
       </c>
       <c r="G2" t="n">
-        <v>8.644654121932273</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>45.66801905415033</v>
+      </c>
+      <c r="H2" t="n">
+        <v>186.2938614058665</v>
+      </c>
       <c r="I2" t="n">
-        <v>7.398438777002848</v>
+        <v>91.0224033215017</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01915068493150685</v>
+        <v>76.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Пыра п., Лесной Кардон, д.7; </t>
+          <t xml:space="preserve">Нижний Новгород г., 40 лет Победы ул.3; Нижний Новгород г., 40 лет Победы ул.4; Нижний Новгород г., 40 лет Победы ул.5; Нижний Новгород г., 40 лет Победы ул.6; Нижний Новгород г., 40 лет Победы ул.7; Нижний Новгород г., 40 лет Победы ул.8; Нижний Новгород г., 40 лет Победы ул.9; Нижний Новгород г., Азовская ул.16; Нижний Новгород г., Академика Лебедева ул.1; Нижний Новгород г., Академика Лебедева ул.12; Нижний Новгород г., Академика Лебедева ул.4; Нижний Новгород г., Академика Лебедева ул.8; Нижний Новгород г., Академика Лебедева ул.8А; Нижний Новгород г., Академика Сахарова ул., д.119; Нижний Новгород г., Академика Сахарова ул.101; Нижний Новгород г., Академика Сахарова ул.103; Нижний Новгород г., Академика Сахарова ул.105; Нижний Новгород г., Академика Сахарова ул.105к1; Нижний Новгород г., Академика Сахарова ул.105к2; Нижний Новгород г., Академика Сахарова ул.107; Нижний Новгород г., Академика Сахарова ул.109; Нижний Новгород г., Академика Сахарова ул.109А; Нижний Новгород г., Академика Сахарова ул.109к1; Нижний Новгород г., Академика Сахарова ул.109к2; Нижний Новгород г., Академика Сахарова ул.111; Нижний Новгород г., Академика Сахарова ул.111к1; </t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1945603420592875</v>
+        <v>38.81494532751494</v>
       </c>
       <c r="E3" t="n">
-        <v>0.233472410471145</v>
+        <v>46.57793439301793</v>
       </c>
       <c r="F3" t="n">
-        <v>7.967332080430375</v>
+        <v>41.30605856478122</v>
       </c>
       <c r="G3" t="n">
-        <v>9.560798496516451</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>49.56727027773746</v>
+      </c>
+      <c r="H3" t="n">
+        <v>192.1592687112637</v>
+      </c>
       <c r="I3" t="n">
-        <v>27.26581397803934</v>
+        <v>98.31478199837807</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01276712328767123</v>
+        <v>74.35999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.9; Дзержинск г., , д.; Дзержинск г., Игумновское ш.11Д; Дзержинск г., Игумновское ш.15; Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.32а; Дзержинск г., Новомосковская ул.14А; Дзержинск г., Советская ул.7; Дзержинск г., Новомосковская ул.10; Дзержинск г., Советская ул.5; Дзержинск г., Чкалова пр-т51А; Дзержинск г., Чкалова пр-т53; Дзержинск г., Чкалова пр-т55; Дзержинск г., Чкалова пр-т56; Дзержинск г., Чкалова пр-т52; Дзержинск г., Новомосковская ул.8; Дзержинск г., Чкалова пр-т54; Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.10; Городской округ Дзержинск р-н, Гнилицкие дворики п., 19Г; Городской округ Дзержинск р-н, Гнилицкие дворики п., 19б; Городской округ Дзержинск р-н, Гнилицкие дворики п., 19а; </t>
+          <t xml:space="preserve">Нижний Новгород г., Академика Сахарова ул.111к2; Нижний Новгород г., Академика Сахарова ул.113; Нижний Новгород г., Академика Сахарова ул.113к1; Нижний Новгород г., Академика Сахарова ул.113к2; Нижний Новгород г., Академика Сахарова ул.115; Нижний Новгород г., Академика Сахарова ул.115к1; Нижний Новгород г., Академика Сахарова ул.115к2; Нижний Новгород г., Академика Сахарова ул.117; Нижний Новгород г., Академика Сахарова ул.117/2; Нижний Новгород г., Академика Сахарова ул.119к2; Нижний Новгород г., Анкудиновское ш.11Б; Нижний Новгород г., Анкудиновское ш.13; Нижний Новгород г., Анкудиновское ш.16; Нижний Новгород г., Анкудиновское ш.31; Нижний Новгород г., Анкудиновское ш.32; Нижний Новгород г., Анкудиновское ш.6; Нижний Новгород г., Анкудиновское ш.9А; Нижний Новгород г., Арсеньева ул.2; Нижний Новгород г., Арсеньева ул.3; Нижний Новгород г., Арсеньева ул.4; Нижний Новгород г., Арсеньева ул.5; Нижний Новгород г., Батумская ул.1; Нижний Новгород г., Батумская ул.19; Нижний Новгород г., Батумская ул.1Б; Нижний Новгород г., Батумская ул.21; </t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>7.203878434943561</v>
+        <v>41.30605856478122</v>
       </c>
       <c r="E4" t="n">
-        <v>8.644654121932273</v>
+        <v>49.56727027773746</v>
       </c>
       <c r="F4" t="n">
-        <v>11.46307455739642</v>
+        <v>39.46110633343651</v>
       </c>
       <c r="G4" t="n">
-        <v>13.7556894688757</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>47.35332760012382</v>
+      </c>
+      <c r="H4" t="n">
+        <v>189.79447177939</v>
+      </c>
       <c r="I4" t="n">
-        <v>87.34559479690486</v>
+        <v>96.50956539876859</v>
       </c>
       <c r="J4" t="n">
-        <v>37.96638356164384</v>
+        <v>74.14000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Пирогова ул.34; </t>
+          <t xml:space="preserve">Нижний Новгород г., Батумская ул.25; Нижний Новгород г., Батумская ул.3; Нижний Новгород г., Батумская ул.5Б; Нижний Новгород г., Березопольская ул., д.1-129; Нижний Новгород г., Бешенцево д.30; </t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>11.06165933873866</v>
+        <v>39.4643160840233</v>
       </c>
       <c r="E5" t="n">
-        <v>13.27399120648639</v>
+        <v>47.35717930082795</v>
       </c>
       <c r="F5" t="n">
-        <v>11.46307455739642</v>
+        <v>38.32539957582793</v>
       </c>
       <c r="G5" t="n">
-        <v>13.7556894688757</v>
+        <v>45.99047949099351</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>36.17113570009139</v>
+        <v>86.45394069168508</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03191780821917808</v>
+        <v>9.523397260273974</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Пирогова ул.35А; Дзержинск г., Пирогова ул.35В; Дзержинск г., Пирогова ул.36А; Дзержинск г., Чкалова пр-т48Б; Дзержинск г., Чкалова пр-т48А; Дзержинск г., Чкалова пр-т49; Дзержинск г., Чкалова пр-т47; Дзержинск г., Чкалова пр-т29; Дзержинск г., Чкалова пр-т49; Дзержинск г., Чапаева ул.22А; Дзержинск г., Чкалова пр-т, д.50а; Дзержинск г., Николая Гастелло ул.13; Дзержинск г., Панфиловцев ул.9; Дзержинск г., Александра Матросова ул.25; Дзержинск г., Молодежная ул.15А; Дзержинск г., Молодежная ул.12; Дзержинск г., Советская ул.11А; Дзержинск г., Советская ул.11; Дзержинск г., Советская ул.10Л; Дзержинск г., Советская ул.11В; Дзержинск г., Чкалова пр-т27; Дзержинск г., Чкалова пр-т, д.26; Дзержинск г., Чкалова пр-т, д.26; Дзержинск г., Чкалова пр-т28; Дзержинск г., Чапаева ул.26; Дзержинск г., Александра Матросова ул.7А; Дзержинск г., Александра Матросова ул.6Е; Дзержинск г., Пирогова ул.30; Дзержинск г., Пирогова ул.31А; Дзержинск г., Пирогова ул.14; </t>
+          <t xml:space="preserve">Нижний Новгород г., Ближнее Константиново, Полевая ул.3; Нижний Новгород г., Болдинская ул.19; Нижний Новгород г., Большая ул.2А; Нижний Новгород г., Бонч-Бруевича ул.1; Нижний Новгород г., Бонч-Бруевича ул.12; Нижний Новгород г., Бонч-Бруевича ул.13; Нижний Новгород г., Бонч-Бруевича ул.3; Нижний Новгород г., Бонч-Бруевича ул.4; Нижний Новгород г., Бонч-Бруевича ул.5; Нижний Новгород г., Бонч-Бруевича ул.8А; Нижний Новгород г., Васильковая ул., д.1-167; Нижний Новгород г., Верховая ул., д.3-39; </t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>11.46307455739642</v>
+        <v>40.66143542682472</v>
       </c>
       <c r="E6" t="n">
-        <v>13.7556894688757</v>
+        <v>48.79372251218967</v>
       </c>
       <c r="F6" t="n">
-        <v>11.97344203478716</v>
+        <v>37.49102585263403</v>
       </c>
       <c r="G6" t="n">
-        <v>14.36813044174459</v>
-      </c>
-      <c r="H6" t="n">
-        <v>119.2940278566691</v>
-      </c>
+        <v>44.98923102316083</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>28.89374049922582</v>
+        <v>111.2128056494862</v>
       </c>
       <c r="J6" t="n">
-        <v>73.3</v>
+        <v>38.9953698630137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Пирогова ул.32А, 34А; Дзержинск г., Ватутина ул.25А; Дзержинск г., Ватутина ул.36А; Дзержинск г., Чкалова пр-т, д.6; Дзержинск г., Чапаева ул.22; Дзержинск г., Чапаева ул.10; Дзержинск г., Чапаева ул.33; Дзержинск г., Чапаева ул.37; Дзержинск г., Александра Матросова ул.32; Дзержинск г., Александра Матросова ул.34; Дзержинск г., Николая Гастелло ул.14; Дзержинск г., Николая Гастелло ул.8; Дзержинск г., Ватутина ул.38; Дзержинск г., Николая Гастелло ул.9; Дзержинск г., Николая Гастелло ул.5; Дзержинск г., Ватутина ул.29; Дзержинск г., Ватутина ул.46; Дзержинск г., Маяковского ул.20Г; Дзержинск г., Пирогова ул.11; Дзержинск г., Чапаева ул.6; Дзержинск г., Пирогова ул.21А; Дзержинск г., Александра Матросова ул.55; Дзержинск г., Маяковского ул.15; Дзержинск г., Чапаева ул.47А; Дзержинск г., Ватутина ул.66А; Дзержинск г., Молодежная ул.7; Дзержинск г., Александра Матросова ул.57; Дзержинск г., Молодежная ул.6/38; Дзержинск г., Чапаева ул.66; </t>
+          <t xml:space="preserve">Нижний Новгород г., Военных Комиссаров ул.1; </t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>11.97344203478716</v>
+        <v>39.19256740066965</v>
       </c>
       <c r="E7" t="n">
-        <v>14.36813044174459</v>
+        <v>47.03108088080359</v>
       </c>
       <c r="F7" t="n">
-        <v>12.309184778295</v>
+        <v>37.79042813840835</v>
       </c>
       <c r="G7" t="n">
-        <v>14.771021733954</v>
-      </c>
-      <c r="H7" t="n">
-        <v>139.5643774423924</v>
-      </c>
+        <v>45.34851376609002</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>34.79248692440922</v>
+        <v>78.68453708711363</v>
       </c>
       <c r="J7" t="n">
-        <v>75.36</v>
+        <v>0.1022191780821918</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Молодежная ул.3; Дзержинск г., Александра Матросова ул.1А; Дзержинск г., Александра Матросова ул.1А; Дзержинск г., Водозаборная ул.1; Дзержинск г., Молодежная ул., д.8; Дзержинск г., Молодежная ул.12А; Дзержинск г., Молодежная ул.10А; Дзержинск г., Народная ул.40; Дзержинск г., Чапаева ул.56; Дзержинск г., Пирогова ул.3; Дзержинск г., Пирогова ул.5; Дзержинск г., Ватутина ул.13; Дзержинск г., Молодежная ул.1А; Дзержинск г., Черняховского ул.52; Дзержинск г., Маяковского ул.5; Дзержинск г., Николая Гастелло ул.3; Дзержинск г., Маяковского ул.10; Дзержинск г., Водозаборная ул.7; Дзержинск г., Гагарина ул.21; Дзержинск г., Маяковского ул.2; Дзержинск г., Ватутина ул.76А; Дзержинск г., Дзержинского пр-т36; Дзержинск г., Чапаева ул.73; Дзержинск г., Чапаева ул.70; Дзержинск г., Чапаева ул.76; Дзержинск г., Ватутина ул.78; Дзержинск г., Маяковского ул.17; Дзержинск г., Революции ул.2; Дзержинск г., Маяковского ул.19; </t>
+          <t xml:space="preserve">Нижний Новгород г., Военных Комиссаров ул.3; Нижний Новгород г., Военных Комиссаров ул.4; Нижний Новгород г., Военных Комиссаров ул.5; Нижний Новгород г., Военных Комиссаров ул.6; Нижний Новгород г., Военных Комиссаров ул.7; Нижний Новгород г., Военных Комиссаров ул.9; Нижний Новгород г., Вологдина ул.1Б; Нижний Новгород г., Вологдина ул.3; Нижний Новгород г., Вологдина ул.4; Нижний Новгород г., Вологдина ул.8; Нижний Новгород г., Вторая Камышовая ул., д.2-12; Нижний Новгород г., Вятская ул.1; </t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>12.309184778295</v>
+        <v>37.49102585263403</v>
       </c>
       <c r="E8" t="n">
-        <v>14.771021733954</v>
+        <v>44.98923102316083</v>
       </c>
       <c r="F8" t="n">
-        <v>12.74866267034248</v>
+        <v>38.0047179579379</v>
       </c>
       <c r="G8" t="n">
-        <v>15.29839520441098</v>
-      </c>
-      <c r="H8" t="n">
-        <v>181.3847170178777</v>
-      </c>
+        <v>45.60566154952548</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>49.5401903210565</v>
+        <v>94.42759649845645</v>
       </c>
       <c r="J8" t="n">
-        <v>74.42000000000002</v>
+        <v>26.52580821917809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Чапаева ул.71; Дзержинск г., Чапаева ул.71; Дзержинск г., Пирогова ул.1/2; Дзержинск г., Дзержинского пл.1; Дзержинск г., Черняховского ул.48; Дзержинск г., Гагарина ул.9; Дзержинск г., Дзержинского пр-т24; Дзержинск г., Чапаева ул.69/2; Дзержинск г., Дзержинского пр-т10; Дзержинск г., Маяковского ул.23Б; Дзержинск г., Маяковского ул.23; Дзержинск г., Грибоедова ул.2; Дзержинск г., Ленина пр-т71; Дзержинск г., Ленина пр-т67; Дзержинск г., Дзержинского пр-т5; Дзержинск г., Маяковского пл.1; Дзержинск г., Ленина пр-т65; Дзержинск г., Клюквина ул.11; Дзержинск г., Дзержинского пр-т14; Дзержинск г., Кирова пр-т11; Дзержинск г., Кирова пр-т16; Дзержинск г., Дзержинского пр-т18; Дзержинск г., Дзержинского пр-т21; Дзержинск г., Маяковского ул.27; Дзержинск г., Мира б-р.6; Дзержинск г., Островского ул.14; Дзержинск г., Грибоедова ул.7; Дзержинск г., Бутлерова ул.10; Дзержинск г., Комбрига Патоличева ул.34; Дзержинск г., Грибоедова ул.3Б; </t>
+          <t xml:space="preserve">Нижний Новгород г., Вятская ул.2; Нижний Новгород г., Вятская ул.3; Нижний Новгород г., Вятская ул.4; Нижний Новгород г., Вятская ул.5; Нижний Новгород г., Вятская ул.6; Нижний Новгород г., Вятская ул.7; Нижний Новгород г., Вятская ул.8; Нижний Новгород г., Вятская ул.9; Нижний Новгород г., Гагарина пр-т101; Нижний Новгород г., Гагарина пр-т101к1; Нижний Новгород г., Гагарина пр-т101к2; Нижний Новгород г., Гагарина пр-т101к3; Нижний Новгород г., Гагарина пр-т101к4; Нижний Новгород г., Гагарина пр-т101к5; Нижний Новгород г., Гагарина пр-т102; Нижний Новгород г., Гагарина пр-т103; Нижний Новгород г., Гагарина пр-т103А; Нижний Новгород г., Гагарина пр-т103Б; Нижний Новгород г., Гагарина пр-т105; Нижний Новгород г., Гагарина пр-т106; Нижний Новгород г., Гагарина пр-т107; Нижний Новгород г., Гагарина пр-т109; Нижний Новгород г., Гагарина пр-т110; Нижний Новгород г., Гагарина пр-т111; </t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>12.73371544129176</v>
+        <v>38.0047179579379</v>
       </c>
       <c r="E9" t="n">
-        <v>15.28045852955011</v>
+        <v>45.60566154952548</v>
       </c>
       <c r="F9" t="n">
-        <v>13.13507467691401</v>
+        <v>37.64074660945698</v>
       </c>
       <c r="G9" t="n">
-        <v>15.76208961229682</v>
+        <v>45.16889593134837</v>
       </c>
       <c r="H9" t="n">
-        <v>184.9346621273895</v>
+        <v>242.6632524437683</v>
       </c>
       <c r="I9" t="n">
-        <v>51.69796909526337</v>
+        <v>109.9979948654758</v>
       </c>
       <c r="J9" t="n">
-        <v>72.15999999999998</v>
+        <v>74.80000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Ленина пр-т61; Дзержинск г., Победы б-р.2А; Дзержинск г., Ленина пр-т57; Дзержинск г., Учебный пер.5А; Дзержинск г., Черняховского ул.25; Дзержинск г., Ленина пр-т77А; Дзержинск г., Мира б-р.8; Дзержинск г., Мира б-р.14; Дзержинск г., Гайдара ул.12/21; Дзержинск г., Аркадия Гайдара ул., д.11/23; Дзержинск г., Бутлерова ул.12; Дзержинск г., Ленина пр-т.81/5; Дзержинск г., Ленина пр-т83; Дзержинск г., Победы б-р.16А; Дзержинск г., Островского ул.1; Дзержинск г., Островского ул.4А; Дзержинск г., Ленина пр-т.66; Дзержинск г., Ленина пр-т64; Дзержинск г., Ленина пр-т.85; Дзержинск г., Ленина пр-т.85; Дзержинск г., Ленина пр-т95А; Дзержинск г., Ленина пр-т95; Дзержинск г., Черняховского ул.23; Дзержинск г., Ленина пр-т84; Дзержинск г., Урицкого ул.4А; Дзержинск г., Циолковского пр-т.1; Дзержинск г., Урицкого ул.4; Дзержинск г., Ленина пр-т38; Дзержинск г., Гайдара ул.16; Дзержинск г., Ленина пр-т37; Дзержинск г., Студенческая ул.34А; Дзержинск г., Студенческая ул.32б; Дзержинск г., Ленина пр-т36А; Дзержинск г., Ленина пр-т., д.34; Дзержинск г., Ленина пр-т30А; Дзержинск г., Гайдара ул.26А; Дзержинск г., Ленина пр-т.30; </t>
+          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т113; Нижний Новгород г., Гагарина пр-т115; Нижний Новгород г., Гагарина пр-т117; Нижний Новгород г., Гагарина пр-т118; Нижний Новгород г., Гагарина пр-т119; Нижний Новгород г., Гагарина пр-т122; Нижний Новгород г., Гагарина пр-т146; Нижний Новгород г., Гагарина пр-т150; Нижний Новгород г., Гагарина пр-т156; Нижний Новгород г., Гагарина пр-т160; Нижний Новгород г., Гагарина пр-т182; Нижний Новгород г., Гагарина пр-т194; Нижний Новгород г., Гагарина пр-т196; Нижний Новгород г., Гагарина пр-т198; Нижний Новгород г., Гагарина пр-т200; Нижний Новгород г., Гагарина пр-т204; Нижний Новгород г., Гагарина пр-т206; Нижний Новгород г., Гагарина пр-т208; Нижний Новгород г., Гагарина пр-т210; Нижний Новгород г., Гагарина пр-т212А; Нижний Новгород г., Гагарина пр-т214; Нижний Новгород г., Гагарина пр-т218; Нижний Новгород г., Гагарина пр-т220; Нижний Новгород г., Гагарина пр-т222; Нижний Новгород г., Гагарина пр-т224; </t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>13.06199923749111</v>
+        <v>37.64074660945698</v>
       </c>
       <c r="E10" t="n">
-        <v>15.67439908498933</v>
+        <v>45.16889593134837</v>
       </c>
       <c r="F10" t="n">
-        <v>13.52320119582862</v>
+        <v>38.01733143395634</v>
       </c>
       <c r="G10" t="n">
-        <v>16.22784143499435</v>
+        <v>45.6207977207476</v>
       </c>
       <c r="H10" t="n">
-        <v>194.7322774738081</v>
+        <v>211.4650877994578</v>
       </c>
       <c r="I10" t="n">
-        <v>55.43782656292601</v>
+        <v>99.75680866611644</v>
       </c>
       <c r="J10" t="n">
-        <v>72.77999999999997</v>
+        <v>74.80000000000003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Ленина пр-т38А; Дзержинск г., Мира б-р.20; Дзержинск г., Ленина пр-т.49/кп1; Дзержинск г., Ленина пр-т., д.49; Дзержинск г., Победы б-р.18; Дзержинск г., Ленина пр-т56А; Дзержинск г., Победы б-р.18А; Дзержинск г., Победы б-р.16; Дзержинск г., Победы б-р.6; Дзержинск г., Бутлерова ул.27Б; Дзержинск г., Пожарского ул.9; Дзержинск г., Пожарского ул.5; Дзержинск г., Ленина пр-т13Б; Дзержинск г., Пожарского ул.4; Дзержинск г., Пожарского ул.6; Дзержинск г., Победы б-р.17А; Дзержинск г., Победы б-р.7А; Дзержинск г., Победы б-р.17; Дзержинск г., Бутлерова ул.40Б; Дзержинск г., Маяковского ул.45; Дзержинск г., Бутлерова ул.38; Дзержинск г., Лермонтова ул.20 корпус 121а; Дзержинск г., Лермонтова ул.20 к.209; Дзержинск г., Свердлова пр-т.14Б; Городской округ Дзержинск р-н, Лесная поляна п., 1,6км юго-западнее п.Лесная поляна; Городской округ Дзержинск р-н, Пыра п., Пырская ул.9; Дзержинск г., Ленина пр-т92; Дзержинск г., Ленина пр-т96; Дзержинск г., Ленина пр-т103; Дзержинск г., Ленина пр-т107Б; Дзержинск г., Окская наб.13/1; Дзержинск г., Попова ул.30; Дзержинск г., Окская наб.13; Дзержинск г., Попова ул.28; </t>
+          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т226; Нижний Новгород г., Гагарина пр-т39; Нижний Новгород г., Гагарина пр-т72; Нижний Новгород г., Гагарина пр-т74; Нижний Новгород г., Гагарина пр-т82; Нижний Новгород г., Гагарина пр-т86; Нижний Новгород г., Гагарина пр-т91/1; Нижний Новгород г., Гагарина пр-т99к1; Нижний Новгород г., Гагарина пр-т99к2; Нижний Новгород г., Геологов ул.4; Нижний Новгород г., Героя Борисова ул.19; Нижний Новгород г., Героя Борисова ул.68; Нижний Новгород г., Героя Елисеева ул.1; Нижний Новгород г., Героя Елисеева ул.7; Нижний Новгород г., Героя Елисеева ул.7А; Нижний Новгород г., Героя Елисеева ул.8; Нижний Новгород г., Героя Чванова ул. (Бешенцево д)3А; Нижний Новгород г., Героя Шапошникова ул.12; Нижний Новгород г., Гжатская ул.2; Нижний Новгород г., Гжатская ул.4; Нижний Новгород г., Гжатская ул.6; Нижний Новгород г., Горная ул.11; Нижний Новгород г., Горная ул.11к3; Нижний Новгород г., Горная ул.11к5; Нижний Новгород г., Горная ул.12; Нижний Новгород г., Горная ул.19; Нижний Новгород г., Горная ул.20; </t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>13.52320119582862</v>
+        <v>37.97973340285079</v>
       </c>
       <c r="E11" t="n">
-        <v>16.22784143499435</v>
+        <v>45.57568008342095</v>
       </c>
       <c r="F11" t="n">
-        <v>13.78253570627305</v>
+        <v>37.71744363314465</v>
       </c>
       <c r="G11" t="n">
-        <v>16.53904284752766</v>
+        <v>45.26093235977358</v>
       </c>
       <c r="H11" t="n">
-        <v>310.0589609352515</v>
+        <v>297.4307060657501</v>
       </c>
       <c r="I11" t="n">
-        <v>94.41611006885408</v>
+        <v>128.3155190301052</v>
       </c>
       <c r="J11" t="n">
-        <v>73.15999999999998</v>
+        <v>74.80000000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Окская наб.13/1; Дзержинск г., Октябрьская ул.31; Дзержинск г., Октябрьская ул.48; Дзержинск г., Октябрьская ул.56; Дзержинск г., Октябрьская ул.33; Дзержинск г., Клюквина ул.1; Дзержинск г., Попова ул.28Б; Дзержинск г., Попова ул.30; Дзержинск г., Попова ул.34В; Дзержинск г., Попова ул.32А; Дзержинск г., Октябрьская ул.60; Дзержинск г., Попова ул.34; Дзержинск г., Циолковского пр-т.18А; Дзержинск г., Циолковского пр-т.13А; Дзержинск г., Циолковского пр-т.7; Дзержинск г., Циолковского пр-т.11/28; Дзержинск г., Циолковского пр-т.7; Дзержинск г., Урицкого ул.5А; Дзержинск г., Урицкого ул.8А; Дзержинск г., Октябрьская ул.5/7; Дзержинск г., Урицкого ул.5; Дзержинск г., Гайдара ул.25Б; Дзержинск г., Марковникова ул.20; Дзержинск г., Марковникова ул.10А; Дзержинск г., Марковникова ул.10; Дзержинск г., Гайдара ул.24; Дзержинск г., Мира б-р.22; Дзержинск г., Мира б-р.22А; Дзержинск г., Черняховского ул.9; Городской округ Дзержинск р-н, Пыра п., Полевая ул.9; Дзержинск г., Пожарского ул.15; Дзержинск г., Победы б-р.22А; </t>
+          <t xml:space="preserve">Нижний Новгород г., Горная ул.2А; Нижний Новгород г., Горная ул.32; Нижний Новгород г., Горная ул.4; Нижний Новгород г., Горная ул.45; Нижний Новгород г., Горная ул.6; Нижний Новгород г., Горная ул.6А; Нижний Новгород г., Загородная ул., д.1-64; Нижний Новгород г., Калиновый пр., д.1-23; </t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>13.78253570627305</v>
+        <v>38.05967163333307</v>
       </c>
       <c r="E12" t="n">
-        <v>16.53904284752766</v>
+        <v>45.67160595999968</v>
       </c>
       <c r="F12" t="n">
-        <v>13.84595618371655</v>
+        <v>39.87711986462108</v>
       </c>
       <c r="G12" t="n">
-        <v>16.61514742045986</v>
-      </c>
-      <c r="H12" t="n">
-        <v>240.8237214826843</v>
-      </c>
+        <v>47.8525438375453</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>71.89005143504184</v>
+        <v>89.55170814746145</v>
       </c>
       <c r="J12" t="n">
-        <v>74.92</v>
+        <v>24.62460273972603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Пожарского ул.21; Дзержинск г., Пожарского ул.26; Городской округ Дзержинск р-н, Пыра п., Озерная ул.12; Дзержинск г., Урицкого ул.12; Дзержинск г., Ленина пр-т.9; Дзержинск г., Пожарского ул.26В; Дзержинск г., Ленина пр-т10А; Дзержинск г., Бутлерова ул.45Б; Дзержинск г., Октябрьская ул.68А; Дзержинск г., Суворова ул.3; Дзержинск г., Суворова ул.6Б; Дзержинск г., Суворова ул.5А; Дзержинск г., Мира б-р.26; Дзержинск г., Автомобильная ул.157; Дзержинск г., Октябрьская ул.63; Дзержинск г., Студенческая ул.19; Дзержинск г., Октябрьская ул.82; Дзержинск г., Октябрьская ул.80; Дзержинск г., Октябрьская ул.82Д; Дзержинск г., Ленина пр-т6А; Дзержинск г., Ленина пр-т6Б; Дзержинск г., Западный пер.6; Дзержинск г., Гайдара ул.34Б; Дзержинск г., Гайдара ул.30; Дзержинск г., Гайдара ул.45; Дзержинск г., Мира б-р.28А; Дзержинск г., Гайдара ул.43; Дзержинск г., Марковникова ул.18; Дзержинск г., Октябрьская ул.5/7; Дзержинск г., Ленина пр-т.8; Дзержинск г., Ситнова ул.8В; </t>
+          <t xml:space="preserve">Нижний Новгород г., Карбышева ул.1; </t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>13.84197590509092</v>
+        <v>40.57787339206468</v>
       </c>
       <c r="E13" t="n">
-        <v>16.6103710861091</v>
+        <v>48.69344807047762</v>
       </c>
       <c r="F13" t="n">
-        <v>14.11790468338165</v>
+        <v>39.74376852857294</v>
       </c>
       <c r="G13" t="n">
-        <v>16.94148562005799</v>
-      </c>
-      <c r="H13" t="n">
-        <v>293.1567638248202</v>
-      </c>
+        <v>47.69252223428752</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>90.64201150137626</v>
+        <v>88.75187522854623</v>
       </c>
       <c r="J13" t="n">
-        <v>72.19999999999997</v>
+        <v>0.07863013698630136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Ленина пр-т4; Дзержинск г., Ситнова ул.8; Дзержинск г., Ленина пр-т8А; Дзержинск г., Ленина пр-т.8; Дзержинск г., Грибоедова ул.38Б; Дзержинск г., Грибоедова ул.36Б; Дзержинск г., Грибоедова ул.46Б; Дзержинск г., Грибоедова ул.44А; Дзержинск г., Пришоссейный пер.4а; Дзержинск г., Пожарского ул.28; Дзержинск г., Пожарского ул.33Б; Дзержинск г., Ситнова ул.8Б; Дзержинск г., Ситнова ул.8Б; Дзержинск г., Марковникова ул.3; Дзержинск г., Правды б-р.5А; Дзержинск г., Циолковского пр-т.19Б; Дзержинск г., Циолковского пр-т.20А; Дзержинск г., Мира б-р.29А; Дзержинск г., Ленина пр-т.123; Городской округ Дзержинск р-н, Пыра п., Декабристов ул.33; Дзержинск г., Циолковского пр-т.25А; Дзержинск г., Циолковского пр-т.26А; Дзержинск г., Циолковского пр-т.24; Дзержинск г., Циолковского пр-т.23А; Дзержинск г., Циолковского пр-т.23; Дзержинск г., Заревская объездная дор.9В; Дзержинск г., Суворова ул.17; Дзержинск г., Клюквина ул.8А; Дзержинск г., Петрищева ул.4А; </t>
+          <t xml:space="preserve">Нижний Новгород г., Карбышева ул.5; Нижний Новгород г., Карбышева ул.7; Нижний Новгород г., Кащенко ул.12; Нижний Новгород г., Кащенко ул.14; Нижний Новгород г., Кащенко ул.17; Нижний Новгород г., Кащенко ул.19А; Нижний Новгород г., Кащенко ул.23; Нижний Новгород г., Кащенко ул.25; Нижний Новгород г., Кащенко ул.27; Нижний Новгород г., Кащенко ул.9; Нижний Новгород г., Кемеровская ул., д.12; Нижний Новгород г., Кемеровская ул.16; Нижний Новгород г., Кемеровская ул.16/1; Нижний Новгород г., Кемеровская ул.18; Нижний Новгород г., Корейская ул.18; Нижний Новгород г., Корейская ул.19; Нижний Новгород г., Корейская ул.20; Нижний Новгород г., Корейский пер.5; Нижний Новгород г., Корейский пер.8; Нижний Новгород г., Крутояровская ул.22; Нижний Новгород г., Крылова ул.1; Нижний Новгород г., Крылова ул.14А; Нижний Новгород г., Крылова ул.5; Нижний Новгород г., Крылова ул.5Б; Нижний Новгород г., Ларина ул.1; </t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>14.11790468338165</v>
+        <v>39.87711986462108</v>
       </c>
       <c r="E14" t="n">
-        <v>16.94148562005799</v>
+        <v>47.8525438375453</v>
       </c>
       <c r="F14" t="n">
-        <v>14.25024678017936</v>
+        <v>38.06290125002944</v>
       </c>
       <c r="G14" t="n">
-        <v>17.10029613621523</v>
+        <v>45.67548150003533</v>
       </c>
       <c r="H14" t="n">
-        <v>288.4280988122848</v>
+        <v>241.1589837187328</v>
       </c>
       <c r="I14" t="n">
-        <v>88.3636891943033</v>
+        <v>111.3755010750464</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32000000000001</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Буденного ул.1А; Дзержинск г., Гайдара ул.40; Дзержинск г., Гайдара ул.36А; Дзержинск г., Буденного ул.1Б; Дзержинск г., Гайдара ул.47; Дзержинск г., Буденного ул.1В; Дзержинск г., Буденного ул.1Д; Дзержинск г., Буденного ул.3; Дзержинск г., Октябрьская ул.5Б; Дзержинск г., Парковая аллея6; Дзержинск г., Октябрьская ул.7; Дзержинск г., Октябрьская ул.6; Дзержинск г., Октябрьская ул.5Б; Дзержинск г., Октябрьская ул.5А; Дзержинск г., Парковая аллея6А; Дзержинск г., Грибоедова ул.41; Дзержинск г., Привокзальная пл.5к2; Дзержинск г., Терешковой ул.6; Городской округ Дзержинск р-н, Пыра п., Болотная ул.12; Городской округ Дзержинск р-н, Пыра п., Короткий пер.5; Дзержинск г., Самохвалова ул.4А; Дзержинск г., Красноармейская  ул.21 Г; Дзержинск г., Красноармейская  ул.21; Дзержинск г., Мира б-р.30А; Дзержинск г., Попова ул.36; Дзержинск г., Попова ул.36А; Дзержинск г., Окская наб.17; Дзержинск г., Окская наб.19А; Городской округ Дзержинск р-н, Лесная поляна п., 4; Городской округ Дзержинск р-н, Лесная поляна п., 17; Городской округ Дзержинск р-н, Лесная поляна п., 9А; </t>
+          <t xml:space="preserve">Нижний Новгород г., Ларина ул.3; Нижний Новгород г., Ларина ул.5; Нижний Новгород г., Ларина ул.5А; Нижний Новгород г., Лбищенская ул.1; Нижний Новгород г., Ленская ул.20; Нижний Новгород г., Летний пер., д.2-29; Нижний Новгород г., Луганская ул.2А; </t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>14.25024678017936</v>
+        <v>38.06290125002944</v>
       </c>
       <c r="E15" t="n">
-        <v>17.10029613621523</v>
+        <v>45.67548150003533</v>
       </c>
       <c r="F15" t="n">
-        <v>14.31086055092428</v>
+        <v>39.88836711599552</v>
       </c>
       <c r="G15" t="n">
-        <v>17.17303266110913</v>
-      </c>
-      <c r="H15" t="n">
-        <v>306.6470825143892</v>
-      </c>
+        <v>47.86604053919463</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>94.85448056827273</v>
+        <v>100.5257726688299</v>
       </c>
       <c r="J15" t="n">
-        <v>76.38000000000001</v>
+        <v>11.36939726027397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, 2,3 км юго-западнее п.Лесная поляна; Городской округ Дзержинск р-н, Лесная поляна п., 12а; Дзержинск г., Буденного ул.2; Дзержинск г., Западный пер.6А; Дзержинск г., Пожарского ул.36; Дзержинск г., Буденного ул.2; Дзержинск г., Октябрьская ул.36; Дзержинск г., Октябрьская ул.30А; Дзержинск г., Октябрьская ул.34; Дзержинск г., Октябрьская ул.29; Дзержинск г., Октябрьская ул.25; Дзержинск г., Попова ул.22; Дзержинск г., Попова ул.18; Дзержинск г., Октябрьская ул.40; Дзержинск г., Октябрьская ул.44А; Городской округ Дзержинск р-н, Пыра п., Пырская ул.39; Дзержинск г., Ленина пр-т.2; Дзержинск г., Самохвалова ул.5; Дзержинск г., Ленина пр-т2А; Дзержинск г., Самохвалова ул.3; Дзержинск г., Ленина пр-т.1 А; Дзержинск г., Ленина пр-т.1Ак3; Дзержинск г., Ленина пр-т.1Б; Дзержинск г., Ленина пр-т.1К; Городской округ Дзержинск р-н, Пыра п., Огородная  ул.1; Дзержинск г., Октябрьская ул.86; Дзержинск г., Октябрьская ул.26; Дзержинск г., Октябрьская ул.15; Дзержинск г., Петрищева ул.3А; Дзержинск г., Петрищева ул.6; Дзержинск г., Гайдара ул.51; Дзержинск г., Петрищева ул.3; Дзержинск г., Гайдара ул.51Б; Дзержинск г., Петрищева ул.9А; Дзержинск г., Петрищева ул.5Б; Дзержинск г., Петрищева ул.5А; Дзержинск г., Гайдара ул.60; Дзержинск г., Гайдара ул.60; Дзержинск г., Гайдара ул.53; Дзержинск г., Гайдара ул.53А; Дзержинск г., Окская наб.15; </t>
+          <t xml:space="preserve">Нижний Новгород г., Луганская ул.5; Нижний Новгород г., Луч п.16; Нижний Новгород г., Луч п.50; Нижний Новгород г., Любимая ул., д.1-35; Нижний Новгород г., Малая Окружная ул., д.2-209; </t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>14.31086055092428</v>
+        <v>39.88836711599552</v>
       </c>
       <c r="E16" t="n">
-        <v>17.17303266110913</v>
+        <v>47.86604053919463</v>
       </c>
       <c r="F16" t="n">
-        <v>14.54810396206301</v>
+        <v>38.47240166706187</v>
       </c>
       <c r="G16" t="n">
-        <v>17.45772475447561</v>
-      </c>
-      <c r="H16" t="n">
-        <v>430.7190090418121</v>
-      </c>
+        <v>46.16688200047424</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>135.318734417666</v>
+        <v>91.37946986167833</v>
       </c>
       <c r="J16" t="n">
-        <v>76.12000000000002</v>
+        <v>14.52016438356164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Западный пер.30А; Дзержинск г., Ситнова ул.8А; Дзержинск г., Ситнова ул.12; Дзержинск г., Ситнова ул.10Б; Дзержинск г., Буденного ул.6В; Дзержинск г., Западный пер.9А; Дзержинск г., Восточный Промрайон Капролактам 3км+200 М Автозаводского Шоссе тер.зд.7; Дзержинск г., Восточный Промрайон Капролактам, ш 5 км. Автозаводского тер.1; Дзержинск г., Гайдара ул.69Б; Дзержинск г., Гайдара ул.68; Дзержинск г., Циолковского пр-т.38; Дзержинск г., Циолковского пр-т.39; Дзержинск г., Циолковского пр-т.31; Дзержинск г., Циолковского пр-т.41А; Дзержинск г., Циолковского пр-т.33; Дзержинск г., Циолковского пр-т.34; Дзержинск г., Циолковского пр-т.35; Дзержинск г., Циолковского пр-т.37Б; Дзержинск г., Циолковского пр-т.39; Городской округ Дзержинск р-н, Пыра п., Пырский пер.11; Дзержинск г., Восточный промрайон тер., д.; Дзержинск г., Красноармейская  ул.32; Дзержинск г., Красноармейская  ул.30; Городской округ Дзержинск р-н, Пыра п., Болотная ул.21; Дзержинск г., Октябрьская ГСП тер., д.; Дзержинск г., Октябрьская ул.102В; Дзержинск г., Ленина пр-т.117 ж; Дзержинск г., Октябрьская ул.88; Городской округ Дзержинск р-н, Пыра п., Огородная  ул.26; Дзержинск г., Самохвалова ул.4; Дзержинск г., Самохвалова ул.13; Дзержинск г., Ленина пр-т1В; Дзержинск г., Ленина пр-т44А; Дзержинск г., Красноармейская  ул.28А; </t>
+          <t xml:space="preserve">Нижний Новгород г., Малиновая Гряда п., 2; </t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>14.52567238564261</v>
+        <v>39.07567125050245</v>
       </c>
       <c r="E17" t="n">
-        <v>17.43080686277114</v>
+        <v>46.89080550060294</v>
       </c>
       <c r="F17" t="n">
-        <v>14.94613072732801</v>
+        <v>38.05750778375486</v>
       </c>
       <c r="G17" t="n">
-        <v>17.93535687279362</v>
-      </c>
-      <c r="H17" t="n">
-        <v>613.3474555279641</v>
-      </c>
+        <v>45.66900934050583</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>198.3329082235905</v>
+        <v>79.03423765620033</v>
       </c>
       <c r="J17" t="n">
-        <v>73.78</v>
+        <v>1.045780821917808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Красноармейская  ул.26; Дзержинск г., Красноармейская  ул.26; Дзержинск г., Терешковой ул.36; Дзержинск г., Терешковой ул.28А; Дзержинск г., Терешковой ул.26Б; Дзержинск г., Терешковой ул.26А; Дзержинск г., Терешковой ул.22; Дзержинск г., Терешковой ул.14; Дзержинск г., Гайдара ул.72; Дзержинск г., Гайдара ул.73; Дзержинск г., Терешковой ул.12А; Городской округ Дзержинск р-н, Пыра п., Московская ул.84Б; Дзержинск г., Буденного ул.9; Дзержинск г., Буденного ул.11б; Дзержинск г., Буденного ул.7А; Дзержинск г., Индустриальная ул.3; Дзержинск г., Западный пер.11А; Дзержинск г., Самохвалова ул.6В; Дзержинск г., Буденного ул.10; Дзержинск г., Самохвалова ул.15; Городской округ Дзержинск р-н, Строителей п., 12; Дзержинск г., Речное ш.3А; Дзержинск г., Горьковская ул.6А; Дзержинск г., Красноармейская  ул.15/5; Дзержинск г., Горьковская ул., д.1,3; Дзержинск г., Ленинского Комсомола пр-т26А; Дзержинск г., Автозаводское ш.1к1; Дзержинск г., Восточный Промрайон ОАО "Оргстекло" тер.бетонное отд.32; Дзержинск г., Красноармейская  ул.17А; Дзержинск г., Щорса ул.38; Дзержинск г., Петрищева ул.9; Дзержинск г., Петрищева ул.15; Дзержинск г., Петрищева ул.10А; Дзержинск г., Петрищева ул.25; Дзержинск г., Самохвалова ул.12; Дзержинск г., Циолковского пр-т.46; Дзержинск г., Петрищева ул.21А; Дзержинск г., Петрищева ул.19А; </t>
+          <t xml:space="preserve">Нижний Новгород г., Маршала Голованова ул.11; Нижний Новгород г., Маршала Голованова ул.15А; Нижний Новгород г., Маршала Голованова ул.17; Нижний Новгород г., Маршала Голованова ул.19к2; Нижний Новгород г., Маршала Голованова ул.19к3; Нижний Новгород г., Маршала Голованова ул.1А; Нижний Новгород г., Маршала Голованова ул.27; Нижний Новгород г., Маршала Голованова ул.29; Нижний Новгород г., Маршала Голованова ул.31; Нижний Новгород г., Маршала Голованова ул.33; Нижний Новгород г., Маршала Голованова ул.35; Нижний Новгород г., Маршала Голованова ул.37; Нижний Новгород г., Маршала Голованова ул.37А; Нижний Новгород г., Маршала Голованова ул.39; Нижний Новгород г., Маршала Голованова ул.41; Нижний Новгород г., Маршала Голованова ул.45; Нижний Новгород г., Маршала Голованова ул.47; Нижний Новгород г., Маршала Голованова ул.49; Нижний Новгород г., Маршала Голованова ул.55; Нижний Новгород г., Маршала Голованова ул.57; Нижний Новгород г., Маршала Голованова ул.59; Нижний Новгород г., Маршала Голованова ул.61; Нижний Новгород г., Маршала Голованова ул.63; Нижний Новгород г., Маршала Голованова ул.65; Нижний Новгород г., Маршала Голованова ул.67; Нижний Новгород г., Маршала Голованова ул.69; Нижний Новгород г., Маршала Голованова ул.71; Нижний Новгород г., Маршала Голованова ул.73; Нижний Новгород г., Маршала Жукова ул.1; Нижний Новгород г., Маршала Жукова ул.10; </t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>14.94613072732801</v>
+        <v>38.47240166706187</v>
       </c>
       <c r="E18" t="n">
-        <v>17.93535687279362</v>
+        <v>46.16688200047424</v>
       </c>
       <c r="F18" t="n">
-        <v>15.46187871938372</v>
+        <v>37.79042813840835</v>
       </c>
       <c r="G18" t="n">
-        <v>18.55425446326046</v>
+        <v>45.34851376609002</v>
       </c>
       <c r="H18" t="n">
-        <v>505.6899895760841</v>
+        <v>166.3468996275647</v>
       </c>
       <c r="I18" t="n">
-        <v>161.9928870144752</v>
+        <v>85.32283568116702</v>
       </c>
       <c r="J18" t="n">
-        <v>74.17999999999999</v>
+        <v>73.70000000000003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Петрищева ул.11; Дзержинск г., Петрищева ул.17; Дзержинск г., Циолковского пр-т.38А; Дзержинск г., Циолковского пр-т.42; Дзержинск г., Петрищева ул.12А; Дзержинск г., Циолковского пр-т.48А; Дзержинск г., Индустриальная ул.6А; Дзержинск г., Индустриальная ул.2А; Дзержинск г., Индустриальная ул.4А; Дзержинск г., Индустриальная ул.8А; Городской округ Дзержинск р-н, Северный п., Северный п82; Дзержинск г., Северный п103; Дзержинск г., Строителей п31; Дзержинск г., Сухаренко ул.14А; Дзержинск г., Гаражный пер.9Д; Дзержинск г., Сухаренко ул.7; Дзержинск г., Сухаренко ул.20А; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.4а; Дзержинск г., Ленинского Комсомола пр-т18; Городской округ Дзержинск р-н, Дзержинск г., Ленинского Комсомола пр-т12; Дзержинск г., Ленинского Комсомола пр-т, д.16 (14); Дзержинск г., Индустриальная ул.7А; Дзержинск г., Циолковского пр-т.48; Дзержинск г., Терешковой ул.56А; Дзержинск г., Циолковского пр-т.47; Дзержинск г., Циолковского пр-т.52; Дзержинск г., Циолковского пр-т.49А; Дзержинск г., Петрищева ул.25А; Дзержинск г., Циолковского пр-т.48; Дзержинск г., Циолковского пр-т.50; </t>
+          <t xml:space="preserve">Нижний Новгород г., Маршала Жукова ул.11; Нижний Новгород г., Маршала Жукова ул.13; Нижний Новгород г., Маршала Жукова ул.14; Нижний Новгород г., Маршала Жукова ул.16; Нижний Новгород г., Маршала Жукова ул.17; Нижний Новгород г., Маршала Жукова ул.19; Нижний Новгород г., Маршала Жукова ул.1А; Нижний Новгород г., Маршала Жукова ул.2; Нижний Новгород г., Маршала Жукова ул.20; Нижний Новгород г., Маршала Жукова ул.21; Нижний Новгород г., Маршала Жукова ул.22; Нижний Новгород г., Маршала Жукова ул.25; Нижний Новгород г., Маршала Жукова ул.3; Нижний Новгород г., Маршала Жукова ул.4; Нижний Новгород г., Маршала Жукова ул.6; Нижний Новгород г., Маршала Жукова ул.8; Нижний Новгород г., Маршала Жукова ул.9; Нижний Новгород г., Медицинская ул.13; Нижний Новгород г., Медицинская ул.1А; Нижний Новгород г., Медицинская ул.5; Нижний Новгород г., Медицинская ул.9; Нижний Новгород г., Мордвинцево д.52; Нижний Новгород г., Мызинская ул.2; Нижний Новгород г., Мызинская ул.9А; Нижний Новгород г., Надеждинская ул., д.1-35; Нижний Новгород г., Нарофоминская ул.18; </t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>15.46187871938372</v>
+        <v>37.79042813840835</v>
       </c>
       <c r="E19" t="n">
-        <v>18.55425446326046</v>
+        <v>45.34851376609002</v>
       </c>
       <c r="F19" t="n">
-        <v>15.76259028844826</v>
+        <v>38.15948342072171</v>
       </c>
       <c r="G19" t="n">
-        <v>18.91510834613791</v>
-      </c>
-      <c r="H19" t="n">
-        <v>401.7293425631255</v>
-      </c>
+        <v>45.79138010486606</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>128.7272761522314</v>
+        <v>118.5187838295634</v>
       </c>
       <c r="J19" t="n">
-        <v>73.16000000000001</v>
+        <v>65.02580821917809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Щорса ул.4А; Дзержинск г., Щорса ул.2; Дзержинск г., Ульянова ул.13; Дзержинск г., Ульянова ул.6Б; Дзержинск г., Сухаренко ул.11А; Дзержинск г., Ульянова ул.6А; Городской округ Дзержинск р-н, Северный п., 95/1; Дзержинск г., Петрищева ул.16А; Дзержинск г., Петрищева ул.12; Дзержинск г., Циолковского пр-т.54А; Дзержинск г., Петрищева ул.31А; Дзержинск г., Петрищева ул.29; Дзержинск г., Петрищева ул.29; Дзержинск г., Петрищева ул.31Б; Дзержинск г., Петрищева ул.16; Дзержинск г., Петрищева ул.14; Дзержинск г., Петрищева ул.27В; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.7; Дзержинск г., Ульянова ул.9А; Дзержинск г., Сухаренко ул.5; Городской округ Дзержинск р-н, Пыра п., Железнодорожная ул.19; Дзержинск г., Щорса ул.21; Дзержинск г., Сухаренко ул.16; Дзержинск г., Терешковой ул.64А; Дзержинск г., Циолковского пр-т, д.61г корп. 1; Дзержинск г., Циолковского пр-т.54; Дзержинск г., Циолковского пр-т.57; </t>
+          <t xml:space="preserve">Нижний Новгород г., Невская ул.21; Нижний Новгород г., Нижне-Валдайская ул.32; Нижний Новгород г., Ольгино д.12А; Нижний Новгород г., Ольгино д.40; Нижний Новгород г., Ольгино д.56А; Нижний Новгород г., Ольгино д.84; Нижний Новгород г., Ополченцев ул., д.1-65; Нижний Новгород г., Осенний пр.2; </t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>15.71541767790641</v>
+        <v>39.18323733014314</v>
       </c>
       <c r="E20" t="n">
-        <v>18.85850121348769</v>
+        <v>47.01988479617177</v>
       </c>
       <c r="F20" t="n">
-        <v>15.92959754231361</v>
+        <v>38.16847190149313</v>
       </c>
       <c r="G20" t="n">
-        <v>19.11551705077633</v>
-      </c>
-      <c r="H20" t="n">
-        <v>511.9165514589006</v>
-      </c>
+        <v>45.80216628179176</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>166.1088097464688</v>
+        <v>101.3634099528726</v>
       </c>
       <c r="J20" t="n">
-        <v>74.02000000000001</v>
+        <v>18.12682191780822</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Циолковского пр-т.57А; Дзержинск г., Циолковского пр-т.61г; Городской округ Дзержинск р-н, Пыра п., Спортивный пер.6; Дзержинск г., Ульянова ул.5а; Дзержинск г., Гаражный пр.4; Дзержинск г., Циолковского пр-т.49В; Дзержинск г., Циолковского пр-т.43А; Дзержинск г., Терешковой ул.44А; Дзержинск г., Циолковского пр-т.39Б; Дзержинск г., Циолковского пр-т.39В; Дзержинск г., Терешковой ул.46; Дзержинск г., Терешковой ул.50; Дзержинск г., Циолковского пр-т.43; Дзержинск г., Терешковой ул.42; Дзержинск г., Строителей п23а; Городской округ Дзержинск р-н, Пыра п., Полевая ул.46; Дзержинск г., Терешковой ул.62; Дзержинск г., Терешковой ул.52Б; Дзержинск г., Ульянова ул.19; Дзержинск г., Свердлова пр-т.22А; Дзержинск г., Свердлова пр-т.22В; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.14; Дзержинск г., Речное ш.3; Дзержинск г., Речное ш.11а; Городской округ Дзержинск р-н, Северный п.,; Дзержинск г., Свердлова пр-т.31; </t>
+          <t xml:space="preserve">Нижний Новгород г., Осенняя ул., д.1-133; Нижний Новгород г., Пантелеймоновская ул., д.4-23; </t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>15.92959754231361</v>
+        <v>38.9093295270138</v>
       </c>
       <c r="E21" t="n">
-        <v>19.11551705077633</v>
+        <v>46.69119543241656</v>
       </c>
       <c r="F21" t="n">
-        <v>16.19138212495188</v>
+        <v>39.83212536440746</v>
       </c>
       <c r="G21" t="n">
-        <v>19.42965854994225</v>
-      </c>
-      <c r="H21" t="n">
-        <v>721.2094234306746</v>
-      </c>
+        <v>47.79855043728895</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>242.5411706827872</v>
+        <v>88.77999826044788</v>
       </c>
       <c r="J21" t="n">
-        <v>49.88</v>
+        <v>3.198602739726027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Галкина ул.1а; Дзержинск г., Галкина ул.1а; Дзержинск г., Галкина ул.4; Дзержинск г., Петрищева ул.18; Дзержинск г., Галкина ул.1; Дзержинск г., Петрищева ул.31; Дзержинск г., Петрищева ул.31; Дзержинск г., Петрищева ул.35; Городской округ Дзержинск р-н, Пыра п., Свердлова ул.8; Дзержинск г., Буденного ул.23А; Дзержинск г., Строителей ул.2А; Дзержинск г., Комбрига Патоличева ул.3А; Дзержинск г., Буденного ул.23; Дзержинск г., Ленинского Комсомола пр-т32; Дзержинск г., Ленинского Комсомола пр-т30; Дзержинск г., Комбрига Патоличева ул.1; Дзержинск г., Строителей ул.2к34; Дзержинск г., Ленинского Комсомола пр-т, д.37/23; Дзержинск г., Строителей ул.3; Дзержинск г., Строителей ул.3г; Дзержинск г., Буденного ул.21А; Дзержинск г., Ленинского Комсомола пр-т36; Городской округ Дзержинск р-н, Пыра п., Чапаева ул.1; Дзержинск г., Ленинского Комсомола пр-т42; Дзержинск г., Циолковского пр-т.65; Дзержинск г., Свердлова пр-т.31В; Дзержинск г., Свердлова пр-т.31Б; Городской округ Дзержинск р-н, Пыра п., Полевая ул.30; Дзержинск г., Циолковского пр-т.62; Дзержинск г., Ленинского Комсомола пр-т44; Дзержинск г., Свердлова пр-т.20А; Дзержинск г., Окская наб.3; Дзержинск г., Попова ул.6; Дзержинск г., Окская наб.1; </t>
+          <t xml:space="preserve">Нижний Новгород г., Первая Камышовая ул.1-10; </t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>16.17034994756358</v>
+        <v>39.14780274354863</v>
       </c>
       <c r="E22" t="n">
-        <v>19.40441993707629</v>
+        <v>46.97736329225836</v>
       </c>
       <c r="F22" t="n">
-        <v>16.45716617184001</v>
+        <v>41.76190361366418</v>
       </c>
       <c r="G22" t="n">
-        <v>19.74859940620802</v>
-      </c>
-      <c r="H22" t="n">
-        <v>557.4622654299382</v>
-      </c>
+        <v>50.11428433639702</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>183.7579090614686</v>
+        <v>81.59402897807163</v>
       </c>
       <c r="J22" t="n">
-        <v>72.2</v>
+        <v>0.09435616438356165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Попова ул.8А; Дзержинск г., Попова ул.2; Дзержинск г., Циолковского пр-т.67; Дзержинск г., Циолковского пр-т.69; Дзержинск г., Циолковского пр-т.67; Дзержинск г., Циолковского пр-т.69; Городской округ Дзержинск р-н, Пыра п., Максима Горького ул.8; Городской округ Дзержинск р-н, Дзержинск г., Свердлова ул.16; Дзержинск г., Циолковского пр-т.64; Дзержинск г., Циолковского пр-т.66; Дзержинск г., 9 Января ул.10а; Дзержинск г., Лермонтова ул.1; Дзержинск г., Лермонтова ул.7; Дзержинск г., Лермонтова ул.5; Дзержинск г., Рудольфа Удриса ул.11Б; Дзержинск г., Ленинского Комсомола пр-т48; Дзержинск г., Ленинского Комсомола пр-т52; Дзержинск г., Ленинского Комсомола пр-т54; Дзержинск г., Ленинского Комсомола пр-т50; Городской округ Дзержинск р-н, Пыра п., Лесная  ул.30; Дзержинск г., Галкина ул.8; Дзержинск г., Галкина ул.8А; Дзержинск г., Галкина ул.6; Дзержинск г., Галкина ул.7А; Дзержинск г., Галкина ул.11; Дзержинск г., Галкина ул.3; Дзержинск г., Галкина ул.11; Дзержинск г., Строителей ул.7; Дзержинск г., Строителей ул.9Б; Дзержинск г., Строителей п14а; Дзержинск г., Строителей ул.14; Дзержинск г., Строителей ул.9; Дзержинск г., Строителей ул.9А; Дзержинск г., Строителей ул.9Вк1; Дзержинск г., Строителей ул.9Вк2; Дзержинск г., Комбрига Патоличева ул.11; Дзержинск г., Комбрига Патоличева ул.13; Дзержинск г., Комбрига Патоличева ул.15; Дзержинск г., Строителей ул.9Вк2; Дзержинск г., Комбрига Патоличева ул.17А; Дзержинск г., Комбрига Патоличева ул.3; Дзержинск г., Строителей ул.9Вк1; </t>
+          <t xml:space="preserve">Нижний Новгород г., Первоцветная ул.4; </t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>16.45716617184001</v>
+        <v>39.83212536440746</v>
       </c>
       <c r="E23" t="n">
-        <v>19.74859940620802</v>
+        <v>47.79855043728895</v>
       </c>
       <c r="F23" t="n">
-        <v>16.59093120074796</v>
+        <v>41.76190361366418</v>
       </c>
       <c r="G23" t="n">
-        <v>19.90911744089756</v>
-      </c>
-      <c r="H23" t="n">
-        <v>442.4820404910664</v>
-      </c>
+        <v>50.11428433639702</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>144.6814666230963</v>
+        <v>91.26954903858737</v>
       </c>
       <c r="J23" t="n">
-        <v>72.54000000000002</v>
+        <v>0.01572602739726027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Комбрига Патоличева ул.7; Дзержинск г., Строителей ул.4Б; Дзержинск г., Строителей ул.6А; Дзержинск г., Комбрига Патоличева ул.5; Дзержинск г., Строителей ул.6; Дзержинск г., Строителей ул.4; Дзержинск г., Строителей ул.4А; Дзержинск г., Комбрига Патоличева ул.13; Дзержинск г., Свердлова пр-т.33В; Дзержинск г., Свердлова пр-т.14А; Дзержинск г., Свердлова пр-т.14А; Дзержинск г., Циолковского пр-т.70; Дзержинск г., Циолковского пр-т.68; Дзержинск г., Рудольфа Удриса ул.7Б; Дзержинск г., Рудольфа Удриса ул.7Б; Дзержинск г., Рудольфа Удриса ул.3; Дзержинск г., Циолковского пр-т.71/2; Дзержинск г., Рудольфа Удриса ул.3; Дзержинск г., Рудольфа Удриса ул.3А; Дзержинск г., Рудольфа Удриса ул.5; Дзержинск г., Рудольфа Удриса ул.4; Дзержинск г., Тупиковый пер.7; Дзержинск г., Садовый пер.4; Дзержинск г., Свердлова пр-т.17; Дзержинск г., Галкина ул.10; Дзержинск г., Галкина ул.13; Дзержинск г., Галкина ул.13А; Володарский р-н, Фролищи пгт., Заводская ул.19; Дзержинск г., Самохвалова ул.10; Дзержинск г., Буденного ул.11А; Дзержинск г., Буденного ул.15; Дзержинск г., Буденного ул.13; Дзержинск г., Петрищева ул.12В; Дзержинск г., Петрищева ул.14А; Дзержинск г., Буденного ул.15А; Дзержинск г., Окская наб.5; Дзержинск г., Попова ул.10Б; Дзержинск г., Попова ул.10; Дзержинск г., Окская наб.3А; Дзержинск г., Попова ул.12; Дзержинск г., Попова ул.18А; Дзержинск г., Попова ул.18А; </t>
+          <t xml:space="preserve">Нижний Новгород г., Первоцветная ул.4к1; Нижний Новгород г., Первоцветная ул.4к2; Нижний Новгород г., Первоцветная ул.6; Нижний Новгород г., Первоцветная ул.6к1; Нижний Новгород г., Первоцветная ул.6к2; Нижний Новгород г., Первоцветная ул.8; Нижний Новгород г., Первоцветная ул.8к2; Нижний Новгород г., Петровского ул.11; Нижний Новгород г., Петровского ул.23; Нижний Новгород г., Петровского ул.3; Нижний Новгород г., Покровского ул.45; Нижний Новгород г., Полевая ул.10; Нижний Новгород г., Полевая ул.10А; Нижний Новгород г., Полярная ул.2; Нижний Новгород г., Полярная ул.22; Нижний Новгород г., Полярная ул.26; Нижний Новгород г., Пятигорская ул.1; Нижний Новгород г., Пятигорская ул.10; Нижний Новгород г., Пятигорская ул.11; Нижний Новгород г., Пятигорская ул.12; Нижний Новгород г., Пятигорская ул.14; Нижний Новгород г., Пятигорская ул.16; Нижний Новгород г., Пятигорская ул.18; </t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>16.59093120074796</v>
+        <v>41.76190361366418</v>
       </c>
       <c r="E24" t="n">
-        <v>19.90911744089756</v>
+        <v>50.11428433639702</v>
       </c>
       <c r="F24" t="n">
-        <v>16.83763449577974</v>
+        <v>38.99175537531659</v>
       </c>
       <c r="G24" t="n">
-        <v>20.20516139493569</v>
+        <v>46.79010645037992</v>
       </c>
       <c r="H24" t="n">
-        <v>384.1763595253427</v>
+        <v>210.7515556322398</v>
       </c>
       <c r="I24" t="n">
-        <v>124.9620908357872</v>
+        <v>102.9660827542617</v>
       </c>
       <c r="J24" t="n">
-        <v>75.19000000000001</v>
+        <v>74.80000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., окская набережная, д.7; Дзержинск г., Попова ул.14; Дзержинск г., Учительский пер.7; Дзержинск г., Учительский пер.5; Дзержинск г., Циолковского пр-т.73А; Дзержинск г., Галкина ул.11А; Дзержинск г., Циолковского пр-т.74; Дзержинск г., Циолковского пр-т.73; Дзержинск г., Циолковского пр-т.72; Дзержинск г., Циолковского пр-т.72; Дзержинск г., Циолковского пр-т.71А; Дзержинск г., Свердлова пр-т.46; Дзержинск г., Поселковая ул.22-23; Дзержинск г., Восточное ш.7/1032; Дзержинск г., Восточ.пром,Оргстекло 6км+150,автозавод.ш,3(ДзержинскВторМет); Дзержинск г., Восточное ш.26; Дзержинск г., Ленинградская ул.10; Дзержинск г., Циолковского пр-т.76; Дзержинск г., Циолковского пр-т.75; Дзержинск г., Химиков б-р.3; Дзержинск г., Циолковского пр-т.75Б; Дзержинск г., Восточный промрайон ОАО ДОС корп.66 ООО Химпласт; Дзержинск г., Циолковского пр-т.77Б; Дзержинск г., Циолковского пр-т.77; Дзержинск г., Химиков б-р.4; Дзержинск г., 1 Мая ул.1; Дзержинск г., Карла либкнехта ул.10Б; Дзержинск г., 1 Мая ул.1/8; Дзержинск г., Циолковского пр-т.79; Дзержинск г., Циолковского пр-т.81А; Дзержинск г., Циолковского пр-т.83; Дзержинск г., Циолковского пр-т.81; Дзержинск г., Рудольфа Удриса ул.11; Дзержинск г., Рудольфа Удриса ул.9Д; </t>
+          <t xml:space="preserve">Нижний Новгород г., Пятигорская ул.18А; Нижний Новгород г., Пятигорская ул.18Б; Нижний Новгород г., Пятигорская ул.19; Нижний Новгород г., Пятигорская ул.2; Нижний Новгород г., Пятигорская ул.21; Нижний Новгород г., Пятигорская ул.23; Нижний Новгород г., Пятигорская ул.8; Нижний Новгород г., Пятигорская ул.9; Нижний Новгород г., Сергачская ул.20; Нижний Новгород г., Соловьиная ул., д.1-25; Нижний Новгород г., ст. Мыза2; </t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>16.83763449577974</v>
+        <v>38.99175537531659</v>
       </c>
       <c r="E25" t="n">
-        <v>20.20516139493569</v>
+        <v>46.79010645037992</v>
       </c>
       <c r="F25" t="n">
-        <v>17.20129599577492</v>
+        <v>38.51922660629936</v>
       </c>
       <c r="G25" t="n">
-        <v>20.6415551949299</v>
-      </c>
-      <c r="H25" t="n">
-        <v>395.6013885805519</v>
-      </c>
+        <v>46.22307192755923</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>130.1154506645379</v>
+        <v>95.55430998255625</v>
       </c>
       <c r="J25" t="n">
-        <v>73.44</v>
+        <v>20.4994794520548</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Пушкинская ул.10; Дзержинск г., Рудольфа Удриса ул.9; Дзержинск г., Рудольфа Удриса ул.7; Дзержинск г., Рудольфа Удриса ул.12; Дзержинск г., Пушкинская ул.4; Дзержинск г., Рудольфа Удриса ул.11; Дзержинск г., Рудольфа Удриса ул.11А; Дзержинск г., Рудольфа Удриса ул.11В; Дзержинск г., Овощная ул.6; Дзержинск г., Циолковского пр-т.82; Дзержинск г., Ленинградская ул.22; Дзержинск г., Свердлова пр-т.47; Дзержинск г., Свердлова пр-т.13; Дзержинск г., ул.Сосновая(напротив ул.1 линия по пр.Свердлова, д.; Дзержинск г., 1-линия ул.8; Дзержинск г., Либкнехта ул.19а; Дзержинск г., Строителей ул.17к70; Дзержинск г., Свердлова пр-т.68/22; Дзержинск г., Свердлова пр-т.66/27; Дзержинск г., Свердлова пр-т.68/22; Дзержинск г., Комбрига Патоличева ул.21; Дзержинск г., Строителей ул.20; Дзержинск г., Строителей ул.16А; Дзержинск г., Строителей ул.10; Дзержинск г., Строителей ул.12; Дзержинск г., Строителей ул.12А; Дзержинск г., Строителей ул.15А; Дзержинск г., Строителей ул.13А; Дзержинск г., Строителей ул.11А; Дзержинск г., Циолковского пр-т.82А; Дзержинск г., Циолковского пр-т.80; Дзержинск г., Циолковского пр-т.80А; Дзержинск г., Свердлова пр-т.57а; </t>
+          <t xml:space="preserve">Нижний Новгород г., ст. Мыза4; Нижний Новгород г., Страховая ул.20; Нижний Новгород г., Студгородок НСХИ12; Нижний Новгород г., Сурикова ул.12; Нижний Новгород г., Сурикова ул.12А; Нижний Новгород г., Сурикова ул.16; Нижний Новгород г., Сурикова ул.2; Нижний Новгород г., Терешковой ул.2; Нижний Новгород г., Терешковой ул.6; Нижний Новгород г., Терешковой ул.8; Нижний Новгород г., Тополиная ул., д.4-16; Нижний Новгород г., Тропинина ул.10; </t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>17.20129599577492</v>
+        <v>38.60334225869152</v>
       </c>
       <c r="E26" t="n">
-        <v>20.6415551949299</v>
+        <v>46.32401071042982</v>
       </c>
       <c r="F26" t="n">
-        <v>17.45025811120003</v>
+        <v>37.2610250025693</v>
       </c>
       <c r="G26" t="n">
-        <v>20.94030973344004</v>
-      </c>
-      <c r="H26" t="n">
-        <v>260.9643794837776</v>
-      </c>
+        <v>44.71323000308315</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>84.59249553659086</v>
+        <v>106.2437989855488</v>
       </c>
       <c r="J26" t="n">
-        <v>74.06</v>
+        <v>41.88649315068493</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Свердлова пр-т.75; Дзержинск г., Свердлова пр-т.77А; Дзержинск г., Свердлова пр-т.73А; Дзержинск г., Свердлова пр-т.73А; Дзержинск г., Восточная Промзона ОАО "Оргстекло" тер.корпус 27; Дзержинск г., Свердлова пр-т.74; Дзержинск г., Свердлова пр-т.72; Дзержинск г., Космонавтов б-р1/77; Дзержинск г., Космонавтов б-р1А; Дзержинск г., ул.Сосновая (напротив ул.4 линия по пр.Свердлова), д.; Дзержинск г., пос.Свердлова 4 линия; Городской округ Дзержинск р-н, Пушкино п., Энергетическая ул.д.1-82; Дзержинск г., Рудольфа Удриса ул.10; </t>
+          <t xml:space="preserve">Нижний Новгород г., Тропинина ул.12; Нижний Новгород г., Тропинина ул.14; Нижний Новгород г., Тропинина ул.16; Нижний Новгород г., Тропинина ул.18; Нижний Новгород г., Тропинина ул.2; Нижний Новгород г., Тропинина ул.2А; Нижний Новгород г., Тропинина ул.3; Нижний Новгород г., Тропинина ул.3А; Нижний Новгород г., Тропинина ул.4; Нижний Новгород г., Тропинина ул.57; Нижний Новгород г., Тропинина ул.5А; Нижний Новгород г., Тропинина ул.6; Нижний Новгород г., Тропинина ул.61; Нижний Новгород г., Тропинина ул.7А; Нижний Новгород г., Тропинина ул.8; Нижний Новгород г., Углова ул.6; Нижний Новгород г., Цветочная ул.1; Нижний Новгород г., Цветочная ул.10; Нижний Новгород г., Цветочная ул.13; Нижний Новгород г., Цветочная ул.13/1; Нижний Новгород г., Цветочная ул.13/2; Нижний Новгород г., Цветочная ул.5; </t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D27" t="n">
-        <v>17.44213182641774</v>
+        <v>37.2610250025693</v>
       </c>
       <c r="E27" t="n">
-        <v>20.93055819170128</v>
+        <v>44.71323000308315</v>
       </c>
       <c r="F27" t="n">
-        <v>17.60995446620073</v>
+        <v>41.76190361366418</v>
       </c>
       <c r="G27" t="n">
-        <v>21.13194535944088</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>50.11428433639702</v>
+      </c>
+      <c r="H27" t="n">
+        <v>202.8415532708774</v>
+      </c>
       <c r="I27" t="n">
-        <v>73.91725409098876</v>
+        <v>100.7323697054982</v>
       </c>
       <c r="J27" t="n">
-        <v>22.2248493150685</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Химиков б-р.5Б; Дзержинск г., Химиков б-р.7; Дзержинск г., Свердлова пр-т.64/в; Дзержинск г., Комбрига Патоличева ул.19; Дзержинск г., Циолковского пр-т.84А; Дзержинск г., Пушкинская ул.16; Дзержинск г., Пушкинская ул.20; Дзержинск г., Пушкинская ул.16А; Дзержинск г., Пушкинская ул.18; Дзержинск г., Химиков б-р., д.8; Дзержинск г., Химиков б-р., д.8; Дзержинск г., Сухаренко ул.1б; Дзержинск г., Комбрига Патоличева ул.25; Дзержинск г., Свердлова пр-т.78; Дзержинск г., Циолковского ул.86; Дзержинск г., Циолковского пр-т.84; Дзержинск г., Свердлова пр-т.84; Дзержинск г., Циолковского пр-т.83А; Дзержинск г., Свердлова пр-т.82/85; Дзержинск г., Свердлова пр-т.84; Дзержинск г., Лермонтова ул., д.17е; Дзержинск г., Лермонтова ул.23; Дзержинск г., Лермонтова ул.20; Дзержинск г., Лермонтова ул.2; Дзержинск г., Лермонтова ул.13Д; Дзержинск г., Свердлова пр-т.78А; Дзержинск г., Космонавтов б-р2; Дзержинск г., Свердлова пр-т.76; Дзержинск г., Свердлова пр-т.71; Дзержинск г., Комбрига Патоличева ул.29; Дзержинск г., Терешковой ул.12; Дзержинск г., Циолковского пр-т.88А; Дзержинск г., Сухаренко ул.6; Дзержинск г., Свердлова пр-т.81; Городской округ Дзержинск р-н, Бабушкино п., Фрунзе ул.д.1-76; Дзержинск г .п. Бабушкино , Усадебный пер., д.1-16; </t>
+          <t xml:space="preserve">Нижний Новгород г., Цветочная ул.7; Нижний Новгород г., Цветочная ул.7к1; Нижний Новгород г., Цветочная ул.7к2; Нижний Новгород г., Цветочная ул.9; Нижний Новгород г., Центральная ул.125а; Нижний Новгород г., Центральная ул.131; Нижний Новгород г., Центральная ул.158; Нижний Новгород г., Центральная ул.3А; Нижний Новгород г., Черепичный п.14А; Нижний Новгород г., Черепичный п.16; Нижний Новгород г., Чистопольская ул., д.6-38; Нижний Новгород г., Шатковская ул., д.3/Б; </t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>17.60995446620073</v>
+        <v>41.76190361366418</v>
       </c>
       <c r="E28" t="n">
-        <v>21.13194535944088</v>
+        <v>50.11428433639702</v>
       </c>
       <c r="F28" t="n">
-        <v>18.06808187682748</v>
+        <v>38.17278052253284</v>
       </c>
       <c r="G28" t="n">
-        <v>21.68169825219297</v>
+        <v>45.8073366270394</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>73.78902232523984</v>
+        <v>137.8677141095621</v>
       </c>
       <c r="J28" t="n">
-        <v>54.87076712328767</v>
+        <v>33.39315068493151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Старое кладбищекп45; </t>
+          <t xml:space="preserve">Нижний Новгород г., Щербинки 1 мкр.12; Нижний Новгород г., Щербинки 1 мкр.13; Нижний Новгород г., Щербинки 1 мкр.13к1; Нижний Новгород г., Щербинки 1 мкр.13к2; Нижний Новгород г., Щербинки 1 мкр.14; Нижний Новгород г., Щербинки 1 мкр.14к2; Нижний Новгород г., Щербинки 1 мкр.18; Нижний Новгород г., Щербинки 1 мкр.20; Нижний Новгород г., Щербинки 1 мкр.26; Нижний Новгород г., Щербинки 1 мкр.27; Нижний Новгород г., Щербинки 1 мкр.29; Нижний Новгород г., Щербинки 1 мкр.4; Нижний Новгород г., Щербинки 1 мкр.7; Нижний Новгород г., Энергетиков ул.1; Нижний Новгород г., Эпроновская ул.10; Нижний Новгород г., Эпроновская ул.4; Нижний Новгород г.,Большая Окружная ул., д.1-943; Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.1; </t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>17.98900728505174</v>
+        <v>39.32055691914756</v>
       </c>
       <c r="E29" t="n">
-        <v>21.58680874206209</v>
+        <v>47.18466830297708</v>
       </c>
       <c r="F29" t="n">
-        <v>18.0767823425963</v>
+        <v>23.40549598967683</v>
       </c>
       <c r="G29" t="n">
-        <v>21.69213881111556</v>
+        <v>28.0865951876122</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>43.59140309741013</v>
+        <v>101.5811492668426</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01915068493150685</v>
+        <v>64.7907397260274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Чайковского улд.1-27; Дзержинск г., Свердлова пр-т.86А; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.13; Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.3; Городской округ Дзержинск р-н, Горбатовка пгт., Весенняя 58; Городской округ Дзержинск р-н, Горбатовка пгт., Островского ул.75А; Городской округ Дзержинск р-н, Горбатовка пгт., Пролетарская ул.47А; Городской округ Дзержинск р-н, Дачный п., Максима Горького ул., д.103; Городской округ Дзержинск р-н, Дачный п., Свободы ул., д.2а; Городской округ Дзержинск р-н, Дзержинск г., Ленинского Комсомола пр-т12; Городской округ Дзержинск р-н, Желнино п., Кооперативная ул.40; Городской округ Дзержинск р-н, Желнино п., Молодежная ул.29; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.35; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.78; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.87; Городской округ Дзержинск р-н, Желнино п., Советская ул.11; Городской округ Дзержинск р-н, Желнино п., Советская ул.42А; Городской округ Дзержинск р-н, Лесная поляна п., 17; Городской округ Дзержинск р-н, Лесная поляна п., 4; Городской округ Дзержинск р-н, Петряевка п., Восточная ул.24; Городской округ Дзержинск р-н, Пыра п., Болотная ул.12; Городской округ Дзержинск р-н, Пыра п., Болотная ул.21; Городской округ Дзержинск р-н, Пыра п., Декабристов ул.33; Городской округ Дзержинск р-н, Пыра п., Железнодорожная ул.19; Городской округ Дзержинск р-н, Пыра п., Короткий пер.5; Городской округ Дзержинск р-н, Пыра п., Лесная  ул.30; Городской округ Дзержинск р-н, Пыра п., Лесной Кардон, д.7; Городской округ Дзержинск р-н, Пыра п., Максима Горького ул.8; Городской округ Дзержинск р-н, Пыра п., Московская ул.84Б; Городской округ Дзержинск р-н, Пыра п., Огородная  ул.1; </t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>18.06808187682748</v>
+        <v>22.9134269844453</v>
       </c>
       <c r="E30" t="n">
-        <v>21.68169825219297</v>
+        <v>27.49611238133436</v>
       </c>
       <c r="F30" t="n">
-        <v>18.07801124702906</v>
+        <v>14.73567749445889</v>
       </c>
       <c r="G30" t="n">
-        <v>21.69361349643487</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>17.68281299335067</v>
+      </c>
+      <c r="H30" t="n">
+        <v>624.5187419846422</v>
+      </c>
       <c r="I30" t="n">
-        <v>48.51226364334939</v>
+        <v>205.9899810133402</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5285479452054795</v>
+        <v>72.60000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Свердлова пр-т.85; Дзержинск г., Свердлова пр-т.88; Дзержинск г., Циолковского пр-т.92А; Дзержинск г., Циолковского пр-т.90; Дзержинск г., Циолковского пр-т.92А; Дзержинск г., Циолковского пр-т.94; Дзержинск г., Циолковского пр-т.92; Дзержинск г., Циолковского пр-т.94А; Дзержинск г., Ульянова ул.2; Дзержинск г., Свердлова пр-т.33; Дзержинск г., Свердлова пр-т.28; Дзержинск г., Свердлова пр-т., д.32; Дзержинск г., Космонавтов б-р3; Дзержинск г., Комбрига Патоличева ул.29А; Дзержинск г., Космонавтов б-р9А; Дзержинск г., Космонавтов б-р7А; Дзержинск г., Космонавтов б-р7; Дзержинск г., Космонавтов б-р12А; Дзержинск г., Космонавтов б-р12; Дзержинск г., Комбрига Патоличева ул.39; Дзержинск г., Космонавтов б-р14; Дзержинск г., Космонавтов б-р11А; Дзержинск г., Комбрига Патоличева ул.35; Дзержинск г., Комбрига Патоличева ул.37; Дзержинск г., Комбрига Патоличева ул.37А; Дзержинск г., Свердлова пр-т.90; Дзержинск г., Пушкинская ул.22; Дзержинск г., Пушкинская ул.24; Дзержинск г., Свердлова пр-т.75А; Городской округ Дзержинск р-н, Бабушкино п., Железнодорожная д.1-92; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пыра п., Огородная  ул.26; Городской округ Дзержинск р-н, Пыра п., Озерная ул.12; Городской округ Дзержинск р-н, Пыра п., Полевая ул.30; Городской округ Дзержинск р-н, Пыра п., Полевая ул.46; Городской округ Дзержинск р-н, Пыра п., Полевая ул.9; Городской округ Дзержинск р-н, Пыра п., Пырская ул.39; Городской округ Дзержинск р-н, Пыра п., Пырская ул.9; Городской округ Дзержинск р-н, Пыра п., Пырский пер.11; Городской округ Дзержинск р-н, Пыра п., Свердлова ул.8; Городской округ Дзержинск р-н, Пыра п., Чапаева ул.1; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.14; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.4а; Городской округ Дзержинск р-н, Пыра п., Чкалова ул.7; Городской округ Дзержинск р-н, Северный п., Северный п82; Городской округ Дзержинск р-н, Строителей п., 12; Дзержинск г., 1-линия ул.8; Дзержинск г., 9 Января ул.10а; Дзержинск г., Александра Матросова ул.1А; Дзержинск г., Александра Матросова ул.25; Дзержинск г., Александра Матросова ул.32; Дзержинск г., Александра Матросова ул.34; Дзержинск г., Александра Матросова ул.7А; Дзержинск г., Аркадия Гайдара ул., д.11/23; Дзержинск г., Буденного ул.10; Дзержинск г., Буденного ул.11А; Дзержинск г., Буденного ул.11б; Дзержинск г., Буденного ул.13; Дзержинск г., Буденного ул.15; Дзержинск г., Буденного ул.15А; </t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>18.07801124702906</v>
+        <v>14.43899713188044</v>
       </c>
       <c r="E31" t="n">
-        <v>21.69361349643487</v>
+        <v>17.32679655825653</v>
       </c>
       <c r="F31" t="n">
-        <v>18.41534861096281</v>
+        <v>14.25024678017936</v>
       </c>
       <c r="G31" t="n">
-        <v>22.09841833315537</v>
+        <v>17.10029613621523</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3604382479242</v>
+        <v>378.8879347121461</v>
       </c>
       <c r="I31" t="n">
-        <v>48.10452366404385</v>
+        <v>118.8762899633563</v>
       </c>
       <c r="J31" t="n">
-        <v>73.06</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Космонавтов б-р24; </t>
+          <t xml:space="preserve">Дзержинск г., Буденного ул.1А; Дзержинск г., Буденного ул.1Б; Дзержинск г., Буденного ул.1В; Дзержинск г., Буденного ул.1Д; Дзержинск г., Буденного ул.2; Дзержинск г., Буденного ул.21А; Дзержинск г., Буденного ул.23; Дзержинск г., Буденного ул.23А; Дзержинск г., Буденного ул.3; Дзержинск г., Буденного ул.6В; Дзержинск г., Буденного ул.7А; Дзержинск г., Буденного ул.9; Дзержинск г., Бутлерова ул.12; Дзержинск г., Бутлерова ул.27Б; Дзержинск г., Бутлерова ул.38; Дзержинск г., Бутлерова ул.40Б; Дзержинск г., Бутлерова ул.45Б; Дзержинск г., Ватутина ул.25А; Дзержинск г., Ватутина ул.29; Дзержинск г., Ватутина ул.38; Дзержинск г., Ватутина ул.78; Дзержинск г., Водозаборная ул.1; Дзержинск г., Водозаборная ул.7; </t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
-        <v>18.3123652573828</v>
+        <v>16.80507095894636</v>
       </c>
       <c r="E32" t="n">
-        <v>21.97483830885936</v>
+        <v>20.16608515073564</v>
       </c>
       <c r="F32" t="n">
-        <v>18.41534861096281</v>
+        <v>13.50872183966388</v>
       </c>
       <c r="G32" t="n">
-        <v>22.09841833315537</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>16.21046620759666</v>
+      </c>
+      <c r="H32" t="n">
+        <v>171.4672641215156</v>
+      </c>
       <c r="I32" t="n">
-        <v>41.85555639538667</v>
+        <v>49.91418578887024</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9703013698630137</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Космонавтов б-р9; Дзержинск г., Космонавтов б-р16; Дзержинск г., Космонавтов б-р22; Дзержинск г., Космонавтов б-р20; Дзержинск г., Космонавтов б-р18; Дзержинск г., Циолковского пр-т.98Б; Дзержинск г., Циолковского пр-т.102А; Дзержинск г., Циолковского пр-т.98А; Дзержинск г., Циолковского пр-т.100; Дзержинск г., Терешковой ул.77; Городской округ Дзержинск р-н, Орловские дворики, 373; Городской округ Дзержинск р-н, Бабино п., Новосельская ул., д.1-35; Городской округ Дзержинск р-н, Бабушкино п., Бабушкина ул.д. 1-96а; </t>
+          <t xml:space="preserve">Дзержинск г., Гайдара ул.16; Дзержинск г., Гайдара ул.24; Дзержинск г., Гайдара ул.30; Дзержинск г., Гайдара ул.34Б; Дзержинск г., Гайдара ул.40; Дзержинск г., Гайдара ул.43; Дзержинск г., Гайдара ул.45; Дзержинск г., Гайдара ул.47; Дзержинск г., Гайдара ул.51; Дзержинск г., Гайдара ул.53; Дзержинск г., Гайдара ул.53А; Дзержинск г., Гайдара ул.60; Дзержинск г., Гайдара ул.68; Дзержинск г., Гайдара ул.69Б; Дзержинск г., Гайдара ул.72; Дзержинск г., Гайдара ул.73; Дзержинск г., Галкина ул.11; Дзержинск г., Галкина ул.11А; Дзержинск г., Галкина ул.13; Дзержинск г., Галкина ул.1а; Дзержинск г., Галкина ул.3; Дзержинск г., Галкина ул.4; Дзержинск г., Галкина ул.6; </t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>18.41534861096281</v>
+        <v>12.56608646401388</v>
       </c>
       <c r="E33" t="n">
-        <v>22.09841833315537</v>
+        <v>15.07930375681665</v>
       </c>
       <c r="F33" t="n">
-        <v>19.13407818155258</v>
+        <v>16.55887267765702</v>
       </c>
       <c r="G33" t="n">
-        <v>22.9608938178631</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>19.87064721318842</v>
+      </c>
+      <c r="H33" t="n">
+        <v>141.0329802333428</v>
+      </c>
       <c r="I33" t="n">
-        <v>101.0691572479145</v>
+        <v>41.44285130051296</v>
       </c>
       <c r="J33" t="n">
-        <v>38.08471232876713</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Тургенева ул.д.1-118; </t>
+          <t xml:space="preserve">Дзержинск г., Галкина ул.7А; Дзержинск г., Галкина ул.8; Дзержинск г., Галкина ул.8А; Дзержинск г., Горьковская ул., д.1,3; Дзержинск г., Грибоедова ул.2; Дзержинск г., Грибоедова ул.36Б; Дзержинск г., Грибоедова ул.41; Дзержинск г., Грибоедова ул.44А; Дзержинск г., Грибоедова ул.7; Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.10; Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.9; Городской округ Дзержинск р-н, Гнилицкие дворики п., Гнилицкие дворики п.32а; Дзержинск г., Дзержинского пл.1; Дзержинск г., Дзержинского пр-т10; Дзержинск г., Дзержинского пр-т14; Дзержинск г., Дзержинского пр-т18; Дзержинск г., Дзержинского пр-т21; Дзержинск г., Дзержинского пр-т24; Дзержинск г., Дзержинского пр-т36; Дзержинск г., Дзержинского пр-т5; Дзержинск г., Желнинское ш.1; Дзержинск г., Западный пер.6; Дзержинск г., Западный пер.9А; Дзержинск г., Индустриальная ул.2А; Дзержинск г., Индустриальная ул.3; Дзержинск г., Индустриальная ул.4А; </t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D34" t="n">
-        <v>19.02010347200852</v>
+        <v>16.55887267765702</v>
       </c>
       <c r="E34" t="n">
-        <v>22.82412416641023</v>
+        <v>19.87064721318842</v>
       </c>
       <c r="F34" t="n">
-        <v>19.17061612503542</v>
+        <v>15.47210567439209</v>
       </c>
       <c r="G34" t="n">
-        <v>23.0047393500425</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>18.56652680927051</v>
+      </c>
+      <c r="H34" t="n">
+        <v>318.1925916067767</v>
+      </c>
       <c r="I34" t="n">
-        <v>47.32411023144846</v>
+        <v>100.6382931499118</v>
       </c>
       <c r="J34" t="n">
-        <v>1.551205479452055</v>
+        <v>73.91999999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Оранжерея, д.; </t>
+          <t xml:space="preserve">Дзержинск г., Индустриальная ул.6А; Дзержинск г., Индустриальная ул.8А; Дзержинск г., Кирова пр-т11; Дзержинск г., Кирова пр-т16; Дзержинск г., Клюквина ул.1; Дзержинск г., Клюквина ул.11; Дзержинск г., Клюквина ул.8А; Дзержинск г., Комбрига Патоличева ул.1; Дзержинск г., Комбрига Патоличева ул.11; Дзержинск г., Комбрига Патоличева ул.13; Дзержинск г., Комбрига Патоличева ул.15; Дзержинск г., Комбрига Патоличева ул.17А; Дзержинск г., Комбрига Патоличева ул.19; Дзержинск г., Комбрига Патоличева ул.25; Дзержинск г., Комбрига Патоличева ул.29; Дзержинск г., Комбрига Патоличева ул.3; Дзержинск г., Комбрига Патоличева ул.34; Дзержинск г., Комбрига Патоличева ул.35; Дзержинск г., Комбрига Патоличева ул.37; Дзержинск г., Комбрига Патоличева ул.37А; Дзержинск г., Комбрига Патоличева ул.39; Дзержинск г., Комбрига Патоличева ул.3А; Дзержинск г., Комбрига Патоличева ул.43; Дзержинск г., Комбрига Патоличева ул.5; Дзержинск г., Комбрига Патоличева ул.7; Дзержинск г., Космонавтов б-р1/77; Дзержинск г., Космонавтов б-р11А; Дзержинск г., Космонавтов б-р12; </t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D35" t="n">
-        <v>19.13407818155258</v>
+        <v>15.47210567439209</v>
       </c>
       <c r="E35" t="n">
-        <v>22.9608938178631</v>
+        <v>18.56652680927051</v>
       </c>
       <c r="F35" t="n">
-        <v>19.20509760504559</v>
+        <v>18.19679447646352</v>
       </c>
       <c r="G35" t="n">
-        <v>23.0461171260547</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+        <v>21.83615337175622</v>
+      </c>
+      <c r="H35" t="n">
+        <v>213.955911836666</v>
+      </c>
       <c r="I35" t="n">
-        <v>47.62307907402959</v>
+        <v>69.46536182665412</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9575342465753426</v>
+        <v>73.03999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Дачная ул.д.1-114; Дзержинск г., Космонавтов б-р26А; </t>
+          <t xml:space="preserve">Дзержинск г., Космонавтов б-р12А; Дзержинск г., Космонавтов б-р15; Дзержинск г., Космонавтов б-р15А; Дзержинск г., Космонавтов б-р16; Дзержинск г., Космонавтов б-р17; Дзержинск г., Космонавтов б-р17А; Дзержинск г., Космонавтов б-р17Б; Дзержинск г., Космонавтов б-р18; Дзержинск г., Космонавтов б-р1А; Дзержинск г., Космонавтов б-р20; Дзержинск г., Космонавтов б-р22; Дзержинск г., Космонавтов б-р26; Дзержинск г., Космонавтов б-р26А; Дзержинск г., Космонавтов б-р3; Дзержинск г., Космонавтов б-р7; Дзержинск г., Космонавтов б-р7А; Дзержинск г., Космонавтов б-р9; Дзержинск г., Космонавтов б-р9А; Дзержинск г., Красноармейская  ул.26; Дзержинск г., Красноармейская  ул.28А; Дзержинск г., Красноармейская  ул.32; Дзержинск г., Ленина пр-т.1 А; </t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D36" t="n">
-        <v>19.17061612503542</v>
+        <v>18.19679447646352</v>
       </c>
       <c r="E36" t="n">
-        <v>23.0047393500425</v>
+        <v>21.83615337175622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.23952702705665</v>
+        <v>14.43450909652265</v>
       </c>
       <c r="G36" t="n">
-        <v>23.08743243246798</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>17.32141091582718</v>
+      </c>
+      <c r="H36" t="n">
+        <v>157.3344366272792</v>
+      </c>
       <c r="I36" t="n">
-        <v>61.16831233508661</v>
+        <v>50.13073132482715</v>
       </c>
       <c r="J36" t="n">
-        <v>1.077534246575343</v>
+        <v>72.37999999999998</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Космонавтов б-р17Б; Дзержинск г., Космонавтов б-р17А; Дзержинск г., Космонавтов б-р15; Дзержинск г., Космонавтов б-р15А; Дзержинск г., Комбрига Патоличева ул.43; Дзержинск г., Космонавтов б-р17; Дзержинск г., Космонавтов б-р26; Городской округ Дзержинск р-н, Дачный п., Свободы ул., д.2а; Городской округ Дзержинск р-н, Дачный п., Герцена ул.1-96; Городской округ Дзержинск р-н, Дачный п., Горького ул, д 1-130; </t>
+          <t xml:space="preserve">Дзержинск г., Ленина пр-т.1Б; Дзержинск г., Ленина пр-т.2; Дзержинск г., Ленина пр-т.30; Дзержинск г., Ленина пр-т.49/кп1; Дзержинск г., Ленина пр-т.8; Дзержинск г., Ленина пр-т.81/5; Дзержинск г., Ленина пр-т.85; Дзержинск г., Ленина пр-т103; Дзержинск г., Ленина пр-т10А; Дзержинск г., Ленина пр-т1В; Дзержинск г., Ленина пр-т2А; Дзержинск г., Ленина пр-т36А; Дзержинск г., Ленина пр-т37; Дзержинск г., Ленина пр-т38; Дзержинск г., Ленина пр-т4; Дзержинск г., Ленина пр-т44А; Дзержинск г., Ленина пр-т56А; Дзержинск г., Ленина пр-т57; Дзержинск г., Ленина пр-т65; Дзержинск г., Ленина пр-т67; Дзержинск г., Ленина пр-т6А; Дзержинск г., Ленина пр-т6Б; Дзержинск г., Ленина пр-т71; Дзержинск г., Ленина пр-т83; Дзержинск г., Ленина пр-т84; </t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D37" t="n">
-        <v>19.23952702705665</v>
+        <v>14.43450909652265</v>
       </c>
       <c r="E37" t="n">
-        <v>23.08743243246798</v>
+        <v>17.32141091582718</v>
       </c>
       <c r="F37" t="n">
-        <v>19.49975536221249</v>
+        <v>14.11790468338165</v>
       </c>
       <c r="G37" t="n">
-        <v>23.39970643465499</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>16.94148562005799</v>
+      </c>
+      <c r="H37" t="n">
+        <v>207.3398518225371</v>
+      </c>
       <c r="I37" t="n">
-        <v>54.813911129349</v>
+        <v>61.39189408214097</v>
       </c>
       <c r="J37" t="n">
-        <v>33.45369863013699</v>
+        <v>74.14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Пушкина пл., д.1-31; </t>
+          <t xml:space="preserve">Дзержинск г., Ленина пр-т8А; Дзержинск г., Ленина пр-т92; Дзержинск г., Ленина пр-т96; Дзержинск г., Ленинградская ул.10; Дзержинск г., Ленинградская ул.22; Дзержинск г., Ленинского Комсомола пр-т, д.16 (14); Дзержинск г., Ленинского Комсомола пр-т, д.37/23; Дзержинск г., Ленинского Комсомола пр-т18; Дзержинск г., Ленинского Комсомола пр-т30; Дзержинск г., Ленинского Комсомола пр-т32; Дзержинск г., Ленинского Комсомола пр-т42; Дзержинск г., Ленинского Комсомола пр-т44; Дзержинск г., Ленинского Комсомола пр-т50; Дзержинск г., Ленинского Комсомола пр-т52; Дзержинск г., Ленинского Комсомола пр-т54; Дзержинск г., Лермонтова ул.1; Дзержинск г., Лермонтова ул.5; Дзержинск г., Марковникова ул.10; Дзержинск г., Марковникова ул.10А; Дзержинск г., Марковникова ул.18; Дзержинск г., Марковникова ул.20; Дзержинск г., Марковникова ул.3; Дзержинск г., Маяковского ул.10; Дзержинск г., Маяковского ул.15; Дзержинск г., Маяковского ул.17; Дзержинск г., Маяковского ул.19; Дзержинск г., Маяковского ул.2; Дзержинск г., Маяковского ул.23; Дзержинск г., Маяковского ул.27; Дзержинск г., Маяковского ул.45; Дзержинск г., Маяковского ул.5; Дзержинск г., Мира б-р.14; </t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D38" t="n">
-        <v>19.41739068789802</v>
+        <v>13.44242641521127</v>
       </c>
       <c r="E38" t="n">
-        <v>23.30086882547762</v>
+        <v>16.13091169825353</v>
       </c>
       <c r="F38" t="n">
-        <v>19.67351520485878</v>
+        <v>13.52545375463366</v>
       </c>
       <c r="G38" t="n">
-        <v>23.60821824583054</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>16.23054450556039</v>
+      </c>
+      <c r="H38" t="n">
+        <v>231.6960573617613</v>
+      </c>
       <c r="I38" t="n">
-        <v>50.2947104393782</v>
+        <v>68.98959539101421</v>
       </c>
       <c r="J38" t="n">
-        <v>1.532054794520548</v>
+        <v>73.26000000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Ушакова ул.д. 1-71; </t>
+          <t xml:space="preserve">Дзержинск г., Мира б-р.20; Дзержинск г., Мира б-р.22; Дзержинск г., Мира б-р.26; Дзержинск г., Мира б-р.28А; Дзержинск г., Мира б-р.29А; Дзержинск г., Мира б-р.30А; Дзержинск г., Мира б-р.6; Дзержинск г., Мира б-р.8; Дзержинск г., Молодежная ул., д.8; Дзержинск г., Молодежная ул.10А; Дзержинск г., Молодежная ул.12; Дзержинск г., Молодежная ул.12А; Дзержинск г., Молодежная ул.15А; Дзержинск г., Молодежная ул.1А; Дзержинск г., Молодежная ул.3; Дзержинск г., Молодежная ул.6/38; Дзержинск г., Молодежная ул.7; Дзержинск г., Народная ул.40; Дзержинск г., Николая Гастелло ул.13; Дзержинск г., Николая Гастелло ул.14; Дзержинск г., Николая Гастелло ул.3; Дзержинск г., Николая Гастелло ул.5; Дзержинск г., Николая Гастелло ул.8; Дзержинск г., Николая Гастелло ул.9; Дзержинск г., Новомосковская ул.10; Дзержинск г., Новомосковская ул.8; </t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D39" t="n">
-        <v>19.49975536221249</v>
+        <v>13.27181915588873</v>
       </c>
       <c r="E39" t="n">
-        <v>23.39970643465499</v>
+        <v>15.92618298706647</v>
       </c>
       <c r="F39" t="n">
-        <v>19.70537166163238</v>
+        <v>17.20581796434369</v>
       </c>
       <c r="G39" t="n">
-        <v>23.64644599395886</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>20.64698155721242</v>
+      </c>
+      <c r="H39" t="n">
+        <v>150.0269761103246</v>
+      </c>
       <c r="I39" t="n">
-        <v>50.65503864703474</v>
+        <v>44.84456816131844</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4915342465753425</v>
+        <v>73.26000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Лесная  ул., д.1-20; </t>
+          <t xml:space="preserve">Дзержинск г., Овощная ул.6; Дзержинск г., Окская наб.1; Дзержинск г., Окская наб.13; Дзержинск г., Окская наб.13/1; Дзержинск г., Окская наб.15; Дзержинск г., Окская наб.17; Дзержинск г., Окская наб.19А; Дзержинск г., Окская наб.3; Дзержинск г., Окская наб.3А; Дзержинск г., Окская наб.5; Дзержинск г., окская набережная, д.7; Дзержинск г., Октябрьская ул.25; Дзержинск г., Октябрьская ул.26; Дзержинск г., Октябрьская ул.29; Дзержинск г., Октябрьская ул.30А; Дзержинск г., Октябрьская ул.31; Дзержинск г., Октябрьская ул.34; Дзержинск г., Октябрьская ул.36; Дзержинск г., Октябрьская ул.40; Дзержинск г., Октябрьская ул.48; Дзержинск г., Октябрьская ул.5/7; Дзержинск г., Октябрьская ул.56; Дзержинск г., Октябрьская ул.5А; Дзержинск г., Октябрьская ул.5Б; Дзержинск г., Октябрьская ул.6; Дзержинск г., Октябрьская ул.60; Дзержинск г., Октябрьская ул.63; Дзержинск г., Октябрьская ул.68А; </t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>19.67351520485878</v>
+        <v>10.96179228293148</v>
       </c>
       <c r="E40" t="n">
-        <v>23.60821824583054</v>
+        <v>13.15415073951778</v>
       </c>
       <c r="F40" t="n">
-        <v>19.7612400971958</v>
+        <v>14.04998925639052</v>
       </c>
       <c r="G40" t="n">
-        <v>23.71348811663496</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>16.85998710766863</v>
+      </c>
+      <c r="H40" t="n">
+        <v>183.5024127850802</v>
+      </c>
       <c r="I40" t="n">
-        <v>49.79285114938915</v>
+        <v>52.6278688878428</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6958082191780822</v>
+        <v>72.38000000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Желнинское ш.1; </t>
+          <t xml:space="preserve">Дзержинск г., Октябрьская ул.80; Дзержинск г., Островского ул.4А; Дзержинск г., Панфиловцев ул.9; Дзержинск г., Парковая аллея6А; Дзержинск г., Петрищева ул.10А; Дзержинск г., Петрищева ул.11; Дзержинск г., Петрищева ул.12; Дзержинск г., Петрищева ул.12А; Дзержинск г., Петрищева ул.14; Дзержинск г., Петрищева ул.17; Дзержинск г., Петрищева ул.18; Дзержинск г., Петрищева ул.19А; Дзержинск г., Петрищева ул.21А; Дзержинск г., Петрищева ул.25; Дзержинск г., Петрищева ул.25А; Дзержинск г., Петрищева ул.27В; Дзержинск г., Петрищева ул.29; Дзержинск г., Петрищева ул.3; Дзержинск г., Петрищева ул.31; Дзержинск г., Петрищева ул.31А; Дзержинск г., Петрищева ул.31Б; Дзержинск г., Петрищева ул.35; Дзержинск г., Петрищева ул.3А; Дзержинск г., Петрищева ул.4А; </t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D41" t="n">
-        <v>19.70537166163238</v>
+        <v>13.96551210537183</v>
       </c>
       <c r="E41" t="n">
-        <v>23.64644599395886</v>
+        <v>16.7586145264462</v>
       </c>
       <c r="F41" t="n">
-        <v>19.77005545787955</v>
+        <v>14.49891806647891</v>
       </c>
       <c r="G41" t="n">
-        <v>23.72406654945546</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>17.39870167977469</v>
+      </c>
+      <c r="H41" t="n">
+        <v>165.2940879142802</v>
+      </c>
       <c r="I41" t="n">
-        <v>41.75171893664621</v>
+        <v>48.64292130112872</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1404383561643836</v>
+        <v>72.82000000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Максима Горького ул., д.103; Городской округ Дзержинск р-н, Дачный п., Свободы ул.д.1-71; Городской округ Дзержинск р-н, Пушкино п., Короленко ул.д.1-23; </t>
+          <t xml:space="preserve">Дзержинск г., Петрищева ул.5А; Дзержинск г., Петрищева ул.5Б; Дзержинск г., Петрищева ул.6; Дзержинск г., Петрищева ул.9; Дзержинск г., Пирогова ул.11; Дзержинск г., Пирогова ул.14; Дзержинск г., Пирогова ул.30; Дзержинск г., Пирогова ул.31А; Дзержинск г., Пирогова ул.32А, 34А; Дзержинск г., Пирогова ул.34; Дзержинск г., Пирогова ул.35А; Дзержинск г., Пирогова ул.35В; Дзержинск г., Пирогова ул.36А; Дзержинск г., Пирогова ул.5; Дзержинск г., Победы б-р.16; Дзержинск г., Победы б-р.16А; Дзержинск г., Победы б-р.17; Дзержинск г., Победы б-р.18; Дзержинск г., Победы б-р.22А; Дзержинск г., Победы б-р.7А; Дзержинск г., Пожарского ул.15; Дзержинск г., Пожарского ул.21; Дзержинск г., Пожарского ул.26; Дзержинск г., Пожарского ул.26В; Дзержинск г., Пожарского ул.28; </t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>19.7612400971958</v>
+        <v>14.25024678017936</v>
       </c>
       <c r="E42" t="n">
-        <v>23.71348811663496</v>
+        <v>17.10029613621523</v>
       </c>
       <c r="F42" t="n">
-        <v>20.00461476754752</v>
+        <v>14.1381223071506</v>
       </c>
       <c r="G42" t="n">
-        <v>24.00553772105702</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>16.96574676858073</v>
+      </c>
+      <c r="H42" t="n">
+        <v>152.1082657757755</v>
+      </c>
       <c r="I42" t="n">
-        <v>63.72607877494207</v>
+        <v>42.39102563385003</v>
       </c>
       <c r="J42" t="n">
-        <v>2.500493150684932</v>
+        <v>75.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Садовая ул.1-37; </t>
+          <t xml:space="preserve">Дзержинск г., Пожарского ул.33Б; Дзержинск г., Пожарского ул.36; Дзержинск г., Пожарского ул.4; Дзержинск г., Пожарского ул.5; Дзержинск г., Пожарского ул.9; Дзержинск г., Попова ул.10; Дзержинск г., Попова ул.12; Дзержинск г., Попова ул.14; Дзержинск г., Попова ул.18; Дзержинск г., Попова ул.18А; Дзержинск г., Попова ул.2; Дзержинск г., Попова ул.22; Дзержинск г., Попова ул.28; Дзержинск г., Попова ул.28Б; Дзержинск г., Попова ул.30; Дзержинск г., Попова ул.34; Дзержинск г., Попова ул.36; Дзержинск г., Попова ул.36А; Дзержинск г., Попова ул.6; Дзержинск г., Попова ул.8А; Дзержинск г., пос.Свердлова 4 линия; Дзержинск г., Поселковая ул.22-23; Дзержинск г., Правды б-р.5А; Дзержинск г., Привокзальная пл.5к2; Дзержинск г., Пушкинская ул.10; Дзержинск г., Пушкинская ул.16; </t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D43" t="n">
-        <v>19.98689808039876</v>
+        <v>14.1381223071506</v>
       </c>
       <c r="E43" t="n">
-        <v>23.98427769647851</v>
+        <v>16.96574676858073</v>
       </c>
       <c r="F43" t="n">
-        <v>20.11002884808697</v>
+        <v>17.62824942670432</v>
       </c>
       <c r="G43" t="n">
-        <v>24.13203461770436</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>21.15389931204519</v>
+      </c>
+      <c r="H43" t="n">
+        <v>234.4959582615087</v>
+      </c>
       <c r="I43" t="n">
-        <v>40.15035380421979</v>
+        <v>75.2764422314976</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2936438356164384</v>
+        <v>73.26000000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Железнодорожная ул.д.1-92; </t>
+          <t xml:space="preserve">Дзержинск г., Пушкинская ул.16А; Дзержинск г., Пушкинская ул.18; Дзержинск г., Пушкинская ул.20; Дзержинск г., Пушкинская ул.22; Дзержинск г., Пушкинская ул.24; Дзержинск г., Пушкинская ул.4; Дзержинск г., Революции ул.2; Дзержинск г., Рудольфа Удриса ул.10; Дзержинск г., Рудольфа Удриса ул.11; Дзержинск г., Рудольфа Удриса ул.11А; Дзержинск г., Рудольфа Удриса ул.11Б; Дзержинск г., Рудольфа Удриса ул.11В; Дзержинск г., Рудольфа Удриса ул.12; Дзержинск г., Рудольфа Удриса ул.3; Дзержинск г., Рудольфа Удриса ул.4; Дзержинск г., Рудольфа Удриса ул.5; Дзержинск г., Рудольфа Удриса ул.7; Дзержинск г., Рудольфа Удриса ул.7Б; Дзержинск г., Рудольфа Удриса ул.9; Дзержинск г., Рудольфа Удриса ул.9Д; Дзержинск г., Садовый пер.4; Дзержинск г., Самохвалова ул.10; Дзержинск г., Самохвалова ул.12; Дзержинск г., Самохвалова ул.13; Дзержинск г., Самохвалова ул.15; Дзержинск г., Самохвалова ул.3; Дзержинск г., Самохвалова ул.4; Дзержинск г., Самохвалова ул.4А; </t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
-        <v>20.00461476754752</v>
+        <v>17.62824942670432</v>
       </c>
       <c r="E44" t="n">
-        <v>24.00553772105702</v>
+        <v>21.15389931204519</v>
       </c>
       <c r="F44" t="n">
-        <v>20.11546208875583</v>
+        <v>14.42064205650751</v>
       </c>
       <c r="G44" t="n">
-        <v>24.138554506507</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>17.30477046780902</v>
+      </c>
+      <c r="H44" t="n">
+        <v>198.9675905619187</v>
+      </c>
       <c r="I44" t="n">
-        <v>40.82048986389033</v>
+        <v>60.82012189983637</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8043287671232877</v>
+        <v>74.58000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Гоголя ул.д.1-75; </t>
+          <t xml:space="preserve">Дзержинск г., Самохвалова ул.5; Дзержинск г., Свердлова пр-т., д.32; Дзержинск г., Свердлова пр-т.13; Дзержинск г., Свердлова пр-т.14А; Дзержинск г., Свердлова пр-т.17; Дзержинск г., Свердлова пр-т.22А; Дзержинск г., Свердлова пр-т.22В; Дзержинск г., Свердлова пр-т.28; Дзержинск г., Свердлова пр-т.31; Дзержинск г., Свердлова пр-т.31Б; Дзержинск г., Свердлова пр-т.31В; Дзержинск г., Свердлова пр-т.33; Дзержинск г., Свердлова пр-т.46; Дзержинск г., Свердлова пр-т.47; Дзержинск г., Свердлова пр-т.66/27; Дзержинск г., Свердлова пр-т.68/22; Дзержинск г., Свердлова пр-т.71; Дзержинск г., Свердлова пр-т.72; Дзержинск г., Свердлова пр-т.73А; Дзержинск г., Свердлова пр-т.74; Дзержинск г., Свердлова пр-т.75; Дзержинск г., Свердлова пр-т.75А; Дзержинск г., Свердлова пр-т.76; Дзержинск г., Свердлова пр-т.77А; Дзержинск г., Свердлова пр-т.78; Дзержинск г., Свердлова пр-т.82/85; Дзержинск г., Свердлова пр-т.84; Дзержинск г., Свердлова пр-т.86А; Дзержинск г., Свердлова пр-т.88; Дзержинск г., Свердлова пр-т.90; Дзержинск г., Северный п103; Дзержинск г., Ситнова ул.10Б; Дзержинск г., Ситнова ул.12; Дзержинск г., Ситнова ул.8; Дзержинск г., Ситнова ул.8А; Дзержинск г., Ситнова ул.8Б; </t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>20.11002884808697</v>
+        <v>14.30501493111605</v>
       </c>
       <c r="E45" t="n">
-        <v>24.13203461770436</v>
+        <v>17.16601791733926</v>
       </c>
       <c r="F45" t="n">
-        <v>20.13145589034954</v>
+        <v>14.11790468338165</v>
       </c>
       <c r="G45" t="n">
-        <v>24.15774706841945</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>16.94148562005799</v>
+      </c>
+      <c r="H45" t="n">
+        <v>306.1283012706763</v>
+      </c>
       <c r="I45" t="n">
-        <v>40.40797787569376</v>
+        <v>93.91034739894334</v>
       </c>
       <c r="J45" t="n">
-        <v>1.059671232876712</v>
+        <v>75.90000000000002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Новая ул.д.1-56; </t>
+          <t xml:space="preserve">Дзержинск г., Ситнова ул.8В; Дзержинск г., Советская ул.10Л; Дзержинск г., Советская ул.11; Дзержинск г., Советская ул.7; Дзержинск г., Строителей п2; Дзержинск г., Строителей п23а; Дзержинск г., Строителей п31; Дзержинск г., Строителей ул.10; Дзержинск г., Строителей ул.12; Дзержинск г., Строителей ул.12А; Дзержинск г., Строителей ул.13А; Дзержинск г., Строителей ул.15А; Дзержинск г., Строителей ул.16А; Дзержинск г., Строителей ул.17к70; Дзержинск г., Строителей ул.20; Дзержинск г., Строителей ул.2А; Дзержинск г., Строителей ул.2к34; Дзержинск г., Строителей ул.3; Дзержинск г., Строителей ул.4; Дзержинск г., Строителей ул.4А; Дзержинск г., Строителей ул.6; Дзержинск г., Строителей ул.6А; Дзержинск г., Строителей ул.7; Дзержинск г., Строителей ул.9А; Дзержинск г., Строителей ул.9Б; Дзержинск г., Строителей ул.9Вк1; Дзержинск г., Строителей ул.9Вк2; Дзержинск г., Студенческая ул.19; Дзержинск г., Студенческая ул.34А; Дзержинск г., Суворова ул.17; Дзержинск г., Суворова ул.3; </t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
-        <v>20.11546208875583</v>
+        <v>14.1381223071506</v>
       </c>
       <c r="E46" t="n">
-        <v>24.138554506507</v>
+        <v>16.96574676858073</v>
       </c>
       <c r="F46" t="n">
-        <v>20.13774851922665</v>
+        <v>13.96551210537183</v>
       </c>
       <c r="G46" t="n">
-        <v>24.16529822307198</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+        <v>16.7586145264462</v>
+      </c>
+      <c r="H46" t="n">
+        <v>296.4255795895669</v>
+      </c>
       <c r="I46" t="n">
-        <v>40.46425445958998</v>
+        <v>90.59024535285114</v>
       </c>
       <c r="J46" t="n">
-        <v>1.263945205479452</v>
+        <v>74.58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Белинского ул.д 1-77; </t>
+          <t xml:space="preserve">Дзержинск г., Суворова ул.5А; Дзержинск г., Сухаренко ул.16; Дзержинск г., Сухаренко ул.20А; Дзержинск г., Сухаренко ул.5; Дзержинск г., Сухаренко ул.7; Дзержинск г., Терешковой ул.12; Дзержинск г., Терешковой ул.14; Дзержинск г., Терешковой ул.22; Дзержинск г., Терешковой ул.26А; Дзержинск г., Терешковой ул.26Б; Дзержинск г., Терешковой ул.28А; Дзержинск г., Терешковой ул.36; Дзержинск г., Терешковой ул.44А; Дзержинск г., Терешковой ул.46; Дзержинск г., Терешковой ул.50; Дзержинск г., Терешковой ул.56А; Дзержинск г., Терешковой ул.6; Дзержинск г., Терешковой ул.62; Дзержинск г., Терешковой ул.64А; Дзержинск г., Тупиковый пер.7; Дзержинск г., ул.Сосновая (напротив ул.4 линия по пр.Свердлова), д.; Дзержинск г., ул.Сосновая(напротив ул.1 линия по пр.Свердлова, д.; Дзержинск г., Ульянова ул.13; Дзержинск г., Ульянова ул.19; </t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>20.13145589034954</v>
+        <v>13.96551210537183</v>
       </c>
       <c r="E47" t="n">
-        <v>24.15774706841945</v>
+        <v>16.7586145264462</v>
       </c>
       <c r="F47" t="n">
-        <v>20.56676336174842</v>
+        <v>18.14709289020897</v>
       </c>
       <c r="G47" t="n">
-        <v>24.68011603409811</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
+        <v>21.77651146825076</v>
+      </c>
+      <c r="H47" t="n">
+        <v>225.2899950278429</v>
+      </c>
       <c r="I47" t="n">
-        <v>40.81290950771057</v>
+        <v>70.95639849604638</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8873150684931508</v>
+        <v>72.60000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Портовое ш.10; </t>
+          <t xml:space="preserve">Дзержинск г., Ульянова ул.2; Дзержинск г., Ульянова ул.9А; Дзержинск г., Урицкого ул.12; Дзержинск г., Урицкого ул.4; Дзержинск г., Урицкого ул.5; Дзержинск г., Урицкого ул.5А; Дзержинск г., Урицкого ул.8А; Дзержинск г., Учебный пер.5А; Дзержинск г., Учительский пер.5; Дзержинск г., Учительский пер.7; Дзержинск г., Химиков б-р., д.8; Дзержинск г., Химиков б-р.3; Дзержинск г., Химиков б-р.4; Дзержинск г., Химиков б-р.7; Дзержинск г., Циолковского пр-т, д.61г корп. 1; Дзержинск г., Циолковского пр-т.100; Дзержинск г., Циолковского пр-т.102А; Дзержинск г., Циолковского пр-т.13А; Дзержинск г., Циолковского пр-т.18А; Дзержинск г., Циолковского пр-т.19Б; </t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>20.13774851922665</v>
+        <v>16.10802525781792</v>
       </c>
       <c r="E48" t="n">
-        <v>24.16529822307198</v>
+        <v>19.3296303093815</v>
       </c>
       <c r="F48" t="n">
-        <v>20.56676336174842</v>
+        <v>14.16917295472352</v>
       </c>
       <c r="G48" t="n">
-        <v>24.68011603409811</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>17.00300754566823</v>
+      </c>
+      <c r="H48" t="n">
+        <v>213.5277189770272</v>
+      </c>
       <c r="I48" t="n">
-        <v>54.29138866437512</v>
+        <v>65.67656110175665</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9703013698630137</v>
+        <v>73.48000000000002</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Восточный Промрайон ОАО "Оргстекло" тер.11 км 7; Городской округ Дзержинск р-н, Строителей п., 2; Дзержинск г., Строителей п2; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.78; Городской округ Дзержинск р-н, Пушкино п., Новозапрудная ул.1-33; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.87; </t>
+          <t xml:space="preserve">Дзержинск г., Циолковского пр-т.20А; Дзержинск г., Циолковского пр-т.23А; Дзержинск г., Циолковского пр-т.24; Дзержинск г., Циолковского пр-т.31; Дзержинск г., Циолковского пр-т.33; Дзержинск г., Циолковского пр-т.34; Дзержинск г., Циолковского пр-т.35; Дзержинск г., Циолковского пр-т.37Б; Дзержинск г., Циолковского пр-т.38; Дзержинск г., Циолковского пр-т.38А; Дзержинск г., Циолковского пр-т.39; Дзержинск г., Циолковского пр-т.39Б; Дзержинск г., Циолковского пр-т.39В; Дзержинск г., Циолковского пр-т.41А; Дзержинск г., Циолковского пр-т.42; Дзержинск г., Циолковского пр-т.43; Дзержинск г., Циолковского пр-т.43А; Дзержинск г., Циолковского пр-т.46; Дзержинск г., Циолковского пр-т.47; Дзержинск г., Циолковского пр-т.48; Дзержинск г., Циолковского пр-т.49А; Дзержинск г., Циолковского пр-т.49В; Дзержинск г., Циолковского пр-т.50; Дзержинск г., Циолковского пр-т.52; Дзержинск г., Циолковского пр-т.54; Дзержинск г., Циолковского пр-т.54А; Дзержинск г., Циолковского пр-т.57; </t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
-        <v>20.56676336174842</v>
+        <v>14.16917295472352</v>
       </c>
       <c r="E49" t="n">
-        <v>24.68011603409811</v>
+        <v>17.00300754566823</v>
       </c>
       <c r="F49" t="n">
-        <v>21.25019428884688</v>
+        <v>15.92959754231361</v>
       </c>
       <c r="G49" t="n">
-        <v>25.50023314661626</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
+        <v>19.11551705077633</v>
+      </c>
+      <c r="H49" t="n">
+        <v>146.6404904708268</v>
+      </c>
       <c r="I49" t="n">
-        <v>98.52344618522307</v>
+        <v>43.47793147209001</v>
       </c>
       <c r="J49" t="n">
-        <v>10.54854794520548</v>
+        <v>74.36000000000003</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Кооперативная ул.40; Городской округ Дзержинск р-н, Желнино п., Кооперативная ул.40; Городской округ Дзержинск р-н, Желнино п., Пролетарская ул.35; Городской округ Дзержинск р-н, Горбатовка пгт., Пушкина ул., д. 1-47; Колодкино п., Осипенко ул.д.1-17; </t>
+          <t xml:space="preserve">Дзержинск г., Циолковского пр-т.57А; Дзержинск г., Циолковского пр-т.61г; Дзержинск г., Циолковского пр-т.62; Дзержинск г., Циолковского пр-т.64; Дзержинск г., Циолковского пр-т.65; Дзержинск г., Циолковского пр-т.66; Дзержинск г., Циолковского пр-т.67; Дзержинск г., Циолковского пр-т.68; Дзержинск г., Циолковского пр-т.69; Дзержинск г., Циолковского пр-т.7; Дзержинск г., Циолковского пр-т.70; Дзержинск г., Циолковского пр-т.71/2; Дзержинск г., Циолковского пр-т.71А; Дзержинск г., Циолковского пр-т.72; Дзержинск г., Циолковского пр-т.73; Дзержинск г., Циолковского пр-т.73А; Дзержинск г., Циолковского пр-т.74; Дзержинск г., Циолковского пр-т.75; Дзержинск г., Циолковского пр-т.75Б; Дзержинск г., Циолковского пр-т.76; Дзержинск г., Циолковского пр-т.77; Дзержинск г., Циолковского пр-т.77Б; Дзержинск г., Циолковского пр-т.79; Дзержинск г., Циолковского пр-т.80; Дзержинск г., Циолковского пр-т.80А; Дзержинск г., Циолковского пр-т.81; Дзержинск г., Циолковского пр-т.82; Дзержинск г., Циолковского пр-т.82А; Дзержинск г., Циолковского пр-т.83; Дзержинск г., Циолковского пр-т.84; </t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>20.85557691007286</v>
+        <v>15.92959754231361</v>
       </c>
       <c r="E50" t="n">
-        <v>25.02669229208743</v>
+        <v>19.11551705077633</v>
       </c>
       <c r="F50" t="n">
-        <v>21.54993184047915</v>
+        <v>17.6186854808817</v>
       </c>
       <c r="G50" t="n">
-        <v>25.85991820857498</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
+        <v>21.14242257705804</v>
+      </c>
+      <c r="H50" t="n">
+        <v>136.2737834262924</v>
+      </c>
       <c r="I50" t="n">
-        <v>89.98228119447199</v>
+        <v>43.934371815034</v>
       </c>
       <c r="J50" t="n">
-        <v>5.551561643835616</v>
+        <v>72.16000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Молодежная ул.29; </t>
+          <t xml:space="preserve">Дзержинск г., Циолковского пр-т.84А; Дзержинск г., Циолковского пр-т.88А; Дзержинск г., Циолковского пр-т.90; Дзержинск г., Циолковского пр-т.92А; Дзержинск г., Циолковского пр-т.94; Дзержинск г., Циолковского пр-т.94А; Дзержинск г., Циолковского пр-т.98А; Дзержинск г., Циолковского пр-т.98Б; Дзержинск г., Циолковского ул.86; Дзержинск г., Чапаева ул.10; Дзержинск г., Чапаева ул.22; Дзержинск г., Чапаева ул.22А; Дзержинск г., Чапаева ул.26; Дзержинск г., Чапаева ул.33; Дзержинск г., Чапаева ул.37; Дзержинск г., Чапаева ул.47А; Дзержинск г., Чапаева ул.6; Дзержинск г., Чапаева ул.66; Дзержинск г., Чапаева ул.69/2; Дзержинск г., Чапаева ул.70; Дзержинск г., Чапаева ул.71; Дзержинск г., Чапаева ул.73; Дзержинск г., Чапаева ул.76; Дзержинск г., Черняховского ул.23; Дзержинск г., Черняховского ул.48; Дзержинск г., Черняховского ул.52; </t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D51" t="n">
-        <v>21.47755263931678</v>
+        <v>17.67385410944539</v>
       </c>
       <c r="E51" t="n">
-        <v>25.77306316718013</v>
+        <v>21.20862493133447</v>
       </c>
       <c r="F51" t="n">
-        <v>21.60145109603395</v>
+        <v>13.82746489548805</v>
       </c>
       <c r="G51" t="n">
-        <v>25.92174131524074</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
+        <v>16.59295787458565</v>
+      </c>
+      <c r="H51" t="n">
+        <v>163.0532421886443</v>
+      </c>
       <c r="I51" t="n">
-        <v>59.30612057756095</v>
+        <v>48.78285809070339</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07660273972602741</v>
+        <v>73.92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Советская ул.11; Городской округ Дзержинск р-н, Горбатовка пгт., д.М.Расковой д.1-25; Городской округ Дзержинск р-н, Горбатовка пгт., Осипенко ул., д.1-25; </t>
+          <t xml:space="preserve">Дзержинск г., Черняховского ул.9; Дзержинск г., Чкалова пр-т, д.26; Дзержинск г., Чкалова пр-т, д.50а; Дзержинск г., Чкалова пр-т, д.6; Дзержинск г., Чкалова пр-т27; Дзержинск г., Чкалова пр-т28; Дзержинск г., Чкалова пр-т29; Дзержинск г., Чкалова пр-т47; Дзержинск г., Чкалова пр-т48А; Дзержинск г., Чкалова пр-т48Б; Дзержинск г., Чкалова пр-т51А; Дзержинск г., Чкалова пр-т53; Дзержинск г., Чкалова пр-т54; Дзержинск г., Чкалова пр-т55; Дзержинск г., Чкалова пр-т56; Дзержинск г., Щорса ул.2; Дзержинск г., Щорса ул.21; Дзержинск г., Щорса ул.38; Дзержинск г., Щорса ул.4А; г.Дзержинск(п.Игумново), 1 Линия д.1-4; г.Дзержинск(п.Игумново), 2 линияд.  1-6; </t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>21.54993184047915</v>
+        <v>12.52531712474244</v>
       </c>
       <c r="E52" t="n">
-        <v>25.85991820857498</v>
+        <v>15.03038054969093</v>
       </c>
       <c r="F52" t="n">
-        <v>21.84586061568167</v>
+        <v>23.86665009077923</v>
       </c>
       <c r="G52" t="n">
-        <v>26.21503273881801</v>
+        <v>28.63998010893508</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>71.26775753345095</v>
+        <v>65.81288191731178</v>
       </c>
       <c r="J52" t="n">
-        <v>6.740438356164384</v>
+        <v>47.33830136986303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Короленко ул., д. 1-40; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), 4 ЛИНИЯ д.1-5; </t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2174,29 +2194,29 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>21.82278325954416</v>
+        <v>23.86665009077923</v>
       </c>
       <c r="E53" t="n">
-        <v>26.18733991145299</v>
+        <v>28.63998010893508</v>
       </c>
       <c r="F53" t="n">
-        <v>21.98629820992834</v>
+        <v>25.16133138223941</v>
       </c>
       <c r="G53" t="n">
-        <v>26.38355785191401</v>
+        <v>30.19359765868729</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>45.06368625586772</v>
+        <v>49.02798147301864</v>
       </c>
       <c r="J53" t="n">
-        <v>0.466</v>
+        <v>0.05745205479452056</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Серова ул., д. 1-17; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), 40 лет Октября ул. д 1-21; </t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2206,29 +2226,29 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>21.84586061568167</v>
+        <v>23.86665009077923</v>
       </c>
       <c r="E54" t="n">
-        <v>26.21503273881801</v>
+        <v>28.63998010893508</v>
       </c>
       <c r="F54" t="n">
-        <v>22.01173405500015</v>
+        <v>24.12607651689736</v>
       </c>
       <c r="G54" t="n">
-        <v>26.41408086600018</v>
+        <v>28.95129182027684</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>45.27571440746123</v>
+        <v>49.55806795653895</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7341095890410959</v>
+        <v>0.07021917808219179</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Чапаева ул.1-15; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Городская ул.д.1-43; </t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2238,29 +2258,29 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>21.98629820992834</v>
+        <v>25.16133138223941</v>
       </c>
       <c r="E55" t="n">
-        <v>26.38355785191401</v>
+        <v>30.19359765868729</v>
       </c>
       <c r="F55" t="n">
-        <v>22.02025379185175</v>
+        <v>25.121140569556</v>
       </c>
       <c r="G55" t="n">
-        <v>26.4243045502221</v>
+        <v>30.1453686834672</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>45.59054517787798</v>
+        <v>51.31772681713746</v>
       </c>
       <c r="J55" t="n">
-        <v>0.4787671232876713</v>
+        <v>0.817095890410959</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Желнино п., Советская ул.42А; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Дружбы ул. д.1-18 ; </t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2270,61 +2290,61 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>22.01173405500015</v>
+        <v>24.12607651689736</v>
       </c>
       <c r="E56" t="n">
-        <v>26.41408086600018</v>
+        <v>28.95129182027684</v>
       </c>
       <c r="F56" t="n">
-        <v>22.02814560671727</v>
+        <v>25.36760903147796</v>
       </c>
       <c r="G56" t="n">
-        <v>26.43377472806072</v>
+        <v>30.44113083777356</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>70.27125912175663</v>
+        <v>50.52241446058672</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1978904109589041</v>
+        <v>1.059671232876712</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колодкино п., Зеленый ров ул.д.1-19; Городской округ Дзержинск р-н, Горбатовка пгт., Коммунистическая ул., д.1-36; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Кутузова ул.д.1-65; </t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>22.02025379185175</v>
+        <v>25.121140569556</v>
       </c>
       <c r="E57" t="n">
-        <v>26.4243045502221</v>
+        <v>30.1453686834672</v>
       </c>
       <c r="F57" t="n">
-        <v>22.15862193324013</v>
+        <v>25.22796638241707</v>
       </c>
       <c r="G57" t="n">
-        <v>26.59034631988815</v>
+        <v>30.27355965890048</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>84.39340201147138</v>
+        <v>51.51232940218858</v>
       </c>
       <c r="J57" t="n">
-        <v>3.574493150684932</v>
+        <v>0.6255890410958904</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колодкино п., Революции ул.1-69; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Озерная ул.д.1-43; </t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2334,29 +2354,29 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>22.09202738531427</v>
+        <v>25.36760903147796</v>
       </c>
       <c r="E58" t="n">
-        <v>26.51043286237712</v>
+        <v>30.44113083777356</v>
       </c>
       <c r="F58" t="n">
-        <v>22.21030389326384</v>
+        <v>25.22796638241707</v>
       </c>
       <c r="G58" t="n">
-        <v>26.65236467191661</v>
+        <v>30.27355965890048</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>67.19486444720405</v>
+        <v>51.62383960323587</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7915616438356166</v>
+        <v>0.6958082191780822</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Прибрежная ул.9/3970; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Октябрьская ул.д. 1-22; </t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2366,93 +2386,93 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>22.15862193324013</v>
+        <v>25.22796638241707</v>
       </c>
       <c r="E59" t="n">
-        <v>26.59034631988815</v>
+        <v>30.27355965890048</v>
       </c>
       <c r="F59" t="n">
-        <v>22.25146212561121</v>
+        <v>24.66497778062386</v>
       </c>
       <c r="G59" t="n">
-        <v>26.70175455073345</v>
+        <v>29.59797333674864</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>61.9786422477696</v>
+        <v>49.89294416304094</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4596164383561644</v>
+        <v>0.5234520547945206</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Островского ул., д.1-92; Городской округ Дзержинск р-н, Горбатовка пгт., Весенняя 58; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), П.Морозова д.1-28; </t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>22.21030389326384</v>
+        <v>25.22796638241707</v>
       </c>
       <c r="E60" t="n">
-        <v>26.65236467191661</v>
+        <v>30.27355965890048</v>
       </c>
       <c r="F60" t="n">
-        <v>22.30296837363487</v>
+        <v>24.75135610076619</v>
       </c>
       <c r="G60" t="n">
-        <v>26.76356204836184</v>
+        <v>29.70162732091943</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>71.96672192146046</v>
+        <v>50.8885043553169</v>
       </c>
       <c r="J60" t="n">
-        <v>1.741424657534247</v>
+        <v>0.3447123287671233</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колодкино п., Новая ул.д.1-23; Колодкино п., Юбилейная ул.1-69; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), С.Лазо д.1-26; </t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>22.25146212561121</v>
+        <v>24.66497778062386</v>
       </c>
       <c r="E61" t="n">
-        <v>26.70175455073345</v>
+        <v>29.59797333674864</v>
       </c>
       <c r="F61" t="n">
-        <v>22.9134269844453</v>
+        <v>24.96347015663651</v>
       </c>
       <c r="G61" t="n">
-        <v>27.49611238133436</v>
+        <v>29.95616418796381</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>68.82752766433597</v>
+        <v>49.71482625740271</v>
       </c>
       <c r="J61" t="n">
-        <v>6.874493150684932</v>
+        <v>0.3319452054794521</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Октябрьская ул.1-18; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Садовая ул. д. 1-22; </t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2462,29 +2482,29 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>22.48673579494483</v>
+        <v>24.75135610076619</v>
       </c>
       <c r="E62" t="n">
-        <v>26.98408295393379</v>
+        <v>29.70162732091943</v>
       </c>
       <c r="F62" t="n">
-        <v>22.9134269844453</v>
+        <v>24.85752042519564</v>
       </c>
       <c r="G62" t="n">
-        <v>27.49611238133436</v>
+        <v>29.82902451023476</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>69.68083579856744</v>
+        <v>49.99629941494281</v>
       </c>
       <c r="J62" t="n">
-        <v>0.7596438356164384</v>
+        <v>0.2617260273972603</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.3; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Федеративная ул. Д 1-27; </t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2494,61 +2514,61 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>22.9134269844453</v>
+        <v>24.96347015663651</v>
       </c>
       <c r="E63" t="n">
-        <v>27.49611238133436</v>
+        <v>29.95616418796381</v>
       </c>
       <c r="F63" t="n">
-        <v>22.9134269844453</v>
+        <v>24.73405149824022</v>
       </c>
       <c r="G63" t="n">
-        <v>27.49611238133436</v>
+        <v>29.68086179788826</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>45.8268539688906</v>
+        <v>49.81874139282023</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2234246575342466</v>
+        <v>0.2489589041095891</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.1; Дзержинск г., Восточный промрайон п, д.; Дзержинск г., Восточное ш.148а; Городской округ Дзержинск р-н, Горбатовка пгт., Советская ул., д.1-130; Городской округ Дзержинск р-н, Колодкино п., Огородная ул.д.1-69; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Чапаева ул.д.1-6; </t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>22.9134269844453</v>
+        <v>24.85752042519564</v>
       </c>
       <c r="E64" t="n">
-        <v>27.49611238133436</v>
+        <v>29.82902451023476</v>
       </c>
       <c r="F64" t="n">
-        <v>23.05996109307073</v>
+        <v>24.81876813162061</v>
       </c>
       <c r="G64" t="n">
-        <v>27.67195331168488</v>
+        <v>29.78252175794473</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>98.99793706671133</v>
+        <v>50.02947914598205</v>
       </c>
       <c r="J64" t="n">
-        <v>5.691260273972603</v>
+        <v>0.2808767123287672</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Весенняя ул.84; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Широкий пер.д.1-5; </t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2558,61 +2578,61 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>22.97765642866107</v>
+        <v>24.73405149824022</v>
       </c>
       <c r="E65" t="n">
-        <v>27.57318771439328</v>
+        <v>29.68086179788826</v>
       </c>
       <c r="F65" t="n">
-        <v>23.0963322721872</v>
+        <v>25.1772848885685</v>
       </c>
       <c r="G65" t="n">
-        <v>27.71559872662464</v>
+        <v>30.21274186628219</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>70.01027519493478</v>
+        <v>49.99860521301512</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6447397260273974</v>
+        <v>0.07660273972602741</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Пролетарская ул. Д. 1-112; Городской округ Дзержинск р-н, Горбатовка пгт., Кооперативная ул., д. 1-33; </t>
+          <t xml:space="preserve">г.Дзержинск(п.Игумново), Школьная ул.д.1-37; </t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>23.05996109307073</v>
+        <v>24.81876813162061</v>
       </c>
       <c r="E66" t="n">
-        <v>27.67195331168488</v>
+        <v>29.78252175794473</v>
       </c>
       <c r="F66" t="n">
-        <v>23.19299775294736</v>
+        <v>24.10406735416904</v>
       </c>
       <c r="G66" t="n">
-        <v>27.83159730353684</v>
+        <v>28.92488082500285</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>48.38339410109041</v>
+        <v>49.48427969302844</v>
       </c>
       <c r="J66" t="n">
-        <v>2.549534246575343</v>
+        <v>0.08936986301369863</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабино п., 8 Марта ул.д.1-84; </t>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Ляхановка ул.д.1-55; </t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2622,29 +2642,29 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>23.14764063395125</v>
+        <v>25.1772848885685</v>
       </c>
       <c r="E67" t="n">
-        <v>27.7771687607415</v>
+        <v>30.21274186628219</v>
       </c>
       <c r="F67" t="n">
-        <v>23.24330529777012</v>
+        <v>23.19299775294736</v>
       </c>
       <c r="G67" t="n">
-        <v>27.89196635732414</v>
+        <v>27.83159730353684</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>70.23184662032335</v>
+        <v>49.44350017591531</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5936712328767124</v>
+        <v>0.4787671232876713</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Железнодорожная ул д.1-34; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабино п., 8 Марта ул.д.1-84; </t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2654,29 +2674,29 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>23.19299775294736</v>
+        <v>24.10406735416904</v>
       </c>
       <c r="E68" t="n">
-        <v>27.83159730353684</v>
+        <v>28.92488082500285</v>
       </c>
       <c r="F68" t="n">
-        <v>23.24411349808949</v>
+        <v>19.02010347200852</v>
       </c>
       <c r="G68" t="n">
-        <v>27.89293619770738</v>
+        <v>22.82412416641023</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>70.03311968408646</v>
+        <v>48.01051693094236</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8426301369863014</v>
+        <v>0.766027397260274</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Старое Ипяково ул., д.1-56; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабино п., Новосельская ул., д.1-35; </t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2686,29 +2706,29 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>23.24330529777012</v>
+        <v>23.19299775294736</v>
       </c>
       <c r="E69" t="n">
-        <v>27.89196635732414</v>
+        <v>27.83159730353684</v>
       </c>
       <c r="F69" t="n">
-        <v>23.30655484488864</v>
+        <v>19.02010347200852</v>
       </c>
       <c r="G69" t="n">
-        <v>27.96786581386637</v>
+        <v>22.82412416641023</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>55.48740343443491</v>
+        <v>55.40541143075519</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6447397260273974</v>
+        <v>0.8426301369863014</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Островского ул.75А; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Бабушкина ул.д. 1-96а; </t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2718,61 +2738,61 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>23.24411349808949</v>
+        <v>19.02010347200852</v>
       </c>
       <c r="E70" t="n">
-        <v>27.89293619770738</v>
+        <v>22.82412416641023</v>
       </c>
       <c r="F70" t="n">
-        <v>23.34883814166696</v>
+        <v>18.3123652573828</v>
       </c>
       <c r="G70" t="n">
-        <v>28.01860577000035</v>
+        <v>21.97483830885936</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>53.09239753868349</v>
+        <v>37.33246872939132</v>
       </c>
       <c r="J70" t="n">
-        <v>1.053287671232877</v>
+        <v>0.3447123287671233</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Пролетарская ул.47А; Городской округ Дзержинск р-н, Горбатовка пгт., Восточная ул.13; Городской округ Дзержинск р-н, Горбатовка пгт., Школьная ул., д.1-57; Городской округ Дзержинск р-н, Горбатовка пгт., Новый пер., д.1-13; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Железнодорожная д.1-92; </t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>23.30655484488864</v>
+        <v>19.02010347200852</v>
       </c>
       <c r="E71" t="n">
-        <v>27.96786581386637</v>
+        <v>22.82412416641023</v>
       </c>
       <c r="F71" t="n">
-        <v>23.52846793376787</v>
+        <v>19.70537166163238</v>
       </c>
       <c r="G71" t="n">
-        <v>28.23416152052145</v>
+        <v>23.64644599395886</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>50.46160566679696</v>
+        <v>39.78979546757401</v>
       </c>
       <c r="J71" t="n">
-        <v>5.140493150684932</v>
+        <v>1.551205479452055</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Подсобное хозяйство ул., д.1-4; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Лесная  ул., д.1-20; </t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2782,29 +2802,29 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>23.48200497903117</v>
+        <v>18.3123652573828</v>
       </c>
       <c r="E72" t="n">
-        <v>28.17840597483741</v>
+        <v>21.97483830885936</v>
       </c>
       <c r="F72" t="n">
-        <v>23.56869515297554</v>
+        <v>17.90379647186445</v>
       </c>
       <c r="G72" t="n">
-        <v>28.28243418357065</v>
+        <v>21.48455576623734</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>67.03231072733175</v>
+        <v>37.8722663805567</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1021369863013699</v>
+        <v>0.9703013698630137</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Cтанционная ул.15; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Фрунзе ул.д.1-76; </t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2814,61 +2834,61 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>23.52846793376787</v>
+        <v>19.70537166163238</v>
       </c>
       <c r="E73" t="n">
-        <v>28.23416152052145</v>
+        <v>23.64644599395886</v>
       </c>
       <c r="F73" t="n">
-        <v>23.56869515297554</v>
+        <v>18.0767823425963</v>
       </c>
       <c r="G73" t="n">
-        <v>28.28243418357065</v>
+        <v>21.69213881111556</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>69.69115944979396</v>
+        <v>40.13753447297218</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0383013698630137</v>
+        <v>0.1404383561643836</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, ул.Станционная д.8; Городской округ Дзержинск р-н, Горбатовка пгт., Полевая ул., д.1-48а; Городской округ Дзержинск р-н, Горбатовка пгт., Первомайская ул.  д.1-69; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Бабушкино п., Чайковского улд.1-27; </t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>23.56869515297554</v>
+        <v>17.90379647186445</v>
       </c>
       <c r="E74" t="n">
-        <v>28.28243418357065</v>
+        <v>21.48455576623734</v>
       </c>
       <c r="F74" t="n">
-        <v>23.65633189129518</v>
+        <v>26.07445726861392</v>
       </c>
       <c r="G74" t="n">
-        <v>28.38759826955422</v>
+        <v>31.2893487223367</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>77.9955237985332</v>
+        <v>44.74241595115497</v>
       </c>
       <c r="J74" t="n">
-        <v>2.640465753424658</v>
+        <v>1.410767123287671</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Луговая ул., д.1-64; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., 1 Мая ул., д. 1-74; </t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2878,29 +2898,29 @@
         <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>23.62579669693173</v>
+        <v>18.0767823425963</v>
       </c>
       <c r="E75" t="n">
-        <v>28.35095603631807</v>
+        <v>21.69213881111556</v>
       </c>
       <c r="F75" t="n">
-        <v>23.66036506753471</v>
+        <v>25.00039029289685</v>
       </c>
       <c r="G75" t="n">
-        <v>28.39243808104165</v>
+        <v>30.00046835147622</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>47.99108709371342</v>
+        <v>64.6466676056457</v>
       </c>
       <c r="J75" t="n">
-        <v>0.8553972602739727</v>
+        <v>0.4085479452054795</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Восточный Промрайон ОАО"Синтез" тер., д.; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Дербасовой ул., д. 1-65; </t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2910,61 +2930,61 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>23.65633189129518</v>
+        <v>26.07445726861392</v>
       </c>
       <c r="E76" t="n">
-        <v>28.38759826955422</v>
+        <v>31.2893487223367</v>
       </c>
       <c r="F76" t="n">
-        <v>23.74742676589533</v>
+        <v>24.91484467716249</v>
       </c>
       <c r="G76" t="n">
-        <v>28.49691211907439</v>
+        <v>29.89781361259498</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>62.37345384863157</v>
+        <v>52.75211000280513</v>
       </c>
       <c r="J76" t="n">
-        <v>0.6128219178082193</v>
+        <v>0.6894246575342466</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Дачный пер.д.1-14; Городской округ Дзержинск р-н, Горбатовка пгт., Школьный пер., д. 1-25; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Дубинина ул.1-15; </t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>23.66036506753471</v>
+        <v>25.00039029289685</v>
       </c>
       <c r="E77" t="n">
-        <v>28.39243808104165</v>
+        <v>30.00046835147622</v>
       </c>
       <c r="F77" t="n">
-        <v>23.81461167263796</v>
+        <v>24.65601975224103</v>
       </c>
       <c r="G77" t="n">
-        <v>28.57753400716555</v>
+        <v>29.58722370268923</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>82.42987427919351</v>
+        <v>50.25960551071516</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2668219178082192</v>
+        <v>0.4596164383561644</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Достоевского  д. 1-122; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Кооперативная ул., д.1-102; </t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2974,29 +2994,29 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>23.78747424175611</v>
+        <v>24.91484467716249</v>
       </c>
       <c r="E78" t="n">
-        <v>28.54496909010733</v>
+        <v>29.89781361259498</v>
       </c>
       <c r="F78" t="n">
-        <v>23.84318944750622</v>
+        <v>25.6536879935561</v>
       </c>
       <c r="G78" t="n">
-        <v>28.61182733700746</v>
+        <v>30.78442559226733</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>48.43919491657903</v>
+        <v>50.82735759564005</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4149315068493151</v>
+        <v>0.1468219178082192</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, ул.Вокзальная д.1; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Лесной пер., д.1-28; </t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3006,61 +3026,61 @@
         <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>23.81461167263796</v>
+        <v>24.65601975224103</v>
       </c>
       <c r="E79" t="n">
-        <v>28.57753400716555</v>
+        <v>29.58722370268923</v>
       </c>
       <c r="F79" t="n">
-        <v>23.84318944750622</v>
+        <v>24.01056179711742</v>
       </c>
       <c r="G79" t="n">
-        <v>28.61182733700746</v>
+        <v>28.8126741565409</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>78.28008309079313</v>
+        <v>49.66424979067352</v>
       </c>
       <c r="J79" t="n">
-        <v>1.889534246575343</v>
+        <v>0.6958082191780822</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Железнодорожная ул.10; г.Дзержинск(п.Игумново), 4 ЛИНИЯ д.1-5; г.Дзержинск(п.Игумново), 2 линияд.  1-6; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Луговая ул., д.1-46; </t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>23.84318944750622</v>
+        <v>25.6536879935561</v>
       </c>
       <c r="E80" t="n">
-        <v>28.61182733700746</v>
+        <v>30.78442559226733</v>
       </c>
       <c r="F80" t="n">
-        <v>23.87499049853973</v>
+        <v>24.80206111449804</v>
       </c>
       <c r="G80" t="n">
-        <v>28.64998859824767</v>
+        <v>29.76247333739765</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>71.0610426642472</v>
+        <v>52.1445318374635</v>
       </c>
       <c r="J80" t="n">
-        <v>4.470219178082192</v>
+        <v>0.1021369863013699</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Новая Стройка д. 1-36; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Набережная д.1-17; </t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3070,29 +3090,29 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>23.86665009077923</v>
+        <v>24.01056179711742</v>
       </c>
       <c r="E81" t="n">
-        <v>28.63998010893508</v>
+        <v>28.8126741565409</v>
       </c>
       <c r="F81" t="n">
-        <v>23.89534102415402</v>
+        <v>23.87499049853973</v>
       </c>
       <c r="G81" t="n">
-        <v>28.67440922898482</v>
+        <v>28.64998859824767</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
-        <v>60.57113113600222</v>
+        <v>48.72270814600843</v>
       </c>
       <c r="J81" t="n">
-        <v>0.05745205479452056</v>
+        <v>0.6255890410958904</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Толстого ул.д.1-55; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Новая Стройка д. 1-36; </t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3102,29 +3122,29 @@
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>23.87499049853973</v>
+        <v>24.80206111449804</v>
       </c>
       <c r="E82" t="n">
-        <v>28.64998859824767</v>
+        <v>29.76247333739765</v>
       </c>
       <c r="F82" t="n">
-        <v>23.94982313531264</v>
+        <v>25.08666710147659</v>
       </c>
       <c r="G82" t="n">
-        <v>28.73978776237517</v>
+        <v>30.10400052177192</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="n">
-        <v>60.66264458829613</v>
+        <v>50.95147605355659</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6064383561643836</v>
+        <v>0.3064109589041096</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Александра Матросова ул.1/а; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Новая ул.д1-8; </t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3134,61 +3154,61 @@
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>23.89534102415402</v>
+        <v>23.87499049853973</v>
       </c>
       <c r="E83" t="n">
-        <v>28.67440922898482</v>
+        <v>28.64998859824767</v>
       </c>
       <c r="F83" t="n">
-        <v>23.94982313531264</v>
+        <v>25.53559201174459</v>
       </c>
       <c r="G83" t="n">
-        <v>28.73978776237517</v>
+        <v>30.64271041409351</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>48.69104232068838</v>
+        <v>50.75793633484484</v>
       </c>
       <c r="J83" t="n">
-        <v>1.110739726027397</v>
+        <v>0.6064383561643836</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., ул. Чехова 1-47; г.Дзержинск(п.Игумново), 1 Линия д.1-4; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Полевая ул.д. 1-40; </t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>23.94982313531264</v>
+        <v>25.08666710147659</v>
       </c>
       <c r="E84" t="n">
-        <v>28.73978776237517</v>
+        <v>30.10400052177192</v>
       </c>
       <c r="F84" t="n">
-        <v>24.01056179711742</v>
+        <v>25.13469645156685</v>
       </c>
       <c r="G84" t="n">
-        <v>28.8126741565409</v>
+        <v>30.16163574188022</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="n">
-        <v>48.8720986568935</v>
+        <v>51.53158316178257</v>
       </c>
       <c r="J84" t="n">
-        <v>0.6243013698630138</v>
+        <v>0.1149041095890411</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Луговая ул., д.1-46; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Советская ул., д. 1-51а; </t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3198,29 +3218,29 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>23.96117658739574</v>
+        <v>25.53559201174459</v>
       </c>
       <c r="E85" t="n">
-        <v>28.75341190487489</v>
+        <v>30.64271041409351</v>
       </c>
       <c r="F85" t="n">
-        <v>24.10406735416904</v>
+        <v>23.24411349808949</v>
       </c>
       <c r="G85" t="n">
-        <v>28.92488082500285</v>
+        <v>27.89293619770738</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="n">
-        <v>60.74331847201958</v>
+        <v>50.13795446866347</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0383013698630137</v>
+        <v>0.2234246575342466</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Ляхановка ул.д.1-55; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Старое Ипяково ул., д.1-56; </t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3230,29 +3250,29 @@
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>24.01056179711742</v>
+        <v>25.13469645156685</v>
       </c>
       <c r="E86" t="n">
-        <v>28.8126741565409</v>
+        <v>30.16163574188022</v>
       </c>
       <c r="F86" t="n">
-        <v>24.12607651689736</v>
+        <v>25.5117519178358</v>
       </c>
       <c r="G86" t="n">
-        <v>28.95129182027684</v>
+        <v>30.61410230140295</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>60.9576036112429</v>
+        <v>52.53703132288002</v>
       </c>
       <c r="J86" t="n">
-        <v>0.6255890410958904</v>
+        <v>0.5745205479452056</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Городская ул.д.1-43; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Чапаева ул., д.1-54; </t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3262,29 +3282,29 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>24.10406735416904</v>
+        <v>23.24411349808949</v>
       </c>
       <c r="E87" t="n">
-        <v>28.92488082500285</v>
+        <v>27.89293619770738</v>
       </c>
       <c r="F87" t="n">
-        <v>24.1819309717247</v>
+        <v>23.81461167263796</v>
       </c>
       <c r="G87" t="n">
-        <v>29.01831716606964</v>
+        <v>28.57753400716555</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="n">
-        <v>49.57629857543114</v>
+        <v>49.32636359047375</v>
       </c>
       <c r="J87" t="n">
-        <v>0.766027397260274</v>
+        <v>1.053287671232877</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., 13 линия ул. (Новое Доскино п)13; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Достоевского  д. 1-122; </t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3294,125 +3314,125 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>24.12607651689736</v>
+        <v>25.5117519178358</v>
       </c>
       <c r="E88" t="n">
-        <v>28.95129182027684</v>
+        <v>30.61410230140295</v>
       </c>
       <c r="F88" t="n">
-        <v>24.21863682596459</v>
+        <v>23.24330529777012</v>
       </c>
       <c r="G88" t="n">
-        <v>29.06236419115751</v>
+        <v>27.89196635732414</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>69.28330159463876</v>
+        <v>58.03019836202859</v>
       </c>
       <c r="J88" t="n">
-        <v>1.059671232876712</v>
+        <v>0.5745205479452056</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Матросова, д.1-45; Заслонова ул.16; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Железнодорожная ул д.1-34; </t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>24.1819309717247</v>
+        <v>23.81461167263796</v>
       </c>
       <c r="E89" t="n">
-        <v>29.01831716606964</v>
+        <v>28.57753400716555</v>
       </c>
       <c r="F89" t="n">
-        <v>24.28495831356305</v>
+        <v>22.09202738531427</v>
       </c>
       <c r="G89" t="n">
-        <v>29.14194997627566</v>
+        <v>26.51043286237712</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>90.96372651854394</v>
+        <v>47.08820524569164</v>
       </c>
       <c r="J89" t="n">
-        <v>0.6306849315068493</v>
+        <v>1.889534246575343</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заслонова ул.4; Городской округ Дзержинск р-н, Петряевка п., Квартальная ул.д.1-26; Заслонова ул.8; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Коммунистическая ул., д.1-36; </t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>24.27591416392157</v>
+        <v>23.24330529777012</v>
       </c>
       <c r="E90" t="n">
-        <v>29.13109699670588</v>
+        <v>27.89196635732414</v>
       </c>
       <c r="F90" t="n">
-        <v>24.45724047767734</v>
+        <v>23.14764063395125</v>
       </c>
       <c r="G90" t="n">
-        <v>29.34868857321281</v>
+        <v>27.7771687607415</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>90.1337449097515</v>
+        <v>52.9969026533264</v>
       </c>
       <c r="J90" t="n">
-        <v>8.038328767123287</v>
+        <v>0.6447397260273974</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 линия ул. (Новое Доскино п)2-54; 15 линия ул. (Новое Доскино п)1-54; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Кооперативная ул., д. 1-33; </t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>24.39024136539053</v>
+        <v>22.09202738531427</v>
       </c>
       <c r="E91" t="n">
-        <v>29.26828963846864</v>
+        <v>26.51043286237712</v>
       </c>
       <c r="F91" t="n">
-        <v>24.45724047767734</v>
+        <v>21.84586061568167</v>
       </c>
       <c r="G91" t="n">
-        <v>29.34868857321281</v>
+        <v>26.21503273881801</v>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
-        <v>51.9164018890218</v>
+        <v>50.1123822899924</v>
       </c>
       <c r="J91" t="n">
-        <v>1.713315068493151</v>
+        <v>0.7915616438356166</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">14 линия ул. (Новое Доскино п)1-56; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Короленко ул., д. 1-40; </t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3422,29 +3442,29 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>24.45724047767734</v>
+        <v>23.14764063395125</v>
       </c>
       <c r="E92" t="n">
-        <v>29.34868857321281</v>
+        <v>27.7771687607415</v>
       </c>
       <c r="F92" t="n">
-        <v>24.45737539466604</v>
+        <v>23.65633189129518</v>
       </c>
       <c r="G92" t="n">
-        <v>29.34885047359924</v>
+        <v>28.38759826955422</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>48.91461587234338</v>
+        <v>53.0680978134</v>
       </c>
       <c r="J92" t="n">
-        <v>1.383890410958904</v>
+        <v>0.5936712328767124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Героя Советского Союза Бахтина ул.2; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Луговая ул., д.1-64; </t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3454,93 +3474,93 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>24.45724047767734</v>
+        <v>21.84586061568167</v>
       </c>
       <c r="E93" t="n">
-        <v>29.34868857321281</v>
+        <v>26.21503273881801</v>
       </c>
       <c r="F93" t="n">
-        <v>24.45819881444747</v>
+        <v>23.48200497903117</v>
       </c>
       <c r="G93" t="n">
-        <v>29.34983857733696</v>
+        <v>28.17840597483741</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>52.05149336735424</v>
+        <v>51.76488437142064</v>
       </c>
       <c r="J93" t="n">
-        <v>1.423205479452055</v>
+        <v>0.7341095890410959</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Встречная ул.д.1-39; Городской округ Дзержинск р-н, Петряевка п., Встречная ул.38А; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Новый пер., д.1-13; </t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>24.45737539466604</v>
+        <v>23.65633189129518</v>
       </c>
       <c r="E94" t="n">
-        <v>29.34885047359924</v>
+        <v>28.38759826955422</v>
       </c>
       <c r="F94" t="n">
-        <v>24.48278572468231</v>
+        <v>22.9134269844453</v>
       </c>
       <c r="G94" t="n">
-        <v>29.37934286961877</v>
+        <v>27.49611238133436</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>68.53000619526956</v>
+        <v>47.22787607539653</v>
       </c>
       <c r="J94" t="n">
-        <v>1.444712328767123</v>
+        <v>0.6128219178082193</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">12 линия ул. (Новое Доскино п)1-53; 11 линия ул. (Новое Доскино п)1-59; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Октябрьская ул.1-18; </t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>24.45819881444747</v>
+        <v>23.48200497903117</v>
       </c>
       <c r="E95" t="n">
-        <v>29.34983857733696</v>
+        <v>28.17840597483741</v>
       </c>
       <c r="F95" t="n">
-        <v>24.48844238077036</v>
+        <v>21.82278325954416</v>
       </c>
       <c r="G95" t="n">
-        <v>29.38613085692443</v>
+        <v>26.18733991145299</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>70.51820649750235</v>
+        <v>45.87336623316121</v>
       </c>
       <c r="J95" t="n">
-        <v>9.399123287671234</v>
+        <v>0.1021369863013699</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Учительский пер д.1-4; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Осипенко ул., д.1-25; </t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3550,29 +3570,29 @@
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>24.48278572468231</v>
+        <v>22.9134269844453</v>
       </c>
       <c r="E96" t="n">
-        <v>29.37934286961877</v>
+        <v>27.49611238133436</v>
       </c>
       <c r="F96" t="n">
-        <v>24.5007622619585</v>
+        <v>22.25146212561121</v>
       </c>
       <c r="G96" t="n">
-        <v>29.40091471435019</v>
+        <v>26.70175455073345</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>70.92591377461946</v>
+        <v>51.17172339256661</v>
       </c>
       <c r="J96" t="n">
-        <v>1.187315068493151</v>
+        <v>0.2234246575342466</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заслонова ул.1; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Островского ул., д.1-92; </t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3582,93 +3602,93 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>24.48844238077036</v>
+        <v>21.82278325954416</v>
       </c>
       <c r="E97" t="n">
-        <v>29.38613085692443</v>
+        <v>26.18733991145299</v>
       </c>
       <c r="F97" t="n">
-        <v>24.5007622619585</v>
+        <v>23.62579669693173</v>
       </c>
       <c r="G97" t="n">
-        <v>29.40091471435019</v>
+        <v>28.35095603631807</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>70.60899004861245</v>
+        <v>50.45765161136219</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01915068493150685</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Заслонова ул.2; Городской округ Дзержинск р-н, Петряевка п., ул.Южный массив 1-61; Городской округ Дзержинск р-н, Петряевка п., Восточная ул.24; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Первомайская ул.  д.1-69; </t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>24.5007622619585</v>
+        <v>22.25146212561121</v>
       </c>
       <c r="E98" t="n">
-        <v>29.40091471435019</v>
+        <v>26.70175455073345</v>
       </c>
       <c r="F98" t="n">
-        <v>24.59637507472211</v>
+        <v>23.57634105467831</v>
       </c>
       <c r="G98" t="n">
-        <v>29.51565008966654</v>
+        <v>28.29160926561397</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>69.43562104386507</v>
+        <v>48.05638946641565</v>
       </c>
       <c r="J98" t="n">
-        <v>3.434054794520548</v>
+        <v>1.621424657534247</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., 19 линия ул. (Новое Доскино п), д.14 А; Нижний Новгород г., Береговая ул.15; 9 линия ул. (Новое Доскино п)1-30; Городской округ Дзержинск р-н, Гавриловка п., Кооперативная ул., д.1-102; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Полевая ул., д.1-48а; </t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>24.58172477055132</v>
+        <v>23.62579669693173</v>
       </c>
       <c r="E99" t="n">
-        <v>29.49806972466158</v>
+        <v>28.35095603631807</v>
       </c>
       <c r="F99" t="n">
-        <v>24.66006637991444</v>
+        <v>23.0963322721872</v>
       </c>
       <c r="G99" t="n">
-        <v>29.59207965589732</v>
+        <v>27.71559872662464</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>89.00377370806979</v>
+        <v>47.19449327250932</v>
       </c>
       <c r="J99" t="n">
-        <v>3.137753424657534</v>
+        <v>0.8553972602739727</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Старый рабочий поселок ул 73; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Пролетарская ул. Д. 1-112; </t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3678,61 +3698,61 @@
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>24.65601975224103</v>
+        <v>23.57634105467831</v>
       </c>
       <c r="E100" t="n">
-        <v>29.58722370268923</v>
+        <v>28.29160926561397</v>
       </c>
       <c r="F100" t="n">
-        <v>24.66497778062386</v>
+        <v>21.39976750579701</v>
       </c>
       <c r="G100" t="n">
-        <v>29.59797333674864</v>
+        <v>25.67972100695641</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>78.66980739784485</v>
+        <v>45.88867456351124</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6958082191780822</v>
+        <v>0.4404657534246576</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), П.Морозова д.1-28; 17 линия ул. (Новое Доскино п)1-55; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Пушкина ул., д. 1-47; </t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>24.66006637991444</v>
+        <v>23.0963322721872</v>
       </c>
       <c r="E101" t="n">
-        <v>29.59207965589732</v>
+        <v>27.71559872662464</v>
       </c>
       <c r="F101" t="n">
-        <v>24.69957787402955</v>
+        <v>21.98629820992834</v>
       </c>
       <c r="G101" t="n">
-        <v>29.63949344883547</v>
+        <v>26.38355785191401</v>
       </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>96.28276770181699</v>
+        <v>50.84935429862041</v>
       </c>
       <c r="J101" t="n">
-        <v>1.431945205479452</v>
+        <v>1.889534246575343</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">8 линия ул. (Новое Доскино п)1-30; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Серова ул., д. 1-17; </t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3742,29 +3762,29 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>24.6694975636403</v>
+        <v>21.39976750579701</v>
       </c>
       <c r="E102" t="n">
-        <v>29.60339707636835</v>
+        <v>25.67972100695641</v>
       </c>
       <c r="F102" t="n">
-        <v>24.72162986313124</v>
+        <v>22.92370874669189</v>
       </c>
       <c r="G102" t="n">
-        <v>29.66595583575749</v>
+        <v>27.50845049603027</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>50.48605091275685</v>
+        <v>45.29550287938363</v>
       </c>
       <c r="J102" t="n">
-        <v>1.446794520547945</v>
+        <v>0.7915616438356166</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Героя Советского Союза Бахтина ул.5; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Советская ул., д.1-130; </t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3774,61 +3794,61 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>24.69957787402955</v>
+        <v>21.98629820992834</v>
       </c>
       <c r="E103" t="n">
-        <v>29.63949344883547</v>
+        <v>26.38355785191401</v>
       </c>
       <c r="F103" t="n">
-        <v>24.72162986313124</v>
+        <v>22.01173405500015</v>
       </c>
       <c r="G103" t="n">
-        <v>29.66595583575749</v>
+        <v>26.41408086600018</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>53.06385367720765</v>
+        <v>49.84286549127967</v>
       </c>
       <c r="J103" t="n">
-        <v>0.7076712328767123</v>
+        <v>0.4787671232876713</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Героя Советского Союза Бахтина ул.10; г.Дзержинск(п.Игумново), Чапаева ул.д.1-6; 19 линия ул. (Новое Доскино п)1-24; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Чапаева ул.1-15; </t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>24.72162986313124</v>
+        <v>22.92370874669189</v>
       </c>
       <c r="E104" t="n">
-        <v>29.66595583575749</v>
+        <v>27.50845049603027</v>
       </c>
       <c r="F104" t="n">
-        <v>24.7485408439475</v>
+        <v>23.48200497903117</v>
       </c>
       <c r="G104" t="n">
-        <v>29.698249012737</v>
+        <v>28.17840597483741</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>91.17667797537432</v>
+        <v>52.61178056593576</v>
       </c>
       <c r="J104" t="n">
-        <v>4.476602739726028</v>
+        <v>2.151260273972603</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Гризодубовой ул., д.1-121; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Школьная ул., д.1-57; </t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3838,29 +3858,29 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>24.74043171565186</v>
+        <v>22.01173405500015</v>
       </c>
       <c r="E105" t="n">
-        <v>29.68851805878223</v>
+        <v>26.41408086600018</v>
       </c>
       <c r="F105" t="n">
-        <v>24.75135610076619</v>
+        <v>23.78747424175611</v>
       </c>
       <c r="G105" t="n">
-        <v>29.70162732091943</v>
+        <v>28.54496909010733</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>71.95189805854339</v>
+        <v>52.22777360051853</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6683561643835616</v>
+        <v>0.1978904109589041</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., Садовая (п.Игумново) ул.1; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., Школьный пер., д. 1-25; </t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3870,61 +3890,61 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>24.7485408439475</v>
+        <v>23.48200497903117</v>
       </c>
       <c r="E106" t="n">
-        <v>29.698249012737</v>
+        <v>28.17840597483741</v>
       </c>
       <c r="F106" t="n">
-        <v>24.75135610076619</v>
+        <v>19.41100016830054</v>
       </c>
       <c r="G106" t="n">
-        <v>29.70162732091943</v>
+        <v>23.29320020196064</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>52.05995026789837</v>
+        <v>43.54069148003992</v>
       </c>
       <c r="J106" t="n">
-        <v>1.487369863013699</v>
+        <v>0.7404931506849316</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), С.Лазо д.1-26; Городской округ Дзержинск р-н, Гавриловка п., Набережная д.1-17; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Герцена ул.1-96; </t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>24.75135610076619</v>
+        <v>23.78747424175611</v>
       </c>
       <c r="E107" t="n">
-        <v>29.70162732091943</v>
+        <v>28.54496909010733</v>
       </c>
       <c r="F107" t="n">
-        <v>24.81876813162061</v>
+        <v>19.41739068789802</v>
       </c>
       <c r="G107" t="n">
-        <v>29.78252175794473</v>
+        <v>23.30086882547762</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="n">
-        <v>62.298846041372</v>
+        <v>65.3277799734342</v>
       </c>
       <c r="J107" t="n">
-        <v>0.3817260273972603</v>
+        <v>0.4149315068493151</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Широкий пер.д.1-5; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Горького ул, д 1-130; </t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3934,29 +3954,29 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>24.80206111449804</v>
+        <v>19.41100016830054</v>
       </c>
       <c r="E108" t="n">
-        <v>29.76247333739765</v>
+        <v>23.29320020196064</v>
       </c>
       <c r="F108" t="n">
-        <v>24.84543292333094</v>
+        <v>19.20509760504559</v>
       </c>
       <c r="G108" t="n">
-        <v>29.81451950799713</v>
+        <v>23.0461171260547</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="n">
-        <v>62.44362787766859</v>
+        <v>39.96729856479475</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3064109589041096</v>
+        <v>0.8936986301369864</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">6 линия ул. (Новое Доскино п)1-32; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Дачная ул.д.1-114; </t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3966,29 +3986,29 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>24.81876813162061</v>
+        <v>19.41739068789802</v>
       </c>
       <c r="E109" t="n">
-        <v>29.78252175794473</v>
+        <v>23.30086882547762</v>
       </c>
       <c r="F109" t="n">
-        <v>24.85017986237108</v>
+        <v>19.97416636099838</v>
       </c>
       <c r="G109" t="n">
-        <v>29.82021583484529</v>
+        <v>23.96899963319806</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>71.96372981209798</v>
+        <v>40.41514605449771</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08936986301369863</v>
+        <v>1.532054794520548</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Суворова ул.д.1-19; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Свободы ул.д.1-71; </t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3998,29 +4018,29 @@
         <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>24.84543292333094</v>
+        <v>19.20509760504559</v>
       </c>
       <c r="E110" t="n">
-        <v>29.81451950799713</v>
+        <v>23.0461171260547</v>
       </c>
       <c r="F110" t="n">
-        <v>24.85752042519564</v>
+        <v>19.13407818155258</v>
       </c>
       <c r="G110" t="n">
-        <v>29.82902451023476</v>
+        <v>22.9608938178631</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>72.36970381675459</v>
+        <v>39.19088708585526</v>
       </c>
       <c r="J110" t="n">
-        <v>9.006465753424658</v>
+        <v>0.9575342465753426</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Федеративная ул. Д 1-27; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Тургенева ул.д.1-118; </t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4030,29 +4050,29 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>24.85017986237108</v>
+        <v>19.97416636099838</v>
       </c>
       <c r="E111" t="n">
-        <v>29.82021583484529</v>
+        <v>23.96899963319806</v>
       </c>
       <c r="F111" t="n">
-        <v>24.8635790318148</v>
+        <v>19.67351520485878</v>
       </c>
       <c r="G111" t="n">
-        <v>29.83629483817776</v>
+        <v>23.60821824583054</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>50.32122528271525</v>
+        <v>40.57778110784577</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3638630136986302</v>
+        <v>0.7404931506849316</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">7 линия ул. (Новое Доскино п)1-29; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Дачный п., Ушакова ул.д. 1-71; </t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -4062,29 +4082,29 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>24.85752042519564</v>
+        <v>19.13407818155258</v>
       </c>
       <c r="E112" t="n">
-        <v>29.82902451023476</v>
+        <v>22.9608938178631</v>
       </c>
       <c r="F112" t="n">
-        <v>24.86748166997431</v>
+        <v>22.97765642866107</v>
       </c>
       <c r="G112" t="n">
-        <v>29.84097800396918</v>
+        <v>27.57318771439328</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>72.07668231533513</v>
+        <v>42.74067974655265</v>
       </c>
       <c r="J112" t="n">
-        <v>0.2808767123287672</v>
+        <v>0.9575342465753426</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Кольцова ул.1-29; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Колодкино п., Огородная ул.д.1-69; </t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -4094,29 +4114,29 @@
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>24.8635790318148</v>
+        <v>19.67351520485878</v>
       </c>
       <c r="E113" t="n">
-        <v>29.83629483817776</v>
+        <v>23.60821824583054</v>
       </c>
       <c r="F113" t="n">
-        <v>24.87735226525428</v>
+        <v>24.45819881444747</v>
       </c>
       <c r="G113" t="n">
-        <v>29.85282271830514</v>
+        <v>29.34983857733696</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>72.44312968138416</v>
+        <v>47.4602057362884</v>
       </c>
       <c r="J113" t="n">
-        <v>0.6211780821917808</v>
+        <v>0.6958082191780822</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Городская ул.д.1-31; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Встречная ул.д.1-39; </t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -4126,29 +4146,29 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>24.86748166997431</v>
+        <v>22.97765642866107</v>
       </c>
       <c r="E114" t="n">
-        <v>29.84097800396918</v>
+        <v>27.57318771439328</v>
       </c>
       <c r="F114" t="n">
-        <v>24.89477724757377</v>
+        <v>24.7485408439475</v>
       </c>
       <c r="G114" t="n">
-        <v>29.87373269708852</v>
+        <v>29.698249012737</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>51.78243141225467</v>
+        <v>52.12861967960875</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2106575342465754</v>
+        <v>0.6447397260273974</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., 19 линия ул. (Новое Доскино п)25; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Гризодубовой ул., д.1-121; </t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -4158,93 +4178,93 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>24.87735226525428</v>
+        <v>24.45819881444747</v>
       </c>
       <c r="E115" t="n">
-        <v>29.85282271830514</v>
+        <v>29.34983857733696</v>
       </c>
       <c r="F115" t="n">
-        <v>24.90222357653588</v>
+        <v>24.36798092572244</v>
       </c>
       <c r="G115" t="n">
-        <v>29.88266829184305</v>
+        <v>29.24157711086692</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>72.18228611777295</v>
+        <v>49.64401336294266</v>
       </c>
       <c r="J115" t="n">
-        <v>1.059671232876712</v>
+        <v>0.3447123287671233</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Володарский р-н, Решетиха пгт., Затылкова ул.2 А; р.п. Решетиха, ул.Затылкова д.2; Володарский р-н, Решетиха пгт., Кирова ул.1б; Володарский р-н, Решетиха пгт., Затылкова ул.2 А; р.п. Решетиха, ул.Кирова д.1В; 20 линия ул. (Новое Доскино п)1--36; Нижний Новгород г., Заслонова ул.20; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Квартальная ул.д.1-26; </t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>24.89477724757377</v>
+        <v>24.7485408439475</v>
       </c>
       <c r="E116" t="n">
-        <v>29.87373269708852</v>
+        <v>29.698249012737</v>
       </c>
       <c r="F116" t="n">
-        <v>24.91484467716249</v>
+        <v>24.86748166997431</v>
       </c>
       <c r="G116" t="n">
-        <v>29.89781361259498</v>
+        <v>29.84097800396918</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>119.2828962852903</v>
+        <v>50.29485137782541</v>
       </c>
       <c r="J116" t="n">
-        <v>8.814849315068493</v>
+        <v>1.487369863013699</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Дубинина ул.1-15; 5 линия ул. (Новое Доскино п)1-28; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Кольцова ул.1-29; </t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>24.91297052630476</v>
+        <v>24.36798092572244</v>
       </c>
       <c r="E117" t="n">
-        <v>29.89556463156572</v>
+        <v>29.24157711086692</v>
       </c>
       <c r="F117" t="n">
-        <v>24.95813703543805</v>
+        <v>24.21863682596459</v>
       </c>
       <c r="G117" t="n">
-        <v>29.94976444252566</v>
+        <v>29.06236419115751</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>67.64508602591883</v>
+        <v>49.38438744161743</v>
       </c>
       <c r="J117" t="n">
-        <v>0.2668219178082192</v>
+        <v>0.3383287671232877</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юрьевец п., Краснофлотская ул., д.1-54; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Матросова, д.1-45; </t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -4254,29 +4274,29 @@
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>24.95580530944444</v>
+        <v>24.86748166997431</v>
       </c>
       <c r="E118" t="n">
-        <v>29.94696637133333</v>
+        <v>29.84097800396918</v>
       </c>
       <c r="F118" t="n">
-        <v>24.96347015663651</v>
+        <v>23.52846793376787</v>
       </c>
       <c r="G118" t="n">
-        <v>29.95616418796381</v>
+        <v>28.23416152052145</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>72.80435549348944</v>
+        <v>49.31098502021574</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5110958904109589</v>
+        <v>0.2106575342465754</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Садовая ул. д. 1-22; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Подсобное хозяйство ул., д.1-4; </t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -4286,29 +4306,29 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>24.95813703543805</v>
+        <v>24.21863682596459</v>
       </c>
       <c r="E119" t="n">
-        <v>29.94976444252566</v>
+        <v>29.06236419115751</v>
       </c>
       <c r="F119" t="n">
-        <v>24.9900162027195</v>
+        <v>24.48844238077036</v>
       </c>
       <c r="G119" t="n">
-        <v>29.9880194432634</v>
+        <v>29.38613085692443</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>52.77549918687474</v>
+        <v>49.71806840060901</v>
       </c>
       <c r="J119" t="n">
-        <v>0.7532602739726028</v>
+        <v>0.5106849315068493</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">4 линия ул. (Новое Доскино п)1-22; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., Учительский пер д.1-4; </t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -4318,29 +4338,29 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>24.96347015663651</v>
+        <v>23.52846793376787</v>
       </c>
       <c r="E120" t="n">
-        <v>29.95616418796381</v>
+        <v>28.23416152052145</v>
       </c>
       <c r="F120" t="n">
-        <v>25.00039029289685</v>
+        <v>20.13774851922665</v>
       </c>
       <c r="G120" t="n">
-        <v>30.00046835147622</v>
+        <v>24.16529822307198</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>72.54792757204412</v>
+        <v>44.94701120167436</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2489589041095891</v>
+        <v>0.0383013698630137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Дербасовой ул., д. 1-65; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Белинского ул.д 1-77; </t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -4350,29 +4370,29 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>24.9900162027195</v>
+        <v>24.48844238077036</v>
       </c>
       <c r="E121" t="n">
-        <v>29.9880194432634</v>
+        <v>29.38613085692443</v>
       </c>
       <c r="F121" t="n">
-        <v>25.03269542519428</v>
+        <v>20.11546208875583</v>
       </c>
       <c r="G121" t="n">
-        <v>30.03923451023314</v>
+        <v>24.138554506507</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>61.14177477535016</v>
+        <v>62.02397281059388</v>
       </c>
       <c r="J121" t="n">
-        <v>8.503232876712328</v>
+        <v>0.01915068493150685</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">31 линия ул. (Новое Доскино п)1-26; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Гоголя ул.д.1-75; </t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -4382,29 +4402,29 @@
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>25.00039029289685</v>
+        <v>20.13774851922665</v>
       </c>
       <c r="E122" t="n">
-        <v>30.00046835147622</v>
+        <v>24.16529822307198</v>
       </c>
       <c r="F122" t="n">
-        <v>25.03284394695116</v>
+        <v>20.11002884808697</v>
       </c>
       <c r="G122" t="n">
-        <v>30.0394127363414</v>
+        <v>24.13203461770436</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>60.01509751388807</v>
+        <v>40.39558795964911</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4596164383561644</v>
+        <v>0.9703013698630137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">16 линия ул. (Новое Доскино п)1-56; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Железнодорожная ул.д.1-92; </t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -4414,29 +4434,29 @@
         <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>25.03269542519428</v>
+        <v>20.11546208875583</v>
       </c>
       <c r="E123" t="n">
-        <v>30.03923451023314</v>
+        <v>24.138554506507</v>
       </c>
       <c r="F123" t="n">
-        <v>25.03649420138005</v>
+        <v>19.98689808039876</v>
       </c>
       <c r="G123" t="n">
-        <v>30.04379304165606</v>
+        <v>23.98427769647851</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>50.36284754567363</v>
+        <v>40.26885330641184</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6526301369863013</v>
+        <v>1.263945205479452</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">29 линия ул. (Новое Доскино п)1-7; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Короленко ул.д.1-23; </t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4446,29 +4466,29 @@
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>25.03284394695116</v>
+        <v>20.11002884808697</v>
       </c>
       <c r="E124" t="n">
-        <v>30.0394127363414</v>
+        <v>24.13203461770436</v>
       </c>
       <c r="F124" t="n">
-        <v>25.05078979236582</v>
+        <v>20.13145589034954</v>
       </c>
       <c r="G124" t="n">
-        <v>30.06094775083898</v>
+        <v>24.15774706841945</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>50.69567630424233</v>
+        <v>40.88847087028942</v>
       </c>
       <c r="J124" t="n">
-        <v>1.572602739726027</v>
+        <v>1.059671232876712</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 линия ул. (Новое Доскино п)1-36; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Новая ул.д.1-56; </t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4478,29 +4498,29 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>25.03649420138005</v>
+        <v>19.98689808039876</v>
       </c>
       <c r="E125" t="n">
-        <v>30.04379304165606</v>
+        <v>23.98427769647851</v>
       </c>
       <c r="F125" t="n">
-        <v>25.06044468795574</v>
+        <v>20.8213437323517</v>
       </c>
       <c r="G125" t="n">
-        <v>30.0725336255469</v>
+        <v>24.98561247882204</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>50.84837596993988</v>
+        <v>41.08213995021823</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04717808219178082</v>
+        <v>0.2936438356164384</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 линия ул. (Новое Доскино п)1-22; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Новозапрудная ул.1-33; </t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4510,29 +4530,29 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>25.05078979236582</v>
+        <v>20.13145589034954</v>
       </c>
       <c r="E126" t="n">
-        <v>30.06094775083898</v>
+        <v>24.15774706841945</v>
       </c>
       <c r="F126" t="n">
-        <v>25.08666710147659</v>
+        <v>19.49975536221249</v>
       </c>
       <c r="G126" t="n">
-        <v>30.10400052177192</v>
+        <v>23.39970643465499</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>51.97453942247945</v>
+        <v>40.4294967212997</v>
       </c>
       <c r="J126" t="n">
-        <v>0.9278356164383561</v>
+        <v>0.8873150684931508</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Новая ул.д1-8; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Пушкина пл., д.1-31; </t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4542,29 +4562,29 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>25.06044468795574</v>
+        <v>20.8213437323517</v>
       </c>
       <c r="E127" t="n">
-        <v>30.0725336255469</v>
+        <v>24.98561247882204</v>
       </c>
       <c r="F127" t="n">
-        <v>25.09608227309099</v>
+        <v>20.00461476754752</v>
       </c>
       <c r="G127" t="n">
-        <v>30.11529872770919</v>
+        <v>24.00553772105702</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>61.4322954022991</v>
+        <v>42.2999929561673</v>
       </c>
       <c r="J127" t="n">
-        <v>0.5110958904109589</v>
+        <v>0.4085479452054795</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 линия ул. (Новое Доскино п)1-22; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Садовая ул.1-37; </t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4574,29 +4594,29 @@
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>25.08666710147659</v>
+        <v>19.49975536221249</v>
       </c>
       <c r="E128" t="n">
-        <v>30.10400052177192</v>
+        <v>23.39970643465499</v>
       </c>
       <c r="F128" t="n">
-        <v>25.10305088851248</v>
+        <v>17.60995446620073</v>
       </c>
       <c r="G128" t="n">
-        <v>30.12366106621498</v>
+        <v>21.13194535944088</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>60.32124492050558</v>
+        <v>38.00192370451958</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1149041095890411</v>
+        <v>0.4915342465753425</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">10 линия ул. (Новое Доскино п)1-50; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Пушкино п., Энергетическая ул.д.1-82; </t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4606,29 +4626,29 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>25.09608227309099</v>
+        <v>20.00461476754752</v>
       </c>
       <c r="E129" t="n">
-        <v>30.11529872770919</v>
+        <v>24.00553772105702</v>
       </c>
       <c r="F129" t="n">
-        <v>25.12054636431641</v>
+        <v>25.55062206693561</v>
       </c>
       <c r="G129" t="n">
-        <v>30.1446556371797</v>
+        <v>30.66074648032273</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>51.75834467576374</v>
+        <v>49.26152992354594</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4796438356164384</v>
+        <v>0.8043287671232877</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Квартал 1 ул. (Новое Доскино п)1-11А; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Юрьевец п., Полевая ул.д.1-56; </t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4638,29 +4658,29 @@
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>25.10305088851248</v>
+        <v>17.60995446620073</v>
       </c>
       <c r="E130" t="n">
-        <v>30.12366106621498</v>
+        <v>21.13194535944088</v>
       </c>
       <c r="F130" t="n">
-        <v>25.121140569556</v>
+        <v>23.74742676589533</v>
       </c>
       <c r="G130" t="n">
-        <v>30.1453686834672</v>
+        <v>28.49691211907439</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>51.79037158765024</v>
+        <v>59.26355664037035</v>
       </c>
       <c r="J130" t="n">
-        <v>1.15586301369863</v>
+        <v>1.844849315068493</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Дружбы ул. д.1-18 ; </t>
+          <t xml:space="preserve">Дзержинск г., Дачный пер.д.1-14; </t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4670,29 +4690,29 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>25.12054636431641</v>
+        <v>25.55062206693561</v>
       </c>
       <c r="E131" t="n">
-        <v>30.1446556371797</v>
+        <v>30.66074648032273</v>
       </c>
       <c r="F131" t="n">
-        <v>25.13469645156685</v>
+        <v>17.98900728505174</v>
       </c>
       <c r="G131" t="n">
-        <v>30.16163574188022</v>
+        <v>21.58680874206209</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>73.46806743228167</v>
+        <v>46.53269513968689</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1965753424657534</v>
+        <v>0.5426027397260275</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Гавриловка п., Советская ул., д. 1-51а; </t>
+          <t xml:space="preserve">Дзержинск г .п. Бабушкино , Усадебный пер., д.1-16; </t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4702,29 +4722,29 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>25.121140569556</v>
+        <v>23.74742676589533</v>
       </c>
       <c r="E132" t="n">
-        <v>30.1453686834672</v>
+        <v>28.49691211907439</v>
       </c>
       <c r="F132" t="n">
-        <v>25.1371607627609</v>
+        <v>22.02814560671727</v>
       </c>
       <c r="G132" t="n">
-        <v>30.16459291531308</v>
+        <v>26.43377472806072</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>63.91650208646026</v>
+        <v>58.49121540440309</v>
       </c>
       <c r="J132" t="n">
-        <v>0.6255890410958904</v>
+        <v>0.1468219178082192</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, ул.Затылкова д.3; </t>
+          <t xml:space="preserve">Колодкино п., Зеленый ров ул.д.1-19; </t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4734,61 +4754,61 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>25.13469645156685</v>
+        <v>17.98900728505174</v>
       </c>
       <c r="E133" t="n">
-        <v>30.16163574188022</v>
+        <v>21.58680874206209</v>
       </c>
       <c r="F133" t="n">
-        <v>25.15820743245421</v>
+        <v>22.30296837363487</v>
       </c>
       <c r="G133" t="n">
-        <v>30.18984891894505</v>
+        <v>26.76356204836184</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>80.5974848311733</v>
+        <v>51.28833753129904</v>
       </c>
       <c r="J133" t="n">
-        <v>0.5745205479452056</v>
+        <v>0.01915068493150685</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">1 линия ул. (Новое Доскино п)1-22; г.Дзержинск(п.Игумново), 40 лет Октября ул. д 1-21; </t>
+          <t xml:space="preserve">Колодкино п., Новая ул.д.1-23; </t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>25.1371607627609</v>
+        <v>22.02814560671727</v>
       </c>
       <c r="E134" t="n">
-        <v>30.16459291531308</v>
+        <v>26.43377472806072</v>
       </c>
       <c r="F134" t="n">
-        <v>25.172076922656</v>
+        <v>21.47755263931678</v>
       </c>
       <c r="G134" t="n">
-        <v>30.2064923071872</v>
+        <v>25.77306316718013</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>107.0483786210698</v>
+        <v>43.78052101295165</v>
       </c>
       <c r="J134" t="n">
-        <v>3.787506849315069</v>
+        <v>0.2744931506849315</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">18 линия ул. (Новое Доскино п)1-55; </t>
+          <t xml:space="preserve">Колодкино п., Осипенко ул.д.1-17; </t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4798,29 +4818,29 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>25.16133138223941</v>
+        <v>22.30296837363487</v>
       </c>
       <c r="E135" t="n">
-        <v>30.19359765868729</v>
+        <v>26.76356204836184</v>
       </c>
       <c r="F135" t="n">
-        <v>25.1772848885685</v>
+        <v>22.15862193324013</v>
       </c>
       <c r="G135" t="n">
-        <v>30.21274186628219</v>
+        <v>26.59034631988815</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>73.30260533885806</v>
+        <v>45.28700604119308</v>
       </c>
       <c r="J135" t="n">
-        <v>0.817095890410959</v>
+        <v>0.2744931506849315</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Школьная ул.д.1-37; </t>
+          <t xml:space="preserve">Колодкино п., Революции ул.1-69; </t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4830,29 +4850,29 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>25.172076922656</v>
+        <v>21.47755263931678</v>
       </c>
       <c r="E136" t="n">
-        <v>30.2064923071872</v>
+        <v>25.77306316718013</v>
       </c>
       <c r="F136" t="n">
-        <v>25.18850088596115</v>
+        <v>22.48673579494483</v>
       </c>
       <c r="G136" t="n">
-        <v>30.22620106315338</v>
+        <v>26.98408295393379</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>73.68107730236764</v>
+        <v>44.64535772818495</v>
       </c>
       <c r="J136" t="n">
-        <v>0.9907397260273972</v>
+        <v>0.07660273972602741</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">27 линия ул. (Новое Доскино п)1-13; </t>
+          <t xml:space="preserve">Колодкино п., Юбилейная ул.1-69; </t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4862,29 +4882,29 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>25.1772848885685</v>
+        <v>22.15862193324013</v>
       </c>
       <c r="E137" t="n">
-        <v>30.21274186628219</v>
+        <v>26.59034631988815</v>
       </c>
       <c r="F137" t="n">
-        <v>25.18952024479192</v>
+        <v>25.69377420119442</v>
       </c>
       <c r="G137" t="n">
-        <v>30.2274242937503</v>
+        <v>30.8325290414333</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>73.36317167104481</v>
+        <v>48.24968616203927</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4787671232876713</v>
+        <v>0.4596164383561644</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">21 линия ул. (Новое Доскино п)1-36; </t>
+          <t xml:space="preserve">Юрьевец п., Волжская ул.д.1-67; </t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4894,29 +4914,29 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>25.18850088596115</v>
+        <v>22.48673579494483</v>
       </c>
       <c r="E138" t="n">
-        <v>30.22620106315338</v>
+        <v>26.98408295393379</v>
       </c>
       <c r="F138" t="n">
-        <v>25.19736068800224</v>
+        <v>25.27235877634435</v>
       </c>
       <c r="G138" t="n">
-        <v>30.23683282560269</v>
+        <v>30.32683053161322</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>51.21888402000379</v>
+        <v>51.40063961472985</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3066575342465753</v>
+        <v>0.7596438356164384</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">24 линия ул. (Новое Доскино п)1-34; </t>
+          <t xml:space="preserve">Юрьевец п., Западная ул.д.1-42; </t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4926,29 +4946,29 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>25.18952024479192</v>
+        <v>25.69377420119442</v>
       </c>
       <c r="E139" t="n">
-        <v>30.2274242937503</v>
+        <v>30.8325290414333</v>
       </c>
       <c r="F139" t="n">
-        <v>25.20195776032777</v>
+        <v>24.95813703543805</v>
       </c>
       <c r="G139" t="n">
-        <v>30.24234931239332</v>
+        <v>29.94976444252566</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>51.2676960378201</v>
+        <v>51.2867348894687</v>
       </c>
       <c r="J139" t="n">
-        <v>1.037917808219178</v>
+        <v>0.7341095890410959</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юрьевец п., Песчанный пер.1-22; </t>
+          <t xml:space="preserve">Юрьевец п., Краснофлотская ул., д.1-54; </t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4958,29 +4978,29 @@
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>25.19736068800224</v>
+        <v>25.27235877634435</v>
       </c>
       <c r="E140" t="n">
-        <v>30.23683282560269</v>
+        <v>30.32683053161322</v>
       </c>
       <c r="F140" t="n">
-        <v>25.20420508469307</v>
+        <v>25.30966392791901</v>
       </c>
       <c r="G140" t="n">
-        <v>30.24504610163169</v>
+        <v>30.37159671350281</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>73.77202190355132</v>
+        <v>50.94628009510505</v>
       </c>
       <c r="J140" t="n">
-        <v>0.8492054794520547</v>
+        <v>0.3766301369863014</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">0 линия ул. (Новое Доскино п)2-19; </t>
+          <t xml:space="preserve">Юрьевец п., Мирный пер.1-13; </t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4990,29 +5010,29 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
+        <v>24.95813703543805</v>
+      </c>
+      <c r="E141" t="n">
+        <v>29.94976444252566</v>
+      </c>
+      <c r="F141" t="n">
         <v>25.20195776032777</v>
       </c>
-      <c r="E141" t="n">
+      <c r="G141" t="n">
         <v>30.24234931239332</v>
-      </c>
-      <c r="F141" t="n">
-        <v>25.22796638241707</v>
-      </c>
-      <c r="G141" t="n">
-        <v>30.27355965890048</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>73.46666775092042</v>
+        <v>50.56165733818217</v>
       </c>
       <c r="J141" t="n">
-        <v>0.134054794520548</v>
+        <v>0.7532602739726028</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Озерная ул.д.1-43; </t>
+          <t xml:space="preserve">Юрьевец п., Песчанный пер.1-22; </t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -5022,29 +5042,29 @@
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>25.20420508469307</v>
+        <v>25.30966392791901</v>
       </c>
       <c r="E142" t="n">
-        <v>30.24504610163169</v>
+        <v>30.37159671350281</v>
       </c>
       <c r="F142" t="n">
-        <v>25.22796638241707</v>
+        <v>24.85017986237108</v>
       </c>
       <c r="G142" t="n">
-        <v>30.27355965890048</v>
+        <v>29.82021583484529</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>73.83548061674627</v>
+        <v>50.26754995788134</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2909315068493151</v>
+        <v>0.08936986301369863</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Октябрьская ул.д. 1-22; </t>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Суворова ул.д.1-19; </t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -5054,29 +5074,29 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>25.22796638241707</v>
+        <v>25.20195776032777</v>
       </c>
       <c r="E143" t="n">
-        <v>30.27355965890048</v>
+        <v>30.24234931239332</v>
       </c>
       <c r="F143" t="n">
-        <v>25.26493003340866</v>
+        <v>23.89534102415402</v>
       </c>
       <c r="G143" t="n">
-        <v>30.31791604009039</v>
+        <v>28.67440922898482</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>50.49289641582573</v>
+        <v>51.78211858875773</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5234520547945206</v>
+        <v>0.134054794520548</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">32 линия ул. (Новое Доскино п)1-16; </t>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Толстого ул.д.1-55; </t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -5086,29 +5106,29 @@
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>25.22796638241707</v>
+        <v>24.85017986237108</v>
       </c>
       <c r="E144" t="n">
-        <v>30.27355965890048</v>
+        <v>29.82021583484529</v>
       </c>
       <c r="F144" t="n">
-        <v>25.27235877634435</v>
+        <v>24.87735226525428</v>
       </c>
       <c r="G144" t="n">
-        <v>30.32683053161322</v>
+        <v>29.85282271830514</v>
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>73.62380233774189</v>
+        <v>50.78214657732851</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3447123287671233</v>
+        <v>0.3638630136986302</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юрьевец п., Западная ул.д.1-42; </t>
+          <t xml:space="preserve"> г.Дзержинск(п.Игумново), Городская ул.д.1-31; </t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -5118,29 +5138,29 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>25.26493003340866</v>
+        <v>23.89534102415402</v>
       </c>
       <c r="E145" t="n">
-        <v>30.31791604009039</v>
+        <v>28.67440922898482</v>
       </c>
       <c r="F145" t="n">
-        <v>25.27675657628171</v>
+        <v>23.94982313531264</v>
       </c>
       <c r="G145" t="n">
-        <v>30.33210789153805</v>
+        <v>28.73978776237517</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>74.05011310196937</v>
+        <v>49.4238205940315</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3852876712328767</v>
+        <v>1.110739726027397</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">33 линия ул. (Новое Доскино п)1-20; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., ул. Чехова 1-47; </t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -5150,29 +5170,29 @@
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>25.27235877634435</v>
+        <v>24.87735226525428</v>
       </c>
       <c r="E146" t="n">
-        <v>30.32683053161322</v>
+        <v>29.85282271830514</v>
       </c>
       <c r="F146" t="n">
-        <v>25.30966392791901</v>
+        <v>24.54170784857293</v>
       </c>
       <c r="G146" t="n">
-        <v>30.37159671350281</v>
+        <v>29.45004941828752</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>73.76171882004417</v>
+        <v>50.91900713479069</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3766301369863014</v>
+        <v>1.059671232876712</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юрьевец п., Мирный пер.1-13; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Петряевка п., ул.Южный массив 1-61; </t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -5182,29 +5202,29 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>25.27675657628171</v>
+        <v>23.94982313531264</v>
       </c>
       <c r="E147" t="n">
-        <v>30.33210789153805</v>
+        <v>28.73978776237517</v>
       </c>
       <c r="F147" t="n">
-        <v>25.32339551093949</v>
+        <v>21.78249922055678</v>
       </c>
       <c r="G147" t="n">
-        <v>30.38807461312739</v>
+        <v>26.13899906466813</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>74.15771027394791</v>
+        <v>46.3242070691297</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1493972602739726</v>
+        <v>0.5043013698630138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">26 линия ул. (Новое Доскино п)1-24; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Горбатовка пгт., д.М.Расковой д.1-25; </t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -5214,29 +5234,29 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>25.30966392791901</v>
+        <v>24.54170784857293</v>
       </c>
       <c r="E148" t="n">
-        <v>30.37159671350281</v>
+        <v>29.45004941828752</v>
       </c>
       <c r="F148" t="n">
-        <v>25.32798335464561</v>
+        <v>11.06165933873866</v>
       </c>
       <c r="G148" t="n">
-        <v>30.39358002557473</v>
+        <v>13.27399120648639</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>73.90128748457788</v>
+        <v>54.93790634622393</v>
       </c>
       <c r="J148" t="n">
-        <v>0.08936986301369863</v>
+        <v>0.134054794520548</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">30 линия ул. (Новое Доскино п)1-29; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., 19а; </t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -5246,29 +5266,29 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>25.32339551093949</v>
+        <v>21.78249922055678</v>
       </c>
       <c r="E149" t="n">
-        <v>30.38807461312739</v>
+        <v>26.13899906466813</v>
       </c>
       <c r="F149" t="n">
-        <v>25.32798335464561</v>
+        <v>11.06165933873866</v>
       </c>
       <c r="G149" t="n">
-        <v>30.39358002557473</v>
+        <v>13.27399120648639</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="n">
-        <v>51.48083282675017</v>
+        <v>54.60377884145268</v>
       </c>
       <c r="J149" t="n">
-        <v>0.401013698630137</v>
+        <v>0.1404383561643836</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">23 линия ул. (Новое Доскино п)1-38; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., 19б; </t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -5278,29 +5298,29 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>25.32798335464561</v>
+        <v>11.06165933873866</v>
       </c>
       <c r="E150" t="n">
-        <v>30.39358002557473</v>
+        <v>13.27399120648639</v>
       </c>
       <c r="F150" t="n">
-        <v>25.34370520434583</v>
+        <v>0.1945603420592875</v>
       </c>
       <c r="G150" t="n">
-        <v>30.41244624521499</v>
+        <v>0.233472410471145</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="n">
-        <v>50.67168855899143</v>
+        <v>11.25621968079795</v>
       </c>
       <c r="J150" t="n">
-        <v>0.4953698630136986</v>
+        <v>0.03191780821917808</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Квартал 4 ул. (Новое Доскино п)1-10; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., 3; </t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -5310,29 +5330,29 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>25.32798335464561</v>
+        <v>11.06165933873866</v>
       </c>
       <c r="E151" t="n">
-        <v>30.39358002557473</v>
+        <v>13.27399120648639</v>
       </c>
       <c r="F151" t="n">
-        <v>25.36489919213103</v>
+        <v>0.1945603420592875</v>
       </c>
       <c r="G151" t="n">
-        <v>30.43787903055724</v>
+        <v>0.233472410471145</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>53.09041915408353</v>
+        <v>22.12331867747732</v>
       </c>
       <c r="J151" t="n">
-        <v>0.8570684931506849</v>
+        <v>0.006383561643835617</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Квартал 2 ул. (Новое Доскино п)1-12; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Гнилицкие дворики п., 5а; </t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -5342,29 +5362,29 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>25.34370520434583</v>
+        <v>0.1945603420592875</v>
       </c>
       <c r="E152" t="n">
-        <v>30.41244624521499</v>
+        <v>0.233472410471145</v>
       </c>
       <c r="F152" t="n">
-        <v>25.36760903147796</v>
+        <v>14.31086055092428</v>
       </c>
       <c r="G152" t="n">
-        <v>30.44113083777356</v>
+        <v>17.17303266110913</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>51.02207452964619</v>
+        <v>14.50542089298357</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1887123287671233</v>
+        <v>0.01915068493150685</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Дзержинск(п.Игумново), Кутузова ул.д.1-65; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Лесная поляна п., 12а; </t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -5374,61 +5394,61 @@
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>25.36489919213103</v>
+        <v>0.1945603420592875</v>
       </c>
       <c r="E153" t="n">
-        <v>30.43787903055724</v>
+        <v>0.233472410471145</v>
       </c>
       <c r="F153" t="n">
-        <v>25.38078718697733</v>
+        <v>18.96492359420364</v>
       </c>
       <c r="G153" t="n">
-        <v>30.4569446243728</v>
+        <v>22.75790831304437</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>74.44933228524336</v>
+        <v>33.30844070255471</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2516164383561644</v>
+        <v>0.01276712328767123</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">25 линия ул. (Новое Доскино п)1-33; </t>
+          <t xml:space="preserve">Городской округ Дзержинск р-н, Орловские дворики, 373; Городской округ Дзержинск р-н, Строителей п., 2; 0 линия ул. (Новое Доскино п)2-19; 1 линия ул. (Новое Доскино п)1-22; </t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154" t="n">
-        <v>25.36760903147796</v>
+        <v>14.31086055092428</v>
       </c>
       <c r="E154" t="n">
-        <v>30.44113083777356</v>
+        <v>17.17303266110913</v>
       </c>
       <c r="F154" t="n">
-        <v>25.41526795356671</v>
+        <v>25.10305088851248</v>
       </c>
       <c r="G154" t="n">
-        <v>30.49832154428005</v>
+        <v>30.12366106621498</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>74.16185396665472</v>
+        <v>76.62317404395199</v>
       </c>
       <c r="J154" t="n">
-        <v>0.6958082191780822</v>
+        <v>4.690931506849315</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">28 линия ул. (Новое Доскино п)1-12; </t>
+          <t xml:space="preserve">10 линия ул. (Новое Доскино п)1-50; </t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -5438,29 +5458,29 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>25.38078718697733</v>
+        <v>25.15820743245421</v>
       </c>
       <c r="E155" t="n">
-        <v>30.4569446243728</v>
+        <v>30.18984891894505</v>
       </c>
       <c r="F155" t="n">
-        <v>25.41731585145761</v>
+        <v>24.48278572468231</v>
       </c>
       <c r="G155" t="n">
-        <v>30.50077902174913</v>
+        <v>29.37934286961877</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>51.63450532508168</v>
+        <v>51.24483435485607</v>
       </c>
       <c r="J155" t="n">
-        <v>0.7233972602739726</v>
+        <v>0.4875068493150685</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Квартал 5 ул. (Новое Доскино п)2-8; </t>
+          <t xml:space="preserve">11 линия ул. (Новое Доскино п)1-59; </t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5470,29 +5490,29 @@
         <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>25.41526795356671</v>
+        <v>25.10305088851248</v>
       </c>
       <c r="E156" t="n">
-        <v>30.49832154428005</v>
+        <v>30.12366106621498</v>
       </c>
       <c r="F156" t="n">
-        <v>25.42447138154336</v>
+        <v>24.48278572468231</v>
       </c>
       <c r="G156" t="n">
-        <v>30.50936565785203</v>
+        <v>29.37934286961877</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>53.39817118844986</v>
+        <v>50.66242395871891</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3223835616438356</v>
+        <v>1.15586301369863</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Квартал 3 ул. (Новое Доскино п)1-12; </t>
+          <t xml:space="preserve">12 линия ул. (Новое Доскино п)1-53; </t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -5502,29 +5522,29 @@
         <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>25.41731585145761</v>
+        <v>24.48278572468231</v>
       </c>
       <c r="E157" t="n">
-        <v>30.50077902174913</v>
+        <v>29.37934286961877</v>
       </c>
       <c r="F157" t="n">
-        <v>25.43112465501433</v>
+        <v>24.45724047767734</v>
       </c>
       <c r="G157" t="n">
-        <v>30.51734958601719</v>
+        <v>29.34868857321281</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>51.14866081877375</v>
+        <v>48.94002620235965</v>
       </c>
       <c r="J157" t="n">
-        <v>0.09435616438356163</v>
+        <v>1.187315068493151</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Песочная ул.4; </t>
+          <t xml:space="preserve">13 линия ул. (Новое Доскино п)2-54; </t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -5534,61 +5554,61 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>25.42447138154336</v>
+        <v>24.48278572468231</v>
       </c>
       <c r="E158" t="n">
-        <v>30.50936565785203</v>
+        <v>29.37934286961877</v>
       </c>
       <c r="F158" t="n">
-        <v>25.48595989491349</v>
+        <v>24.45724047767734</v>
       </c>
       <c r="G158" t="n">
-        <v>30.58315187389619</v>
+        <v>29.34868857321281</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>84.7305081635193</v>
+        <v>49.60590045303476</v>
       </c>
       <c r="J158" t="n">
-        <v>0.228027397260274</v>
+        <v>8.739123287671234</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дзержинск г., , д.; р.п. Решетиха, ул.Пролетарская д.5; Городской округ Дзержинск р-н, Гавриловка п., Чапаева ул., д.1-54; Городской округ Дзержинск р-н, Гавриловка п., Полевая ул.д. 1-40; </t>
+          <t xml:space="preserve">14 линия ул. (Новое Доскино п)1-56; </t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>25.43112465501433</v>
+        <v>24.45724047767734</v>
       </c>
       <c r="E159" t="n">
-        <v>30.51734958601719</v>
+        <v>29.34868857321281</v>
       </c>
       <c r="F159" t="n">
-        <v>25.55062206693561</v>
+        <v>24.45724047767734</v>
       </c>
       <c r="G159" t="n">
-        <v>30.66074648032273</v>
+        <v>29.34868857321281</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>132.1540126341627</v>
+        <v>48.91448095535468</v>
       </c>
       <c r="J159" t="n">
-        <v>6.194520547945206</v>
+        <v>0.6133150684931507</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Городской округ Дзержинск р-н, Юрьевец п., Полевая ул.д.1-56; </t>
+          <t xml:space="preserve">15 линия ул. (Новое Доскино п)1-54; </t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -5598,29 +5618,29 @@
         <v>1</v>
       </c>
       <c r="D160" t="n">
-        <v>25.53559201174459</v>
+        <v>24.45724047767734</v>
       </c>
       <c r="E160" t="n">
-        <v>30.64271041409351</v>
+        <v>29.34868857321281</v>
       </c>
       <c r="F160" t="n">
-        <v>25.56593955757096</v>
+        <v>25.03284394695116</v>
       </c>
       <c r="G160" t="n">
-        <v>30.67912746908515</v>
+        <v>30.0394127363414</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>64.98491138779055</v>
+        <v>49.49008442462851</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2234246575342466</v>
+        <v>1.423205479452055</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Кирова пр-т.2; </t>
+          <t xml:space="preserve">16 линия ул. (Новое Доскино п)1-56; </t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -5630,61 +5650,61 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>25.55062206693561</v>
+        <v>24.45724047767734</v>
       </c>
       <c r="E161" t="n">
-        <v>30.66074648032273</v>
+        <v>29.34868857321281</v>
       </c>
       <c r="F161" t="n">
-        <v>25.60202030297203</v>
+        <v>24.6694975636403</v>
       </c>
       <c r="G161" t="n">
-        <v>30.72242436356643</v>
+        <v>29.60339707636835</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>76.30393056129405</v>
+        <v>50.17239406158801</v>
       </c>
       <c r="J161" t="n">
-        <v>0.5426027397260275</v>
+        <v>1.383890410958904</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Советская ул.76; Володарский р-н, Решетиха пгт., Комсомольская ул.91А; р.п. Решетиха, Комсомольская ул.88; р.п. Решетиха, ул.Кирова д.10; р.п. Решетиха, Комсомольская ул.102; р.п. Решетиха, Комсомольская ул.101; р.п. Решетиха, ул.Комсомольская д.95; Городской округ Дзержинск р-н, Гавриловка п., Лесной пер., д.1-28; Юрьевец п., Волжская ул.д.1-67; </t>
+          <t xml:space="preserve">17 линия ул. (Новое Доскино п)1-55; </t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>25.56593955757096</v>
+        <v>25.03284394695116</v>
       </c>
       <c r="E162" t="n">
-        <v>30.67912746908515</v>
+        <v>30.0394127363414</v>
       </c>
       <c r="F162" t="n">
-        <v>25.79899458162309</v>
+        <v>25.172076922656</v>
       </c>
       <c r="G162" t="n">
-        <v>30.9587934979477</v>
+        <v>30.2064923071872</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>99.5143659152487</v>
+        <v>51.18391328207325</v>
       </c>
       <c r="J162" t="n">
-        <v>23.32213698630137</v>
+        <v>1.572602739726027</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Пролетарская ул.33; </t>
+          <t xml:space="preserve">18 линия ул. (Новое Доскино п)1-55; </t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -5694,1421 +5714,1365 @@
         <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>25.69377420119442</v>
+        <v>24.6694975636403</v>
       </c>
       <c r="E163" t="n">
-        <v>30.8325290414333</v>
+        <v>29.60339707636835</v>
       </c>
       <c r="F163" t="n">
-        <v>25.83362833609755</v>
+        <v>24.74043171565186</v>
       </c>
       <c r="G163" t="n">
-        <v>31.00035400331706</v>
+        <v>29.68851805878223</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>76.82856183193044</v>
+        <v>50.38644225030662</v>
       </c>
       <c r="J163" t="n">
-        <v>0.7341095890410959</v>
+        <v>1.446794520547945</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, ул.Кирова д.19; р.п. Решетиха, Чкалова ул.1; р.п. Решетиха, Кирова пр-т.16; р.п. Решетиха, ул.Чкалова д.2А; р.п. Решетиха, Комсомольская ул.13; р.п. Решетиха, Кирова пр-т.11; Городской округ Дзержинск р-н, Гавриловка п., 1 Мая ул., д. 1-74; р.п. Решетиха, Пионерская ул.20; </t>
+          <t xml:space="preserve">19 линия ул. (Новое Доскино п)1-24; </t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>25.79899458162309</v>
+        <v>25.172076922656</v>
       </c>
       <c r="E164" t="n">
-        <v>30.9587934979477</v>
+        <v>30.2064923071872</v>
       </c>
       <c r="F164" t="n">
-        <v>26.12157858215956</v>
+        <v>25.09608227309099</v>
       </c>
       <c r="G164" t="n">
-        <v>31.34589429859147</v>
+        <v>30.11529872770919</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>121.3895533988152</v>
+        <v>51.18352514938793</v>
       </c>
       <c r="J164" t="n">
-        <v>23.78942465753425</v>
+        <v>0.9907397260273972</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Решетиха, Кирова пр-т.5а; р.п. Решетиха, Индивидуальная ул.26; р.п. Решетиха, Красная ул.43А; р.п. Решетиха, ул.Савельева д.33; р.п. Решетиха, Санаторная ул.16; р.п. Решетиха, Савельева ул.12; р.п. Решетиха, Сосновый бор ул.18; Володарский р-н, Решетиха пгт., Парковая  ул.7; Нижний Новгород г., Молодежный пр-т.88; Нижний Новгород г., Молодежный пр-т.84; Петряевская ул.3; Отечественная ул. (Гнилицы п)1; Нижний Новгород г., Петряевка ст.; Молодежный пр-т., д.74а; Молодежный пр-т.25; г. Володарск, Центральная ул.13; Молодежный пр-т.62; Ильича пр-т.56А; Ильича пр-т.56к1; Толбухина ул.20; Толбухина ул.17; Молодежный пр-т.72; Ильича пр-т.59; Обнорского ул.33; Ильича пр-т.65; Нижний Новгород г., Толбухина ул.5Б; Ильича пр-т.51; Молодежный пр-т.7; Красных Партизан ул.6; Молодежный пр-т.54; Молодежный пр-т.1Б; Карьерная ул.1А; Толбухина ул.20 А; Молодежный пр-т.78А; Красноуральская ул.13к2; Молодежный пр-т.76; Красных Партизан ул.4/4; </t>
+          <t xml:space="preserve">2 линия ул. (Новое Доскино п)1-22; </t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
-        <v>26.12157858215956</v>
+        <v>24.74043171565186</v>
       </c>
       <c r="E165" t="n">
-        <v>31.34589429859147</v>
+        <v>29.68851805878223</v>
       </c>
       <c r="F165" t="n">
-        <v>29.61564140554395</v>
+        <v>24.90803787370173</v>
       </c>
       <c r="G165" t="n">
-        <v>35.53876968665274</v>
-      </c>
-      <c r="H165" t="n">
-        <v>652.6732071304253</v>
-      </c>
+        <v>29.88964544844207</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>231.2352131538703</v>
+        <v>51.21083162641191</v>
       </c>
       <c r="J165" t="n">
-        <v>75.40000000000002</v>
+        <v>0.6683561643835616</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Спутника ул.7А; Нижний Новгород г., Спутника ул.7Б; Ильича пр-т.56/2; Нижний Новгород г., Ильича пр-т.50к3; Красных Партизан ул.8; Нижний Новгород г., Красных Партизан ул.8А; Нижний Новгород г., Державина ул. (Стригино п)80; Рулевой пер.15; Ильича пр-т.42; Красных Партизан ул.12; г. Володарск, Островского ул.29А; Нижний Новгород г., Сазанова ул.10А; Молодежный пр-т.38к2; Молодежный пр-т.38; Молодежный пр-т.33; Молодежный пр-т.31к2; Молодежный пр-т.33; Рулевой пер.7; Ильича пр-т.39к2; Ильича пр-т.39; Молодежный пр-т.38к1; Рулевой пер.11; Ильича пр-т.43; Ильича пр-т.43к1; Ильича пр-т.43к2; Молодежный пр-т.38к1; Ильича пр-т.39к1; Молодежный пр-т.42; Ильича пр-т.38; Ильича пр-т.40; Нижний Новгород г., Молодежный пр-т.30А; Молодежный пр-т.32; Краснодонцев ул.1; Чусовая ул. (Парижской коммуны п)8; Шанхайская ул. (Парижской коммуны п)17; Володарск г., Мичурина ул.6В; Ватутина ул.1А; </t>
+          <t xml:space="preserve">20 линия ул. (Новое Доскино п)1--36; </t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>29.6067883389569</v>
+        <v>25.09608227309099</v>
       </c>
       <c r="E166" t="n">
-        <v>35.52814600674827</v>
+        <v>30.11529872770919</v>
       </c>
       <c r="F166" t="n">
-        <v>30.2483247507096</v>
+        <v>25.18952024479192</v>
       </c>
       <c r="G166" t="n">
-        <v>36.29798970085152</v>
-      </c>
-      <c r="H166" t="n">
-        <v>796.2191278415955</v>
-      </c>
+        <v>30.2274242937503</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>284.4743292568378</v>
+        <v>52.01557071299109</v>
       </c>
       <c r="J166" t="n">
-        <v>68.09000000000002</v>
+        <v>0.4796438356164384</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ватутина ул.2; Ватутина ул.3; Ватутина ул.4; г. Володарск, Островского ул.1А; Чусовая ул. (Парижской коммуны п)4; Шанхайская ул. (Парижской коммуны п)Чусовая; Ремонтная ул. (Парижской коммуны п)16; г.Володарск,ул.Мичурина д.4; Кирова пр-т43А; </t>
+          <t xml:space="preserve">21 линия ул. (Новое Доскино п)1-36; </t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>30.2483247507096</v>
+        <v>24.90803787370173</v>
       </c>
       <c r="E167" t="n">
-        <v>36.29798970085152</v>
+        <v>29.88964544844207</v>
       </c>
       <c r="F167" t="n">
-        <v>30.35094283945877</v>
+        <v>25.05078979236582</v>
       </c>
       <c r="G167" t="n">
-        <v>36.42113140735053</v>
-      </c>
-      <c r="H167" t="n">
-        <v>687.4363243994703</v>
-      </c>
+        <v>30.06094775083898</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>262.978712489708</v>
+        <v>50.71753963529054</v>
       </c>
       <c r="J167" t="n">
-        <v>19.8</v>
+        <v>0.7548493150684932</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Красных Партизан ул.16; Красных Партизан ул.14; Ильича пр-т.42А; Кирова пр-т35; Нижний Новгород г., Кирова пр-т24А; Кирова пр-т24; Красных Партизан ул.18; Кирова пр-т20/2; Молодежный пр-т.30; Молодежный пр-т.28А; Нижний Новгород г., Школьная ул.4; Ильича пр-т.37; Виктора Коноваленко б-р.4; Ильича пр-т.36; г. Володарск, Мичурина ул.9; Молодежный пр-т.31к3; Молодежный пр-т.31к3; Краснодонцев ул.3; Ильича пр-т.33; Нижний Новгород г., Краснодонцев ул.1А; Любы Шевцовой ул.1А; Нижний Новгород г., Мончегорская ул.33А; Нижний Новгород г., Мончегорская ул.13Д; Нижний Новгород г., Мончегорская ул.17Ак5; </t>
+          <t xml:space="preserve">22 линия ул. (Новое Доскино п)1-36; </t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>30.35094283945877</v>
+        <v>25.18952024479192</v>
       </c>
       <c r="E168" t="n">
-        <v>36.42113140735053</v>
+        <v>30.2274242937503</v>
       </c>
       <c r="F168" t="n">
-        <v>30.50876780104155</v>
+        <v>25.32798335464561</v>
       </c>
       <c r="G168" t="n">
-        <v>36.61052136124987</v>
-      </c>
-      <c r="H168" t="n">
-        <v>458.5541045595241</v>
-      </c>
+        <v>30.39358002557473</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>171.2373683578915</v>
+        <v>51.27681231958701</v>
       </c>
       <c r="J168" t="n">
-        <v>72.06</v>
+        <v>1.037917808219178</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Краснодонцев ул.4; Ильича пр-т.34; Краснодонцев ул.5; Ильича пр-т.38А; Кирова пр-т33А; Ватутина ул.16А; Нижний Новгород г., Кирова пр-т20/1; Кирова пр-т20/1; Кирова пр-т20; Нижний Новгород г., Ореховская ул.80; Молодежный пр-т.24А; Молодежный пр-т.18; Молодежный пр-т.18А; Молодежный пр-т.26; р.п.Смолино,Детский переулок д.2; Краснодонцев ул.11А; Ватутина ул.13; Ватутина ул.14; Кирова пр-т16; Керженская ул.5; Нижний Новгород г., Школьная ул.5; Школьная ул.5А; Ильича пр-т.29; Нижний Новгород г., Школьная ул.2; г. Володарск, Мичурина ул.10; Володарск г., Больничная ул..15; Володарск г., Больничная ул..13А; Володарск г., Мичурина ул.19Б; г.Володарск, Мичурина ул.1; г. Володарск, Мичурина ул.14; г. Володарск, Больничная ул.5; </t>
+          <t xml:space="preserve">23 линия ул. (Новое Доскино п)1-38; </t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>30.48821421037459</v>
+        <v>25.05078979236582</v>
       </c>
       <c r="E169" t="n">
-        <v>36.58585705244951</v>
+        <v>30.06094775083898</v>
       </c>
       <c r="F169" t="n">
-        <v>30.79015768424301</v>
+        <v>25.19736068800224</v>
       </c>
       <c r="G169" t="n">
-        <v>36.94818922109161</v>
-      </c>
-      <c r="H169" t="n">
-        <v>692.3461589765959</v>
-      </c>
+        <v>30.23683282560269</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>249.6984725359997</v>
+        <v>51.00142220375174</v>
       </c>
       <c r="J169" t="n">
-        <v>71.26000000000002</v>
+        <v>0.9278356164383561</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Молодежный пр-т.14; Молодежный пр-т.12А; Молодежный пр-т.12Б; Молодежный пр-т.4А; р.п. Смолино, 1 мая ул.17; р.п. Смолино,ул.Ленина д.4; Володарский р-н, Смолино пгт., Детский пер.1; р.п. Смолино, Энтузиастов ул.13; г.Володарск, Заречная , напротив д.17 (около остановочного павильона); Володарск г., Мичурина ул.5; г. Володарск, Мичурина ул.15; Бусыгина пр-т.56; Кирова пр-т31А; Краснодонцев ул.7А; Бусыгина пр-т.58; Бусыгина пр-т.60; Ильича пр-т.23А; Ильича пр-т.20; Ильича пр-т.25; Ильича пр-т.17; Ильича пр-т.21; Ильича пр-т.26; Комсомольская ул.37; Комсомольская ул.39; Строкина ул.19; Комсомольская ул.52; Красных Партизан ул.18А; Строкина ул.18А; </t>
+          <t xml:space="preserve">24 линия ул. (Новое Доскино п)1-34; </t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>30.76463169976197</v>
+        <v>25.32798335464561</v>
       </c>
       <c r="E170" t="n">
-        <v>36.91755803971436</v>
+        <v>30.39358002557473</v>
       </c>
       <c r="F170" t="n">
-        <v>30.86934335817645</v>
+        <v>25.38078718697733</v>
       </c>
       <c r="G170" t="n">
-        <v>37.04321202981174</v>
-      </c>
-      <c r="H170" t="n">
-        <v>676.0687686022015</v>
-      </c>
+        <v>30.4569446243728</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>243.9066008009897</v>
+        <v>51.44652546446967</v>
       </c>
       <c r="J170" t="n">
-        <v>72.84</v>
+        <v>0.8570684931506849</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Строкина ул.18; Комсомольская ул.50; Комсомольская ул.48; Кирова пр-т20/3; Краснодонцев ул.11; Краснодонцев ул.13; Краснодонцев ул.9; Кирова пр-т31; Янтарный пер. (Парижской коммуны п)2; Ермоловой ул.25; Нижний Новгород г., Молодежный пр-т.4Б; р.п. Смолино, Ленина ул.12; г. Володарск, Суворова ул.7; Володарск г., Суворова ул.7А; р.п. Смолино, Ленина ул.9 (11); Братская ул. (Парижской коммуны п)28; г. Володарск, Юганецкая ул.26; г. Володарск, Колхозная ул.1; Стрелочная ул. (Парижской коммуны п)4; </t>
+          <t xml:space="preserve">25 линия ул. (Новое Доскино п)1-33; </t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>30.86934335817645</v>
+        <v>25.19736068800224</v>
       </c>
       <c r="E171" t="n">
-        <v>37.04321202981174</v>
+        <v>30.23683282560269</v>
       </c>
       <c r="F171" t="n">
-        <v>31.00704022217074</v>
+        <v>25.32339551093949</v>
       </c>
       <c r="G171" t="n">
-        <v>37.2084482666049</v>
-      </c>
-      <c r="H171" t="n">
-        <v>836.0201648333364</v>
-      </c>
+        <v>30.38807461312739</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>303.0353678481887</v>
+        <v>51.17358700464293</v>
       </c>
       <c r="J171" t="n">
-        <v>54.7</v>
+        <v>0.8492054794520547</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Володарск, Куйбышева ул.40; г. Володарск, Лермонтова ул.21; Красноармейская ул. (Парижской коммуны п)3; Кирова пр-т25; Нижний Новгород г., Кирова пр-т29А; Школьная ул.6; Челюскинцев ул.11; Кирова пр-т10; г. Володарск, Мичурина ул.20; г. Володарск, Лядова ул.46; г. Володарск, Лермонтова ул.1; Ильича пр-т.8; </t>
+          <t xml:space="preserve">26 линия ул. (Новое Доскино п)1-24; </t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>30.97950489695704</v>
+        <v>25.38078718697733</v>
       </c>
       <c r="E172" t="n">
-        <v>37.17540587634844</v>
+        <v>30.4569446243728</v>
       </c>
       <c r="F172" t="n">
-        <v>31.0873145563037</v>
+        <v>25.18850088596115</v>
       </c>
       <c r="G172" t="n">
-        <v>37.30477746756443</v>
-      </c>
-      <c r="H172" t="n">
-        <v>688.9135938806908</v>
-      </c>
+        <v>30.22620106315338</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>261.6462154547082</v>
+        <v>51.31381791695801</v>
       </c>
       <c r="J172" t="n">
-        <v>29.7</v>
+        <v>0.7233972602739726</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ильича пр-т.7; Ильича пр-т.9; Ильича пр-т.13; Литке ул. (Парижской коммуны п)4; г. Володарск, Заречная ул.4; Янки Купалы ул.46; Янки Купалы ул.44; Янки Купалы ул.40; Янки Купалы ул.29А; Янки Купалы ул.38; Янки Купалы ул.36; Янки Купалы ул.34; Коломенская ул.12; Янки Купалы ул.31; Янки Купалы ул.46к2; Янки Купалы ул.29; Янки Купалы ул.27А; р.п. Смолино, Бубнова ул.3; Некрасова ул. (Парижской коммуны п)д. 13 к1; </t>
+          <t xml:space="preserve">27 линия ул. (Новое Доскино п)1-13; </t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>31.0873145563037</v>
+        <v>25.32339551093949</v>
       </c>
       <c r="E173" t="n">
-        <v>37.30477746756443</v>
+        <v>30.38807461312739</v>
       </c>
       <c r="F173" t="n">
-        <v>31.14796173734034</v>
+        <v>25.41526795356671</v>
       </c>
       <c r="G173" t="n">
-        <v>37.37755408480841</v>
-      </c>
-      <c r="H173" t="n">
-        <v>750.312125965968</v>
-      </c>
+        <v>30.49832154428005</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>271.5710591264452</v>
+        <v>51.03253461219716</v>
       </c>
       <c r="J173" t="n">
-        <v>64.90000000000001</v>
+        <v>0.401013698630137</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пермякова ул.36; Пермякова ул.34; Карская ул. (Парижской коммуны п), д.1; Каменогорская ул. (Парижской коммуны п)2; Пермякова ул.46; Пермякова ул.40; Молодежный пр-т.4; Молодежный пр-т.2; Блюхера ул., д.9; Бусыгина пр-т.52; Нижний Новгород г., Львовская ул.35; Кирова пр-т17; Нижний Новгород г., Ватутина ул.18А; Комсомольская ул.33; Краснодонцев ул.19; Комсомольская ул.35А; Ватутина ул.18; Краснодонцев ул.19к1; Комсомольская ул.35; Комсомольская ул.40; Комсомольская ул.35; Краснодонцев ул.19А; Комсомольская ул.42; Краснодонцев ул.15; Ленина пр-т., д.125; </t>
+          <t xml:space="preserve">28 линия ул. (Новое Доскино п)1-12; </t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>31.13271658198232</v>
+        <v>25.18850088596115</v>
       </c>
       <c r="E174" t="n">
-        <v>37.35925989837878</v>
+        <v>30.22620106315338</v>
       </c>
       <c r="F174" t="n">
-        <v>31.26350545479781</v>
+        <v>25.03649420138005</v>
       </c>
       <c r="G174" t="n">
-        <v>37.51620654575737</v>
-      </c>
-      <c r="H174" t="n">
-        <v>215.4292632571247</v>
-      </c>
+        <v>30.04379304165606</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>91.08622315636208</v>
+        <v>50.45176215494676</v>
       </c>
       <c r="J174" t="n">
-        <v>73.26000000000002</v>
+        <v>0.3066575342465753</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ленина пр-т98А; Челюскинцев ул.16; Челюскинцев ул.16А; Кирова пр-т8; Челюскинцев ул.13; Львовская ул.12; Ильича пр-т.2А; Ильича пр-т.4; Октября пр-т.3; Ильича пр-т.6; Героя Юрия Смирнова ул.53; Лескова ул.42; Нижний Новгород г., Героя Юрия Смирнова ул.51; Лескова ул.50; Калининградская ул. (Парижской коммуны п)7; Володарск г., Лядова ул.81; г. Володарск, Мичурина ул.21; г. Володарск, Мичурина ул.22; г. Володарск, Солнечная ул.3; Нижний Новгород г., Мончегорская ул.19А; Нижний Новгород г., Комсомольская ул.10А; Школьная ул.24; Комсомольская ул.10; Нижний Новгород г., Ковпака ул.1А; Нижний Новгород г., Академика Павлова ул.14А; Строкина ул.17Б; Строкина ул.17А; Строкина ул.16Б; Советской Армии ул.15А; Строкина ул.17; </t>
+          <t xml:space="preserve">29 линия ул. (Новое Доскино п)1-7; </t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>31.26350545479781</v>
+        <v>25.41526795356671</v>
       </c>
       <c r="E175" t="n">
-        <v>37.51620654575737</v>
+        <v>30.49832154428005</v>
       </c>
       <c r="F175" t="n">
-        <v>31.4611233532851</v>
+        <v>25.06044468795574</v>
       </c>
       <c r="G175" t="n">
-        <v>37.75334802394212</v>
-      </c>
-      <c r="H175" t="n">
-        <v>538.4941483039305</v>
-      </c>
+        <v>30.0725336255469</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>197.2172760608073</v>
+        <v>51.58824773381877</v>
       </c>
       <c r="J175" t="n">
-        <v>78.46000000000001</v>
+        <v>0.3223835616438356</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Строкина ул.16; Строкина ул.16А; Строкина ул.15; Строкина ул.14; Детская ул.48; Героя Васильева ул.56; Абразивная ул.23; Кирова пр-т11; г. Володарск, Лядова ул.70; Лескова ул.4; Кирова пр-т6; Лоскутова ул.14; Кирова пр-т4; Веденяпина ул.1Б; Веденяпина ул.1В; Лескова ул.21А; Лескова ул.27А; Веденяпина ул.2; Бусыгина пр-т.46; Бусыгина пр-т.45А; Львовская ул.8; </t>
+          <t xml:space="preserve">3 линия ул. (Новое Доскино п)1-22; </t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>31.4611233532851</v>
+        <v>25.03649420138005</v>
       </c>
       <c r="E176" t="n">
-        <v>37.75334802394212</v>
+        <v>30.04379304165606</v>
       </c>
       <c r="F176" t="n">
-        <v>31.51491726478173</v>
+        <v>25.32798335464561</v>
       </c>
       <c r="G176" t="n">
-        <v>37.81790071773808</v>
-      </c>
-      <c r="H176" t="n">
-        <v>502.9469578461824</v>
-      </c>
+        <v>30.39358002557473</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>187.0405772254802</v>
+        <v>52.18726449367691</v>
       </c>
       <c r="J176" t="n">
-        <v>73.7</v>
+        <v>0.04717808219178082</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Львовская ул.10; Львовская ул.29; Львовская ул.25; Нижний Новгород г., Героя Советского Союза Поющева ул.1; Юлиуса Фучика ул.3; Юлиуса Фучика ул.4; Нижний Новгород г., Юлиуса Фучика ул.1; г.Володарск,ул.Минина д.16; Нижний Новгород г., Янки Купалы ул.30; Янки Купалы ул.28к1; Янки Купалы ул.28; Янки Купалы ул.24; Янки Купалы ул.32; Коломенская ул.8к1; Коломенская ул.8к3; Челюскинцев ул.19; Челюскинцев ул.15; Комсомольская ул.17; Нижний Новгород г., Майкопская  ул.2А; Коломенская ул.10; Нижний Новгород г., Мончегорская ул.7Б; </t>
+          <t xml:space="preserve">30 линия ул. (Новое Доскино п)1-29; </t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>31.51491726478173</v>
+        <v>25.06044468795574</v>
       </c>
       <c r="E177" t="n">
-        <v>37.81790071773808</v>
+        <v>30.0725336255469</v>
       </c>
       <c r="F177" t="n">
-        <v>31.61039069047933</v>
+        <v>25.03269542519428</v>
       </c>
       <c r="G177" t="n">
-        <v>37.9324688285752</v>
-      </c>
-      <c r="H177" t="n">
-        <v>446.1902850804339</v>
-      </c>
+        <v>30.03923451023314</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>168.2494360761597</v>
+        <v>52.20741620406683</v>
       </c>
       <c r="J177" t="n">
-        <v>73.31999999999999</v>
+        <v>0.5110958904109589</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Володарск, Нагорная ул.5; г.Володарск, пер.Северный д.2; Героя Васильева ул.15; Бусыгина пр-т.40; Бурденко ул.35; Бурденко ул.33к1; Бурденко ул.33; Бурденко ул.42; Героя Советского Союза Прыгунова ул.12; Лескова ул.21; Комсомольская ул.8; Комсомольская ул.6; Челюскинцев ул.22; Челюскинцев ул.18А; Челюскинцев ул.18; Комсомольская ул.13; Челюскинцев ул.20; Героя Советского Союза Прыгунова ул.2; Лескова ул.40; г. Володарск, Полевая ул.72; Лескова ул.29А; </t>
+          <t xml:space="preserve">31 линия ул. (Новое Доскино п)1-26; </t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>31.60509392642644</v>
+        <v>25.32798335464561</v>
       </c>
       <c r="E178" t="n">
-        <v>37.92611271171172</v>
+        <v>30.39358002557473</v>
       </c>
       <c r="F178" t="n">
-        <v>31.6863268176792</v>
+        <v>25.26493003340866</v>
       </c>
       <c r="G178" t="n">
-        <v>38.02359218121504</v>
-      </c>
-      <c r="H178" t="n">
-        <v>730.5668379383635</v>
-      </c>
+        <v>30.31791604009039</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>269.5049958196562</v>
+        <v>51.04251181695366</v>
       </c>
       <c r="J178" t="n">
-        <v>52.80000000000001</v>
+        <v>0.4953698630136986</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Героя Советского Союза Прыгунова ул.31; Веденяпина ул.10; Автомеханическая ул.2; Веденяпина ул.6; Веденяпина ул.6А; Веденяпина ул.3; Нижний Новгород г., Автомеханическая ул.13А; Лескова ул.15А; Лескова ул.17; Автомеханическая ул.14; Лескова ул.12; Лескова ул.18; Нижний Новгород г., Героя Юрия Смирнова ул.29; Лескова ул.8; Героя Васильева ул.36; Героя Васильева ул.44; Героя Юрия Смирнова ул.13; Героя Юрия Смирнова ул.23; Героя Юрия Смирнова ул.25; Нижний Новгород г., Веденяпина ул.2А; </t>
+          <t xml:space="preserve">32 линия ул. (Новое Доскино п)1-16; </t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>31.67870631793696</v>
+        <v>25.03269542519428</v>
       </c>
       <c r="E179" t="n">
-        <v>38.01444758152435</v>
+        <v>30.03923451023314</v>
       </c>
       <c r="F179" t="n">
-        <v>31.69717310026967</v>
+        <v>25.27675657628171</v>
       </c>
       <c r="G179" t="n">
-        <v>38.0366077203236</v>
-      </c>
-      <c r="H179" t="n">
-        <v>166.2771098830767</v>
-      </c>
+        <v>30.33210789153805</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>75.13010018539075</v>
+        <v>50.54885320089949</v>
       </c>
       <c r="J179" t="n">
-        <v>73.70000000000002</v>
+        <v>0.6526301369863013</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юлиуса Фучика ул.5; Веденяпина ул.1А; Героя Юрия Смирнова ул.17; г. Володарск, Луначарского ул.24; Нижний Новгород г., Советской Армии ул.15; Советской Армии ул.18; Комсомольская ул.44; Советской Армии ул.22; Краснодонцев ул.21к2; Краснодонцев ул.21к3; Комсомольская ул.44Б; г. Володарск, Лядова ул.86; Героя Советского Союза Прыгунова ул.3; Героя Юрия Смирнова ул.35; Героя Советского Союза Прыгунова ул.8; Лескова ул.22; Героя Советского Союза Прыгунова ул.10; Героя Советского Союза Прыгунова ул.1; Лескова ул.24; Нижний Новгород г., Лескова ул.9; Нижний Новгород г., Лескова ул.9; Лескова ул.11; Лескова ул.7; </t>
+          <t xml:space="preserve">33 линия ул. (Новое Доскино п)1-20; </t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>31.69717310026967</v>
+        <v>25.26493003340866</v>
       </c>
       <c r="E180" t="n">
-        <v>38.0366077203236</v>
+        <v>30.31791604009039</v>
       </c>
       <c r="F180" t="n">
-        <v>31.70701879757269</v>
+        <v>24.9900162027195</v>
       </c>
       <c r="G180" t="n">
-        <v>38.04842255708723</v>
-      </c>
-      <c r="H180" t="n">
-        <v>683.4045603639935</v>
-      </c>
+        <v>29.9880194432634</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>251.9712872235101</v>
+        <v>50.2667727790012</v>
       </c>
       <c r="J180" t="n">
-        <v>58.4</v>
+        <v>0.3852876712328767</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Лескова ул.9Б; Кирова пр-т3; Октября пр-т.8; Октября пр-т.13; Октября пр-т.12; Нижний Новгород г., Юлиуса Фучика ул.8; Нижний Новгород г., Юлиуса Фучика ул.13; Юлиуса Фучика ул.7; Нижний Новгород г., Львовская ул.27; Пермякова ул.44; Львовская ул.31; Львовская ул.21; Бусыгина пр-т.50; Бусыгина пр-т.49; Львовская ул.33; Бусыгина пр-т.47А; Бусыгина пр-т.47; Бусыгина пр-т.48; Пермякова ул.48; Коломенская ул.8; Нижний Новгород г., Коломенская ул.6; Плотникова ул.5; Краснодонцев ул.23; Краснодонцев ул.21к1; Советской Армии ул.16; Краснодонцев ул.21; Плотникова ул.5; Советской Армии ул.13А; </t>
+          <t xml:space="preserve">4 линия ул. (Новое Доскино п)1-22; </t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>31.70701879757269</v>
+        <v>25.27675657628171</v>
       </c>
       <c r="E181" t="n">
-        <v>38.04842255708723</v>
+        <v>30.33210789153805</v>
       </c>
       <c r="F181" t="n">
-        <v>31.80034125649833</v>
+        <v>24.95580530944444</v>
       </c>
       <c r="G181" t="n">
-        <v>38.160409507798</v>
-      </c>
-      <c r="H181" t="n">
-        <v>183.3173415246748</v>
-      </c>
+        <v>29.94696637133333</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>81.04144415437798</v>
+        <v>52.22518271304282</v>
       </c>
       <c r="J181" t="n">
-        <v>73.44</v>
+        <v>0.1493972602739726</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лескова ул.35к1; Нижний Новгород г., Героя Юрия Смирнова ул.61Б; Нижний Новгород г., Героя Юрия Смирнова ул.61А; Героя Юрия Смирнова ул.61; Героя Юрия Смирнова ул.65; Героя Юрия Смирнова ул.67; Лескова ул.60; Лескова ул.54; Лескова ул.35; Лескова ул.58; Нижний Новгород г., Героя Юрия Смирнова ул.52А; г. Володарск, Западная ул.12; Сергея Тюленина ул.19А; Старых Производственников ул.10; Старых Производственников ул.11; Бусыгина пр-т.36; Бусыгина пр-т.34; Дьяконова ул.40; Бусыгина пр-т.30; г. Володарск, Воробьева ул.5; Нижний Новгород г., Октября пр-т.19А; </t>
+          <t xml:space="preserve">5 линия ул. (Новое Доскино п)1-28; </t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>31.77397020156847</v>
+        <v>24.9900162027195</v>
       </c>
       <c r="E182" t="n">
-        <v>38.12876424188217</v>
+        <v>29.9880194432634</v>
       </c>
       <c r="F182" t="n">
-        <v>31.86957466810016</v>
+        <v>24.84543292333094</v>
       </c>
       <c r="G182" t="n">
-        <v>38.2434896017202</v>
-      </c>
-      <c r="H182" t="n">
-        <v>704.855830571271</v>
-      </c>
+        <v>29.81451950799713</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>262.8859003127982</v>
+        <v>50.39680670294818</v>
       </c>
       <c r="J182" t="n">
-        <v>47.3</v>
+        <v>8.503232876712328</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Октября пр-т.19А; Комсомольская ул.7; Комсомольская ул.11; Лоскутова ул.20; Комсомольская ул.4; Нижний Новгород г., Комсомольская ул.7; Лоскутова ул.23; Янки Купалы ул.18; г. Володарск, Нагорный переулок.10; г. Володарск, Северная ул.47; г. Володарск, Зелёная ул.13; Нарвская ул.5; Янки Купалы ул.16А; Старых Производственников ул.17; Старых Производственников ул.13; Старых Производственников ул.19; Героя Советского Союза Поющева ул.11; Плотникова ул.4; Политбойцов ул.4; Нижний Новгород г., Плотникова ул.3А; г. Володарск, Заводская ул.47; Володарск г., Северная  ул.50Б; г. Володарск, Стадионная ул.32; Сергея Тюленина ул.20; </t>
+          <t xml:space="preserve">6 линия ул. (Новое Доскино п)1-32; </t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>31.86957466810016</v>
+        <v>24.95580530944444</v>
       </c>
       <c r="E183" t="n">
-        <v>38.2434896017202</v>
+        <v>29.94696637133333</v>
       </c>
       <c r="F183" t="n">
-        <v>31.97517272671056</v>
+        <v>24.8635790318148</v>
       </c>
       <c r="G183" t="n">
-        <v>38.37020727205268</v>
-      </c>
-      <c r="H183" t="n">
-        <v>740.0951513139089</v>
-      </c>
+        <v>29.83629483817776</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>271.5175235210958</v>
+        <v>50.38036816781882</v>
       </c>
       <c r="J183" t="n">
-        <v>57.42</v>
+        <v>0.5110958904109589</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергея Тюленина ул.16; Школьная ул.32; Школьная ул.30; Школьная ул.26; Моторный пер.4к2; Школьная ул.36; Челюскинцев ул.23; Челюскинцев ул.27; Челюскинцев ул.26; Советской Армии ул.13; Челюскинцев ул.27; Челюскинцев ул.25; Старых Производственников ул.18; г. Володарск, Стадионная ул.4; г. Володарск, Колхозная ул.18; г. Володарск, Затонная д.9; г. Володарск, Молодёжная ул.9; Строкина ул.11; Строкина ул.12; Политбойцов ул.10; Политбойцов ул.7; </t>
+          <t xml:space="preserve">7 линия ул. (Новое Доскино п)1-29; </t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>31.97517272671056</v>
+        <v>24.84543292333094</v>
       </c>
       <c r="E184" t="n">
-        <v>38.37020727205268</v>
+        <v>29.81451950799713</v>
       </c>
       <c r="F184" t="n">
-        <v>32.04011292156354</v>
+        <v>24.69957787402955</v>
       </c>
       <c r="G184" t="n">
-        <v>38.44813550587625</v>
-      </c>
-      <c r="H184" t="n">
-        <v>464.0092939997227</v>
-      </c>
+        <v>29.63949344883547</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>174.7283145574974</v>
+        <v>50.16050692046888</v>
       </c>
       <c r="J184" t="n">
-        <v>74.36000000000001</v>
+        <v>9.006465753424658</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Строкина ул.12А; Строкина ул.10; Политбойцов ул.8; Нижний Новгород г., Политбойцов ул.5; Политбойцов ул.13; Политбойцов ул.7; Политбойцов ул.6; Политбойцов ул.2А; г. Володарск, Лядова ул.98; Дьяконова ул.41; Дьяконова ул.43А; Дьяконова ул.30; Бусыгина пр-т.19; Бусыгина пр-т.22; Янки Купалы ул.12А; Володарский р-н, Володарск г., Полевая ул.18; г. Володарск, Полевая ул.41; г. Володарск, Нагорная ул.44; Политбойцов ул.14; </t>
+          <t xml:space="preserve">8 линия ул. (Новое Доскино п)1-30; </t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>32.04011292156354</v>
+        <v>24.8635790318148</v>
       </c>
       <c r="E185" t="n">
-        <v>38.44813550587625</v>
+        <v>29.83629483817776</v>
       </c>
       <c r="F185" t="n">
-        <v>32.0943880309302</v>
+        <v>24.62784012088973</v>
       </c>
       <c r="G185" t="n">
-        <v>38.51326563711625</v>
-      </c>
-      <c r="H185" t="n">
-        <v>711.2278112475838</v>
-      </c>
+        <v>29.55340814506768</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>266.672170644174</v>
+        <v>50.10727221905204</v>
       </c>
       <c r="J185" t="n">
-        <v>43.90000000000001</v>
+        <v>0.6211780821917808</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Плотникова ул.3; Политбойцов ул.12; Комсомольская ул.2В; Октября пр-т.18; Октября пр-т.17; Октября пр-т.16; Октября пр-т.20; Комсомольская ул.2; Нижний Новгород г., Октября пр-т.14; Старых Производственников ул.20; Южное ш.17; Южное ш.21А; Южное ш.21; Героя Васильева ул.9; Нижний Новгород г., Львовская ул.4А; Львовская ул.13; Львовская ул.17; Героя Васильева ул.5; Львовская ул.23; </t>
+          <t xml:space="preserve">9 линия ул. (Новое Доскино п)1-30; </t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>32.0943880309302</v>
+        <v>24.69957787402955</v>
       </c>
       <c r="E186" t="n">
-        <v>38.51326563711625</v>
+        <v>29.63949344883547</v>
       </c>
       <c r="F186" t="n">
-        <v>32.12289970157809</v>
+        <v>25.12054636431641</v>
       </c>
       <c r="G186" t="n">
-        <v>38.54747964189371</v>
-      </c>
-      <c r="H186" t="n">
-        <v>162.7712819816353</v>
-      </c>
+        <v>30.1446556371797</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>74.85884873623685</v>
+        <v>49.89186199148578</v>
       </c>
       <c r="J186" t="n">
-        <v>72.46000000000001</v>
+        <v>0.7076712328767123</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Героя Васильева ул.30; Львовская ул.4; Львовская ул.6; Нижний Новгород г., Героя Васильева ул.18А; Старых Производственников ул.9; Старых Производственников ул.4; Старых Производственников ул.15; г. Володарск, Заводская ул.1; Веденяпина ул.13; Нижний Новгород г., Монастырка ул.20Ж; Юлиуса Фучика ул.10; Веденяпина ул.11; Юлиуса Фучика ул.12; Нижний Новгород г., Юлиуса Фучика ул., д. 8к2; Юлиуса Фучика ул.17; Юлиуса Фучика ул.21; Юлиуса Фучика ул.23; Юлиуса Фучика ул.19; Нижний Новгород г., Лескова ул.66А; Нижний Новгород г., Патриотов ул.49; Нижний Новгород г., Южное ш.30к1; Нижний Новгород г., Ленина пр-т113; Сергея Тюленина ул.7; Сергея Тюленина ул.8; Сергея Тюленина ул.6; Советской Армии ул.12А; Политбойцов ул.20; Советской Армии ул.12Б; Политбойцов ул.22; Раевского ул.19; Школьная ул.34; Советской Армии ул.10А; Советской Армии ул.10; Советской Армии ул.5; </t>
+          <t xml:space="preserve">Квартал 1 ул. (Новое Доскино п)1-11А; </t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>32.12289970157809</v>
+        <v>24.62784012088973</v>
       </c>
       <c r="E187" t="n">
-        <v>38.54747964189371</v>
+        <v>29.55340814506768</v>
       </c>
       <c r="F187" t="n">
-        <v>32.25561517798304</v>
+        <v>25.36489919213103</v>
       </c>
       <c r="G187" t="n">
-        <v>38.70673821357965</v>
-      </c>
-      <c r="H187" t="n">
-        <v>501.0767246785516</v>
-      </c>
+        <v>30.43787903055724</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>187.5549298917804</v>
+        <v>50.93553392081401</v>
       </c>
       <c r="J187" t="n">
-        <v>72.18000000000002</v>
+        <v>0.8177534246575342</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Советской Армии ул.8; Моторный пер.2к1; Нижний Новгород г., Челюскинцев ул.24; Моторный пер.1; Львовская ул.2; Героя Васильева ул.7; Героя Васильева ул.1; Бурденко ул.25; Бурденко ул.18; Борская ул.15; Дьяконова ул.44; Нижний Новгород г., Веденяпина ул.14А; Веденяпина ул.21; Веденяпина ул.18; Веденяпина ул.16А; Нижний Новгород г., Героя Советского Союза Поющева ул.20; Героя Советского Союза Поющева ул.25; Героя Советского Союза Поющева ул.20; Героя Советского Союза Поющева ул.19; Героя Советского Союза Поющева ул.17; Нижний Новгород г., Лекальная ул.8; </t>
+          <t xml:space="preserve">Квартал 2 ул. (Новое Доскино п)1-12; </t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
-        <v>32.25561517798304</v>
+        <v>25.12054636431641</v>
       </c>
       <c r="E188" t="n">
-        <v>38.70673821357965</v>
+        <v>30.1446556371797</v>
       </c>
       <c r="F188" t="n">
-        <v>32.33006190146669</v>
+        <v>25.42447138154336</v>
       </c>
       <c r="G188" t="n">
-        <v>38.79607428176002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>187.2582565298755</v>
-      </c>
+        <v>30.50936565785203</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>83.04729429599277</v>
+        <v>50.78937057367439</v>
       </c>
       <c r="J188" t="n">
-        <v>73.44000000000001</v>
+        <v>0.1965753424657534</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Газовская ул.25; Политбойцов ул.19к1; Политбойцов ул.16; Нижний Новгород г., Политбойцов ул.27; Политбойцов ул.18; Политбойцов ул.18А; Политбойцов ул.18Б; Нижний Новгород г., Лесная  ул., ГСК 15; Мельникова ул.30; Нижний Новгород г., Мельникова ул.31; Борская ул.15А; Борская ул.28А; Бурденко ул.14; Нижний Новгород г., Южное ш.50Б; Нижний Новгород г., Веденяпина ул.25А; Веденяпина ул.23; Веденяпина ул.24; Юлиуса Фучика ул.31; Веденяпина ул.25; Веденяпина ул.22; Львовская ул., д.7а; Дружаева ул.17А; Политбойцов ул.19; Нижний Новгород г., Строкина ул.7; Политбойцов ул.21А; Политбойцов ул.21; Строкина ул.9А; </t>
+          <t xml:space="preserve">Квартал 3 ул. (Новое Доскино п)1-12; </t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>32.32572392269477</v>
+        <v>25.36489919213103</v>
       </c>
       <c r="E189" t="n">
-        <v>38.79086870723373</v>
+        <v>30.43787903055724</v>
       </c>
       <c r="F189" t="n">
-        <v>32.3723687996063</v>
+        <v>25.34370520434583</v>
       </c>
       <c r="G189" t="n">
-        <v>38.84684255952756</v>
-      </c>
-      <c r="H189" t="n">
-        <v>213.9129658597588</v>
-      </c>
+        <v>30.41244624521499</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>92.34990288425385</v>
+        <v>51.10013086749679</v>
       </c>
       <c r="J189" t="n">
-        <v>72.34000000000002</v>
+        <v>0.2516164383561644</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Политбойцов ул.23А; Строкина ул.9; Бусыгина пр-т.17; Янки Купалы ул.10А; Раевского ул.17; Плотникова ул.2 (Наш дом); Плотникова ул.2 (ТСЖ 369); Раевского ул.5; Нижний Новгород г., Строкина ул.2; Советской Армии ул.10Б; Дьяконова ул.40к1; Бусыгина пр-т.20А; Мельникова ул.11; Бусыгина пр-т.9; Нижний Новгород г., Южное ш.30Ак1; Нижний Новгород г., Гайдара ул.20А; Нижний Новгород г., Космическая ул.58а; Нижний Новгород г., Львовская ул.38А; Пермякова ул.22; Львовская ул.3; Пермякова ул.30; Пермякова ул.24; Львовская ул.3А; Львовская ул.1а; Пермякова ул.32; Львовская ул.5А; Львовская ул.5; Львовская ул.19; Львовская ул.3Б; </t>
+          <t xml:space="preserve">Квартал 4 ул. (Новое Доскино п)1-10; </t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>32.3723687996063</v>
+        <v>25.42447138154336</v>
       </c>
       <c r="E190" t="n">
-        <v>38.84684255952756</v>
+        <v>30.50936565785203</v>
       </c>
       <c r="F190" t="n">
-        <v>32.47993550785262</v>
+        <v>25.41731585145761</v>
       </c>
       <c r="G190" t="n">
-        <v>38.97592260942314</v>
-      </c>
-      <c r="H190" t="n">
-        <v>230.7411992641868</v>
-      </c>
+        <v>30.50077902174913</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>97.76153432012313</v>
+        <v>51.06839689819101</v>
       </c>
       <c r="J190" t="n">
-        <v>73.82000000000002</v>
+        <v>0.228027397260274</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Пермякова ул.26; Южное ш.41; Героя Советского Союза Прыгунова ул.21; Героя Советского Союза Прыгунова ул.22; Старых Производственников ул.21; Нижний Новгород г., Южное ш.49А; Героя Советского Союза Прыгунова ул.27; Бусыгина пр-т.14; Бусыгина пр-т.16; Октября пр-т.25; Октября пр-т.21; Нижний Новгород г., Октября пр-т.22А; Октября пр-т.22; Героя Советского Союза Поющева ул.31; Советской Армии ул.1; Октября пр-т.24; Строкина ул.8; Строкина ул.6; Строкина ул.3; Строкина ул.5; Строкина ул.4; </t>
+          <t xml:space="preserve">Квартал 5 ул. (Новое Доскино п)2-8; </t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>32.47993550785262</v>
+        <v>25.34370520434583</v>
       </c>
       <c r="E191" t="n">
-        <v>38.97592260942314</v>
+        <v>30.41244624521499</v>
       </c>
       <c r="F191" t="n">
-        <v>32.50281180626808</v>
+        <v>32.60033246892045</v>
       </c>
       <c r="G191" t="n">
-        <v>39.00337416752169</v>
-      </c>
-      <c r="H191" t="n">
-        <v>186.0055728968895</v>
-      </c>
+        <v>39.12039896270454</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>80.65929740994281</v>
+        <v>58.01764832037806</v>
       </c>
       <c r="J191" t="n">
-        <v>79.65000000000002</v>
+        <v>0.1887123287671233</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Володарск г., Набережная ул.1; г.Володарск,ул.Набережная д.3 (у дома 1а); Васнецова ул.19; Нижний Новгород г., Газовская ул.18Ак1; Нижний Новгород г., Дьяконова ул.23; Васнецова ул.25; Дьяконова ул.26А; Дьяконова ул.28; Дьяконова ул.30А; Азовская ул.17; Дьяконова ул.26; г. Володарск, Вокзальная ул.9; г.Володарск,ул.Калининская 1; Юлиуса Фучика ул.10к2; Юлиуса Фучика ул.10к1; Юлиуса Фучика ул.130Б; Юлиуса Фучика ул.10к1; </t>
+          <t xml:space="preserve">Львовская ул.11; </t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>32.49833040102111</v>
+        <v>25.41731585145761</v>
       </c>
       <c r="E192" t="n">
-        <v>38.99799648122533</v>
+        <v>30.50077902174913</v>
       </c>
       <c r="F192" t="n">
-        <v>32.53726217393189</v>
+        <v>29.61564140554395</v>
       </c>
       <c r="G192" t="n">
-        <v>39.04471460871827</v>
-      </c>
-      <c r="H192" t="n">
-        <v>682.6023628162254</v>
-      </c>
+        <v>35.53876968665274</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>262.6814924643975</v>
+        <v>66.43040447345217</v>
       </c>
       <c r="J192" t="n">
-        <v>27.18</v>
+        <v>0.09435616438356163</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Юлиуса Фучика ул.23А; Героя Васильева ул.12; Дворовая ул.30; Дружаева ул.11; Дружаева ул.13; Дружаева ул.13А; Дружаева ул.17; Дружаева ул.15А; Героя Васильева ул.10А; Дружаева ул.26; Дружаева ул.15; Мельникова ул.27; Мельникова ул.28; Мельникова ул.29; Нижний Новгород г., Мельникова ул.28А; Бусыгина пр-т.18; Юлиуса Фучика ул.10к3; Юлиуса Фучика ул.10к4; Юлиуса Фучика ул.33; Юлиуса Фучика ул.29; Городской округ Нижний Новгород р-н, Юлиуса Фучика ул.50Бк1; Раевского ул.7; Строкина ул.3А; Раевского ул.15; Политбойцов ул.2; Янки Купалы ул.2; </t>
+          <t xml:space="preserve">Спутника ул.7А; 6-й микрорайон11; 6-й микрорайон13; 6-й микрорайон15Б; 6-й микрорайон17; 6-й микрорайон17А; 6-й микрорайон17Б; 6-й микрорайон19; 6-й микрорайон1А; 6-й микрорайон25; 6-й микрорайон27; 6-й микрорайон29; 6-й микрорайон3; 6-й микрорайон33; 6-й микрорайон37; 6-й микрорайон39; 6-й микрорайон41; 6-й микрорайон43; 6-й микрорайон45; 6-й микрорайон7; 6-й микрорайон7А; 6-й микрорайон9; Абразивная ул.23; Автомеханическая ул.14; Автомеханическая ул.15; Автомеханическая ул.15А; Автомеханическая ул.2; </t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D193" t="n">
-        <v>32.53726217393189</v>
+        <v>32.60033246892045</v>
       </c>
       <c r="E193" t="n">
-        <v>39.04471460871827</v>
+        <v>39.12039896270454</v>
       </c>
       <c r="F193" t="n">
-        <v>32.59497853924093</v>
+        <v>32.76843407429218</v>
       </c>
       <c r="G193" t="n">
-        <v>39.11397424708911</v>
+        <v>39.32212088915062</v>
       </c>
       <c r="H193" t="n">
-        <v>196.8487463598659</v>
+        <v>214.3608812759898</v>
       </c>
       <c r="I193" t="n">
-        <v>86.34469574133314</v>
+        <v>92.78226064764107</v>
       </c>
       <c r="J193" t="n">
-        <v>74.92000000000002</v>
+        <v>75.02000000000002</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">6-й микрорайон17; 6-й микрорайон15Б; 6-й микрорайон13; Нижний Новгород г., Южное ш.24Г; 6-й микрорайон11; Переходникова ул.31; Львовская ул.11; Дворовая ул.34; Дворовая ул.29; г. Володарск, Военный городок ул.63; Переходникова ул.27; Переходникова ул.29; Пермякова ул.20; Дворовая ул.38; Пермякова ул.16; Пермякова ул.18; Пермякова ул.28; Советской Армии ул.4; Раевского ул.3; Нижний Новгород г., Автомеханическая ул.12; Героя Советского Союза Прыгунова ул.17Б; Героя Советского Союза Прыгунова ул.20; </t>
+          <t xml:space="preserve">Автомеханическая ул.25; Азовская ул.17; Блюхера ул., д.9; Борская ул.15; Борская ул.15А; Борская ул.28А; Братская ул. (Парижской коммуны п)28; Бурденко ул.14; Бурденко ул.18; Бурденко ул.25; Бурденко ул.33; Бурденко ул.33к1; Бурденко ул.35; Бурденко ул.42; Бусыгина пр-т.14; Бусыгина пр-т.16; Бусыгина пр-т.17; Бусыгина пр-т.18; Бусыгина пр-т.19; Бусыгина пр-т.20А; Бусыгина пр-т.22; Бусыгина пр-т.30; Бусыгина пр-т.34; </t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D194" t="n">
-        <v>32.59192241030519</v>
+        <v>31.6863268176792</v>
       </c>
       <c r="E194" t="n">
-        <v>39.11030689236622</v>
+        <v>38.02359218121504</v>
       </c>
       <c r="F194" t="n">
-        <v>32.76843407429218</v>
+        <v>31.85590122587114</v>
       </c>
       <c r="G194" t="n">
-        <v>39.32212088915062</v>
+        <v>38.22708147104537</v>
       </c>
       <c r="H194" t="n">
-        <v>496.1190104222092</v>
+        <v>234.1562968775017</v>
       </c>
       <c r="I194" t="n">
-        <v>186.3632576612117</v>
+        <v>98.25312960897926</v>
       </c>
       <c r="J194" t="n">
-        <v>74.80000000000001</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Автомеханическая ул.25; Автомеханическая ул.15А; Героя Советского Союза Прыгунова ул.15; Героя Советского Союза Прыгунова ул.16; Автомеханическая ул.15; Героя Советского Союза Прыгунова ул.17; Героя Советского Союза Прыгунова ул.16А; Дьяконова ул.13; Дьяконова ул.13А; Дьяконова ул.15; Рабочая ул.28; Героя Советского Союза Поющева ул.22А; Нижний Новгород г., Южное ш.33; Нижний Новгород г., 6-й микрорайон39Б; 6-й микрорайон17А; Нижний Новгород г., 6-й микрорайон39А; 6-й микрорайон39; 6-й микрорайон37; 6-й микрорайон33; 6-й микрорайон29; 6-й микрорайон25; 6-й микрорайон27; 6-й микрорайон19; 6-й микрорайон17Б; г. Володарск, Первомайская ул.5; Нижний Новгород г., Дьяконова ул.1Б; Дьяконова ул.1А; Нижний Новгород г., Южное ш.2Г; Нижний Новгород г., Южное ш.2Г; Переходникова ул.25; </t>
+          <t xml:space="preserve">Бусыгина пр-т.36; Бусыгина пр-т.40; Бусыгина пр-т.45А; Бусыгина пр-т.46; Бусыгина пр-т.47; Бусыгина пр-т.47А; Бусыгина пр-т.48; Бусыгина пр-т.49; Бусыгина пр-т.50; Бусыгина пр-т.52; Бусыгина пр-т.56; Бусыгина пр-т.58; Бусыгина пр-т.60; Бусыгина пр-т.9; Васнецова ул.19; Васнецова ул.25; Ватутина ул.13; Ватутина ул.14; Ватутина ул.16А; Ватутина ул.18; Ватутина ул.1А; Ватутина ул.2; Ватутина ул.3; Ватутина ул.4; </t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D195" t="n">
-        <v>32.76843407429218</v>
+        <v>31.85590122587114</v>
       </c>
       <c r="E195" t="n">
-        <v>39.32212088915062</v>
+        <v>38.22708147104537</v>
       </c>
       <c r="F195" t="n">
-        <v>32.90093925795412</v>
+        <v>31.6863268176792</v>
       </c>
       <c r="G195" t="n">
-        <v>39.48112710954494</v>
+        <v>38.02359218121504</v>
       </c>
       <c r="H195" t="n">
-        <v>499.9648703371558</v>
+        <v>163.0873795923157</v>
       </c>
       <c r="I195" t="n">
-        <v>188.4947342593591</v>
+        <v>74.49566075064045</v>
       </c>
       <c r="J195" t="n">
-        <v>74.04000000000002</v>
+        <v>73.04000000000001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мельникова ул.14; Мельникова ул.16; Мельникова ул.8; Газовская ул.19; Мельникова ул.10; Нижний Новгород г., Юлиуса Фучика ул.39А; Нижний Новгород г., Веденяпина ул.30А; 6-й микрорайон41; 6-й микрорайон43; 6-й микрорайон45; Веденяпина ул.26; Веденяпина ул.27; Веденяпина ул.28; Веденяпина ул.29; Веденяпина ул.30; Веденяпина ул.32; Нижний Новгород г., Южное ш.6А; Дьяконова ул.19; Дьяконова ул.24А; Дьяконова ул.24; Нижний Новгород г., Монастырка ул.13; </t>
+          <t xml:space="preserve">Веденяпина ул.10; Веденяпина ул.11; Веденяпина ул.13; Веденяпина ул.16А; Веденяпина ул.18; Веденяпина ул.1А; Веденяпина ул.1Б; Веденяпина ул.1В; Веденяпина ул.2; Веденяпина ул.21; Веденяпина ул.22; Веденяпина ул.23; Веденяпина ул.24; Веденяпина ул.25; Веденяпина ул.26; Веденяпина ул.27; Веденяпина ул.28; </t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D196" t="n">
-        <v>32.90093925795412</v>
+        <v>30.2483247507096</v>
       </c>
       <c r="E196" t="n">
-        <v>39.48112710954494</v>
+        <v>36.29798970085152</v>
       </c>
       <c r="F196" t="n">
-        <v>32.93589091562992</v>
+        <v>32.90365735082025</v>
       </c>
       <c r="G196" t="n">
-        <v>39.5230690987559</v>
+        <v>39.4843888209843</v>
       </c>
       <c r="H196" t="n">
-        <v>191.4159616263055</v>
+        <v>149.9358817207817</v>
       </c>
       <c r="I196" t="n">
-        <v>85.48177501250423</v>
+        <v>70.0312794415066</v>
       </c>
       <c r="J196" t="n">
-        <v>73.70000000000002</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Гайдара ул.20; Нижний Новгород г., Гайдара ул.24; Володарск г., Калининская ул.10; Нижний Новгород г., Южное ш.4Б; 6-й микрорайон7А; 6-й микрорайон7; 6-й микрорайон9; 6-й микрорайон3; 6-й микрорайон1А; г. Володарск, Базарная ул.8; Дьяконова ул.11; </t>
+          <t xml:space="preserve">Веденяпина ул.29; Веденяпина ул.3; Веденяпина ул.30; Веденяпина ул.32; Веденяпина ул.6; Веденяпина ул.6А; Виктора Коноваленко б-р.4; Газовская ул.11; Газовская ул.19; Газовская ул.25; Героя Васильева ул.1; Героя Васильева ул.10А; Героя Васильева ул.12; Героя Васильева ул.15; Героя Васильева ул.30; Героя Васильева ул.36; Героя Васильева ул.44; Героя Васильева ул.5; Героя Васильева ул.56; Героя Васильева ул.7; Героя Васильева ул.9; </t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D197" t="n">
-        <v>32.92926667748372</v>
+        <v>32.90365735082025</v>
       </c>
       <c r="E197" t="n">
-        <v>39.51512001298047</v>
+        <v>39.4843888209843</v>
       </c>
       <c r="F197" t="n">
-        <v>32.97959241654802</v>
+        <v>24.72162986313124</v>
       </c>
       <c r="G197" t="n">
-        <v>39.57551089985763</v>
+        <v>29.66595583575749</v>
       </c>
       <c r="H197" t="n">
-        <v>685.0807259216572</v>
+        <v>189.6515522943147</v>
       </c>
       <c r="I197" t="n">
-        <v>264.8196166191462</v>
+        <v>77.01434170506161</v>
       </c>
       <c r="J197" t="n">
-        <v>24.04</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дьяконова ул.5А; Дьяконова ул.7к3; Дьяконова ул.9к1; г. Володарск, Набережная ул.21; Пермякова ул.4А; Дворовая ул.33/2; Пермякова ул.6; Пермякова ул.4; г. Володарск, Базарная ул.22; Пермякова ул.14; </t>
+          <t xml:space="preserve">Героя Советского Союза Бахтина ул.10; Героя Советского Союза Бахтина ул.2; Героя Советского Союза Бахтина ул.5; Героя Советского Союза Поющева ул.11; Героя Советского Союза Поющева ул.17; Героя Советского Союза Поющева ул.19; Героя Советского Союза Поющева ул.20; Героя Советского Союза Поющева ул.22А; Героя Советского Союза Поющева ул.25; Героя Советского Союза Поющева ул.31; Героя Советского Союза Прыгунова ул.1; Героя Советского Союза Прыгунова ул.10; Героя Советского Союза Прыгунова ул.12; Героя Советского Союза Прыгунова ул.15; Героя Советского Союза Прыгунова ул.16; Героя Советского Союза Прыгунова ул.16А; Героя Советского Союза Прыгунова ул.17; Героя Советского Союза Прыгунова ул.17Б; Героя Советского Союза Прыгунова ул.2; Героя Советского Союза Прыгунова ул.20; Героя Советского Союза Прыгунова ул.21; Героя Советского Союза Прыгунова ул.22; Героя Советского Союза Прыгунова ул.27; Героя Советского Союза Прыгунова ул.3; </t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D198" t="n">
-        <v>32.97959241654802</v>
+        <v>32.12289970157809</v>
       </c>
       <c r="E198" t="n">
-        <v>39.57551089985763</v>
+        <v>38.54747964189371</v>
       </c>
       <c r="F198" t="n">
-        <v>33.05838786073348</v>
+        <v>31.6863268176792</v>
       </c>
       <c r="G198" t="n">
-        <v>39.67006543288016</v>
+        <v>38.02359218121504</v>
       </c>
       <c r="H198" t="n">
-        <v>686.1202878539772</v>
+        <v>221.8371482374279</v>
       </c>
       <c r="I198" t="n">
-        <v>265.2195725953214</v>
+        <v>93.57244938443534</v>
       </c>
       <c r="J198" t="n">
-        <v>25.3</v>
+        <v>74.79999999999998</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пермякова ул.12; Пермякова ул.10; Пермякова ул.8; Нижний Новгород г., Пермякова ул.10А; Дворовая ул.36; Юлиуса Фучика ул.37; Юлиуса Фучика ул.39; Юлиуса Фучика ул.41; Юлиуса Фучика ул.43; Юлиуса Фучика ул.35; Нижний Новгород г., Бусыгина пр-т.2А; Дьяконова ул.16; Дьяконова ул.14; Дьяконова ул.12; Дьяконова ул.8; Дружаева ул.7; Дружаева ул.9; Дьяконова ул.20; Газовская ул.11; Дьяконова ул.22; п. Новосмолинский, Новая ул.12; Дьяконова ул.2к2; Дьяконова ул.2к3; г. Володарск, Первомайская ул.27Б; </t>
+          <t xml:space="preserve">Героя Советского Союза Прыгунова ул.31; Героя Советского Союза Прыгунова ул.8; Героя Юрия Смирнова ул.13; Героя Юрия Смирнова ул.17; Героя Юрия Смирнова ул.23; Героя Юрия Смирнова ул.25; Героя Юрия Смирнова ул.35; Героя Юрия Смирнова ул.53; Героя Юрия Смирнова ул.61; Героя Юрия Смирнова ул.65; Героя Юрия Смирнова ул.67; Дворовая ул.29; Дворовая ул.30; Дворовая ул.33/2; Дворовая ул.34; Дворовая ул.36; Дворовая ул.38; Детская ул.48; Дружаева ул.11; Дружаева ул.13; </t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D199" t="n">
-        <v>33.05838786073348</v>
+        <v>31.70580495509726</v>
       </c>
       <c r="E199" t="n">
-        <v>39.67006543288016</v>
+        <v>38.04696594611671</v>
       </c>
       <c r="F199" t="n">
-        <v>33.27025983444273</v>
+        <v>32.5412523587835</v>
       </c>
       <c r="G199" t="n">
-        <v>39.92431180133128</v>
+        <v>39.0495028305402</v>
       </c>
       <c r="H199" t="n">
-        <v>687.8664009930623</v>
+        <v>174.8244226789209</v>
       </c>
       <c r="I199" t="n">
-        <v>253.0052039930147</v>
+        <v>79.17287622481548</v>
       </c>
       <c r="J199" t="n">
-        <v>67.27</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Володарск г., Базарная  ул.18; Переходникова ул.3А; Дьяконова ул.10А; Дьяконова ул.6А; Дьяконова ул.10; Дьяконова ул.7к2; Дьяконова ул.9; Дьяконова ул.5Б; Дьяконова ул.9к2; Переходникова ул.5А; Дьяконова ул.2к1; Дружаева ул.8; Дьяконова ул.6; Переходникова ул.15; Нижний Новгород г., Дружаева ул.7А; Дружаева ул.5; Дружаева ул.3; Нижний Новгород г., Дружаева ул.5Б; Дружаева ул.5А; Дружаева ул.6; Переходникова ул.9; г. Володарск, Первомайская ул.27; г. Володарск, Комсомольская ул.30; г. Володарск, Володарского ул.15; Нижний Новгород г., Южный б-р.22в; Переходникова ул.13; г. Володарск, Аминева ул.5; </t>
+          <t xml:space="preserve">Дружаева ул.13А; Дружаева ул.15; Дружаева ул.15А; Дружаева ул.17; Дружаева ул.17А; Дружаева ул.26; Дружаева ул.3; Дружаева ул.5; Дружаева ул.5А; Дружаева ул.6; Дружаева ул.7; Дружаева ул.8; Дружаева ул.9; Дьяконова ул.10; Дьяконова ул.10А; Дьяконова ул.11; Дьяконова ул.12; Дьяконова ул.13; Дьяконова ул.13А; Дьяконова ул.14; Дьяконова ул.15; Дьяконова ул.16; Дьяконова ул.19; Дьяконова ул.1А; Дьяконова ул.20; Дьяконова ул.22; </t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D200" t="n">
-        <v>33.26393110892487</v>
+        <v>32.5412523587835</v>
       </c>
       <c r="E200" t="n">
-        <v>39.91671733070984</v>
+        <v>39.0495028305402</v>
       </c>
       <c r="F200" t="n">
-        <v>33.66335553933557</v>
+        <v>32.92246562974749</v>
       </c>
       <c r="G200" t="n">
-        <v>40.39602664720269</v>
+        <v>39.50695875569699</v>
       </c>
       <c r="H200" t="n">
-        <v>750.5142192123672</v>
+        <v>157.9463818823518</v>
       </c>
       <c r="I200" t="n">
-        <v>277.9597872754796</v>
+        <v>74.0960110058015</v>
       </c>
       <c r="J200" t="n">
-        <v>56.46</v>
+        <v>73.70000000000002</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п. Ильино, Чкалова ул.30; г. Володарск, Комсомольский переулок. 13; г. Володарск, Володарского ул.21; Володарский р-н, Сейма п., , д.; г. Володарск, Военный городок ул.44; Переходникова ул.3; Нижний Новгород г., Переходникова ул.1Б; Переходникова ул.1; Переходникова ул.5; Володарский р-н, Юганец пгт., Центральная ул. (Новопокровское д)18; р.п. Юганец, Восточная ул.3; г. Володарск, Южная ул.18; г. Володарск, Аминева ул.41; г. Володарск, Октябрьская ул.7; г. Володарск, Дзержинского ул.25; г. Володарск, Максима горького ул.12; г. Володарск, Октябрьская ул.41; г. Володарск, Максима горького ул.50; г. Володарск, Максима горького ул.35; р.п. Юганец, Маяковского ул.36; р.п. Юганец, Маяковского ул.10; р.п. Юганец, Новая ул.6; р.п. Юганец, Новая ул.1; п. Новосмолинский, ул.Шоссейная 9; п. Новосмолинский, Шоссейная ул.3; п. Новосмолинский, Шоссейная ул.2А; п. Новосмолинский, Шоссейная ул.4; Володарск г., 388км, севернее ГЖД; п. Новосмолинский, Шоссейная ул.15; г. Володарск, Луговая ул.3; </t>
+          <t xml:space="preserve">Дьяконова ул.24; Дьяконова ул.24А; Дьяконова ул.26; Дьяконова ул.26А; Дьяконова ул.28; Дьяконова ул.2к1; Дьяконова ул.2к2; Дьяконова ул.2к3; Дьяконова ул.30; Дьяконова ул.30А; Дьяконова ул.40; Дьяконова ул.40к1; Дьяконова ул.41; Дьяконова ул.43А; Дьяконова ул.44; Дьяконова ул.5А; Дьяконова ул.5Б; Дьяконова ул.6; Дьяконова ул.6А; Дьяконова ул.7к2; Дьяконова ул.7к3; Дьяконова ул.8; Дьяконова ул.9; Дьяконова ул.9к1; Дьяконова ул.9к2; Ермоловой ул.25; Заслонова ул.1; Заслонова ул.16; Заслонова ул.2; Заслонова ул.4; Заслонова ул.8; </t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D201" t="n">
-        <v>33.66335553933557</v>
+        <v>33.18388558771017</v>
       </c>
       <c r="E201" t="n">
-        <v>40.39602664720269</v>
+        <v>39.8206627052522</v>
       </c>
       <c r="F201" t="n">
-        <v>34.91975173588563</v>
+        <v>31.0873145563037</v>
       </c>
       <c r="G201" t="n">
-        <v>41.90370208306275</v>
+        <v>37.30477746756443</v>
       </c>
       <c r="H201" t="n">
-        <v>733.7422689921401</v>
+        <v>210.4595924910246</v>
       </c>
       <c r="I201" t="n">
-        <v>270.6985213902003</v>
+        <v>90.15084340593801</v>
       </c>
       <c r="J201" t="n">
-        <v>61.47</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Володарск, Чапаева ул., проулок между 10 и 12 домом; п. Новосмолинский, Песчаная ул.6; п. Новосмолинский, Шоссейная ул.6; п. Новосмолинский, Песчаная ул.12; р.п. Юганец, Северная ул.3; р.п. Юганец, Парковая ул.14; п. Новосмолинский, ул.Широкая 2; р.п. Юганец, Фабричная ул.16; р.п. Юганец, Центральная ул.6; г. Володарск, Вторая чапаева ул.6; п. Новосмолинский, Танковая ул.1; Володарск г., Чапаева 2-я ул.1А; г. Володарск, Луговая ул.57; п. Новосмолинский, Танковая ул.14; п. Новосмолинский, ул.Танковая 15; п. Новосмолинский, ул.Танковая 16; г. Володарск, Луговая ул.35; г. Володарск, Вторая чапаева ул.21; Нижний Новгород г., Студгородок НСХИ12; </t>
+          <t xml:space="preserve">Ильича пр-т.13; Ильича пр-т.17; Ильича пр-т.20; Ильича пр-т.21; Ильича пр-т.23А; Ильича пр-т.25; Ильича пр-т.26; Ильича пр-т.29; Ильича пр-т.2А; Ильича пр-т.33; Ильича пр-т.34; Ильича пр-т.36; Ильича пр-т.37; Ильича пр-т.38; Ильича пр-т.38А; Ильича пр-т.39; Ильича пр-т.39к1; Ильича пр-т.39к2; Ильича пр-т.4; Ильича пр-т.40; Ильича пр-т.42; Ильича пр-т.42А; Ильича пр-т.43; Ильича пр-т.43к1; Ильича пр-т.43к2; Ильича пр-т.51; Ильича пр-т.56/2; Ильича пр-т.56А; Ильича пр-т.56к1; Ильича пр-т.59; Ильича пр-т.6; Ильича пр-т.65; Ильича пр-т.7; </t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D202" t="n">
-        <v>34.9024866898806</v>
+        <v>24.39024136539053</v>
       </c>
       <c r="E202" t="n">
-        <v>41.88298402785671</v>
+        <v>29.26828963846864</v>
       </c>
       <c r="F202" t="n">
-        <v>35.75139988678711</v>
+        <v>31.0873145563037</v>
       </c>
       <c r="G202" t="n">
-        <v>42.90167986414453</v>
+        <v>37.30477746756443</v>
       </c>
       <c r="H202" t="n">
-        <v>847.2368166546846</v>
+        <v>196.3007452544481</v>
       </c>
       <c r="I202" t="n">
-        <v>314.7162752300549</v>
+        <v>80.82170779368741</v>
       </c>
       <c r="J202" t="n">
-        <v>42.02</v>
+        <v>72.38000000000001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Володарск, Вторая чапаева ул.29; г. Володарск, Луговая ул.80; п. Новосмолинский, Танковая ул.5; п. Новосмолинский, Танковая ул.4; п. Новосмолинский, Танковая ул.19; г. Володарск, Луговая ул.90; г.Володарск,ул.Луговая д.113; п. Новосмолинский, Танковая ул.20; п. Новосмолинский, Танковая ул.21; п. Новосмолинский, Танковая ул.9; Володарский р-н, Золино с., Озерная ул.3/1; Нижний Новгород г., ст. Кустовая0; </t>
+          <t xml:space="preserve">Ильича пр-т.8; Ильича пр-т.9; Калининградская ул. (Парижской коммуны п)7; Каменогорская ул. (Парижской коммуны п)2; Карская ул. (Парижской коммуны п), д.1; Карьерная ул.1А; Керженская ул.5; Кирова пр-т10; Кирова пр-т11; Кирова пр-т16; Кирова пр-т17; Кирова пр-т20; Кирова пр-т20/1; Кирова пр-т20/2; Кирова пр-т20/3; Кирова пр-т24; Кирова пр-т25; Кирова пр-т3; Кирова пр-т31; Кирова пр-т31А; Кирова пр-т33А; Кирова пр-т35; Кирова пр-т4; Кирова пр-т43А; Кирова пр-т6; </t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D203" t="n">
-        <v>35.69107280381521</v>
+        <v>31.0873145563037</v>
       </c>
       <c r="E203" t="n">
-        <v>42.82928736457825</v>
+        <v>37.30477746756443</v>
       </c>
       <c r="F203" t="n">
-        <v>36.34927807127992</v>
+        <v>31.26495668298018</v>
       </c>
       <c r="G203" t="n">
-        <v>43.6191336855359</v>
+        <v>37.51794801957622</v>
       </c>
       <c r="H203" t="n">
-        <v>732.3071579837037</v>
+        <v>228.6479066561265</v>
       </c>
       <c r="I203" t="n">
-        <v>283.8107521925814</v>
+        <v>95.79998096880455</v>
       </c>
       <c r="J203" t="n">
-        <v>23.57</v>
+        <v>72.81999999999999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">п.Золино, Школьная д.2; Нижний Новгород г., Гагарина пр-т99к2; Нижний Новгород г., Гагарина пр-т99к1; п.Золино,ул.Кооперативная 49; </t>
+          <t xml:space="preserve">Кирова пр-т8; Коломенская ул.10; Коломенская ул.12; Коломенская ул.8; Коломенская ул.8к1; Коломенская ул.8к3; Комсомольская ул.10; Комсомольская ул.11; Комсомольская ул.13; Комсомольская ул.17; Комсомольская ул.2; Комсомольская ул.2В; Комсомольская ул.33; Комсомольская ул.35; Комсомольская ул.35А; </t>
         </is>
       </c>
       <c r="B204" t="n">
         <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D204" t="n">
-        <v>36.26273592647088</v>
+        <v>31.48885433753915</v>
       </c>
       <c r="E204" t="n">
-        <v>43.51528311176506</v>
+        <v>37.78662520504697</v>
       </c>
       <c r="F204" t="n">
-        <v>36.51625595519356</v>
+        <v>30.86934335817645</v>
       </c>
       <c r="G204" t="n">
-        <v>43.81950714623227</v>
+        <v>37.04321202981174</v>
       </c>
       <c r="H204" t="n">
-        <v>739.1393859059434</v>
+        <v>161.996022469424</v>
       </c>
       <c r="I204" t="n">
-        <v>292.5981372575017</v>
+        <v>72.42799678384129</v>
       </c>
       <c r="J204" t="n">
-        <v>10.42</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">п. Золино, Школьная ул.11; Нижний Новгород г., Гагарина пр-т101к5; Нижний Новгород г., Гагарина пр-т103; Нижний Новгород г., Гагарина пр-т103А; Нижний Новгород г., Гагарина пр-т101к3; Нижний Новгород г., Гагарина пр-т200; Нижний Новгород г., Гагарина пр-т198; Нижний Новгород г., Кащенко ул.17; Нижний Новгород г., Кащенко ул.19А; Нижний Новгород г., Ларина ул.9; Нижний Новгород г., Кемеровская ул.16; Нижний Новгород г., Кемеровская ул.16/1; Нижний Новгород г., Кемеровская ул.18; Нижний Новгород г., Гагарина пр-т208; Нижний Новгород г., Гагарина пр-т103Б; Нижний Новгород г., Тропинина ул.4; Нижний Новгород г., Тропинина ул.6; Нижний Новгород г., Тропинина ул.1; Нижний Новгород г., Тропинина ул.2А; Нижний Новгород г., Тропинина ул.2; п. Золино, Школьная ул.14; п. Золино, Школьная ул.17; п. Золино, Школьная ул.19; п.Золино, Комсомольская д.51; </t>
+          <t xml:space="preserve">Комсомольская ул.37; Комсомольская ул.39; Комсомольская ул.4; Комсомольская ул.40; Комсомольская ул.42; Комсомольская ул.44; Комсомольская ул.44Б; Комсомольская ул.48; Комсомольская ул.50; Комсомольская ул.52; Комсомольская ул.6; Комсомольская ул.7; Комсомольская ул.8; Красноармейская ул. (Парижской коммуны п)3; Краснодонцев ул.1; Краснодонцев ул.11; Краснодонцев ул.11А; Краснодонцев ул.13; Краснодонцев ул.15; Краснодонцев ул.19; Краснодонцев ул.19А; Краснодонцев ул.19к1; Краснодонцев ул.21; Краснодонцев ул.21к1; </t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -7118,1015 +7082,1051 @@
         <v>24</v>
       </c>
       <c r="D205" t="n">
-        <v>36.51625595519356</v>
+        <v>31.25556318336583</v>
       </c>
       <c r="E205" t="n">
-        <v>43.81950714623227</v>
+        <v>37.50667582003899</v>
       </c>
       <c r="F205" t="n">
-        <v>37.14091991948511</v>
+        <v>31.70430926900496</v>
       </c>
       <c r="G205" t="n">
-        <v>44.56910390338213</v>
+        <v>38.04517112280595</v>
       </c>
       <c r="H205" t="n">
-        <v>590.5023351588361</v>
+        <v>182.824363253956</v>
       </c>
       <c r="I205" t="n">
-        <v>223.4958963233244</v>
+        <v>80.73243493034315</v>
       </c>
       <c r="J205" t="n">
-        <v>73.32000000000001</v>
+        <v>72.60000000000002</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">п.Золино, Комсомольская д.101; п.Золино, Комсомольская д.81; п.Золино, Комсомольская д.123; Володарский р-н, Золино с., , д.; Нижний Новгород г., Гагарина пр-т168; Нижний Новгород г., Гагарина пр-т39; Нижний Новгород г., Гагарина пр-т218; Нижний Новгород г., Гагарина пр-т210; Нижний Новгород г., Маршала Жукова ул.15; Нижний Новгород г., Гагарина пр-т214; Нижний Новгород г., Гагарина пр-т212А; Нижний Новгород г., Маршала Жукова ул.21; Нижний Новгород г., Тропинина ул.12; Нижний Новгород г., Тропинина ул.16; Нижний Новгород г., Тропинина ул.5А; Нижний Новгород г., Тропинина ул.3; Нижний Новгород г., Тропинина ул.14; Нижний Новгород г., Тропинина ул.3А; Нижний Новгород г., Тропинина ул.7А; Нижний Новгород г., Гагарина пр-т109; Нижний Новгород г., Тропинина ул.8; Нижний Новгород г., Гагарина пр-т107; Нижний Новгород г., Тропинина ул.5; Нижний Новгород г., Тропинина ул.10; Нижний Новгород г., Петровского ул.23; Нижний Новгород г., Петровского ул.21А; Нижний Новгород г., 1-й Кемеровский пер.2; Нижний Новгород г., Гагарина пр-т101к4; Нижний Новгород г., Гагарина пр-т101к2; Нижний Новгород г., Гагарина пр-т101к1; </t>
+          <t xml:space="preserve">Краснодонцев ул.21к2; Краснодонцев ул.21к3; Краснодонцев ул.23; Краснодонцев ул.3; Краснодонцев ул.4; Краснодонцев ул.5; Краснодонцев ул.7А; Краснодонцев ул.9; Красноуральская ул.13к2; Красных Партизан ул.12; Красных Партизан ул.14; Красных Партизан ул.16; Красных Партизан ул.18; Красных Партизан ул.18А; Красных Партизан ул.4/4; Красных Партизан ул.6; Красных Партизан ул.8; Ленина пр-т., д.125; Ленина пр-т98А; Лескова ул.11; Лескова ул.12; Лескова ул.15А; Лескова ул.17; Лескова ул.18; </t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D206" t="n">
-        <v>37.14091991948511</v>
+        <v>31.77397020156847</v>
       </c>
       <c r="E206" t="n">
-        <v>44.56910390338213</v>
+        <v>38.12876424188217</v>
       </c>
       <c r="F206" t="n">
-        <v>37.3283055965123</v>
+        <v>31.64398668506845</v>
       </c>
       <c r="G206" t="n">
-        <v>44.79396671581476</v>
+        <v>37.97278402208214</v>
       </c>
       <c r="H206" t="n">
-        <v>361.4270359943139</v>
+        <v>170.841198867308</v>
       </c>
       <c r="I206" t="n">
-        <v>148.6440917685302</v>
+        <v>76.32210176177885</v>
       </c>
       <c r="J206" t="n">
-        <v>72.59</v>
+        <v>74.80000000000001</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т101; Нижний Новгород г., Кащенко ул.25; Нижний Новгород г., Маршала Жукова ул.19; Нижний Новгород г., Маршала Жукова ул.17; Нижний Новгород г., Маршала Жукова ул.18; Нижний Новгород г., Военных Комиссаров ул.1; Нижний Новгород г., Маршала Жукова ул.20; Нижний Новгород г., Гагарина пр-т196; Нижний Новгород г., Маршала Жукова ул.1А; Нижний Новгород г., Маршала Жукова ул.1; Нижний Новгород г., Гагарина пр-т194; Нижний Новгород г., Гагарина пр-т194; Нижний Новгород г., Петровского ул.11; Нижний Новгород г., Кащенко ул.23; Нижний Новгород г., Кащенко ул.27; Нижний Новгород г., Кемеровская ул., д.12; Нижний Новгород г., Гагарина пр-т105; Нижний Новгород г., Маршала Жукова ул.13; Нижний Новгород г., Гагарина пр-т204; Нижний Новгород г., Гагарина пр-т206; Нижний Новгород г., Центральная ул.125а; Нижний Новгород г., Маршала Жукова ул.3; Нижний Новгород г., Маршала Жукова ул.8; Нижний Новгород г., Маршала Жукова ул.2; Нижний Новгород г., Кащенко ул.9; Нижний Новгород г., Кащенко ул.9; Нижний Новгород г., Геологов ул.10; Нижний Новгород г., Геологов ул.4; Нижний Новгород г., Тропинина ул.18; Нижний Новгород г., Гагарина пр-т117; Нижний Новгород г., Гагарина пр-т115; Нижний Новгород г., Маршала Жукова ул.23; Нижний Новгород г., Гагарина пр-т119; Нижний Новгород г., Гагарина пр-т111; Нижний Новгород г., Гагарина пр-т220; </t>
+          <t xml:space="preserve">Лескова ул.21; Лескова ул.21А; Лескова ул.22; Лескова ул.24; Лескова ул.27А; Лескова ул.29А; Лескова ул.35; Лескова ул.35к1; Лескова ул.4; Лескова ул.40; Лескова ул.42; Лескова ул.50; Лескова ул.54; Лескова ул.58; Лескова ул.60; Лескова ул.7; Лескова ул.8; Литке ул. (Парижской коммуны п)4; Лоскутова ул.14; Лоскутова ул.20; Лоскутова ул.23; Львовская ул., д.7а; Львовская ул.10; Львовская ул.12; Львовская ул.13; Львовская ул.17; Львовская ул.19; </t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D207" t="n">
-        <v>37.3283055965123</v>
+        <v>31.68824668458342</v>
       </c>
       <c r="E207" t="n">
-        <v>44.79396671581476</v>
+        <v>38.0258960215001</v>
       </c>
       <c r="F207" t="n">
-        <v>37.64074660945698</v>
+        <v>32.47993550785262</v>
       </c>
       <c r="G207" t="n">
-        <v>45.16889593134837</v>
+        <v>38.97592260942314</v>
       </c>
       <c r="H207" t="n">
-        <v>287.644384992748</v>
+        <v>198.4055531716476</v>
       </c>
       <c r="I207" t="n">
-        <v>124.1969694093914</v>
+        <v>86.96140124248519</v>
       </c>
       <c r="J207" t="n">
-        <v>76.24000000000001</v>
+        <v>72.60000000000001</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т222; Нижний Новгород г., Гагарина пр-т113; Нижний Новгород г., Маршала Голованова ул.59; Нижний Новгород г., Маршала Голованова ул.63; Нижний Новгород г., Маршала Голованова ул.65; Нижний Новгород г., Маршала Голованова ул.69; Нижний Новгород г., Академика Лебедева ул.12; Нижний Новгород г., Маршала Голованова ул.67; Нижний Новгород г., Маршала Голованова ул.61; Нижний Новгород г., Военных Комиссаров ул.9; Нижний Новгород г., Военных Комиссаров ул.4; Нижний Новгород г., Военных Комиссаров ул.7; Нижний Новгород г., Щербинки 1 мкр.20; Нижний Новгород г., Горная ул.2А; Нижний Новгород г., Мызинская ул.2; Нижний Новгород г., Героя Шапошникова ул.12; Нижний Новгород г., Петровского ул.3; Нижний Новгород г., Маршала Голованова ул.43; Нижний Новгород г., Маршала Жукова ул.10; Нижний Новгород г., Академика Лебедева ул.1; Нижний Новгород г., Маршала Жукова ул.16; Нижний Новгород г., Военных Комиссаров ул.3; Нижний Новгород г., Маршала Жукова ул.11; Нижний Новгород г., Академика Лебедева ул.8А; Нижний Новгород г., Военных Комиссаров ул.5; Нижний Новгород г., Маршала Жукова ул.14; Нижний Новгород г., Академика Лебедева ул.3; Нижний Новгород г., Академика Лебедева ул.4; Нижний Новгород г., Академика Лебедева ул.8; Нижний Новгород г., Маршала Жукова ул.9; </t>
+          <t xml:space="preserve">Львовская ул.1а; Львовская ул.2; Львовская ул.21; Львовская ул.23; Львовская ул.25; Львовская ул.29; Львовская ул.3; Львовская ул.31; Львовская ул.33; Львовская ул.3А; Львовская ул.3Б; Львовская ул.4; Львовская ул.5; Львовская ул.5А; Львовская ул.6; Львовская ул.8; Любы Шевцовой ул.1А; Мельникова ул.10; Мельникова ул.11; Мельникова ул.14; Мельникова ул.16; </t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D208" t="n">
-        <v>37.64074660945698</v>
+        <v>32.47993550785262</v>
       </c>
       <c r="E208" t="n">
-        <v>45.16889593134837</v>
+        <v>38.97592260942314</v>
       </c>
       <c r="F208" t="n">
-        <v>37.80485193344213</v>
+        <v>32.54560468913869</v>
       </c>
       <c r="G208" t="n">
-        <v>45.36582232013055</v>
+        <v>39.05472562696643</v>
       </c>
       <c r="H208" t="n">
-        <v>166.0215649234476</v>
+        <v>171.4246252975148</v>
       </c>
       <c r="I208" t="n">
-        <v>85.06315487359885</v>
+        <v>77.84177442635519</v>
       </c>
       <c r="J208" t="n">
-        <v>72.59999999999999</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Горная ул.6; Нижний Новгород г., Горная ул.4; Нижний Новгород г., Гагарина пр-т162; Нижний Новгород г., Горная ул.6А; Нижний Новгород г., Маршала Голованова ул.57; Нижний Новгород г., Военных Комиссаров ул.6; Нижний Новгород г., Маршала Голованова ул.27; Нижний Новгород г., Маршала Жукова ул.4; Нижний Новгород г., Маршала Жукова ул.6; Нижний Новгород г., Большая ул.2А; Нижний Новгород г., Кащенко ул.14; п.Золино, Комсомольская д.155; п.Золино, Комсомольская д.140; Нижний Новгород г., Маршала Голованова ул.51; Нижний Новгород г., Маршала Голованова ул.49; Нижний Новгород г., Маршала Голованова ул.55; Нижний Новгород г., Маршала Голованова ул.47; Нижний Новгород г., Маршала Голованова ул.45; Нижний Новгород г., Кащенко ул.12; Нижний Новгород г., Гагарина пр-т91/1; Нижний Новгород г., Ларина ул.13; Нижний Новгород г., Щербинки 1 мкр.13к2; Нижний Новгород г., Щербинки 1 мкр.26; Нижний Новгород г., Щербинки 1 мкр.31; Нижний Новгород г., Щербинки 1 мкр.13к1; Нижний Новгород г., Щербинки 1 мкр.14к2; Нижний Новгород г., Маршала Голованова ул.17; Нижний Новгород г., Маршала Голованова ул.15А; Нижний Новгород г., Щербинки 1 мкр.18; Нижний Новгород г., Маршала Голованова ул.19к3; Нижний Новгород г., Маршала Голованова ул.19к2; Нижний Новгород г., 40 лет Победы ул.1; </t>
+          <t xml:space="preserve">Мельникова ул.27; Мельникова ул.28; Мельникова ул.29; Мельникова ул.30; Мельникова ул.8; Молодежный пр-т., д.74а; Молодежный пр-т.12А; Молодежный пр-т.12Б; Молодежный пр-т.14; Молодежный пр-т.18; Молодежный пр-т.18А; Молодежный пр-т.1Б; Молодежный пр-т.2; Молодежный пр-т.24А; Молодежный пр-т.25; Молодежный пр-т.26; Молодежный пр-т.28А; Молодежный пр-т.30; Молодежный пр-т.31к2; Молодежный пр-т.31к3; Молодежный пр-т.32; Молодежный пр-т.33; Молодежный пр-т.38; Молодежный пр-т.38к1; Молодежный пр-т.38к2; Молодежный пр-т.4; Молодежный пр-т.42; </t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D209" t="n">
-        <v>37.79042813840835</v>
+        <v>32.90093925795412</v>
       </c>
       <c r="E209" t="n">
-        <v>45.34851376609002</v>
+        <v>39.48112710954494</v>
       </c>
       <c r="F209" t="n">
-        <v>37.97973340285079</v>
+        <v>30.79015768424301</v>
       </c>
       <c r="G209" t="n">
-        <v>45.57568008342095</v>
+        <v>36.94818922109161</v>
       </c>
       <c r="H209" t="n">
-        <v>660.1478421288277</v>
+        <v>198.2905124875752</v>
       </c>
       <c r="I209" t="n">
-        <v>249.3143821066162</v>
+        <v>85.96089206820723</v>
       </c>
       <c r="J209" t="n">
-        <v>73.87</v>
+        <v>72.82000000000001</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Гагарина пр-т224; Нижний Новгород г., Вятская ул.3; Нижний Новгород г., Вятская ул.2; Нижний Новгород г., Вятская ул.1; Нижний Новгород г., Маршала Голованова ул.41А; Нижний Новгород г., Маршала Голованова ул.41; Нижний Новгород г., Маршала Голованова ул.37А; Нижний Новгород г., Маршала Голованова ул.31; Нижний Новгород г., Маршала Голованова ул.33; Нижний Новгород г., Маршала Голованова ул.35; Нижний Новгород г., Маршала Голованова ул.37; Нижний Новгород г., Маршала Голованова ул.39; Нижний Новгород г., Маршала Голованова ул.29; Нижний Новгород г., Геологов ул.1; Нижний Новгород г., Маршала Жукова ул.27; Нижний Новгород г., Гагарина пр-т226; Нижний Новгород г., 40 лет Победы ул.4; Нижний Новгород г., Маршала Жукова ул.25; Нижний Новгород г., 40 лет Победы ул.6; Нижний Новгород г., 40 лет Победы ул.5; Нижний Новгород г., Маршала Голованова ул.71; Нижний Новгород г., Маршала Голованова ул.73; Нижний Новгород г., 40 лет Победы ул.3; Нижний Новгород г., 40 лет Победы ул.2; Нижний Новгород г., 40 лет Победы ул.7; Нижний Новгород г., Маршала Жукова ул.22; Нижний Новгород г., Медицинская ул.5; </t>
+          <t xml:space="preserve">Молодежный пр-т.4А; Молодежный пр-т.54; Молодежный пр-т.62; Молодежный пр-т.7; Молодежный пр-т.72; Молодежный пр-т.76; Молодежный пр-т.78А; Моторный пер.1; Моторный пер.2к1; Моторный пер.4к2; Нарвская ул.5; Некрасова ул. (Парижской коммуны п)д. 13 к1; Обнорского ул.33; Октября пр-т.12; Октября пр-т.13; Октября пр-т.16; Октября пр-т.17; Октября пр-т.18; Октября пр-т.20; Октября пр-т.21; Октября пр-т.22; Октября пр-т.24; Октября пр-т.25; Октября пр-т.3; </t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D210" t="n">
-        <v>37.97973340285079</v>
+        <v>29.97393880380934</v>
       </c>
       <c r="E210" t="n">
-        <v>45.57568008342095</v>
+        <v>35.96872656457121</v>
       </c>
       <c r="F210" t="n">
-        <v>38.05668929301913</v>
+        <v>31.70712846382012</v>
       </c>
       <c r="G210" t="n">
-        <v>45.66802715162296</v>
+        <v>38.04855415658414</v>
       </c>
       <c r="H210" t="n">
-        <v>187.1784768641621</v>
+        <v>228.674552701244</v>
       </c>
       <c r="I210" t="n">
-        <v>92.84846606722809</v>
+        <v>93.24967597985373</v>
       </c>
       <c r="J210" t="n">
-        <v>73.82000000000002</v>
+        <v>79.19999999999999</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Медицинская ул.1А; Нижний Новгород г., Маршала Голованова ул.11; Нижний Новгород г., Горная ул.12; Нижний Новгород г., Горная ул.20; Нижний Новгород г., Горная ул.10А; Нижний Новгород г., Щербинки 1 мкр.27; Нижний Новгород г., Щербинки 1 мкр.29; Нижний Новгород г., Гагарина пр-т182; Нижний Новгород г., Ларина ул.1; Нижний Новгород г., Ларина ул.3; п.Золино, Комсомольская д.11; п.Золино, Комсомольская д.35; Нижний Новгород г., Невская ул.25; Нижний Новгород г., Гагарина пр-т158; Нижний Новгород г., Невская ул.27; Нижний Новгород г., Гагарина пр-т160; Нижний Новгород г., Гагарина пр-т156; Нижний Новгород г., Невская ул.21; Нижний Новгород г., 30 лет Октября ул.2; Нижний Новгород г., Осенняя ул., д.1-133; Нижний Новгород г., Щербинки 1 мкр.14; </t>
+          <t xml:space="preserve">Октября пр-т.8; Отечественная ул. (Гнилицы п)1; Переходникова ул.1; Переходникова ул.13; Переходникова ул.15; Переходникова ул.25; Переходникова ул.27; Переходникова ул.29; Переходникова ул.3; Переходникова ул.31; Переходникова ул.3А; Переходникова ул.5; Переходникова ул.5А; Переходникова ул.9; Пермякова ул.10; Пермякова ул.12; Пермякова ул.14; Пермякова ул.16; Пермякова ул.18; Пермякова ул.20; Пермякова ул.22; Пермякова ул.24; </t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D211" t="n">
-        <v>38.05668929301913</v>
+        <v>31.31228564777681</v>
       </c>
       <c r="E211" t="n">
-        <v>45.66802715162296</v>
+        <v>37.57474277733218</v>
       </c>
       <c r="F211" t="n">
-        <v>38.17278052253284</v>
+        <v>32.74356294617579</v>
       </c>
       <c r="G211" t="n">
-        <v>45.8073366270394</v>
-      </c>
-      <c r="H211" t="inlineStr"/>
+        <v>39.29227553541095</v>
+      </c>
+      <c r="H211" t="n">
+        <v>238.2798124284553</v>
+      </c>
       <c r="I211" t="n">
-        <v>244.7236310908005</v>
+        <v>100.2908718109937</v>
       </c>
       <c r="J211" t="n">
-        <v>52.07860273972603</v>
+        <v>72.60000000000002</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Щербинки 1 мкр.13; Нижний Новгород г., Щербинки 1 мкр.12; Нижний Новгород г., Крылова ул.1; Нижний Новгород г., Медицинская ул.9; Нижний Новгород г., Маршала Голованова ул.1А; Нижний Новгород г., Гагарина пр-т84; Нижний Новгород г., Гагарина пр-т82; Нижний Новгород г., Гагарина пр-т86; Нижний Новгород г., Гагарина пр-т72; Нижний Новгород г., Гагарина пр-т74; Нижний Новгород г., Сурикова ул.2; Нижний Новгород г., Горная ул.11; Нижний Новгород г., Щербинки 1 мкр.30; Нижний Новгород г., Щербинки 1 мкр.4; Нижний Новгород г., Ларина ул.5А; Нижний Новгород г., Щербинки 1 мкр.7; Нижний Новгород г., Ларина ул.5; Нижний Новгород г., Щербинки 1 мкр.2А; Нижний Новгород г., Ближнее Константиново, Полевая ул.3; Нижний Новгород г., Ларина ул.15И; Нижний Новгород г., Горная ул.11к3; Нижний Новгород г., Вятская ул.5; Нижний Новгород г., Вятская ул.8; Нижний Новгород г., Вятская ул.7; Нижний Новгород г., Вятская ул.6; Нижний Новгород г., Вятская ул.9; </t>
+          <t xml:space="preserve">Пермякова ул.28; Пермякова ул.30; Пермякова ул.32; Пермякова ул.34; Пермякова ул.36; Пермякова ул.4; Пермякова ул.40; Пермякова ул.44; Пермякова ул.46; Пермякова ул.48; Пермякова ул.4А; Пермякова ул.6; Пермякова ул.8; Петряевская ул.3; Плотникова ул.2 (ТСЖ 369); Плотникова ул.2 (Наш дом); Плотникова ул.3; Плотникова ул.4; Плотникова ул.5; Политбойцов ул.10; Политбойцов ул.12; </t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D212" t="n">
-        <v>38.17278052253284</v>
+        <v>32.47993550785262</v>
       </c>
       <c r="E212" t="n">
-        <v>45.8073366270394</v>
+        <v>38.97592260942314</v>
       </c>
       <c r="F212" t="n">
-        <v>38.38330137911306</v>
+        <v>32.04011292156354</v>
       </c>
       <c r="G212" t="n">
-        <v>46.05996165493568</v>
+        <v>38.44813550587625</v>
       </c>
       <c r="H212" t="n">
-        <v>260.9704117703448</v>
+        <v>228.0338571779751</v>
       </c>
       <c r="I212" t="n">
-        <v>117.6659958383033</v>
+        <v>95.87269328560016</v>
       </c>
       <c r="J212" t="n">
-        <v>72.39999999999999</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Вятская ул.4; Нижний Новгород г., Крутояровская ул.22; Нижний Новгород г., 40 лет Октября ул.1А; Нижний Новгород г., Пятигорская ул.1; Нижний Новгород г., Гагарина пр-т150; Нижний Новгород г., Гагарина пр-т146; Нижний Новгород г., Пятигорская ул.12; Нижний Новгород г., Пятигорская ул.2; Нижний Новгород г., Пятигорская ул.8; Нижний Новгород г., Пятигорская ул.2А; Нижний Новгород г., Пятигорская ул.10; Нижний Новгород г., Пятигорская ул.6; Нижний Новгород г., Гагарина пр-т121Д; Нижний Новгород г., Малиновая Гряда п., 2; Нижний Новгород г., Тропинина ул.57; Нижний Новгород г., Тропинина ул.61; Нижний Новгород г., 40 лет Октября ул.7Б; Нижний Новгород г., 40 лет Октября ул.15 к2; Нижний Новгород г., Горная ул.11к5; Нижний Новгород г., Мызинская ул.9А; Нижний Новгород г., ст. Мыза4; Нижний Новгород г., 40 лет Победы ул.12; Нижний Новгород г., 40 лет Победы ул.8; Нижний Новгород г., 40 лет Победы ул.9; Нижний Новгород г., 40 лет Победы ул.13; Нижний Новгород г., 40 лет Победы ул.16; Нижний Новгород г., Медицинская ул.13; </t>
+          <t xml:space="preserve">Политбойцов ул.13; Политбойцов ул.14; Политбойцов ул.16; Политбойцов ул.18; Политбойцов ул.18А; Политбойцов ул.18Б; Политбойцов ул.19; Политбойцов ул.19к1; Политбойцов ул.2; Политбойцов ул.20; Политбойцов ул.21; Политбойцов ул.21А; Политбойцов ул.22; Политбойцов ул.23А; Политбойцов ул.2А; Политбойцов ул.4; Политбойцов ул.6; Политбойцов ул.7; Политбойцов ул.8; Рабочая ул.28; Раевского ул.15; Раевского ул.17; Раевского ул.19; Раевского ул.3; Раевского ул.5; </t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D213" t="n">
-        <v>38.38330137911306</v>
+        <v>32.0943880309302</v>
       </c>
       <c r="E213" t="n">
-        <v>46.05996165493568</v>
+        <v>38.51326563711625</v>
       </c>
       <c r="F213" t="n">
-        <v>38.60334225869152</v>
+        <v>32.58286186287236</v>
       </c>
       <c r="G213" t="n">
-        <v>46.32401071042982</v>
+        <v>39.09943423544684</v>
       </c>
       <c r="H213" t="n">
-        <v>239.013124404834</v>
+        <v>158.0281063233422</v>
       </c>
       <c r="I213" t="n">
-        <v>110.5821423322151</v>
+        <v>73.51553012254456</v>
       </c>
       <c r="J213" t="n">
-        <v>73.38</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., ст. Мыза2; Нижний Новгород г., Азовская ул.16; Нижний Новгород г., Гагарина пр-т178; Нижний Новгород г., Полярная ул.2; Нижний Новгород г., Сурикова ул.8А; Нижний Новгород г., Крылова ул.5Б; Нижний Новгород г., Сурикова ул.12А; Нижний Новгород г., Сурикова ул.12; Нижний Новгород г., Горная ул.32; Нижний Новгород г., Горная ул.19; Нижний Новгород г., 40 лет Октября ул.2; Нижний Новгород г., 40 лет Победы ул.10; Нижний Новгород г., 40 лет Победы ул.14; Нижний Новгород г., 40 лет Победы ул.11; Нижний Новгород г., 40 лет Победы ул.18; Нижний Новгород г., 40 лет Победы ул.20; Нижний Новгород г., 40 лет Победы ул.21; Нижний Новгород г., Крылова ул.4А; </t>
+          <t xml:space="preserve">Раевского ул.7; Ремонтная ул. (Парижской коммуны п)16; Рулевой пер.11; Рулевой пер.15; Рулевой пер.7; Сергея Тюленина ул.16; Сергея Тюленина ул.19А; Сергея Тюленина ул.20; Сергея Тюленина ул.6; Сергея Тюленина ул.7; Сергея Тюленина ул.8; Советской Армии ул.1; Советской Армии ул.10; Советской Армии ул.10А; Советской Армии ул.10Б; Советской Армии ул.12А; Советской Армии ул.12Б; Советской Армии ул.13; Советской Армии ул.13А; Советской Армии ул.15А; Советской Армии ул.16; Советской Армии ул.18; Советской Армии ул.22; Советской Армии ул.4; Советской Армии ул.5; Советской Армии ул.8; </t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D214" t="n">
-        <v>38.54337679751382</v>
+        <v>32.39902921698428</v>
       </c>
       <c r="E214" t="n">
-        <v>46.25205215701659</v>
+        <v>38.87883506038114</v>
       </c>
       <c r="F214" t="n">
-        <v>38.82933628171099</v>
+        <v>31.84468954844862</v>
       </c>
       <c r="G214" t="n">
-        <v>46.59520353805318</v>
+        <v>38.21362745813834</v>
       </c>
       <c r="H214" t="n">
-        <v>244.7253968172313</v>
+        <v>198.3838304721892</v>
       </c>
       <c r="I214" t="n">
-        <v>112.9749390770741</v>
+        <v>86.74538390270226</v>
       </c>
       <c r="J214" t="n">
-        <v>72.28</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Корейский пер.8; Нижний Новгород г.,Большая Окружная ул., д.1-943; Нижний Новгород г., Эпроновская ул.4; </t>
+          <t xml:space="preserve">Старых Производственников ул.10; Старых Производственников ул.11; Старых Производственников ул.13; Старых Производственников ул.15; Старых Производственников ул.17; Старых Производственников ул.18; Старых Производственников ул.19; Старых Производственников ул.20; Старых Производственников ул.21; Старых Производственников ул.4; Старых Производственников ул.9; Стрелочная ул. (Парижской коммуны п)4; Строкина ул.10; Строкина ул.11; Строкина ул.12; Строкина ул.14; Строкина ул.15; Строкина ул.16; Строкина ул.16А; Строкина ул.16Б; </t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D215" t="n">
-        <v>38.82933628171099</v>
+        <v>32.25561517798304</v>
       </c>
       <c r="E215" t="n">
-        <v>46.59520353805318</v>
+        <v>38.70673821357965</v>
       </c>
       <c r="F215" t="n">
-        <v>38.86019514675775</v>
+        <v>31.4611233532851</v>
       </c>
       <c r="G215" t="n">
-        <v>46.6322341761093</v>
-      </c>
-      <c r="H215" t="inlineStr"/>
+        <v>37.75334802394212</v>
+      </c>
+      <c r="H215" t="n">
+        <v>188.3806331288252</v>
+      </c>
       <c r="I215" t="n">
-        <v>91.25325549203933</v>
+        <v>82.94137016968332</v>
       </c>
       <c r="J215" t="n">
-        <v>3.190739726027398</v>
+        <v>72.60000000000001</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Энергетиков ул.1; Нижний Новгород г., 40 лет Октября ул.15к1; Нижний Новгород г., Сурикова ул.16; Нижний Новгород г., Героя Борисова ул.19; Нижний Новгород г., Корейский пер.5; Нижний Новгород г., Крылова ул.5; Нижний Новгород г., Нижне-Валдайская ул.32; Нижний Новгород г., Осенний пр.2; Нижний Новгород г., Чистопольская ул., д.6-38; Нижний Новгород г., Березопольская ул., д.1-129; </t>
+          <t xml:space="preserve">Строкина ул.17; Строкина ул.17А; Строкина ул.17Б; Строкина ул.18; Строкина ул.18А; Строкина ул.19; Строкина ул.3; Строкина ул.3А; Строкина ул.4; Строкина ул.5; Строкина ул.6; Строкина ул.8; Строкина ул.9; Строкина ул.9А; Толбухина ул.17; Толбухина ул.20; Толбухина ул.20 А; Челюскинцев ул.11; Челюскинцев ул.13; </t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D216" t="n">
-        <v>38.85906721997841</v>
+        <v>31.4611233532851</v>
       </c>
       <c r="E216" t="n">
-        <v>46.63088066397408</v>
+        <v>37.75334802394212</v>
       </c>
       <c r="F216" t="n">
-        <v>38.9436078456696</v>
+        <v>31.59197001274039</v>
       </c>
       <c r="G216" t="n">
-        <v>46.73232941480352</v>
-      </c>
-      <c r="H216" t="inlineStr"/>
+        <v>37.91036401528847</v>
+      </c>
+      <c r="H216" t="n">
+        <v>160.7490352813552</v>
+      </c>
       <c r="I216" t="n">
-        <v>110.1974817980819</v>
+        <v>72.71832245182986</v>
       </c>
       <c r="J216" t="n">
-        <v>31.19315068493151</v>
+        <v>73.05000000000001</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">п. Новосмолинский, д.Талашманово,  Шоссейная ул.49; </t>
+          <t xml:space="preserve">Челюскинцев ул.15; Челюскинцев ул.16; Челюскинцев ул.16А; Челюскинцев ул.18; Челюскинцев ул.18А; Челюскинцев ул.19; Челюскинцев ул.20; Челюскинцев ул.22; Челюскинцев ул.23; Челюскинцев ул.25; Челюскинцев ул.26; Челюскинцев ул.27; Чусовая ул. (Парижской коммуны п)4; Чусовая ул. (Парижской коммуны п)8; Шанхайская ул. (Парижской коммуны п)17; Шанхайская ул. (Парижской коммуны п)Чусовая; Школьная ул.24; Школьная ул.26; Школьная ул.30; Школьная ул.32; Школьная ул.34; Школьная ул.36; Школьная ул.5А; Школьная ул.6; Южное ш.17; Южное ш.21; </t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D217" t="n">
-        <v>38.94298439796513</v>
+        <v>31.26495668298018</v>
       </c>
       <c r="E217" t="n">
-        <v>46.73158127755815</v>
+        <v>37.51794801957622</v>
       </c>
       <c r="F217" t="n">
-        <v>38.96490868134973</v>
+        <v>32.10190867682875</v>
       </c>
       <c r="G217" t="n">
-        <v>46.75789041761967</v>
-      </c>
-      <c r="H217" t="inlineStr"/>
+        <v>38.5222904121945</v>
+      </c>
+      <c r="H217" t="n">
+        <v>179.3456345558236</v>
+      </c>
       <c r="I217" t="n">
-        <v>154.5066954040118</v>
+        <v>79.97609420522474</v>
       </c>
       <c r="J217" t="n">
-        <v>0.7233972602739726</v>
+        <v>72.60000000000001</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., 2-й Осташковский пер.1; Нижний Новгород г., Лбищенская ул.1; Нижний Новгород г., Покровского ул.45; Нижний Новгород г., Горная ул.45; Нижний Новгород г., Пятигорская ул.18; Нижний Новгород г., Пятигорская ул.9; Нижний Новгород г., Пятигорская ул.16; Нижний Новгород г., Батумская ул.1Б; Нижний Новгород г., Пятигорская ул.18В; Нижний Новгород г., Углова ул.2А; Нижний Новгород г., Пятигорская ул.18А; Нижний Новгород г., Пятигорская ул.14; Нижний Новгород г., Пятигорская ул.18Б; Нижний Новгород г., Пятигорская ул.11; Нижний Новгород г., Пятигорская ул.19; Нижний Новгород г., Ветлужская ул.2; Нижний Новгород г., 40 лет Октября ул.18А; Нижний Новгород г., Терешковой ул.6; Нижний Новгород г., Крылова ул.14А; Нижний Новгород г., Терешковой ул.8; Нижний Новгород г., Терешковой ул.3; Нижний Новгород г., Черепичный п.14А; Нижний Новгород г., Гагарина пр-т122; Нижний Новгород г., Батумская ул.6А; Нижний Новгород г., Батумская ул.1; Нижний Новгород г., Пятигорская ул.23; Нижний Новгород г., Пятигорская ул.21; Нижний Новгород г., Корейская ул.19; Нижний Новгород г., Малая Окружная ул., д.2-209; Нижний Новгород г., Эпроновская ул.10; </t>
+          <t xml:space="preserve">Южное ш.21А; Южное ш.41; Юлиуса Фучика ул.10; Юлиуса Фучика ул.10к1; Юлиуса Фучика ул.10к2; Юлиуса Фучика ул.10к3; Юлиуса Фучика ул.10к4; Юлиуса Фучика ул.12; Юлиуса Фучика ул.130Б; Юлиуса Фучика ул.17; Юлиуса Фучика ул.19; Юлиуса Фучика ул.21; Юлиуса Фучика ул.23; Юлиуса Фучика ул.29; Юлиуса Фучика ул.3; Юлиуса Фучика ул.31; Юлиуса Фучика ул.33; Юлиуса Фучика ул.35; Юлиуса Фучика ул.37; Юлиуса Фучика ул.39; Юлиуса Фучика ул.4; Юлиуса Фучика ул.41; Юлиуса Фучика ул.43; Юлиуса Фучика ул.5; Юлиуса Фучика ул.7; Янки Купалы ул.10А; Янки Купалы ул.12А; </t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D218" t="n">
-        <v>38.9436078456696</v>
+        <v>32.10190867682875</v>
       </c>
       <c r="E218" t="n">
-        <v>46.73232941480352</v>
+        <v>38.5222904121945</v>
       </c>
       <c r="F218" t="n">
-        <v>39.07806990289539</v>
+        <v>31.91448240504247</v>
       </c>
       <c r="G218" t="n">
-        <v>46.89368388347447</v>
-      </c>
-      <c r="H218" t="inlineStr"/>
+        <v>38.29737888605096</v>
+      </c>
+      <c r="H218" t="n">
+        <v>176.7605293168373</v>
+      </c>
       <c r="I218" t="n">
-        <v>186.1234415322231</v>
+        <v>79.42913738341881</v>
       </c>
       <c r="J218" t="n">
-        <v>72.40578082191782</v>
+        <v>72.60000000000002</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Корейская ул.18; Нижний Новгород г., 40 лет Октября ул.26/1; Нижний Новгород г., Пантелеймоновская ул., д.4-23; Нижний Новгород г., Гжатская ул.4; </t>
+          <t xml:space="preserve">Янки Купалы ул.16А; Янки Купалы ул.18; Янки Купалы ул.2; Янки Купалы ул.24; Янки Купалы ул.27А; Янки Купалы ул.28; Янки Купалы ул.28к1; Янки Купалы ул.29; Янки Купалы ул.29А; Янки Купалы ул.31; Янки Купалы ул.32; Янки Купалы ул.34; Янки Купалы ул.36; Янки Купалы ул.38; Янки Купалы ул.40; Янки Купалы ул.44; Янки Купалы ул.46; Янки Купалы ул.46к2; Янтарный пер. (Парижской коммуны п)2; с.п. Красная Горка, Горького ул.13А; с.п. Красная Горка, Колхозная ул.27; с.п. Красная Горка, Кооперативная ул.13А; с.п. Красная Горка, Ленина ул.30; с.п. Красная Горка, Ленина ул.42; </t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D219" t="n">
-        <v>39.07764363088521</v>
+        <v>32.07914440177269</v>
       </c>
       <c r="E219" t="n">
-        <v>46.89317235706226</v>
+        <v>38.49497328212722</v>
       </c>
       <c r="F219" t="n">
-        <v>39.15990210690605</v>
+        <v>40.6398945847135</v>
       </c>
       <c r="G219" t="n">
-        <v>46.99188252828726</v>
-      </c>
-      <c r="H219" t="inlineStr"/>
+        <v>48.7678735016562</v>
+      </c>
+      <c r="H219" t="n">
+        <v>358.6541206481176</v>
+      </c>
       <c r="I219" t="n">
-        <v>100.0106835191935</v>
+        <v>148.772088108483</v>
       </c>
       <c r="J219" t="n">
-        <v>8.894356164383563</v>
+        <v>72.59999999999998</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Корейская ул.20; Нижний Новгород г., Корейская ул.22; Нижний Новгород г., Полевая ул.10; Нижний Новгород г., Полевая ул.10А; Нижний Новгород г., Героя Борисова ул.68; Нижний Новгород г., Нарофоминская ул.18; Нижний Новгород г., Гагарина пр-т118; Нижний Новгород г., Верховая ул., д.3-39; Нижний Новгород г., 40 лет Октября ул.21А; </t>
+          <t xml:space="preserve">с.п. Красная Горка, Новосёлов ул.35; с.п.Красная Горка, д.Дубки,на въезде в деревню; с.п.Красная Горка, д.Дубки,на развилке ул.Мопра и ул.Мира; с.п. Красная Горка, Вокзальная 35; с.п.Красная Горка, п.Голышево, напротив д.25 по ул. Школьная; с.п.Красная Горка, п.Голышево,  ул.Чапаева д.37; с.п.Красная Горка, п.Голышево,  Школьная 11; с.п.Красная Горка, п. Охлопково, Южная ул.2а; с.п.Красная Горка, д. Чернуха, д.8; с.п.Красная Горка, п.Голышево, напротив д.28 по ул.Совхозная ; с.п.Красная Горка, п.Голышево,Чапаева, напротив д.10; с.п.Красная Горка, п.Голышево, "Жаворонки", ул.70 лет победы; с.п.Красная Горка, ул.Песочная, на развилке дорог (в районе магазина); р.п. Юганец, Маяковского ул.10; р.п. Юганец, Маяковского ул.36; р.п. Юганец, Новая ул.1; р.п. Юганец, Новая ул.6; р.п. Юганец, Парковая ул.14; р.п. Юганец, Северная ул.3; р.п. Юганец, Фабричная ул.16; р.п. Юганец, Восточная ул.3; р.п. Юганец, Центральная ул.6; р.п. Смолино,ул.Ленина д.4; р.п. Смолино, 1 мая ул.17; р.п.Смолино,Детский переулок д.2; р.п. Смолино, Бубнова ул.3; р.п. Смолино, Ленина ул.12; р.п. Смолино, Ленина ул.9 (11); </t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D220" t="n">
-        <v>39.15990210690605</v>
+        <v>40.81452820883825</v>
       </c>
       <c r="E220" t="n">
-        <v>46.99188252828726</v>
+        <v>48.97743385060591</v>
       </c>
       <c r="F220" t="n">
-        <v>39.23640695043042</v>
+        <v>30.8119343105563</v>
       </c>
       <c r="G220" t="n">
-        <v>47.0836883405165</v>
-      </c>
-      <c r="H220" t="inlineStr"/>
+        <v>36.97432117266755</v>
+      </c>
+      <c r="H220" t="n">
+        <v>356.8873765214145</v>
+      </c>
       <c r="I220" t="n">
-        <v>105.0830286847867</v>
+        <v>143.2631100763307</v>
       </c>
       <c r="J220" t="n">
-        <v>14.40221917808219</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Соловьиная ул., д.1-25; Нижний Новгород г., Бонч-Бруевича ул.13; </t>
+          <t xml:space="preserve">р.п. Смолино, Энтузиастов ул.13; р.п. Ильино, Буденого ул.26; р.п. Ильино, Гоголя ул.2; р.п. Ильино, Гоголя ул.29; р.п. Ильино, Комсомольская ул.2; р.п.Ильино, ул.Полевая д.40; р.п.Ильино, ул.Школьная 8,напротив дома; р.п. Ильино, Ленина ул.3; р.п. Ильино, Совхозная ул.37; р.п. Ильино, Луговая ул.1; р.п. Ильино, Луговая ул.3А; р.п. Ильино, Маяковского ул.3; р.п. Ильино, Маяковского ул.8; р.п. Ильино, Почтовая ул.28; р.п. Ильино, Почтовая ул.8; р.п. Ильино, Советская ул.3; р.п. Ильино, Советский переулок.8; р.п. Ильино, Совхозная ул.16; р.п. Ильино, Совхозная ул.29; р.п. Ильино, Совхозная ул.30; р.п.Ильино, д.Объезд, ул. Школьная д.5; р.п.Ильино, д.Ильина Гора  в районе д.1; р.п.Ильино, д.Ильина Гора, ул. Совхозная д.3,4; р.п. Ильино, Чкалова ул.18; р.п. Ильино, Чкалова ул.30; р.п. Ильино, Чкалова ул.41; р.п.Ильино, д.Щелапино, ул.Речная 22,напротив дома; р.п.Ильино, д.Чичерево, ул.Колхозная 51а (ранее была Колхозная 71 напротив дома); р.п.Ильино, д.Чичерево, ул.Шоссейная 15а,напротив дома; р.п.Ильино, д.Чичерево, ул.Колхозная 53,напротив дома; р.п.Ильино, с.Мячково, ул.Нагорная 71,в 20мот пожарного гидранта; р.п.Ильино, с.Мячково, ул.Советская д.1; р.п. Ильино, Чкалова ул.8; </t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D221" t="n">
-        <v>39.21572693972179</v>
+        <v>30.94711784996235</v>
       </c>
       <c r="E221" t="n">
-        <v>47.05887232766615</v>
+        <v>37.13654141995482</v>
       </c>
       <c r="F221" t="n">
-        <v>39.27967688766453</v>
+        <v>49.850592441444</v>
       </c>
       <c r="G221" t="n">
-        <v>47.13561226519743</v>
-      </c>
-      <c r="H221" t="inlineStr"/>
+        <v>59.8207109297328</v>
+      </c>
+      <c r="H221" t="n">
+        <v>668.1525682665836</v>
+      </c>
       <c r="I221" t="n">
-        <v>91.36783784465024</v>
+        <v>260.1363859069493</v>
       </c>
       <c r="J221" t="n">
-        <v>2.459479452054794</v>
+        <v>73.70000000000005</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Бонч-Бруевича ул.12; Нижний Новгород г., Углова ул.6; Нижний Новгород г., Надеждинская ул., д.1-35; Нижний Новгород г., Шатковская ул., д.3/Б; </t>
+          <t xml:space="preserve">р.п.Ильино, с.Мячково, ул.Песочная 107; р.п.Ильино, д.Объезд, ул.Школьная 31; р.п.Ильино, д.Объезд, ул.Полевая 65,напротив дома; р.п. Фролищи, Нагорная ул.8А; р.п. Фролищи, Новая ул.1; р.п. Фролищи, Октябрьская ул.2; р.п. Фролищи, переулок Почтовый.2; р.п. Фролищи, Северная ул.2; р.п. Фролищи, Советская ул.17; р.п. Фролищи, Советская ул.27; р.п. Фролищи, Школьная ул.29; р.п. Фролищи, Заводская ул.12; р.п. Фролищи, Южная ул.14; п. Золино, Школьная ул.11; п. Золино, Школьная ул.14; п. Золино, Школьная ул.17; п. Золино, Школьная ул.19; п. Новосмолинский, Новая ул.12; п. Новосмолинский, Песчаная ул.6; п. Новосмолинский, Песчаная ул.12; п. Новосмолинский, Танковая ул.1; п. Новосмолинский, Танковая ул.14; п. Новосмолинский, Танковая ул.19; п. Новосмолинский, Танковая ул.20; п. Новосмолинский, Танковая ул.21; п. Новосмолинский, Танковая ул.4; п. Новосмолинский, Танковая ул.5; п. Новосмолинский, Танковая ул.9; п. Новосмолинский, Шоссейная ул.15; п. Новосмолинский, Шоссейная ул.2А; п. Новосмолинский, д.Талашманово, Шоссейная ул.17; п. Новосмолинский, д.Талашманово,  Шоссейная ул.49; </t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D222" t="n">
-        <v>39.27967688766453</v>
+        <v>46.90308790080833</v>
       </c>
       <c r="E222" t="n">
-        <v>47.13561226519743</v>
+        <v>56.28370548097</v>
       </c>
       <c r="F222" t="n">
-        <v>39.33498860473535</v>
+        <v>34.76599658243079</v>
       </c>
       <c r="G222" t="n">
-        <v>47.20198632568242</v>
-      </c>
-      <c r="H222" t="inlineStr"/>
+        <v>41.71919589891696</v>
+      </c>
+      <c r="H222" t="n">
+        <v>533.8871607497558</v>
+      </c>
       <c r="I222" t="n">
-        <v>92.29995160506934</v>
+        <v>201.2035695728344</v>
       </c>
       <c r="J222" t="n">
-        <v>8.925808219178084</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Ленская ул.20; Нижний Новгород г., Батумская ул.5Б; Нижний Новгород г., Батумская ул.3; Нижний Новгород г., Ополченцев ул., д.1-65; Нижний Новгород г., Гжатская ул.6; </t>
+          <t xml:space="preserve">п. Новосмолинский, Шоссейная ул.3; п. Новосмолинский, Шоссейная ул.4; п. Новосмолинский, Шоссейная ул.6; п.Золино, Комсомольская д.35; п.Золино, Комсомольская д.155; п.Золино, Комсомольская д.51; п.Золино, Комсомольская д.101; п.Золино, Комсомольская д.123; п.Золино, Комсомольская д.140; п.Золино, Комсомольская д.81; п.Золино, Школьная д.2; п.Золино, Кооперативная д.17; п.Золино, Комсомольская д.11; п. Новосмолинский, д.Гладково, ул.Новоселов; п.Золино,ул.Кооперативная 49; п. Новосмолинский, ул.Шоссейная 9; п. Новосмолинский, ул.Широкая 2; п. Новосмолинский, ул.Танковая 15; п. Новосмолинский, ул.Танковая 16; п. Новосмолинский, д.Талашманово, Шоссейная ул.42; р.п.Центральный, п. Инженерный, Новая ул.1; р.п.Центральный, п. Инженерный, Новая ул.2; р.п.Центральный, п. Инженерный, Новая ул.3; р.п. Центральный, Железнодорожная ул.7; р.п. Центральный, Заречная ул.10; р.п. Центральный, Зелёная ул.5 (между домами 1-3); р.п. Центральный, Комсомольская ул.11; р.п. Центральный, Комсомольская ул.12; р.п. Центральный, Комсомольская ул.4; р.п. Центральный, Комсомольская ул.5; р.п. Центральный, Мирошниченко ул.1; р.п. Центральный, Мирошниченко ул.10; р.п. Центральный, Мирошниченко ул.14; р.п. Центральный, Советская ул.4; р.п. Центральный, 60 лет Октября ул.6; п.Мулино, д.Старково, ул.Овражная, в районе д.1; п.Мулино, д.Старково, ул.Нагорная, в районе д.13; п.Мулино, д.Дева; п.Мулино, д. Красные Ударники,напротив дома 22; п. Мулино, 1-я Зелёная ул.25; п. Мулино, Гвардейская ул.1; п. Мулино, Гвардейская ул.10; п. Мулино, Гвардейская ул.11; </t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D223" t="n">
-        <v>39.32055691914756</v>
+        <v>38.9436078456696</v>
       </c>
       <c r="E223" t="n">
-        <v>47.18466830297708</v>
+        <v>46.73232941480352</v>
       </c>
       <c r="F223" t="n">
-        <v>39.38977281025323</v>
+        <v>42.88500863807784</v>
       </c>
       <c r="G223" t="n">
-        <v>47.26772737230387</v>
-      </c>
-      <c r="H223" t="inlineStr"/>
+        <v>51.46201036569341</v>
+      </c>
+      <c r="H223" t="n">
+        <v>570.9263068481145</v>
+      </c>
       <c r="I223" t="n">
-        <v>98.09284394371193</v>
+        <v>215.8932756281844</v>
       </c>
       <c r="J223" t="n">
-        <v>15.92682191780822</v>
+        <v>74.45</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Гжатская ул.2; Нижний Новгород г., Бонч-Бруевича ул.1; Нижний Новгород г., Батумская ул.25; Нижний Новгород г., Героя Елисеева ул.8; Нижний Новгород г., Героя Елисеева ул.7А; Нижний Новгород г., Героя Елисеева ул.7; Нижний Новгород г., Бонч-Бруевича ул.4; Нижний Новгород г., Бонч-Бруевича ул.11А; Нижний Новгород г., Бонч-Бруевича ул.5; Нижний Новгород г., Бонч-Бруевича ул.8А; Нижний Новгород г., Героя Елисеева ул.1; Нижний Новгород г., Батумская ул.24; Нижний Новгород г., Батумская ул.21; Нижний Новгород г., Батумская ул.19; Нижний Новгород г., Батумская ул.9В; Нижний Новгород г., Терешковой ул.4А; Нижний Новгород г., Терешковой ул.2; Нижний Новгород г., Бонч-Бруевича ул.3; Нижний Новгород г., Арсеньева ул.4; Нижний Новгород г., Арсеньева ул.5; Нижний Новгород г., Арсеньева ул.3; Нижний Новгород г., Вологдина ул.8; Нижний Новгород г., Вологдина ул.4; Нижний Новгород г., Арсеньева ул.2; Нижний Новгород г., Гагарина пр-т110; Нижний Новгород г., Гагарина пр-т106; </t>
+          <t xml:space="preserve">п. Мулино, Гвардейская ул.12; п. Мулино, Гвардейская ул.15 ; п. Мулино, Гвардейская ул.17; п. Мулино, Гвардейская ул.3; п. Мулино, Гвардейская ул.5; п. Мулино, Гвардейская ул.9; п. Мулино, Гвардейская ул.62в; п. Мулино, Гвардейская ул.19; п. Мулино, Гвардейская ул.8; п. Мулино, Лесная ул.4; п. Мулино, Новая ул.10; п. Мулино, Новая ул.14; п. Мулино, Новая ул.16; п. Мулино, Новая ул.19; п. Мулино, Новая ул.3; п. Мулино, Новая ул.7; п.Мулино,Новая ул,11; п. Мулино, Гвардейская ул.20; р.п. Ильиногорск, Мира ул.13; р.п. Ильиногорск, Сиреневая ул.1; р.п. Ильиногорск, Спортивная ул.3; р.п. Ильиногорск, Угарова ул.16; р.п. Ильиногорск, Угарова ул.17; р.п. Ильиногорск, Угарова ул.20; р.п. Ильиногорск, Угарова ул.23; р.п. Ильиногорск, Угарова ул.26; р.п.Ильиногорск,Угарова ул.25; р.п.Ильиногорск,Угарова ул.10; </t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D224" t="n">
-        <v>39.38977281025323</v>
+        <v>42.88500863807784</v>
       </c>
       <c r="E224" t="n">
-        <v>47.26772737230387</v>
+        <v>51.46201036569341</v>
       </c>
       <c r="F224" t="n">
-        <v>39.66631143092122</v>
+        <v>43.49697646393212</v>
       </c>
       <c r="G224" t="n">
-        <v>47.59957371710546</v>
+        <v>52.19637175671854</v>
       </c>
       <c r="H224" t="n">
-        <v>159.8886048977287</v>
+        <v>245.9881139581279</v>
       </c>
       <c r="I224" t="n">
-        <v>85.26304341631605</v>
+        <v>112.5573529661548</v>
       </c>
       <c r="J224" t="n">
-        <v>74.8</v>
+        <v>73.45000000000002</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Карбышева ул.7; Нижний Новгород г., Анкудиновское ш.6; Нижний Новгород г., Страховая ул.20; Нижний Новгород г., Карбышева ул.5; с.п. Красная Горка, Ленина ул.30; с.п. Красная Горка, Колхозная ул.27; Нижний Новгород г., Анкудиновское ш.11А; Нижний Новгород г., Первая Камышовая ул.1-10; Нижний Новгород г., Полярная ул.26; </t>
+          <t xml:space="preserve">р.п.Ильиногорск,Больничная ул.15; р.п.Ильиногорск,Спортивная ул.9; р.п.Ильиногорск,Центральная ул.7; р.п.Ильиногорск,Центральная ул.5; р.п.Ильиногорск,Мира ул.3; р.п.Ильиногорск,Лесная ул.3; р.п.Ильиногорск,Лесная ул.7; г. Володарск, Аминева ул.41; г. Володарск, Аминева ул.5; г. Володарск, Базарная ул.22; г. Володарск, Базарная ул.8; г. Володарск, Больничная ул.5; г. Володарск, Военный городок ул.44; г. Володарск, Военный городок ул.63; г. Володарск, Вокзальная ул.9; г. Володарск, Володарского ул.15; г. Володарск, Володарского ул.21; г. Володарск, Воробьева ул.5; г. Володарск, Вторая чапаева ул.21; г. Володарск, Вторая чапаева ул.29; г. Володарск, Вторая чапаева ул.6; г. Володарск, Дзержинского ул.25; г. Володарск, Заводская ул.1; г. Володарск, Заводская ул.47; г. Володарск, Западная ул.12; г. Володарск, Заречная ул.4; г. Володарск, Зелёная ул.13; г. Володарск, Колхозная ул.1; г. Володарск, Колхозная ул.18; г. Володарск, Комсомольская ул.30; г. Володарск, Комсомольский переулок. 13; </t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D225" t="n">
-        <v>39.56727847811131</v>
+        <v>43.00284348163738</v>
       </c>
       <c r="E225" t="n">
-        <v>47.48073417373357</v>
+        <v>51.60341217796486</v>
       </c>
       <c r="F225" t="n">
-        <v>39.84565762210202</v>
+        <v>31.00704022217074</v>
       </c>
       <c r="G225" t="n">
-        <v>47.81478914652243</v>
-      </c>
-      <c r="H225" t="inlineStr"/>
+        <v>37.2084482666049</v>
+      </c>
+      <c r="H225" t="n">
+        <v>314.5761382197103</v>
+      </c>
       <c r="I225" t="n">
-        <v>237.5257893311096</v>
+        <v>131.00079238439</v>
       </c>
       <c r="J225" t="n">
-        <v>19.81572602739726</v>
+        <v>72.60000000000002</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Полярная ул.22; Нижний Новгород г., Черепичный п.16; Нижний Новгород г., Черепичный п.19; Нижний Новгород г., Анкудиновское ш.13; Нижний Новгород г., Анкудиновское ш.9А; Нижний Новгород г., Карбышева ул.1; Нижний Новгород г., Сергачская ул.20; Нижний Новгород г., Вологдина ул.1Б; Нижний Новгород г., Вологдина ул.3; Нижний Новгород г., Луганская ул.2А; Нижний Новгород г., Луганская ул.5; Нижний Новгород г., Гагарина пр-т102; Нижний Новгород г., Вологдина ул.3А; Нижний Новгород г., Мордвинцево д.52; Нижний Новгород г., Вторая Камышовая ул., д.2-12; п. Новосмолинский, д.Гладково, ул.Новоселов; </t>
+          <t xml:space="preserve">г. Володарск, Лермонтова ул.21; г. Володарск, Куйбышева ул.40; г. Володарск, Луговая ул.3; г. Володарск, Луговая ул.35; г. Володарск, Луговая ул.57; г. Володарск, Луговая ул.80; г. Володарск, Луговая ул.90; г. Володарск, Луначарского ул.24; г. Володарск, Лядова ул.46; г. Володарск, Лядова ул.70; г. Володарск, Лядова ул.86; г. Володарск, Лядова ул.98; г. Володарск, Максима горького ул.12; г. Володарск, Максима горького ул.35; г. Володарск, Максима горького ул.50; г. Володарск, Мичурина ул.10; г. Володарск, Мичурина ул.14; г. Володарск, Мичурина ул.15; г. Володарск, Мичурина ул.20; г. Володарск, Мичурина ул.21; г. Володарск, Мичурина ул.22; г. Володарск, Мичурина ул.9; г. Володарск, Молодёжная ул.9; г. Володарск, Набережная ул.21; г. Володарск, Нагорная ул.44; г. Володарск, Нагорная ул.5; г. Володарск, Нагорный переулок.10; г. Володарск, Октябрьская ул.41; г. Володарск, Октябрьская ул.7; г. Володарск, Островского ул.1А; г. Володарск, Островского ул.29А; г. Володарск, Первомайская ул.27; г. Володарск, Первомайская ул.27Б; г. Володарск, Первомайская ул.5; г. Володарск, Полевая ул.41; г. Володарск, Полевая ул.72; </t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D226" t="n">
-        <v>39.84565762210202</v>
+        <v>33.72649546130369</v>
       </c>
       <c r="E226" t="n">
-        <v>47.81478914652243</v>
+        <v>40.47179455356443</v>
       </c>
       <c r="F226" t="n">
-        <v>39.96209874111705</v>
+        <v>31.90158029397631</v>
       </c>
       <c r="G226" t="n">
-        <v>47.95451848934047</v>
-      </c>
-      <c r="H226" t="inlineStr"/>
+        <v>38.28189635277158</v>
+      </c>
+      <c r="H226" t="n">
+        <v>305.1046086939058</v>
+      </c>
       <c r="I226" t="n">
-        <v>184.6859153908426</v>
+        <v>123.1723471353938</v>
       </c>
       <c r="J226" t="n">
-        <v>45.22580821917808</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Болдинская ул.19; Нижний Новгород г., Анкудиновское ш.32; Нижний Новгород г., Анкудиновское ш.16; Нижний Новгород г., Анкудиновское ш.11Б; Нижний Новгород г., Цветочная ул.13/2; Нижний Новгород г., Цветочная ул.13/1; Нижний Новгород г., Анкудиновское ш.31; Нижний Новгород г., Цветочная ул.13; Нижний Новгород г., Ольгино д.40; Нижний Новгород г., Цветочная ул.10; Нижний Новгород г., Цветочная ул.9; Нижний Новгород г., Тополиная ул., д.4-16; Нижний Новгород г., Летний пер., д.2-29; </t>
+          <t xml:space="preserve">г. Володарск, Северная ул.47; г. Володарск, Солнечная ул.3; г. Володарск, Затонная д.9; г. Володарск, Стадионная ул.32; г. Володарск, Стадионная ул.4; г. Володарск, Суворова ул.7; г. Володарск, Центральная ул.13; г. Володарск, Чапаева ул., проулок между 10 и 12 домом; г. Володарск, Юганецкая ул.26; г. Володарск, Южная ул.18; г.Володарск,ул.Мичурина д.4; г.Володарск,ул.Луговая между домами №45 и 47; г.Володарск, пер.Северный д.2; г.Володарск,ул.Калининская 1; г.Володарск,ул.Луговая д.113; г.Володарск,ул.Набережная д.3 (у дома 1а); г.Володарск,ул.Минина д.16; г.Володарск, Мичурина ул.1; г.Володарск, Заречная , напротив д.17 (около остановочного павильона); р.п. Решетиха, Старый рабочий поселок ул 73; р.п. Решетиха, Железнодорожная ул.10; р.п. Решетиха, Индивидуальная ул.26; р.п. Решетиха, Кирова пр-т.11; р.п. Решетиха, Кирова пр-т.16; р.п. Решетиха, Кирова пр-т.2; р.п. Решетиха, Кирова пр-т.5а; р.п. Решетиха, Комсомольская ул.101; р.п. Решетиха, Комсомольская ул.102; р.п. Решетиха, Комсомольская ул.13; р.п. Решетиха, Комсомольская ул.88; р.п. Решетиха, Песочная ул.4; р.п. Решетиха, Пионерская ул.20; р.п. Решетиха, Пролетарская ул.33; </t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D227" t="n">
-        <v>39.9448370138183</v>
+        <v>31.67156581033643</v>
       </c>
       <c r="E227" t="n">
-        <v>47.93380441658196</v>
+        <v>38.00587897240371</v>
       </c>
       <c r="F227" t="n">
-        <v>40.07206424584005</v>
+        <v>26.34422249636781</v>
       </c>
       <c r="G227" t="n">
-        <v>48.08647709500805</v>
-      </c>
-      <c r="H227" t="inlineStr"/>
+        <v>31.61306699564137</v>
+      </c>
+      <c r="H227" t="n">
+        <v>463.3800375299689</v>
+      </c>
       <c r="I227" t="n">
-        <v>176.6631062719472</v>
+        <v>169.1405078258927</v>
       </c>
       <c r="J227" t="n">
-        <v>30.18649315068493</v>
+        <v>72.60000000000002</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">с.п. Красная Горка, Горького ул.13А; </t>
+          <t xml:space="preserve">р.п. Решетиха, Савельева ул.12; р.п. Решетиха, Красная ул.43А; р.п. Решетиха, Санаторная ул.16; р.п. Решетиха, Советская ул.76; р.п. Решетиха, Сосновый бор ул.18; р.п. Решетиха, Cтанционная ул.15; р.п. Решетиха, Чкалова ул.1; р.п. Решетиха, ул.Кирова д.1В; р.п. Решетиха, ул.Кирова д.10; р.п. Решетиха, ул.Кирова д.19; р.п. Решетиха, ул.Затылкова д.2; р.п. Решетиха, ул.Затылкова д.3; р.п. Решетиха, ул.Комсомольская д.95; р.п. Решетиха, ул.Савельева д.33; р.п. Решетиха, ул.Чкалова д.2А; р.п. Решетиха, ул.Вокзальная д.1; р.п. Решетиха, ул.Пролетарская д.5; р.п. Решетиха, ул.Станционная д.8; г. Володарск, Лермонтова ул.1; Нижний Новгород г., Гагарина пр-т194; Нижний Новгород г., Кащенко ул.9; Дзержинск г., Александра Матросова ул.1А; Дзержинск г., Галкина ул.11; Дзержинск г., Галкина ул.1а; Дзержинск г., Ленина пр-т.8; Дзержинск г., Ленина пр-т.85; Дзержинск г., Окская наб.13/1; Дзержинск г., Октябрьская ул.5Б; Дзержинск г., Петрищева ул.29; Дзержинск г., Петрищева ул.31; Дзержинск г., Попова ул.18А; </t>
         </is>
       </c>
       <c r="B228" t="n">
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D228" t="n">
-        <v>40.05954592548313</v>
+        <v>25.79899458162309</v>
       </c>
       <c r="E228" t="n">
-        <v>48.07145511057976</v>
+        <v>30.9587934979477</v>
       </c>
       <c r="F228" t="n">
-        <v>40.07206424584005</v>
+        <v>13.78253570627305</v>
       </c>
       <c r="G228" t="n">
-        <v>48.08647709500805</v>
-      </c>
-      <c r="H228" t="inlineStr"/>
+        <v>16.53904284752766</v>
+      </c>
+      <c r="H228" t="n">
+        <v>586.3956742302594</v>
+      </c>
       <c r="I228" t="n">
-        <v>146.536543344481</v>
+        <v>195.0604905320001</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1493972602739726</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">с.п.Красная Горка, ул.Песочная, на развилке дорог (в районе магазина); Нижний Новгород г., Луч п.50; Нижний Новгород г., Цветочная ул.12; Нижний Новгород г., Ольгино д.84Б; Нижний Новгород г., Ольгино д.84; Нижний Новгород г., Академика Сахарова ул., д.119; Нижний Новгород г., Академика Сахарова ул.113; Нижний Новгород г., Академика Сахарова ул.119к2; Нижний Новгород г., Академика Сахарова ул.117/2; Нижний Новгород г., Академика Сахарова ул.117; Нижний Новгород г., Академика Сахарова ул.115к2; Нижний Новгород г., Академика Сахарова ул.115к1; Нижний Новгород г., Ольгино д.56А; Нижний Новгород г., Калиновый пр., д.1-23; Нижний Новгород г., Васильковая ул., д.1-167; </t>
+          <t xml:space="preserve">Дзержинск г., Попова ул.30; Дзержинск г., Рудольфа Удриса ул.11; Дзержинск г., Рудольфа Удриса ул.3; Дзержинск г., Рудольфа Удриса ул.7Б; Дзержинск г., Свердлова пр-т.73А; Дзержинск г., Свердлова пр-т.84; Дзержинск г., Ситнова ул.8Б; Дзержинск г., Строителей ул.9Вк1; Дзержинск г., Строителей ул.9Вк2; Дзержинск г., Химиков б-р., д.8; Дзержинск г., Циолковского пр-т.39; Дзержинск г., Циолковского пр-т.48; Дзержинск г., Циолковского пр-т.67; Дзержинск г., Циолковского пр-т.69; Дзержинск г., Циолковского пр-т.92А; Комсомольская ул.35; Молодежный пр-т.31к3; Молодежный пр-т.33; Молодежный пр-т.38к1; Плотникова ул.5; Политбойцов ул.7; Челюскинцев ул.27; Юлиуса Фучика ул.10к1; с.п. Красная Горка, Горького ул.13А; Нижний Новгород г., Ольгино д.84Б; </t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D229" t="n">
-        <v>40.07206424584005</v>
+        <v>16.83763449577974</v>
       </c>
       <c r="E229" t="n">
-        <v>48.08647709500805</v>
+        <v>20.20516139493569</v>
       </c>
       <c r="F229" t="n">
-        <v>40.57787339206468</v>
+        <v>38.28572723954493</v>
       </c>
       <c r="G229" t="n">
-        <v>48.69344807047762</v>
-      </c>
-      <c r="H229" t="inlineStr"/>
+        <v>45.94287268745391</v>
+      </c>
+      <c r="H229" t="n">
+        <v>789.3634725935721</v>
+      </c>
       <c r="I229" t="n">
-        <v>194.2453363971113</v>
+        <v>288.0094654682035</v>
       </c>
       <c r="J229" t="n">
-        <v>38.9386301369863</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Любимая ул., д.1-35; </t>
+          <t xml:space="preserve">Нижний Новгород г., Щербинки 1 мкр.2А; Нижний Новгород г., Невская ул.25; Нижний Новгород г., Невская ул.27; Нижний Новгород г., Анкудиновское ш.11А; Нижний Новгород г., Черепичный п.19; Нижний Новгород г., Гагарина пр-т158; Нижний Новгород г., Гагарина пр-т162; Нижний Новгород г., Гагарина пр-т178; Нижний Новгород г., Пятигорская ул.18В; Нижний Новгород г., Пятигорская ул.2А; Нижний Новгород г., 40 лет Октября ул.18А; Нижний Новгород г., 40 лет Октября ул.2; Нижний Новгород г., 40 лет Октября ул.21А; Нижний Новгород г., 40 лет Победы ул.16; Нижний Новгород г., Батумская ул.24; Нижний Новгород г., Академика Лебедева ул.3; Нижний Новгород г., Бонч-Бруевича ул.11А; Нижний Новгород г., Батумская ул.6А; Нижний Новгород г., Вологдина ул.3А; Нижний Новгород г., Геологов ул.1; Нижний Новгород г., Геологов ул.10; Нижний Новгород г., Батумская ул.9В; Нижний Новгород г., Ветлужская ул.2; Нижний Новгород г., Ларина ул.13; Нижний Новгород г., Ларина ул.9; Нижний Новгород г., Маршала Голованова ул.41А; Нижний Новгород г., Маршала Голованова ул.43; Нижний Новгород г., Маршала Голованова ул.51; Нижний Новгород г., Маршала Жукова ул.15; Нижний Новгород г., Маршала Жукова ул.18; Нижний Новгород г., Маршала Жукова ул.23; Нижний Новгород г., Маршала Жукова ул.27; Нижний Новгород г., Петровского ул.21А; Нижний Новгород г., Сурикова ул.8А; Нижний Новгород г., Горная ул.10А; Нижний Новгород г., Терешковой ул.4А; Нижний Новгород г., Тропинина ул.1; Нижний Новгород г., Тропинина ул.5; Нижний Новгород г., Углова ул.2А; Нижний Новгород г., Цветочная ул.12; Нижний Новгород г., Цветочная ул.4; Нижний Новгород г., Пятигорская ул.6; Нижний Новгород г., Щербинки 1 мкр.31; Нижний Новгород г., Гагарина пр-т168; Нижний Новгород г., Терешковой ул.3; Нижний Новгород г., Крылова ул.4А; Нижний Новгород г., Гагарина пр-т84; Нижний Новгород г., Щербинки 1 мкр.30; Нижний Новгород г., Ларина ул.15И; Нижний Новгород г., Гагарина пр-т121Д; Нижний Новгород г., Корейская ул.22; Дзержинск г., Химиков б-р.5Б; Дзержинск г., Ватутина ул.13; </t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D230" t="n">
-        <v>40.57787339206468</v>
+        <v>40.10811367096451</v>
       </c>
       <c r="E230" t="n">
-        <v>48.69344807047762</v>
+        <v>48.12973640515742</v>
       </c>
       <c r="F230" t="n">
-        <v>40.6398945847135</v>
+        <v>11.98987787705551</v>
       </c>
       <c r="G230" t="n">
-        <v>48.7678735016562</v>
-      </c>
-      <c r="H230" t="inlineStr"/>
+        <v>14.38785345246661</v>
+      </c>
+      <c r="H230" t="n">
+        <v>717.4488865374936</v>
+      </c>
       <c r="I230" t="n">
-        <v>81.21776797677819</v>
+        <v>247.7599304810209</v>
       </c>
       <c r="J230" t="n">
-        <v>0.4953698630136986</v>
+        <v>61.08000000000003</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">с.п. Красная Горка, Новосёлов ул.35; </t>
+          <t xml:space="preserve">Дзержинск г., Ватутина ул.36А; Дзержинск г., Ватутина ул.46; Дзержинск г., Ватутина ул.66А; Дзержинск г., Ватутина ул.76А; Дзержинск г., Гагарина ул.21; Дзержинск г., Гайдара ул.25Б; Дзержинск г., Гайдара ул.26А; Дзержинск г., Гайдара ул.36А; Дзержинск г., Гайдара ул.51Б; Дзержинск г., Гайдара ул.60; Дзержинск г., Галкина ул.1; Дзержинск г., Галкина ул.10; Дзержинск г., Галкина ул.13А; Володарский р-н, Решетиха пгт., Затылкова ул.2 А; Володарский р-н, Решетиха пгт., Затылкова ул.2 А; Дзержинск г., Грибоедова ул.38Б; Дзержинск г., Грибоедова ул.3Б; Дзержинск г., Комбрига Патоличева ул.13; Дзержинск г., Восточное ш.26; Дзержинск г., Лермонтова ул.13Д; Дзержинск г., Лермонтова ул.2; Дзержинск г., Лермонтова ул.20; Дзержинск г., Лермонтова ул.7; Дзержинск г., Александра Матросова ул.55; Дзержинск г., Александра Матросова ул.57; Дзержинск г., Александра Матросова ул.6Е; Дзержинск г., Маяковского ул.20Г; Дзержинск г., Маяковского ул.23Б; Дзержинск г., Островского ул.1; Дзержинск г., Островского ул.14; Дзержинск г., Петрищева ул.12В; Дзержинск г., Петрищева ул.14А; Дзержинск г., Петрищева ул.15; Дзержинск г., Петрищева ул.16А; Дзержинск г., Петрищева ул.9А; Дзержинск г., Пирогова ул.21А; Дзержинск г., Пожарского ул.6; Дзержинск г., Попова ул.10Б; Дзержинск г., Попова ул.32А; Дзержинск г., Рудольфа Удриса ул.3А; Дзержинск г., Гаражный пр.4; Дзержинск г., Строителей ул.4Б; Дзержинск г., Строителей ул.14; Дзержинск г., Строителей ул.9; Дзержинск г., Суворова ул.6Б; Дзержинск г., Сухаренко ул.11А; Дзержинск г., Сухаренко ул.14А; Дзержинск г., Терешковой ул.12А; Дзержинск г., Терешковой ул.42; Дзержинск г., Терешковой ул.52Б; Дзержинск г., Терешковой ул.77; Дзержинск г., Строителей ул.11А; Дзержинск г., Урицкого ул.4А; Дзержинск г., Чапаева ул.56; Дзержинск г., Чапаева ул.71; Дзержинск г., Черняховского ул.25; Дзержинск г., Автозаводское ш.1к1; Дзержинск г., , д.; Дзержинск г., Красноармейская  ул.17А; Городской округ Дзержинск р-н, Горбатовка пгт., Весенняя ул.84; Дзержинск г., Октябрьская ул.82Д; </t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D231" t="n">
-        <v>40.57787339206468</v>
+        <v>12.48992264306316</v>
       </c>
       <c r="E231" t="n">
-        <v>48.69344807047762</v>
+        <v>14.9879071716758</v>
       </c>
       <c r="F231" t="n">
-        <v>40.66143542682472</v>
+        <v>14.71615373309905</v>
       </c>
       <c r="G231" t="n">
-        <v>48.79372251218967</v>
-      </c>
-      <c r="H231" t="inlineStr"/>
+        <v>17.65938447971886</v>
+      </c>
+      <c r="H231" t="n">
+        <v>744.7534165591172</v>
+      </c>
       <c r="I231" t="n">
-        <v>148.7303997975022</v>
+        <v>248.7945795053093</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2201643835616438</v>
+        <v>42.53999999999998</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Бешенцево д.30; с.п. Красная Горка, Ленина ул.42; Нижний Новгород г., Героя Чванова ул. (Бешенцево д)3А; </t>
+          <t xml:space="preserve">Дзержинск г., Октябрьская ул.88; Дзержинск г., Ленина пр-т.66; Дзержинск г., Циолковского пр-т.23; Дзержинск г., Речное ш.3; Дзержинск г., Ульянова ул.6А; Дзержинск г., Либкнехта ул.19а; Дзержинск г., Восточный Промрайон Капролактам, ш 5 км. Автозаводского тер.1; Городской округ Дзержинск р-н, Лесная поляна п., 9А; Дзержинск г., Карла либкнехта ул.10Б; Дзержинск г., Старое кладбищекп45; Дзержинск г., Циолковского пр-т.1; Дзержинск г., Игумновское ш.15; Дзержинск г., Комбрига Патоличева ул.29А; Дзержинск г., Ульянова ул.6Б; Дзержинск г., Горьковская ул.6А; Дзержинск г., Октябрьская ГСП тер., д.; Дзержинск г., Чкалова пр-т49; Дзержинск г., Восточный Промрайон ОАО"Синтез" тер., д.; Дзержинск г., Речное ш.3А; Дзержинск г., 1 Мая ул.1; Дзержинск г., Свердлова пр-т.20А; Дзержинск г., Самохвалова ул.6В; Дзержинск г., Ульянова ул.5а; Дзержинск г., Восточное ш.148а; Дзержинск г., Лермонтова ул.23; Дзержинск г., Сухаренко ул.6; Дзержинск г., Пирогова ул.3; Дзержинск г., Советская ул.5; Дзержинск г., Красноармейская  ул.21 Г; Дзержинск г., Ленина пр-т95; </t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D232" t="n">
-        <v>40.6398945847135</v>
+        <v>14.04998925639052</v>
       </c>
       <c r="E232" t="n">
-        <v>48.7678735016562</v>
+        <v>16.85998710766863</v>
       </c>
       <c r="F232" t="n">
-        <v>40.91685759529863</v>
+        <v>13.71501302969348</v>
       </c>
       <c r="G232" t="n">
-        <v>49.10022911435836</v>
+        <v>16.45801563563218</v>
       </c>
       <c r="H232" t="n">
-        <v>695.0493517328077</v>
+        <v>715.1919313559192</v>
       </c>
       <c r="I232" t="n">
-        <v>286.6505782570626</v>
+        <v>248.3756503688342</v>
       </c>
       <c r="J232" t="n">
-        <v>5.5</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Загородная ул., д.1-64; Нижний Новгород г., Ольгино д.12А; </t>
+          <t xml:space="preserve">Дзержинск г., Лермонтова ул.20 корпус 121а; Дзержинск г., Портовое ш.10; Дзержинск г., Свердлова пр-т.14Б; Дзержинск г., Восточный Промрайон Капролактам 3км+200 М Автозаводского Шоссе тер.зд.7; Городской округ Дзержинск р-н, Гнилицкие дворики п., 19Г; Дзержинск г., Ленина пр-т.117 ж; Дзержинск г., Ленина пр-т.1Ак3; Городской округ Дзержинск р-н, Дзержинск г., Свердлова ул.16; Дзержинск г., 1 Мая ул.1/8; Дзержинск г., Восточная Промзона ОАО "Оргстекло" тер.корпус 27; Дзержинск г., Свердлова пр-т.64/в; Дзержинск г., Строителей п14а; Дзержинск г., , д.; Дзержинск г., Грибоедова ул.46Б; Дзержинск г., Ленина пр-т107Б; Дзержинск г., Космонавтов б-р2; Дзержинск г., Гаражный пер.9Д; Дзержинск г., Ленина пр-т95А; Дзержинск г., Ленина пр-т.1К; Дзержинск г., Восточный Промрайон ОАО "Оргстекло" тер.бетонное отд.32; Дзержинск г., Октябрьская ул.102В; Дзержинск г., Восточный Промрайон ОАО "Оргстекло" тер.11 км 7; Дзержинск г., Комбрига Патоличева ул.21; Дзержинск г., Автомобильная ул.157; </t>
         </is>
       </c>
       <c r="B233" t="n">
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D233" t="n">
-        <v>40.89127239229555</v>
+        <v>13.42162199526125</v>
       </c>
       <c r="E233" t="n">
-        <v>49.06952687075466</v>
+        <v>16.1059463943135</v>
       </c>
       <c r="F233" t="n">
-        <v>41.0001752671135</v>
+        <v>13.80723715081665</v>
       </c>
       <c r="G233" t="n">
-        <v>49.2002103205362</v>
-      </c>
-      <c r="H233" t="inlineStr"/>
+        <v>16.56868458097997</v>
+      </c>
+      <c r="H233" t="n">
+        <v>703.5598043306276</v>
+      </c>
       <c r="I233" t="n">
-        <v>87.22272568234007</v>
+        <v>246.2134784581825</v>
       </c>
       <c r="J233" t="n">
-        <v>2.624602739726027</v>
+        <v>3.240000000000001</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Центральная ул.131; Нижний Новгород г., Центральная ул.3А; с.п. Красная Горка, Вокзальная 35; Нижний Новгород г., Луч п.16; Нижний Новгород г., Академика Сахарова ул.109к1; Нижний Новгород г., Академика Сахарова ул.109; Нижний Новгород г., Академика Сахарова ул.109А; Нижний Новгород г., Академика Сахарова ул.111к1; Нижний Новгород г., Академика Сахарова ул.111к2; Нижний Новгород г., Академика Сахарова ул.113к1; Нижний Новгород г., Академика Сахарова ул.113к2; Нижний Новгород г., Академика Сахарова ул.111; Нижний Новгород г., Академика Сахарова ул.105; Нижний Новгород г., Академика Сахарова ул.103; Нижний Новгород г., Академика Сахарова ул.101; Нижний Новгород г., Академика Сахарова ул.107; Нижний Новгород г., Академика Сахарова ул.115; Нижний Новгород г., Центральная ул.158; Нижний Новгород г., Академика Сахарова ул.105к1; Нижний Новгород г., Академика Сахарова ул.105к2; с.п. Красная Горка, Кооперативная ул.13А; </t>
+          <t xml:space="preserve">Дзержинск г., Циолковского пр-т.11/28; Дзержинск г., Речное ш.11а; Дзержинск г., Заревская объездная дор.9В; Дзержинск г., Гайдара ул.12/21; Дзержинск г., Петрищева ул.16; Дзержинск г., Восточный промрайон тер., д.; Дзержинск г., Ленина пр-т.9; Дзержинск г., Свердлова пр-т.14А; Дзержинск г., Садовая (п.Игумново) ул.1; Дзержинск г., Ленина пр-т61; Дзержинск г., Лермонтова ул.20 к.209; Дзержинск г., Октябрьская ул.33; Городской округ Дзержинск р-н, Желнино п., Кооперативная ул.40; Дзержинск г., Чкалова пр-т49; Дзержинск г., Восточный промрайон п, д.; Дзержинск г., Свердлова пр-т.81; Городской округ Дзержинск р-н, Петряевка п., Александра Матросова ул.1/а; Дзержинск г., Западный пер.11А; Дзержинск г., Западный пер.30А; Городской округ Дзержинск р-н, Бабушкино п., Оранжерея, д.; Дзержинск г., Западный пер.6А; Дзержинск г., Восточное ш.7/1032; Дзержинск г., Восточный промрайон ОАО ДОС корп.66 ООО Химпласт; Дзержинск г., Восточ.пром,Оргстекло 6км+150,автозавод.ш,3(ДзержинскВторМет); Дзержинск г., Индустриальная ул.7А; </t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D234" t="n">
-        <v>40.92189721207083</v>
+        <v>14.03955300635385</v>
       </c>
       <c r="E234" t="n">
-        <v>49.10627665448499</v>
+        <v>16.84746360762463</v>
       </c>
       <c r="F234" t="n">
-        <v>41.76190361366418</v>
+        <v>12.77070181320071</v>
       </c>
       <c r="G234" t="n">
-        <v>50.11428433639702</v>
+        <v>15.32484217584085</v>
       </c>
       <c r="H234" t="n">
-        <v>871.3561628980865</v>
+        <v>709.1111195826697</v>
       </c>
       <c r="I234" t="n">
-        <v>328.1004295736022</v>
+        <v>246.2314734779029</v>
       </c>
       <c r="J234" t="n">
-        <v>66.00000000000001</v>
+        <v>7.400000000000002</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нижний Новгород г., Первоцветная ул.8к2; Нижний Новгород г., Первоцветная ул.8; Нижний Новгород г., Первоцветная ул.6к2; Нижний Новгород г., Первоцветная ул.6к1; Нижний Новгород г., Цветочная ул.1; Нижний Новгород г., Первоцветная ул.4к1; Нижний Новгород г., Первоцветная ул.4к2; Нижний Новгород г., Цветочная ул.5; Нижний Новгород г., Цветочная ул.7; Нижний Новгород г., Цветочная ул.7к1; Нижний Новгород г., Цветочная ул.7к2; Нижний Новгород г., Цветочная ул.4; Нижний Новгород г., Первоцветная ул.6; Нижний Новгород г., Первоцветная ул.4; Нижний Новгород г., Академика Сахарова ул.109к2; с.п.Красная Горка, п.Голышево,Чапаева, напротив д.10; п. Мулино, Лесная ул.4; п. Мулино, Гвардейская ул.9; п. Мулино, Гвардейская ул.20; с.п.Красная Горка, п.Голышево,  ул.Чапаева д.37; </t>
+          <t xml:space="preserve">Дзержинск г., Гагарина ул.9; Дзержинск г., Студенческая ул.32б; Дзержинск г., Циолковского пр-т.7; Дзержинск г., Ленинского Комсомола пр-т36; Дзержинск г., Ленина пр-т., д.49; Дзержинск г., Красноармейская  ул.15/5; Дзержинск г., Октябрьская ул.5/7; Дзержинск г., Ленина пр-т64; Дзержинск г., Красноармейская  ул.21; Дзержинск г., Красноармейская  ул.26; Дзержинск г., Красноармейская  ул.30; Городской округ Дзержинск р-н, Северный п.,; Дзержинск г., Циолковского пр-т.72; Дзержинск г., Мушково  ул.1а; Дзержинск г., Новомосковская ул.14А; Дзержинск г., Свердлова пр-т.85; Дзержинск г., Октябрьская ул.15; Дзержинск г., Ленина пр-т.123; Дзержинск г., Строителей ул.3г; Дзержинск г., Свердлова пр-т.57а; Дзержинск г., Попова ул.34В; Дзержинск г., Октябрьская ул.7; Дзержинск г., Лермонтова ул., д.17е; Дзержинск г., Чкалова пр-т, д.26; Городской округ Дзержинск р-н, Лесная поляна п., 1,6км юго-западнее п.Лесная поляна; Городской округ Дзержинск р-н, 2,3 км юго-западнее п.Лесная поляна; Дзержинск г., Ленина пр-т., д.34; </t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D235" t="n">
-        <v>41.66156219394337</v>
+        <v>15.62851254325122</v>
       </c>
       <c r="E235" t="n">
-        <v>49.99387463273204</v>
+        <v>18.75421505190146</v>
       </c>
       <c r="F235" t="n">
-        <v>42.78564771192968</v>
+        <v>14.38798212409173</v>
       </c>
       <c r="G235" t="n">
-        <v>51.34277725431561</v>
+        <v>17.26557854891008</v>
       </c>
       <c r="H235" t="n">
-        <v>678.6477928395451</v>
+        <v>736.2997512379933</v>
       </c>
       <c r="I235" t="n">
-        <v>265.331849308144</v>
+        <v>256.7538956182625</v>
       </c>
       <c r="J235" t="n">
-        <v>62.85</v>
+        <v>9.519999999999992</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">с.п.Красная Горка, п.Голышево, напротив д.28 по ул.Совхозная ; п. Мулино, Гвардейская ул.11; п. Мулино, Гвардейская ул.12; п. Мулино, Гвардейская ул.19; р.п. Ильиногорск, Угарова ул.16; Володарский р-н, Ильиногорск пгт., Угарова ул.1; Володарский р-н, Ильиногорск пгт., Угарова ул.1; Дзержинск г., Мушково  ул.1а; р.п.Ильиногорск,Угарова ул.10; с.п.Красная Горка, п.Голышево,  Школьная 11; с.п.Красная Горка, п.Голышево, напротив д.25 по ул. Школьная; с.п.Красная Горка, п.Голышево, "Жаворонки", ул.70 лет победы; Володарский р-н, Мулино п., Гвардейская ул.62А; п. Мулино, Гвардейская ул.62в; п. Мулино, Гвардейская ул.1; п. Мулино, Гвардейская ул.17; п. Мулино, Гвардейская ул.10; п. Мулино, Гвардейская ул.8; п. Мулино, Гвардейская ул.3; п. Мулино, Гвардейская ул.5; р.п.Ильиногорск,Спортивная ул.9; р.п. Ильиногорск, Угарова ул.20; р.п. Ильиногорск, Угарова ул.17; Володарский р-н, Ильиногорск пгт., Угарова ул.15; п. Мулино, Гвардейская ул.15 ; р.п.Ильиногорск,Больничная ул.15; п. Мулино, 1-я Зелёная ул.25; р.п. Ильиногорск, Угарова ул.23; р.п. Ильиногорск, Угарова ул.26; Володарский р-н, Ильиногорск пгт., Угарова ул.24; р.п.Ильиногорск,Угарова ул.25; р.п.Ильиногорск,Центральная ул.5; п.Мулино, д.Старково, ул.Нагорная, в районе д.13; Володарский р-н, Ильиногорск пгт., Центральная ул.2а; р.п.Ильиногорск,Центральная ул.7; р.п.Ильиногорск,Мира ул.3; </t>
+          <t xml:space="preserve">Дзержинск г., Октябрьская ул.44А; Дзержинск г., Игумновское ш.11Д; Дзержинск г., Октябрьская ул.82; Дзержинск г., Октябрьская ул.86; Дзержинск г., Парковая аллея6; Дзержинск г., Пирогова ул.1/2; Городской округ Дзержинск р-н, Петряевка п., Встречная ул.38А; Дзержинск г., Маяковского пл.1; Дзержинск г., Космонавтов б-р14; Городской округ Дзержинск р-н, Северный п., 95/1; Дзержинск г., Прибрежная ул.9/3970; Дзержинск г., Пришоссейный пер.4а; Дзержинск г., Ленина пр-т13Б; Дзержинск г., Ленина пр-т30А; Дзержинск г., Ленина пр-т38А; Дзержинск г., Ленина пр-т77А; Дзержинск г., Ленинского Комсомола пр-т26А; Дзержинск г., Ленинского Комсомола пр-т48; Дзержинск г., Космонавтов б-р24; Дзержинск г., Свердлова пр-т.33В; Дзержинск г., Свердлова пр-т.68/22; Дзержинск г., Буденного ул.2; Дзержинск г., Свердлова пр-т.78А; Дзержинск г., Циолковского пр-т.25А; Дзержинск г., Циолковского пр-т.26А; Дзержинск г., Циолковского пр-т.48А; Дзержинск г., Мира б-р.22А; Дзержинск г., Циолковского пр-т.81А; Дзержинск г., Циолковского пр-т.83А; Дзержинск г., Циолковского пр-т.92; Дзержинск г., Чкалова пр-т52; Дзержинск г., Победы б-р.17А; Городской округ Дзержинск р-н, Пыра п., Спортивный пер.6; Дзержинск г., Победы б-р.18А; Дзержинск г., Сухаренко ул.1б; Дзержинск г., Советская ул.11А; </t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -8136,127 +8136,195 @@
         <v>36</v>
       </c>
       <c r="D236" t="n">
-        <v>42.68193200301801</v>
+        <v>13.52320119582862</v>
       </c>
       <c r="E236" t="n">
-        <v>51.2183184036216</v>
+        <v>16.22784143499435</v>
       </c>
       <c r="F236" t="n">
-        <v>43.93964854332089</v>
+        <v>11.76399584812721</v>
       </c>
       <c r="G236" t="n">
-        <v>52.72757825198507</v>
+        <v>14.11679501775265</v>
       </c>
       <c r="H236" t="n">
-        <v>593.1323896670044</v>
+        <v>714.5393041426324</v>
       </c>
       <c r="I236" t="n">
-        <v>231.5373820785777</v>
+        <v>242.1132401687242</v>
       </c>
       <c r="J236" t="n">
-        <v>74.11000000000001</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">п.Мулино,Новая ул,11; п. Мулино, Новая ул.16; р.п.Ильино, д.Ильина Гора  в районе д.1; р.п. Ильиногорск, Мира ул.13; п.Мулино, д.Старково, ул.Овражная, в районе д.1; р.п.Ильиногорск,Лесная ул.3; р.п. Ильиногорск, Спортивная ул.3; р.п. Ильиногорск, Сиреневая ул.1; Володарский р-н, Ильиногорск пгт., Спортивная ул.1к1(магнит); п. Мулино, Новая ул.14; п. Мулино, Новая ул.10; р.п. Ильино, Совхозная ул.29; п. Мулино, Новая ул.19; р.п.Ильиногорск,Лесная ул.7; п. Мулино, Новая ул.3; п. Мулино, Новая ул.7; Володарский р-н, Мулино п., Полигонная ул.1; р.п. Ильино, Совхозная ул.16; р.п.Ильино, д.Ильина Гора, ул. Совхозная д.3,4; р.п. Ильино, Совхозная ул.30; р.п. Ильино, Совхозная ул.37; р.п. Ильино, Почтовая ул.28; р.п. Ильино, Комсомольская ул.2; р.п. Ильино, Советский переулок.8; с.п.Красная Горка, д. Чернуха, д.8; Володарский р-н, Ильино п., Ильино ст., д.; р.п. Ильино, Советская ул.3; р.п. Ильино, Почтовая ул.8; р.п. Ильино, Маяковского ул.3; р.п. Ильино, Ленина ул.3; п. Новосмолинский, д.Талашманово, Шоссейная ул.17; п. Новосмолинский, д.Талашманово, Шоссейная ул.42; р.п. Ильино, Маяковского ул.8; п.Мулино, д. Красные Ударники,напротив дома 22; </t>
+          <t xml:space="preserve">Дзержинск г., Советская ул.11В; Дзержинск г., Победы б-р.2А; Дзержинск г., Победы б-р.6; Дзержинск г., Бутлерова ул.10; Нижний Новгород г., Строкина ул.2; Нижний Новгород г., Строкина ул.7; Нижний Новгород г., Челюскинцев ул.24; Нижний Новгород г., Юлиуса Фучика ул.1; Нижний Новгород г., Юлиуса Фучика ул.23А; Нижний Новгород г., Юлиуса Фучика ул.39А; Нижний Новгород г., Янки Купалы ул.30; Нижний Новгород г., Школьная ул.2; Нижний Новгород г., Школьная ул.4; Нижний Новгород г., Школьная ул.5; Нижний Новгород г., Южное ш.24Г; Нижний Новгород г., Южное ш.2Г; Нижний Новгород г., Южное ш.2Г; Нижний Новгород г., Южное ш.30Ак1; Нижний Новгород г., Южное ш.30к1; Нижний Новгород г., Южное ш.33; Нижний Новгород г., Южное ш.49А; Нижний Новгород г., Южное ш.4Б; Нижний Новгород г., Южное ш.50Б; Нижний Новгород г., Южное ш.6А; Нижний Новгород г., Комсомольская ул.7; Нижний Новгород г., Героя Советского Союза Поющева ул.20; Нижний Новгород г., Переходникова ул.1Б; Нижний Новгород г., Петряевка ст.; Нижний Новгород г., Дружаева ул.5Б; Нижний Новгород г., Бусыгина пр-т.2А; Нижний Новгород г., Южный б-р.22в; Нижний Новгород г., Космическая ул.58а; Нижний Новгород г., Львовская ул.27; Нижний Новгород г., Львовская ул.38А; Нижний Новгород г., Монастырка ул.13; Нижний Новгород г., 6-й микрорайон39А; Нижний Новгород г., Львовская ул.4А; Нижний Новгород г., Майкопская  ул.2А; Нижний Новгород г., 6-й микрорайон39Б; Нижний Новгород г., Молодежный пр-т.30А; Нижний Новгород г., Молодежный пр-т.88; Нижний Новгород г., Мончегорская ул.13Д; Нижний Новгород г., Автомеханическая ул.12; Нижний Новгород г., Мончегорская ул.17Ак5; Нижний Новгород г., Лекальная ул.8; Нижний Новгород г., Мончегорская ул.19А; Нижний Новгород г., Автомеханическая ул.13А; Нижний Новгород г., Мончегорская ул.33А; Нижний Новгород г., Мончегорская ул.7Б; Нижний Новгород г., Ореховская ул.80; Нижний Новгород г., 13 линия ул. (Новое Доскино п)13; Нижний Новгород г., Кирова пр-т20/1; Нижний Новгород г., Кирова пр-т24А; Нижний Новгород г., Кирова пр-т29А; Нижний Новгород г., Ленина пр-т113; Нижний Новгород г., Октября пр-т.14; Нижний Новгород г., Октября пр-т.19А; Нижний Новгород г., Октября пр-т.19А; Нижний Новгород г., Береговая ул.15; Нижний Новгород г., Октября пр-т.22А; </t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D237" t="n">
-        <v>43.74983369409143</v>
+        <v>11.76399584812721</v>
       </c>
       <c r="E237" t="n">
-        <v>52.49980043290972</v>
+        <v>14.11679501775265</v>
       </c>
       <c r="F237" t="n">
-        <v>45.81618442910068</v>
+        <v>31.45686682008065</v>
       </c>
       <c r="G237" t="n">
-        <v>54.97942131492082</v>
+        <v>37.74824018409679</v>
       </c>
       <c r="H237" t="n">
-        <v>672.1725489481209</v>
+        <v>697.6867401136442</v>
       </c>
       <c r="I237" t="n">
-        <v>262.234712072707</v>
+        <v>243.4108443668383</v>
       </c>
       <c r="J237" t="n">
-        <v>70.35000000000001</v>
+        <v>59.48000000000003</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">р.п.Ильино, д.Объезд, ул. Школьная д.5; р.п. Ильино, Гоголя ул.2; с.п.Красная Горка, п. Охлопково, Южная ул.2а; р.п. Ильино, Чкалова ул.41; Володарский р-н, Ильино п., Гоголя ул.4а; р.п.Ильино, ул.Школьная 8,напротив дома; р.п.Ильино, ул.Полевая д.40; р.п. Ильино, Гоголя ул.29; р.п. Ильино, Чкалова ул.18; р.п.Ильино, д.Чичерево, ул.Шоссейная 15а,напротив дома; с.п.Красная Горка, д.Дубки,на въезде в деревню; р.п. Ильино, Чкалова ул.8; р.п.Ильино, д.Объезд, ул.Школьная 31; п.Мулино, д.Дева; р.п.Ильино, д.Объезд, ул.Полевая 65,напротив дома; р.п. Ильино, Буденого ул.26; с.п.Красная Горка, д.Дубки,на развилке ул.Мопра и ул.Мира; </t>
+          <t xml:space="preserve">Нижний Новгород г., Академика Павлова ул.14А; Нижний Новгород г., Гайдара ул.20; Нижний Новгород г., Гайдара ул.20А; Нижний Новгород г., Державина ул. (Стригино п)80; Нижний Новгород г., Ватутина ул.18А; Нижний Новгород г., Веденяпина ул.25А; Нижний Новгород г., Веденяпина ул.2А; Нижний Новгород г., Веденяпина ул.30А; Нижний Новгород г., Львовская ул.35; Нижний Новгород г., Гайдара ул.24; Нижний Новгород г., Героя Васильева ул.18А; Нижний Новгород г., Героя Юрия Смирнова ул.29; Нижний Новгород г., Героя Юрия Смирнова ул.51; Нижний Новгород г., Героя Юрия Смирнова ул.52А; Нижний Новгород г., Героя Юрия Смирнова ул.61А; Нижний Новгород г., Героя Юрия Смирнова ул.61Б; Нижний Новгород г., Толбухина ул.5Б; Нижний Новгород г., Дьяконова ул.1Б; Нижний Новгород г., Веденяпина ул.14А; Нижний Новгород г., Дружаева ул.7А; Нижний Новгород г., Юлиуса Фучика ул.13; Нижний Новгород г., Комсомольская ул.10А; Нижний Новгород г., 19 линия ул. (Новое Доскино п)25; Нижний Новгород г., Юлиуса Фучика ул.8; Нижний Новгород г., Монастырка ул.20Ж; Нижний Новгород г., Юлиуса Фучика ул., д. 8к2; Городской округ Нижний Новгород р-н, Юлиуса Фучика ул.50Бк1; Нижний Новгород г., Газовская ул.18Ак1; Нижний Новгород г., Молодежный пр-т.84; Нижний Новгород г., ст. Кустовая0; Нижний Новгород г., Молодежный пр-т.4Б; Нижний Новгород г., Лескова ул.9Б; Нижний Новгород г., Героя Советского Союза Поющева ул.1; Нижний Новгород г., Дьяконова ул.23; Нижний Новгород г., Ковпака ул.1А; Нижний Новгород г., Ильича пр-т.50к3; Нижний Новгород г., Заслонова ул.20; Нижний Новгород г., Краснодонцев ул.1А; Нижний Новгород г., Лесная  ул., ГСК 15; Нижний Новгород г., 19 линия ул. (Новое Доскино п), д.14 А; Нижний Новгород г., Красных Партизан ул.8А; Нижний Новгород г., Лескова ул.66А; Нижний Новгород г., Лескова ул.9; </t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D238" t="n">
-        <v>45.79252233416647</v>
+        <v>32.48239656628257</v>
       </c>
       <c r="E238" t="n">
-        <v>54.95102680099976</v>
+        <v>38.97887587953908</v>
       </c>
       <c r="F238" t="n">
-        <v>47.52179363131691</v>
+        <v>31.70701879757269</v>
       </c>
       <c r="G238" t="n">
-        <v>57.02615235758029</v>
+        <v>38.04842255708723</v>
       </c>
       <c r="H238" t="n">
-        <v>685.8344545806474</v>
+        <v>684.9091285603765</v>
       </c>
       <c r="I238" t="n">
-        <v>283.8865696698105</v>
+        <v>258.4439440352455</v>
       </c>
       <c r="J238" t="n">
-        <v>36.41999999999999</v>
+        <v>38.19</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">г.Володарск,ул.Луговая между домами №45 и 47; р.п. Ильино, Луговая ул.1; р.п.Ильино, д.Чичерево, ул.Колхозная 53,напротив дома; р.п.Ильино, д.Чичерево, ул.Колхозная 51а (ранее была Колхозная 71 напротив дома); р.п. Ильино, Луговая ул.3А; п.Золино, Кооперативная д.17; р.п.Ильино, с.Мячково, ул.Советская д.1; р.п.Центральный, п. Инженерный, Новая ул.3; р.п.Ильино, с.Мячково, ул.Нагорная 71,в 20мот пожарного гидранта; р.п.Ильино, с.Мячково, ул.Песочная 107; р.п.Центральный, п. Инженерный, Новая ул.2; р.п.Центральный, п. Инженерный, Новая ул.1; р.п.Ильино, д.Щелапино, ул.Речная 22,напротив дома; р.п. Центральный, Заречная ул.10; р.п. Центральный, 60 лет Октября ул.6; р.п. Центральный, Зелёная ул.5 (между домами 1-3); р.п. Центральный, Железнодорожная ул.7; р.п. Центральный, Комсомольская ул.4; р.п. Центральный, Комсомольская ул.5; р.п. Центральный, Советская ул.4; р.п. Центральный, Комсомольская ул.12; р.п. Центральный, Комсомольская ул.11; р.п. Центральный, Мирошниченко ул.14; р.п. Центральный, Мирошниченко ул.10; р.п. Центральный, Мирошниченко ул.1; р.п. Фролищи, Новая ул.1; р.п. Фролищи, Советская ул.27; р.п. Фролищи, Октябрьская ул.2; р.п. Фролищи, переулок Почтовый.2; р.п. Фролищи, Южная ул.14; р.п. Фролищи, Заводская ул.12; р.п. Фролищи, Школьная ул.29; р.п. Фролищи, Нагорная ул.8А; р.п. Фролищи, Северная ул.2; р.п. Фролищи, Советская ул.17; с.п. Красная Горка, Горького ул.13А; </t>
+          <t xml:space="preserve">Нижний Новгород г., Лескова ул.9; Нижний Новгород г., Мельникова ул.28А; Нижний Новгород г., Мельникова ул.31; Нижний Новгород г., Патриотов ул.49; Нижний Новгород г., Пермякова ул.10А; Нижний Новгород г., Пермякова ул.26; Нижний Новгород г., Плотникова ул.3А; Нижний Новгород г., Политбойцов ул.27; Нижний Новгород г., Коломенская ул.6; Нижний Новгород г., Политбойцов ул.5; Нижний Новгород г., Сазанова ул.10А; Нижний Новгород г., Советской Армии ул.15; Нижний Новгород г., Спутника ул.7Б; Нижний Новгород г., Строкина ул.12А; Володарск г., Базарная  ул.18; Володарский р-н, Решетиха пгт., Комсомольская ул.91А; Володарский р-н, Золино с., , д.; Володарский р-н, Решетиха пгт., Кирова ул.1б; Володарск г., Больничная ул..15; Володарск г., Суворова ул.7А; Володарск г., Набережная ул.1; Володарский р-н, Ильиногорск пгт., Угарова ул.1; Володарский р-н, Ильиногорск пгт., Угарова ул.1; Володарск г., Мичурина ул.19Б; </t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D239" t="n">
-        <v>47.45824678570137</v>
+        <v>31.70701879757269</v>
       </c>
       <c r="E239" t="n">
-        <v>56.94989614284165</v>
+        <v>38.04842255708723</v>
       </c>
       <c r="F239" t="n">
-        <v>96.64293444969604</v>
+        <v>30.8081308519888</v>
       </c>
       <c r="G239" t="n">
-        <v>115.9715213396352</v>
+        <v>36.96975702238656</v>
       </c>
       <c r="H239" t="n">
-        <v>1162.545996357652</v>
+        <v>700.4741662403301</v>
       </c>
       <c r="I239" t="n">
-        <v>438.3093741937892</v>
+        <v>268.212619766198</v>
       </c>
       <c r="J239" t="n">
-        <v>67.40000000000001</v>
+        <v>18.86000000000001</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Володарский р-н, Смолино пгт., Детский пер.1; Володарск г., Мичурина ул.6В; Володарский р-н, Ильино п., Ильино ст., д.; Володарский р-н, Мулино п., Гвардейская ул.62А; Володарск г., Чапаева 2-я ул.1А; Володарск г., Калининская ул.10; Володарск г., Мичурина ул.5; Володарский р-н, Ильиногорск пгт., Спортивная ул.1к1(магнит); Володарский р-н, Ильиногорск пгт., Центральная ул.2а; Володарский р-н, Володарск г., Полевая ул.18; Володарский р-н, Ильиногорск пгт., Угарова ул.15; Володарский р-н, Ильиногорск пгт., Угарова ул.24; Володарский р-н, Юганец пгт., Центральная ул. (Новопокровское д)18; Володарский р-н, Ильино п., Гоголя ул.4а; Володарский р-н, Мулино п., Полигонная ул.1; Володарский р-н, Фролищи пгт., Заводская ул.19; </t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>16</v>
+      </c>
+      <c r="D240" t="n">
+        <v>30.69209269767007</v>
+      </c>
+      <c r="E240" t="n">
+        <v>36.83051123720408</v>
+      </c>
+      <c r="F240" t="n">
+        <v>36.23851953770646</v>
+      </c>
+      <c r="G240" t="n">
+        <v>43.48622344524775</v>
+      </c>
+      <c r="H240" t="n">
+        <v>846.4215352912518</v>
+      </c>
+      <c r="I240" t="n">
+        <v>325.8498424756147</v>
+      </c>
+      <c r="J240" t="n">
+        <v>5.300000000000001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Володарский р-н, Золино с., Озерная ул.3/1; Володарский р-н, Сейма п., , д.; Володарский р-н, Решетиха пгт., Парковая  ул.7; Володарск г., Лядова ул.81; Володарск г., Северная  ул.50Б; Володарск г., Больничная ул..13А; Володарск г., 388км, севернее ГЖД; </t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>7</v>
+      </c>
+      <c r="D241" t="n">
+        <v>16.77438602765375</v>
+      </c>
+      <c r="E241" t="n">
+        <v>20.1292632331845</v>
+      </c>
+      <c r="F241" t="n">
+        <v>34.82606471151605</v>
+      </c>
+      <c r="G241" t="n">
+        <v>41.79127765381926</v>
+      </c>
+      <c r="H241" t="n">
+        <v>420.2529890578342</v>
+      </c>
+      <c r="I241" t="n">
+        <v>161.9890445738911</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
